--- a/doc/backend/api/TRN-MiniBlog_API-Specification_HUYENNGUYEN.xlsx
+++ b/doc/backend/api/TRN-MiniBlog_API-Specification_HUYENNGUYEN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="0" windowWidth="19530" windowHeight="8340" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="19530" windowHeight="8340" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3534" uniqueCount="452">
   <si>
     <t>API Name</t>
   </si>
@@ -1527,6 +1527,12 @@
   <si>
     <t>200</t>
   </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>Existing of session token</t>
+  </si>
 </sst>
 </file>
 
@@ -1932,7 +1938,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="270">
+  <cellXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -2323,6 +2329,115 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2345,15 +2460,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2389,96 +2495,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2513,9 +2537,6 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2546,20 +2567,21 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2575,16 +2597,12 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2596,10 +2614,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2607,6 +2625,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5005,6 +5026,18 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>?limit=20&amp;offset=20&amp;order=date</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0">
             <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
@@ -6324,6 +6357,18 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>?limit=20&amp;offset=20&amp;order=date</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0">
             <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
@@ -10191,6 +10236,25 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>?</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>limit=20&amp;offset=20&amp;order=date</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0">
             <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
@@ -15738,6 +15802,18 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>?limit=20&amp;offset=20&amp;order=date </a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0">
             <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
@@ -16901,7 +16977,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>?&amp;token=xxxxxxxxxxx</a:t>
+            <a:t>?</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>limit=20&amp;offset=20&amp;order=date</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&amp;token=xxxxxxxxxxx</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
@@ -19840,326 +19940,318 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="1" customFormat="1" ht="15.75">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="174" t="s">
+      <c r="B1" s="205"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="185" t="s">
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="186"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="188" t="s">
+      <c r="L1" s="216"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="198" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="189"/>
-      <c r="P1" s="189"/>
-      <c r="Q1" s="189"/>
-      <c r="R1" s="189"/>
-      <c r="S1" s="189"/>
-      <c r="T1" s="189"/>
-      <c r="U1" s="190"/>
-      <c r="V1" s="168" t="s">
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="169"/>
-      <c r="X1" s="169"/>
-      <c r="Y1" s="169"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="169"/>
-      <c r="AB1" s="169"/>
-      <c r="AC1" s="169"/>
-      <c r="AD1" s="170"/>
+      <c r="W1" s="202"/>
+      <c r="X1" s="202"/>
+      <c r="Y1" s="202"/>
+      <c r="Z1" s="202"/>
+      <c r="AA1" s="202"/>
+      <c r="AB1" s="202"/>
+      <c r="AC1" s="202"/>
+      <c r="AD1" s="203"/>
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" ht="15.75">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="174" t="s">
+      <c r="B2" s="205"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="176" t="s">
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="177"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="179" t="s">
+      <c r="L2" s="194"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="180"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="180"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="180"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="182" t="s">
+      <c r="O2" s="210"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="210"/>
+      <c r="S2" s="210"/>
+      <c r="T2" s="210"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="183"/>
-      <c r="X2" s="184"/>
-      <c r="Y2" s="182" t="s">
+      <c r="W2" s="213"/>
+      <c r="X2" s="214"/>
+      <c r="Y2" s="212" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="183"/>
-      <c r="AA2" s="184"/>
-      <c r="AB2" s="182" t="s">
+      <c r="Z2" s="213"/>
+      <c r="AA2" s="214"/>
+      <c r="AB2" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="183"/>
-      <c r="AD2" s="184"/>
+      <c r="AC2" s="213"/>
+      <c r="AD2" s="214"/>
     </row>
     <row r="3" spans="1:30" s="1" customFormat="1" ht="15.75">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="177"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="199" t="s">
+      <c r="B3" s="194"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="196" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="200"/>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200"/>
-      <c r="I3" s="200"/>
-      <c r="J3" s="200"/>
-      <c r="K3" s="176" t="s">
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="193" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="177"/>
-      <c r="M3" s="178"/>
-      <c r="N3" s="188" t="s">
+      <c r="L3" s="194"/>
+      <c r="M3" s="195"/>
+      <c r="N3" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="189"/>
-      <c r="P3" s="189"/>
-      <c r="Q3" s="189"/>
-      <c r="R3" s="189"/>
-      <c r="S3" s="189"/>
-      <c r="T3" s="189"/>
-      <c r="U3" s="190"/>
-      <c r="V3" s="191" t="s">
+      <c r="O3" s="199"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="185" t="s">
         <v>388</v>
       </c>
-      <c r="W3" s="192"/>
-      <c r="X3" s="193"/>
-      <c r="Y3" s="194">
+      <c r="W3" s="186"/>
+      <c r="X3" s="187"/>
+      <c r="Y3" s="188">
         <v>42045</v>
       </c>
-      <c r="Z3" s="195"/>
-      <c r="AA3" s="196"/>
-      <c r="AB3" s="197">
+      <c r="Z3" s="189"/>
+      <c r="AA3" s="190"/>
+      <c r="AB3" s="191">
         <v>42048</v>
       </c>
-      <c r="AC3" s="195"/>
-      <c r="AD3" s="196"/>
+      <c r="AC3" s="189"/>
+      <c r="AD3" s="190"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:30" ht="16.5" thickBot="1">
-      <c r="B8" s="198" t="s">
+      <c r="B8" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="198"/>
-      <c r="D8" s="198"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="198" t="s">
+      <c r="C8" s="192"/>
+      <c r="D8" s="192"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="198"/>
-      <c r="H8" s="198" t="s">
+      <c r="G8" s="192"/>
+      <c r="H8" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="198"/>
-      <c r="J8" s="198"/>
-      <c r="K8" s="198" t="s">
+      <c r="I8" s="192"/>
+      <c r="J8" s="192"/>
+      <c r="K8" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="198"/>
-      <c r="M8" s="198"/>
-      <c r="N8" s="198"/>
-      <c r="O8" s="198"/>
-      <c r="P8" s="198"/>
-      <c r="Q8" s="198"/>
-      <c r="R8" s="198"/>
-      <c r="S8" s="198"/>
-      <c r="T8" s="198"/>
-      <c r="U8" s="198"/>
-      <c r="V8" s="198"/>
-      <c r="W8" s="198"/>
-      <c r="X8" s="198" t="s">
+      <c r="L8" s="192"/>
+      <c r="M8" s="192"/>
+      <c r="N8" s="192"/>
+      <c r="O8" s="192"/>
+      <c r="P8" s="192"/>
+      <c r="Q8" s="192"/>
+      <c r="R8" s="192"/>
+      <c r="S8" s="192"/>
+      <c r="T8" s="192"/>
+      <c r="U8" s="192"/>
+      <c r="V8" s="192"/>
+      <c r="W8" s="192"/>
+      <c r="X8" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="Y8" s="198"/>
-      <c r="Z8" s="198"/>
-      <c r="AA8" s="198"/>
-      <c r="AB8" s="198"/>
-      <c r="AC8" s="198"/>
+      <c r="Y8" s="192"/>
+      <c r="Z8" s="192"/>
+      <c r="AA8" s="192"/>
+      <c r="AB8" s="192"/>
+      <c r="AC8" s="192"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="212">
+      <c r="B9" s="184">
         <v>42045</v>
       </c>
-      <c r="C9" s="205"/>
-      <c r="D9" s="205"/>
-      <c r="E9" s="206"/>
-      <c r="F9" s="207" t="s">
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="208"/>
-      <c r="H9" s="204"/>
-      <c r="I9" s="205"/>
-      <c r="J9" s="206"/>
-      <c r="K9" s="209"/>
-      <c r="L9" s="210"/>
-      <c r="M9" s="210"/>
-      <c r="N9" s="210"/>
-      <c r="O9" s="210"/>
-      <c r="P9" s="210"/>
-      <c r="Q9" s="210"/>
-      <c r="R9" s="210"/>
-      <c r="S9" s="210"/>
-      <c r="T9" s="210"/>
-      <c r="U9" s="210"/>
-      <c r="V9" s="210"/>
-      <c r="W9" s="211"/>
-      <c r="X9" s="201"/>
-      <c r="Y9" s="202"/>
-      <c r="Z9" s="202"/>
-      <c r="AA9" s="202"/>
-      <c r="AB9" s="202"/>
-      <c r="AC9" s="203"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="175"/>
+      <c r="K9" s="178"/>
+      <c r="L9" s="179"/>
+      <c r="M9" s="179"/>
+      <c r="N9" s="179"/>
+      <c r="O9" s="179"/>
+      <c r="P9" s="179"/>
+      <c r="Q9" s="179"/>
+      <c r="R9" s="179"/>
+      <c r="S9" s="179"/>
+      <c r="T9" s="179"/>
+      <c r="U9" s="179"/>
+      <c r="V9" s="179"/>
+      <c r="W9" s="180"/>
+      <c r="X9" s="181"/>
+      <c r="Y9" s="182"/>
+      <c r="Z9" s="182"/>
+      <c r="AA9" s="182"/>
+      <c r="AB9" s="182"/>
+      <c r="AC9" s="183"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="204"/>
-      <c r="C10" s="205"/>
-      <c r="D10" s="205"/>
-      <c r="E10" s="206"/>
-      <c r="F10" s="207"/>
-      <c r="G10" s="208"/>
-      <c r="H10" s="204"/>
-      <c r="I10" s="205"/>
-      <c r="J10" s="206"/>
-      <c r="K10" s="209"/>
-      <c r="L10" s="210"/>
-      <c r="M10" s="210"/>
-      <c r="N10" s="210"/>
-      <c r="O10" s="210"/>
-      <c r="P10" s="210"/>
-      <c r="Q10" s="210"/>
-      <c r="R10" s="210"/>
-      <c r="S10" s="210"/>
-      <c r="T10" s="210"/>
-      <c r="U10" s="210"/>
-      <c r="V10" s="210"/>
-      <c r="W10" s="211"/>
-      <c r="X10" s="201"/>
-      <c r="Y10" s="202"/>
-      <c r="Z10" s="202"/>
-      <c r="AA10" s="202"/>
-      <c r="AB10" s="202"/>
-      <c r="AC10" s="203"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="179"/>
+      <c r="M10" s="179"/>
+      <c r="N10" s="179"/>
+      <c r="O10" s="179"/>
+      <c r="P10" s="179"/>
+      <c r="Q10" s="179"/>
+      <c r="R10" s="179"/>
+      <c r="S10" s="179"/>
+      <c r="T10" s="179"/>
+      <c r="U10" s="179"/>
+      <c r="V10" s="179"/>
+      <c r="W10" s="180"/>
+      <c r="X10" s="181"/>
+      <c r="Y10" s="182"/>
+      <c r="Z10" s="182"/>
+      <c r="AA10" s="182"/>
+      <c r="AB10" s="182"/>
+      <c r="AC10" s="183"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="204"/>
-      <c r="C11" s="205"/>
-      <c r="D11" s="205"/>
-      <c r="E11" s="206"/>
-      <c r="F11" s="207"/>
-      <c r="G11" s="208"/>
-      <c r="H11" s="204"/>
-      <c r="I11" s="205"/>
-      <c r="J11" s="206"/>
-      <c r="K11" s="209"/>
-      <c r="L11" s="210"/>
-      <c r="M11" s="210"/>
-      <c r="N11" s="210"/>
-      <c r="O11" s="210"/>
-      <c r="P11" s="210"/>
-      <c r="Q11" s="210"/>
-      <c r="R11" s="210"/>
-      <c r="S11" s="210"/>
-      <c r="T11" s="210"/>
-      <c r="U11" s="210"/>
-      <c r="V11" s="210"/>
-      <c r="W11" s="211"/>
-      <c r="X11" s="201"/>
-      <c r="Y11" s="202"/>
-      <c r="Z11" s="202"/>
-      <c r="AA11" s="202"/>
-      <c r="AB11" s="202"/>
-      <c r="AC11" s="203"/>
+      <c r="B11" s="173"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="173"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="175"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="179"/>
+      <c r="M11" s="179"/>
+      <c r="N11" s="179"/>
+      <c r="O11" s="179"/>
+      <c r="P11" s="179"/>
+      <c r="Q11" s="179"/>
+      <c r="R11" s="179"/>
+      <c r="S11" s="179"/>
+      <c r="T11" s="179"/>
+      <c r="U11" s="179"/>
+      <c r="V11" s="179"/>
+      <c r="W11" s="180"/>
+      <c r="X11" s="181"/>
+      <c r="Y11" s="182"/>
+      <c r="Z11" s="182"/>
+      <c r="AA11" s="182"/>
+      <c r="AB11" s="182"/>
+      <c r="AC11" s="183"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="204"/>
-      <c r="C12" s="205"/>
-      <c r="D12" s="205"/>
-      <c r="E12" s="206"/>
-      <c r="F12" s="207"/>
-      <c r="G12" s="208"/>
-      <c r="H12" s="204"/>
-      <c r="I12" s="205"/>
-      <c r="J12" s="206"/>
-      <c r="K12" s="209"/>
-      <c r="L12" s="210"/>
-      <c r="M12" s="210"/>
-      <c r="N12" s="210"/>
-      <c r="O12" s="210"/>
-      <c r="P12" s="210"/>
-      <c r="Q12" s="210"/>
-      <c r="R12" s="210"/>
-      <c r="S12" s="210"/>
-      <c r="T12" s="210"/>
-      <c r="U12" s="210"/>
-      <c r="V12" s="210"/>
-      <c r="W12" s="211"/>
-      <c r="X12" s="201"/>
-      <c r="Y12" s="202"/>
-      <c r="Z12" s="202"/>
-      <c r="AA12" s="202"/>
-      <c r="AB12" s="202"/>
-      <c r="AC12" s="203"/>
+      <c r="B12" s="173"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="178"/>
+      <c r="L12" s="179"/>
+      <c r="M12" s="179"/>
+      <c r="N12" s="179"/>
+      <c r="O12" s="179"/>
+      <c r="P12" s="179"/>
+      <c r="Q12" s="179"/>
+      <c r="R12" s="179"/>
+      <c r="S12" s="179"/>
+      <c r="T12" s="179"/>
+      <c r="U12" s="179"/>
+      <c r="V12" s="179"/>
+      <c r="W12" s="180"/>
+      <c r="X12" s="181"/>
+      <c r="Y12" s="182"/>
+      <c r="Z12" s="182"/>
+      <c r="AA12" s="182"/>
+      <c r="AB12" s="182"/>
+      <c r="AC12" s="183"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:U2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="AB3:AD3"/>
@@ -20172,18 +20264,26 @@
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:U3"/>
-    <mergeCell ref="V1:AD1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:U2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20193,7 +20293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -20274,15 +20374,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="239" t="s">
+      <c r="C4" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="238"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -20295,15 +20395,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="239" t="s">
+      <c r="C5" s="243" t="s">
         <v>279</v>
       </c>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="238"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -20337,15 +20437,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="239" t="s">
+      <c r="C7" s="243" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="238"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -20379,15 +20479,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="239" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="249"/>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="249"/>
-      <c r="H9" s="249"/>
-      <c r="I9" s="238"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -20450,19 +20550,19 @@
     </row>
     <row r="13" spans="1:15" ht="18.95" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="250" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="251"/>
-      <c r="D13" s="251"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="251"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="251"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="251"/>
-      <c r="K13" s="251"/>
-      <c r="L13" s="252"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -20491,11 +20591,11 @@
       <c r="I14" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="248" t="s">
+      <c r="J14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="248"/>
-      <c r="L14" s="248"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -20588,11 +20688,11 @@
       <c r="I17" s="160" t="s">
         <v>437</v>
       </c>
-      <c r="J17" s="258" t="s">
+      <c r="J17" s="265" t="s">
         <v>438</v>
       </c>
-      <c r="K17" s="246"/>
-      <c r="L17" s="246"/>
+      <c r="K17" s="252"/>
+      <c r="L17" s="252"/>
       <c r="M17" s="48"/>
       <c r="N17" s="48"/>
       <c r="O17" s="48"/>
@@ -20619,11 +20719,11 @@
       <c r="I18" s="160" t="s">
         <v>442</v>
       </c>
-      <c r="J18" s="258" t="s">
+      <c r="J18" s="265" t="s">
         <v>443</v>
       </c>
-      <c r="K18" s="246"/>
-      <c r="L18" s="246"/>
+      <c r="K18" s="252"/>
+      <c r="L18" s="252"/>
       <c r="M18" s="48"/>
       <c r="N18" s="48"/>
       <c r="O18" s="48"/>
@@ -20816,11 +20916,11 @@
     </row>
     <row r="29" spans="1:15" s="69" customFormat="1" ht="18.95" customHeight="1">
       <c r="A29" s="51"/>
-      <c r="B29" s="257" t="s">
+      <c r="B29" s="262" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="257"/>
-      <c r="D29" s="257"/>
+      <c r="C29" s="262"/>
+      <c r="D29" s="262"/>
       <c r="E29" s="67"/>
       <c r="F29" s="68"/>
       <c r="G29" s="67"/>
@@ -20835,12 +20935,12 @@
     </row>
     <row r="30" spans="1:15" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A30" s="70"/>
-      <c r="B30" s="243" t="s">
+      <c r="B30" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="244"/>
-      <c r="D30" s="244"/>
-      <c r="E30" s="245"/>
+      <c r="C30" s="250"/>
+      <c r="D30" s="250"/>
+      <c r="E30" s="251"/>
       <c r="F30" s="59" t="s">
         <v>90</v>
       </c>
@@ -20932,10 +21032,10 @@
       <c r="A33" s="48"/>
       <c r="B33" s="72"/>
       <c r="C33" s="77"/>
-      <c r="D33" s="239" t="s">
+      <c r="D33" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E33" s="238"/>
+      <c r="E33" s="245"/>
       <c r="F33" s="61" t="s">
         <v>190</v>
       </c>
@@ -20965,10 +21065,10 @@
       <c r="A34" s="48"/>
       <c r="B34" s="72"/>
       <c r="C34" s="78"/>
-      <c r="D34" s="239" t="s">
+      <c r="D34" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="238"/>
+      <c r="E34" s="245"/>
       <c r="F34" s="61" t="s">
         <v>129</v>
       </c>
@@ -21031,10 +21131,10 @@
       <c r="A36" s="48"/>
       <c r="B36" s="72"/>
       <c r="C36" s="79"/>
-      <c r="D36" s="239" t="s">
+      <c r="D36" s="243" t="s">
         <v>134</v>
       </c>
-      <c r="E36" s="238"/>
+      <c r="E36" s="245"/>
       <c r="F36" s="61" t="s">
         <v>135</v>
       </c>
@@ -21064,10 +21164,10 @@
       <c r="A37" s="48"/>
       <c r="B37" s="72"/>
       <c r="C37" s="79"/>
-      <c r="D37" s="240" t="s">
+      <c r="D37" s="255" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="241"/>
+      <c r="E37" s="256"/>
       <c r="F37" s="61" t="s">
         <v>98</v>
       </c>
@@ -21097,10 +21197,10 @@
       <c r="A38" s="48"/>
       <c r="B38" s="72"/>
       <c r="C38" s="77"/>
-      <c r="D38" s="239" t="s">
+      <c r="D38" s="243" t="s">
         <v>109</v>
       </c>
-      <c r="E38" s="238"/>
+      <c r="E38" s="245"/>
       <c r="F38" s="61" t="s">
         <v>110</v>
       </c>
@@ -21163,10 +21263,10 @@
       <c r="A40" s="48"/>
       <c r="B40" s="72"/>
       <c r="C40" s="77"/>
-      <c r="D40" s="239" t="s">
+      <c r="D40" s="243" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="238"/>
+      <c r="E40" s="245"/>
       <c r="F40" s="62" t="s">
         <v>115</v>
       </c>
@@ -21192,8 +21292,8 @@
     </row>
     <row r="41" spans="1:15" ht="18.95" customHeight="1">
       <c r="A41" s="48"/>
-      <c r="B41" s="259"/>
-      <c r="C41" s="259"/>
+      <c r="B41" s="263"/>
+      <c r="C41" s="263"/>
       <c r="D41" s="53" t="s">
         <v>285</v>
       </c>
@@ -21223,8 +21323,8 @@
     </row>
     <row r="42" spans="1:15" ht="18.95" customHeight="1">
       <c r="A42" s="48"/>
-      <c r="B42" s="260"/>
-      <c r="C42" s="260"/>
+      <c r="B42" s="264"/>
+      <c r="C42" s="264"/>
       <c r="D42" s="53" t="s">
         <v>195</v>
       </c>
@@ -21715,11 +21815,11 @@
     </row>
     <row r="70" spans="1:15" ht="18.95" customHeight="1">
       <c r="A70" s="48"/>
-      <c r="B70" s="257" t="s">
+      <c r="B70" s="262" t="s">
         <v>206</v>
       </c>
-      <c r="C70" s="257"/>
-      <c r="D70" s="257"/>
+      <c r="C70" s="262"/>
+      <c r="D70" s="262"/>
       <c r="E70" s="48"/>
       <c r="F70" s="48"/>
       <c r="G70" s="48"/>
@@ -21751,12 +21851,12 @@
     </row>
     <row r="72" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A72" s="70"/>
-      <c r="B72" s="243" t="s">
+      <c r="B72" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="244"/>
-      <c r="E72" s="245"/>
+      <c r="C72" s="250"/>
+      <c r="D72" s="250"/>
+      <c r="E72" s="251"/>
       <c r="F72" s="59" t="s">
         <v>90</v>
       </c>
@@ -21848,10 +21948,10 @@
       <c r="A75" s="48"/>
       <c r="B75" s="72"/>
       <c r="C75" s="77"/>
-      <c r="D75" s="239" t="s">
+      <c r="D75" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E75" s="238"/>
+      <c r="E75" s="245"/>
       <c r="F75" s="61" t="s">
         <v>190</v>
       </c>
@@ -21881,10 +21981,10 @@
       <c r="A76" s="48"/>
       <c r="B76" s="72"/>
       <c r="C76" s="77"/>
-      <c r="D76" s="237" t="s">
+      <c r="D76" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E76" s="238"/>
+      <c r="E76" s="245"/>
       <c r="F76" s="61" t="s">
         <v>149</v>
       </c>
@@ -22253,12 +22353,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="B29:D29"/>
@@ -22267,14 +22369,12 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D37:E37"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B72:E72"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I17" r:id="rId1" display="foo@mulodo.com"/>
@@ -22289,7 +22389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0"/>
+    <sheetView topLeftCell="A17" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -22374,16 +22474,16 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="239" t="s">
+      <c r="C4" s="243" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="249"/>
-      <c r="J4" s="238"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="244"/>
+      <c r="J4" s="245"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
       <c r="M4" s="48"/>
@@ -22396,16 +22496,16 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="239" t="s">
+      <c r="C5" s="243" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="249"/>
-      <c r="J5" s="238"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="245"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
       <c r="M5" s="48"/>
@@ -22440,16 +22540,16 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="239" t="s">
+      <c r="C7" s="243" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="249"/>
-      <c r="J7" s="238"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="244"/>
+      <c r="J7" s="245"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
       <c r="M7" s="48"/>
@@ -22484,16 +22584,16 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="239" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="249"/>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="249"/>
-      <c r="H9" s="249"/>
-      <c r="I9" s="249"/>
-      <c r="J9" s="238"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="244"/>
+      <c r="J9" s="245"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
       <c r="M9" s="48"/>
@@ -22559,20 +22659,20 @@
     </row>
     <row r="13" spans="1:16" ht="18.95" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="250" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="251"/>
-      <c r="D13" s="251"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="251"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="251"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="251"/>
-      <c r="K13" s="251"/>
-      <c r="L13" s="251"/>
-      <c r="M13" s="252"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="247"/>
+      <c r="M13" s="248"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
       <c r="P13" s="48"/>
@@ -22602,11 +22702,11 @@
       <c r="J14" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="248" t="s">
+      <c r="K14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="248"/>
-      <c r="M14" s="248"/>
+      <c r="L14" s="242"/>
+      <c r="M14" s="242"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
       <c r="P14" s="48"/>
@@ -22636,11 +22736,11 @@
       <c r="J15" s="130" t="s">
         <v>165</v>
       </c>
-      <c r="K15" s="254" t="s">
+      <c r="K15" s="258" t="s">
         <v>166</v>
       </c>
-      <c r="L15" s="255"/>
-      <c r="M15" s="256"/>
+      <c r="L15" s="259"/>
+      <c r="M15" s="260"/>
       <c r="N15" s="48"/>
       <c r="O15" s="48"/>
       <c r="P15" s="48"/>
@@ -22667,11 +22767,11 @@
       <c r="I16" s="160" t="s">
         <v>437</v>
       </c>
-      <c r="J16" s="258" t="s">
+      <c r="J16" s="265" t="s">
         <v>438</v>
       </c>
-      <c r="K16" s="246"/>
-      <c r="L16" s="246"/>
+      <c r="K16" s="252"/>
+      <c r="L16" s="252"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -22698,11 +22798,11 @@
       <c r="I17" s="160" t="s">
         <v>442</v>
       </c>
-      <c r="J17" s="258" t="s">
+      <c r="J17" s="265" t="s">
         <v>443</v>
       </c>
-      <c r="K17" s="246"/>
-      <c r="L17" s="246"/>
+      <c r="K17" s="252"/>
+      <c r="L17" s="252"/>
       <c r="M17" s="48"/>
       <c r="N17" s="48"/>
       <c r="O17" s="48"/>
@@ -22886,11 +22986,11 @@
     </row>
     <row r="27" spans="1:16" s="69" customFormat="1" ht="18.95" customHeight="1">
       <c r="A27" s="51"/>
-      <c r="B27" s="247" t="s">
+      <c r="B27" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="247"/>
-      <c r="D27" s="247"/>
+      <c r="C27" s="253"/>
+      <c r="D27" s="253"/>
       <c r="E27" s="67"/>
       <c r="F27" s="67"/>
       <c r="G27" s="68"/>
@@ -22906,13 +23006,13 @@
     </row>
     <row r="28" spans="1:16" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A28" s="70"/>
-      <c r="B28" s="243" t="s">
+      <c r="B28" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="244"/>
-      <c r="D28" s="244"/>
-      <c r="E28" s="244"/>
-      <c r="F28" s="245"/>
+      <c r="C28" s="250"/>
+      <c r="D28" s="250"/>
+      <c r="E28" s="250"/>
+      <c r="F28" s="251"/>
       <c r="G28" s="59" t="s">
         <v>90</v>
       </c>
@@ -23006,10 +23106,10 @@
       <c r="A31" s="48"/>
       <c r="B31" s="72"/>
       <c r="C31" s="77"/>
-      <c r="D31" s="239" t="s">
+      <c r="D31" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E31" s="249"/>
+      <c r="E31" s="244"/>
       <c r="F31" s="55"/>
       <c r="G31" s="61" t="s">
         <v>190</v>
@@ -23040,10 +23140,10 @@
       <c r="A32" s="48"/>
       <c r="B32" s="72"/>
       <c r="C32" s="78"/>
-      <c r="D32" s="239" t="s">
+      <c r="D32" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="249"/>
+      <c r="E32" s="244"/>
       <c r="F32" s="55"/>
       <c r="G32" s="61" t="s">
         <v>129</v>
@@ -23177,10 +23277,10 @@
       <c r="B36" s="72"/>
       <c r="C36" s="79"/>
       <c r="D36" s="79"/>
-      <c r="E36" s="239" t="s">
+      <c r="E36" s="243" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="238"/>
+      <c r="F36" s="245"/>
       <c r="G36" s="61" t="s">
         <v>98</v>
       </c>
@@ -23211,10 +23311,10 @@
       <c r="B37" s="72"/>
       <c r="C37" s="77"/>
       <c r="D37" s="66"/>
-      <c r="E37" s="239" t="s">
+      <c r="E37" s="243" t="s">
         <v>109</v>
       </c>
-      <c r="F37" s="238"/>
+      <c r="F37" s="245"/>
       <c r="G37" s="61" t="s">
         <v>110</v>
       </c>
@@ -23245,10 +23345,10 @@
       <c r="B38" s="72"/>
       <c r="C38" s="77"/>
       <c r="D38" s="66"/>
-      <c r="E38" s="239" t="s">
+      <c r="E38" s="243" t="s">
         <v>112</v>
       </c>
-      <c r="F38" s="238"/>
+      <c r="F38" s="245"/>
       <c r="G38" s="61" t="s">
         <v>113</v>
       </c>
@@ -24174,11 +24274,11 @@
     </row>
     <row r="82" spans="1:16" ht="18.95" customHeight="1">
       <c r="A82" s="48"/>
-      <c r="B82" s="242" t="s">
+      <c r="B82" s="257" t="s">
         <v>206</v>
       </c>
-      <c r="C82" s="242"/>
-      <c r="D82" s="242"/>
+      <c r="C82" s="257"/>
+      <c r="D82" s="257"/>
       <c r="E82" s="48"/>
       <c r="F82" s="48"/>
       <c r="G82" s="48"/>
@@ -24194,12 +24294,12 @@
     </row>
     <row r="83" spans="1:16" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A83" s="70"/>
-      <c r="B83" s="243" t="s">
+      <c r="B83" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C83" s="244"/>
-      <c r="D83" s="244"/>
-      <c r="E83" s="245"/>
+      <c r="C83" s="250"/>
+      <c r="D83" s="250"/>
+      <c r="E83" s="251"/>
       <c r="F83" s="59" t="s">
         <v>90</v>
       </c>
@@ -24291,10 +24391,10 @@
       <c r="A86" s="48"/>
       <c r="B86" s="72"/>
       <c r="C86" s="77"/>
-      <c r="D86" s="239" t="s">
+      <c r="D86" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E86" s="238"/>
+      <c r="E86" s="245"/>
       <c r="F86" s="61" t="s">
         <v>190</v>
       </c>
@@ -24324,10 +24424,10 @@
       <c r="A87" s="48"/>
       <c r="B87" s="72"/>
       <c r="C87" s="77"/>
-      <c r="D87" s="237" t="s">
+      <c r="D87" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E87" s="253"/>
+      <c r="E87" s="261"/>
       <c r="F87" s="61" t="s">
         <v>149</v>
       </c>
@@ -24421,8 +24521,8 @@
       <c r="A90" s="48"/>
       <c r="B90" s="83"/>
       <c r="C90" s="78"/>
-      <c r="D90" s="239"/>
-      <c r="E90" s="238"/>
+      <c r="D90" s="243"/>
+      <c r="E90" s="245"/>
       <c r="F90" s="61"/>
       <c r="G90" s="63"/>
       <c r="H90" s="63"/>
@@ -24711,13 +24811,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B82:D82"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="C5:J5"/>
@@ -24732,6 +24825,13 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="J17:L17"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I16" r:id="rId1" display="foo@mulodo.com"/>
@@ -24827,15 +24927,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="239" t="s">
+      <c r="C4" s="243" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="238"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -24848,15 +24948,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="239" t="s">
+      <c r="C5" s="243" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="238"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -24890,15 +24990,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="239" t="s">
+      <c r="C7" s="243" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="238"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -24932,15 +25032,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="239" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="249"/>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="249"/>
-      <c r="H9" s="249"/>
-      <c r="I9" s="238"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -24986,19 +25086,19 @@
     </row>
     <row r="12" spans="1:15" ht="15.75">
       <c r="A12" s="48"/>
-      <c r="B12" s="250" t="s">
+      <c r="B12" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="251"/>
-      <c r="D12" s="251"/>
-      <c r="E12" s="251"/>
-      <c r="F12" s="251"/>
-      <c r="G12" s="251"/>
-      <c r="H12" s="251"/>
-      <c r="I12" s="251"/>
-      <c r="J12" s="251"/>
-      <c r="K12" s="251"/>
-      <c r="L12" s="252"/>
+      <c r="C12" s="247"/>
+      <c r="D12" s="247"/>
+      <c r="E12" s="247"/>
+      <c r="F12" s="247"/>
+      <c r="G12" s="247"/>
+      <c r="H12" s="247"/>
+      <c r="I12" s="247"/>
+      <c r="J12" s="247"/>
+      <c r="K12" s="247"/>
+      <c r="L12" s="248"/>
       <c r="M12" s="48"/>
       <c r="N12" s="48"/>
       <c r="O12" s="48"/>
@@ -25027,11 +25127,11 @@
       <c r="I13" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="248" t="s">
+      <c r="J13" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="248"/>
-      <c r="L13" s="248"/>
+      <c r="K13" s="242"/>
+      <c r="L13" s="242"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -25126,11 +25226,11 @@
       <c r="I16" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="J16" s="239" t="s">
+      <c r="J16" s="243" t="s">
         <v>268</v>
       </c>
-      <c r="K16" s="249"/>
-      <c r="L16" s="238"/>
+      <c r="K16" s="244"/>
+      <c r="L16" s="245"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -25186,11 +25286,11 @@
       <c r="I18" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="J18" s="239" t="s">
+      <c r="J18" s="243" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="249"/>
-      <c r="L18" s="238"/>
+      <c r="K18" s="244"/>
+      <c r="L18" s="245"/>
       <c r="M18" s="48"/>
       <c r="N18" s="48"/>
       <c r="O18" s="48"/>
@@ -25281,11 +25381,11 @@
       <c r="I21" s="144" t="s">
         <v>276</v>
       </c>
-      <c r="J21" s="239" t="s">
+      <c r="J21" s="243" t="s">
         <v>232</v>
       </c>
-      <c r="K21" s="249"/>
-      <c r="L21" s="238"/>
+      <c r="K21" s="244"/>
+      <c r="L21" s="245"/>
       <c r="M21" s="48"/>
       <c r="N21" s="48"/>
       <c r="O21" s="48"/>
@@ -25528,11 +25628,11 @@
     </row>
     <row r="34" spans="1:15" s="69" customFormat="1" ht="18.95" customHeight="1">
       <c r="A34" s="51"/>
-      <c r="B34" s="257" t="s">
+      <c r="B34" s="262" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="257"/>
-      <c r="D34" s="257"/>
+      <c r="C34" s="262"/>
+      <c r="D34" s="262"/>
       <c r="E34" s="67"/>
       <c r="F34" s="68"/>
       <c r="G34" s="67"/>
@@ -25547,12 +25647,12 @@
     </row>
     <row r="35" spans="1:15" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A35" s="70"/>
-      <c r="B35" s="243" t="s">
+      <c r="B35" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="244"/>
-      <c r="D35" s="244"/>
-      <c r="E35" s="245"/>
+      <c r="C35" s="250"/>
+      <c r="D35" s="250"/>
+      <c r="E35" s="251"/>
       <c r="F35" s="59" t="s">
         <v>90</v>
       </c>
@@ -25644,10 +25744,10 @@
       <c r="A38" s="48"/>
       <c r="B38" s="72"/>
       <c r="C38" s="77"/>
-      <c r="D38" s="239" t="s">
+      <c r="D38" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E38" s="238"/>
+      <c r="E38" s="245"/>
       <c r="F38" s="61" t="s">
         <v>190</v>
       </c>
@@ -25677,10 +25777,10 @@
       <c r="A39" s="48"/>
       <c r="B39" s="72"/>
       <c r="C39" s="78"/>
-      <c r="D39" s="239" t="s">
+      <c r="D39" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="238"/>
+      <c r="E39" s="245"/>
       <c r="F39" s="61" t="s">
         <v>129</v>
       </c>
@@ -25743,10 +25843,10 @@
       <c r="A41" s="48"/>
       <c r="B41" s="72"/>
       <c r="C41" s="79"/>
-      <c r="D41" s="239" t="s">
+      <c r="D41" s="243" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="238"/>
+      <c r="E41" s="245"/>
       <c r="F41" s="61" t="s">
         <v>135</v>
       </c>
@@ -25809,10 +25909,10 @@
       <c r="A43" s="48"/>
       <c r="B43" s="72"/>
       <c r="C43" s="79"/>
-      <c r="D43" s="240" t="s">
+      <c r="D43" s="255" t="s">
         <v>97</v>
       </c>
-      <c r="E43" s="241"/>
+      <c r="E43" s="256"/>
       <c r="F43" s="61" t="s">
         <v>98</v>
       </c>
@@ -25842,10 +25942,10 @@
       <c r="A44" s="48"/>
       <c r="B44" s="72"/>
       <c r="C44" s="77"/>
-      <c r="D44" s="239" t="s">
+      <c r="D44" s="243" t="s">
         <v>109</v>
       </c>
-      <c r="E44" s="238"/>
+      <c r="E44" s="245"/>
       <c r="F44" s="61" t="s">
         <v>110</v>
       </c>
@@ -25908,10 +26008,10 @@
       <c r="A46" s="48"/>
       <c r="B46" s="72"/>
       <c r="C46" s="77"/>
-      <c r="D46" s="239" t="s">
+      <c r="D46" s="243" t="s">
         <v>227</v>
       </c>
-      <c r="E46" s="238"/>
+      <c r="E46" s="245"/>
       <c r="F46" s="62" t="s">
         <v>228</v>
       </c>
@@ -25941,10 +26041,10 @@
       <c r="A47" s="48"/>
       <c r="B47" s="72"/>
       <c r="C47" s="77"/>
-      <c r="D47" s="239" t="s">
+      <c r="D47" s="243" t="s">
         <v>114</v>
       </c>
-      <c r="E47" s="238"/>
+      <c r="E47" s="245"/>
       <c r="F47" s="62" t="s">
         <v>115</v>
       </c>
@@ -25972,10 +26072,10 @@
       <c r="A48" s="48"/>
       <c r="B48" s="72"/>
       <c r="C48" s="77"/>
-      <c r="D48" s="239" t="s">
+      <c r="D48" s="243" t="s">
         <v>233</v>
       </c>
-      <c r="E48" s="238"/>
+      <c r="E48" s="245"/>
       <c r="F48" s="62" t="s">
         <v>234</v>
       </c>
@@ -26003,10 +26103,10 @@
       <c r="A49" s="48"/>
       <c r="B49" s="72"/>
       <c r="C49" s="77"/>
-      <c r="D49" s="239" t="s">
+      <c r="D49" s="243" t="s">
         <v>224</v>
       </c>
-      <c r="E49" s="238"/>
+      <c r="E49" s="245"/>
       <c r="F49" s="62" t="s">
         <v>225</v>
       </c>
@@ -26034,10 +26134,10 @@
       <c r="A50" s="48"/>
       <c r="B50" s="72"/>
       <c r="C50" s="77"/>
-      <c r="D50" s="239" t="s">
+      <c r="D50" s="243" t="s">
         <v>230</v>
       </c>
-      <c r="E50" s="238"/>
+      <c r="E50" s="245"/>
       <c r="F50" s="62" t="s">
         <v>231</v>
       </c>
@@ -26067,10 +26167,10 @@
       <c r="A51" s="48"/>
       <c r="B51" s="72"/>
       <c r="C51" s="77"/>
-      <c r="D51" s="239" t="s">
+      <c r="D51" s="243" t="s">
         <v>250</v>
       </c>
-      <c r="E51" s="238"/>
+      <c r="E51" s="245"/>
       <c r="F51" s="62" t="s">
         <v>251</v>
       </c>
@@ -26098,10 +26198,10 @@
       <c r="A52" s="48"/>
       <c r="B52" s="72"/>
       <c r="C52" s="77"/>
-      <c r="D52" s="239" t="s">
+      <c r="D52" s="243" t="s">
         <v>237</v>
       </c>
-      <c r="E52" s="238"/>
+      <c r="E52" s="245"/>
       <c r="F52" s="62" t="s">
         <v>238</v>
       </c>
@@ -26131,10 +26231,10 @@
       <c r="A53" s="48"/>
       <c r="B53" s="131"/>
       <c r="C53" s="78"/>
-      <c r="D53" s="239" t="s">
+      <c r="D53" s="243" t="s">
         <v>195</v>
       </c>
-      <c r="E53" s="238"/>
+      <c r="E53" s="245"/>
       <c r="F53" s="62" t="s">
         <v>194</v>
       </c>
@@ -26555,11 +26655,11 @@
     </row>
     <row r="77" spans="1:15" ht="18.95" customHeight="1">
       <c r="A77" s="48"/>
-      <c r="B77" s="257" t="s">
+      <c r="B77" s="262" t="s">
         <v>240</v>
       </c>
-      <c r="C77" s="257"/>
-      <c r="D77" s="257"/>
+      <c r="C77" s="262"/>
+      <c r="D77" s="262"/>
       <c r="E77" s="48"/>
       <c r="F77" s="48"/>
       <c r="G77" s="48"/>
@@ -26574,12 +26674,12 @@
     </row>
     <row r="78" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A78" s="70"/>
-      <c r="B78" s="243" t="s">
+      <c r="B78" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C78" s="244"/>
-      <c r="D78" s="244"/>
-      <c r="E78" s="245"/>
+      <c r="C78" s="250"/>
+      <c r="D78" s="250"/>
+      <c r="E78" s="251"/>
       <c r="F78" s="59" t="s">
         <v>90</v>
       </c>
@@ -26671,10 +26771,10 @@
       <c r="A81" s="48"/>
       <c r="B81" s="72"/>
       <c r="C81" s="77"/>
-      <c r="D81" s="239" t="s">
+      <c r="D81" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E81" s="238"/>
+      <c r="E81" s="245"/>
       <c r="F81" s="61" t="s">
         <v>190</v>
       </c>
@@ -26704,10 +26804,10 @@
       <c r="A82" s="48"/>
       <c r="B82" s="72"/>
       <c r="C82" s="77"/>
-      <c r="D82" s="237" t="s">
+      <c r="D82" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E82" s="238"/>
+      <c r="E82" s="245"/>
       <c r="F82" s="61" t="s">
         <v>149</v>
       </c>
@@ -27076,6 +27176,21 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B12:L12"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
@@ -27089,21 +27204,6 @@
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D53:E53"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D41:E41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I21" r:id="rId1"/>
@@ -27198,15 +27298,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="239" t="s">
+      <c r="C4" s="243" t="s">
         <v>318</v>
       </c>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="238"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -27219,15 +27319,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="239" t="s">
+      <c r="C5" s="243" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="238"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -27261,15 +27361,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="239" t="s">
+      <c r="C7" s="243" t="s">
         <v>319</v>
       </c>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="238"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -27303,15 +27403,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="239" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="249"/>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="249"/>
-      <c r="H9" s="249"/>
-      <c r="I9" s="238"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -27374,19 +27474,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="250" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="251"/>
-      <c r="D13" s="251"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="251"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="251"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="251"/>
-      <c r="K13" s="251"/>
-      <c r="L13" s="252"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -27415,11 +27515,11 @@
       <c r="I14" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="248" t="s">
+      <c r="J14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="248"/>
-      <c r="L14" s="248"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -27448,11 +27548,11 @@
       <c r="I15" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="J15" s="246" t="s">
+      <c r="J15" s="252" t="s">
         <v>324</v>
       </c>
-      <c r="K15" s="246"/>
-      <c r="L15" s="246"/>
+      <c r="K15" s="252"/>
+      <c r="L15" s="252"/>
       <c r="M15" s="48"/>
       <c r="N15" s="48"/>
       <c r="O15" s="48"/>
@@ -27481,11 +27581,11 @@
       <c r="I16" s="64" t="s">
         <v>341</v>
       </c>
-      <c r="J16" s="246" t="s">
+      <c r="J16" s="252" t="s">
         <v>340</v>
       </c>
-      <c r="K16" s="246"/>
-      <c r="L16" s="246"/>
+      <c r="K16" s="252"/>
+      <c r="L16" s="252"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -27547,18 +27647,18 @@
       <c r="I18" s="62" t="s">
         <v>332</v>
       </c>
-      <c r="J18" s="239" t="s">
+      <c r="J18" s="243" t="s">
         <v>333</v>
       </c>
-      <c r="K18" s="249"/>
-      <c r="L18" s="238"/>
+      <c r="K18" s="244"/>
+      <c r="L18" s="245"/>
       <c r="M18" s="48"/>
       <c r="N18" s="48"/>
       <c r="O18" s="48"/>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="48"/>
-      <c r="B19" s="261"/>
+      <c r="B19" s="266"/>
       <c r="C19" s="61" t="s">
         <v>334</v>
       </c>
@@ -27580,18 +27680,18 @@
       <c r="I19" s="151">
         <v>1</v>
       </c>
-      <c r="J19" s="239" t="s">
+      <c r="J19" s="243" t="s">
         <v>337</v>
       </c>
-      <c r="K19" s="249"/>
-      <c r="L19" s="238"/>
+      <c r="K19" s="244"/>
+      <c r="L19" s="245"/>
       <c r="M19" s="48"/>
       <c r="N19" s="48"/>
       <c r="O19" s="48"/>
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="48"/>
-      <c r="B20" s="262"/>
+      <c r="B20" s="267"/>
       <c r="C20" s="61" t="s">
         <v>338</v>
       </c>
@@ -27613,11 +27713,11 @@
       <c r="I20" s="153" t="s">
         <v>215</v>
       </c>
-      <c r="J20" s="239" t="s">
+      <c r="J20" s="243" t="s">
         <v>202</v>
       </c>
-      <c r="K20" s="249"/>
-      <c r="L20" s="238"/>
+      <c r="K20" s="244"/>
+      <c r="L20" s="245"/>
       <c r="M20" s="48"/>
       <c r="N20" s="48"/>
       <c r="O20" s="48"/>
@@ -27779,11 +27879,11 @@
     </row>
     <row r="30" spans="1:15" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="51"/>
-      <c r="B30" s="247" t="s">
+      <c r="B30" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="247"/>
-      <c r="D30" s="247"/>
+      <c r="C30" s="253"/>
+      <c r="D30" s="253"/>
       <c r="E30" s="67"/>
       <c r="F30" s="68"/>
       <c r="G30" s="67"/>
@@ -27798,12 +27898,12 @@
     </row>
     <row r="31" spans="1:15" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="70"/>
-      <c r="B31" s="243" t="s">
+      <c r="B31" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="244"/>
-      <c r="D31" s="244"/>
-      <c r="E31" s="245"/>
+      <c r="C31" s="250"/>
+      <c r="D31" s="250"/>
+      <c r="E31" s="251"/>
       <c r="F31" s="59" t="s">
         <v>90</v>
       </c>
@@ -27895,10 +27995,10 @@
       <c r="A34" s="48"/>
       <c r="B34" s="72"/>
       <c r="C34" s="77"/>
-      <c r="D34" s="239" t="s">
+      <c r="D34" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E34" s="238"/>
+      <c r="E34" s="245"/>
       <c r="F34" s="61" t="s">
         <v>190</v>
       </c>
@@ -27928,10 +28028,10 @@
       <c r="A35" s="48"/>
       <c r="B35" s="72"/>
       <c r="C35" s="78"/>
-      <c r="D35" s="239" t="s">
+      <c r="D35" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E35" s="238"/>
+      <c r="E35" s="245"/>
       <c r="F35" s="61" t="s">
         <v>129</v>
       </c>
@@ -27994,10 +28094,10 @@
       <c r="A37" s="48"/>
       <c r="B37" s="72"/>
       <c r="C37" s="79"/>
-      <c r="D37" s="239" t="s">
+      <c r="D37" s="243" t="s">
         <v>299</v>
       </c>
-      <c r="E37" s="238"/>
+      <c r="E37" s="245"/>
       <c r="F37" s="61" t="s">
         <v>300</v>
       </c>
@@ -28027,8 +28127,8 @@
       <c r="A38" s="48"/>
       <c r="B38" s="83"/>
       <c r="C38" s="78"/>
-      <c r="D38" s="239"/>
-      <c r="E38" s="238"/>
+      <c r="D38" s="243"/>
+      <c r="E38" s="245"/>
       <c r="F38" s="61"/>
       <c r="G38" s="63"/>
       <c r="H38" s="63"/>
@@ -28265,11 +28365,11 @@
     </row>
     <row r="52" spans="1:15" ht="18.95" customHeight="1">
       <c r="A52" s="48"/>
-      <c r="B52" s="257" t="s">
+      <c r="B52" s="262" t="s">
         <v>240</v>
       </c>
-      <c r="C52" s="257"/>
-      <c r="D52" s="257"/>
+      <c r="C52" s="262"/>
+      <c r="D52" s="262"/>
       <c r="E52" s="48"/>
       <c r="F52" s="48"/>
       <c r="G52" s="48"/>
@@ -28284,12 +28384,12 @@
     </row>
     <row r="53" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A53" s="70"/>
-      <c r="B53" s="243" t="s">
+      <c r="B53" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="244"/>
-      <c r="D53" s="244"/>
-      <c r="E53" s="245"/>
+      <c r="C53" s="250"/>
+      <c r="D53" s="250"/>
+      <c r="E53" s="251"/>
       <c r="F53" s="59" t="s">
         <v>90</v>
       </c>
@@ -28381,10 +28481,10 @@
       <c r="A56" s="48"/>
       <c r="B56" s="72"/>
       <c r="C56" s="77"/>
-      <c r="D56" s="239" t="s">
+      <c r="D56" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E56" s="238"/>
+      <c r="E56" s="245"/>
       <c r="F56" s="61" t="s">
         <v>190</v>
       </c>
@@ -28414,10 +28514,10 @@
       <c r="A57" s="48"/>
       <c r="B57" s="72"/>
       <c r="C57" s="77"/>
-      <c r="D57" s="237" t="s">
+      <c r="D57" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E57" s="238"/>
+      <c r="E57" s="245"/>
       <c r="F57" s="61" t="s">
         <v>149</v>
       </c>
@@ -28803,28 +28903,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D37:E37"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="J20:L20"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D38:E38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I16" r:id="rId1" display="foo@mulodo.com"/>
@@ -28919,15 +29019,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="263" t="s">
+      <c r="C4" s="268" t="s">
         <v>347</v>
       </c>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="238"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -28940,15 +29040,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="263" t="s">
+      <c r="C5" s="268" t="s">
         <v>347</v>
       </c>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="238"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -28982,15 +29082,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="263" t="s">
+      <c r="C7" s="268" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="238"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -29024,15 +29124,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="239" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="249"/>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="249"/>
-      <c r="H9" s="249"/>
-      <c r="I9" s="238"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -29095,19 +29195,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="250" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="251"/>
-      <c r="D13" s="251"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="251"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="251"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="251"/>
-      <c r="K13" s="251"/>
-      <c r="L13" s="252"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -29136,11 +29236,11 @@
       <c r="I14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="248" t="s">
+      <c r="J14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="248"/>
-      <c r="L14" s="248"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -29169,11 +29269,11 @@
       <c r="I15" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="J15" s="246" t="s">
+      <c r="J15" s="252" t="s">
         <v>324</v>
       </c>
-      <c r="K15" s="246"/>
-      <c r="L15" s="246"/>
+      <c r="K15" s="252"/>
+      <c r="L15" s="252"/>
       <c r="M15" s="48"/>
       <c r="N15" s="48"/>
       <c r="O15" s="48"/>
@@ -29202,11 +29302,11 @@
       <c r="I16" s="64" t="s">
         <v>341</v>
       </c>
-      <c r="J16" s="246" t="s">
+      <c r="J16" s="252" t="s">
         <v>340</v>
       </c>
-      <c r="K16" s="246"/>
-      <c r="L16" s="246"/>
+      <c r="K16" s="252"/>
+      <c r="L16" s="252"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -29268,18 +29368,18 @@
       <c r="I18" s="62" t="s">
         <v>332</v>
       </c>
-      <c r="J18" s="239" t="s">
+      <c r="J18" s="243" t="s">
         <v>333</v>
       </c>
-      <c r="K18" s="249"/>
-      <c r="L18" s="238"/>
+      <c r="K18" s="244"/>
+      <c r="L18" s="245"/>
       <c r="M18" s="48"/>
       <c r="N18" s="48"/>
       <c r="O18" s="48"/>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="48"/>
-      <c r="B19" s="261"/>
+      <c r="B19" s="266"/>
       <c r="C19" s="61" t="s">
         <v>334</v>
       </c>
@@ -29301,18 +29401,18 @@
       <c r="I19" s="151">
         <v>1</v>
       </c>
-      <c r="J19" s="239" t="s">
+      <c r="J19" s="243" t="s">
         <v>337</v>
       </c>
-      <c r="K19" s="249"/>
-      <c r="L19" s="238"/>
+      <c r="K19" s="244"/>
+      <c r="L19" s="245"/>
       <c r="M19" s="48"/>
       <c r="N19" s="48"/>
       <c r="O19" s="48"/>
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="48"/>
-      <c r="B20" s="262"/>
+      <c r="B20" s="267"/>
       <c r="C20" s="61" t="s">
         <v>142</v>
       </c>
@@ -29334,11 +29434,11 @@
       <c r="I20" s="153" t="s">
         <v>215</v>
       </c>
-      <c r="J20" s="239" t="s">
+      <c r="J20" s="243" t="s">
         <v>142</v>
       </c>
-      <c r="K20" s="249"/>
-      <c r="L20" s="238"/>
+      <c r="K20" s="244"/>
+      <c r="L20" s="245"/>
       <c r="M20" s="48"/>
       <c r="N20" s="48"/>
       <c r="O20" s="48"/>
@@ -29500,11 +29600,11 @@
     </row>
     <row r="30" spans="1:15" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="51"/>
-      <c r="B30" s="247" t="s">
+      <c r="B30" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="247"/>
-      <c r="D30" s="247"/>
+      <c r="C30" s="253"/>
+      <c r="D30" s="253"/>
       <c r="E30" s="67"/>
       <c r="F30" s="68"/>
       <c r="G30" s="67"/>
@@ -29519,12 +29619,12 @@
     </row>
     <row r="31" spans="1:15" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="70"/>
-      <c r="B31" s="243" t="s">
+      <c r="B31" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="244"/>
-      <c r="D31" s="244"/>
-      <c r="E31" s="245"/>
+      <c r="C31" s="250"/>
+      <c r="D31" s="250"/>
+      <c r="E31" s="251"/>
       <c r="F31" s="92" t="s">
         <v>90</v>
       </c>
@@ -29616,10 +29716,10 @@
       <c r="A34" s="48"/>
       <c r="B34" s="72"/>
       <c r="C34" s="77"/>
-      <c r="D34" s="239" t="s">
+      <c r="D34" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E34" s="238"/>
+      <c r="E34" s="245"/>
       <c r="F34" s="61" t="s">
         <v>190</v>
       </c>
@@ -29649,10 +29749,10 @@
       <c r="A35" s="48"/>
       <c r="B35" s="72"/>
       <c r="C35" s="78"/>
-      <c r="D35" s="239" t="s">
+      <c r="D35" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E35" s="238"/>
+      <c r="E35" s="245"/>
       <c r="F35" s="61" t="s">
         <v>129</v>
       </c>
@@ -29715,10 +29815,10 @@
       <c r="A37" s="48"/>
       <c r="B37" s="72"/>
       <c r="C37" s="79"/>
-      <c r="D37" s="239" t="s">
+      <c r="D37" s="243" t="s">
         <v>299</v>
       </c>
-      <c r="E37" s="238"/>
+      <c r="E37" s="245"/>
       <c r="F37" s="61" t="s">
         <v>300</v>
       </c>
@@ -29748,8 +29848,8 @@
       <c r="A38" s="48"/>
       <c r="B38" s="83"/>
       <c r="C38" s="78"/>
-      <c r="D38" s="239"/>
-      <c r="E38" s="238"/>
+      <c r="D38" s="243"/>
+      <c r="E38" s="245"/>
       <c r="F38" s="61"/>
       <c r="G38" s="63"/>
       <c r="H38" s="63"/>
@@ -29986,11 +30086,11 @@
     </row>
     <row r="52" spans="1:15" ht="18.95" customHeight="1">
       <c r="A52" s="48"/>
-      <c r="B52" s="257" t="s">
+      <c r="B52" s="262" t="s">
         <v>146</v>
       </c>
-      <c r="C52" s="257"/>
-      <c r="D52" s="257"/>
+      <c r="C52" s="262"/>
+      <c r="D52" s="262"/>
       <c r="E52" s="48"/>
       <c r="F52" s="48"/>
       <c r="G52" s="48"/>
@@ -30005,12 +30105,12 @@
     </row>
     <row r="53" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A53" s="70"/>
-      <c r="B53" s="243" t="s">
+      <c r="B53" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="244"/>
-      <c r="D53" s="244"/>
-      <c r="E53" s="245"/>
+      <c r="C53" s="250"/>
+      <c r="D53" s="250"/>
+      <c r="E53" s="251"/>
       <c r="F53" s="92" t="s">
         <v>90</v>
       </c>
@@ -30102,10 +30202,10 @@
       <c r="A56" s="48"/>
       <c r="B56" s="72"/>
       <c r="C56" s="77"/>
-      <c r="D56" s="239" t="s">
+      <c r="D56" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E56" s="238"/>
+      <c r="E56" s="245"/>
       <c r="F56" s="61" t="s">
         <v>190</v>
       </c>
@@ -30135,10 +30235,10 @@
       <c r="A57" s="48"/>
       <c r="B57" s="72"/>
       <c r="C57" s="77"/>
-      <c r="D57" s="237" t="s">
+      <c r="D57" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E57" s="238"/>
+      <c r="E57" s="245"/>
       <c r="F57" s="61" t="s">
         <v>149</v>
       </c>
@@ -30541,6 +30641,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C7:I7"/>
@@ -30557,12 +30663,6 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="D56:E56"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I16" r:id="rId1" display="foo@mulodo.com"/>
@@ -30657,15 +30757,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="263" t="s">
+      <c r="C4" s="268" t="s">
         <v>352</v>
       </c>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="238"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -30678,15 +30778,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="263" t="s">
+      <c r="C5" s="268" t="s">
         <v>352</v>
       </c>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="238"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -30720,15 +30820,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="263" t="s">
+      <c r="C7" s="268" t="s">
         <v>353</v>
       </c>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="238"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -30762,15 +30862,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="239" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="249"/>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="249"/>
-      <c r="H9" s="249"/>
-      <c r="I9" s="238"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -30833,19 +30933,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="250" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="251"/>
-      <c r="D13" s="251"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="251"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="251"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="251"/>
-      <c r="K13" s="251"/>
-      <c r="L13" s="252"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -30874,11 +30974,11 @@
       <c r="I14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="248" t="s">
+      <c r="J14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="248"/>
-      <c r="L14" s="248"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -30907,11 +31007,11 @@
       <c r="I15" s="160" t="s">
         <v>354</v>
       </c>
-      <c r="J15" s="258" t="s">
+      <c r="J15" s="265" t="s">
         <v>142</v>
       </c>
-      <c r="K15" s="246"/>
-      <c r="L15" s="246"/>
+      <c r="K15" s="252"/>
+      <c r="L15" s="252"/>
       <c r="M15" s="48"/>
       <c r="N15" s="48"/>
       <c r="O15" s="48"/>
@@ -31073,11 +31173,11 @@
     </row>
     <row r="25" spans="1:15" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="51"/>
-      <c r="B25" s="247" t="s">
+      <c r="B25" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="247"/>
-      <c r="D25" s="247"/>
+      <c r="C25" s="253"/>
+      <c r="D25" s="253"/>
       <c r="E25" s="67"/>
       <c r="F25" s="68"/>
       <c r="G25" s="67"/>
@@ -31092,12 +31192,12 @@
     </row>
     <row r="26" spans="1:15" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="70"/>
-      <c r="B26" s="243" t="s">
+      <c r="B26" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="244"/>
-      <c r="D26" s="244"/>
-      <c r="E26" s="245"/>
+      <c r="C26" s="250"/>
+      <c r="D26" s="250"/>
+      <c r="E26" s="251"/>
       <c r="F26" s="92" t="s">
         <v>90</v>
       </c>
@@ -31189,10 +31289,10 @@
       <c r="A29" s="48"/>
       <c r="B29" s="72"/>
       <c r="C29" s="77"/>
-      <c r="D29" s="239" t="s">
+      <c r="D29" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E29" s="238"/>
+      <c r="E29" s="245"/>
       <c r="F29" s="61" t="s">
         <v>190</v>
       </c>
@@ -31222,10 +31322,10 @@
       <c r="A30" s="48"/>
       <c r="B30" s="72"/>
       <c r="C30" s="78"/>
-      <c r="D30" s="239" t="s">
+      <c r="D30" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E30" s="238"/>
+      <c r="E30" s="245"/>
       <c r="F30" s="61" t="s">
         <v>129</v>
       </c>
@@ -31288,8 +31388,8 @@
       <c r="A32" s="48"/>
       <c r="B32" s="83"/>
       <c r="C32" s="78"/>
-      <c r="D32" s="239"/>
-      <c r="E32" s="238"/>
+      <c r="D32" s="243"/>
+      <c r="E32" s="245"/>
       <c r="F32" s="61"/>
       <c r="G32" s="63"/>
       <c r="H32" s="63"/>
@@ -31543,11 +31643,11 @@
     </row>
     <row r="47" spans="1:15" ht="18.95" customHeight="1">
       <c r="A47" s="48"/>
-      <c r="B47" s="257" t="s">
+      <c r="B47" s="262" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="257"/>
-      <c r="D47" s="257"/>
+      <c r="C47" s="262"/>
+      <c r="D47" s="262"/>
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
       <c r="G47" s="48"/>
@@ -31562,12 +31662,12 @@
     </row>
     <row r="48" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A48" s="70"/>
-      <c r="B48" s="243" t="s">
+      <c r="B48" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="244"/>
-      <c r="D48" s="244"/>
-      <c r="E48" s="245"/>
+      <c r="C48" s="250"/>
+      <c r="D48" s="250"/>
+      <c r="E48" s="251"/>
       <c r="F48" s="92" t="s">
         <v>90</v>
       </c>
@@ -31659,10 +31759,10 @@
       <c r="A51" s="48"/>
       <c r="B51" s="72"/>
       <c r="C51" s="77"/>
-      <c r="D51" s="239" t="s">
+      <c r="D51" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="238"/>
+      <c r="E51" s="245"/>
       <c r="F51" s="61" t="s">
         <v>190</v>
       </c>
@@ -31692,10 +31792,10 @@
       <c r="A52" s="48"/>
       <c r="B52" s="72"/>
       <c r="C52" s="77"/>
-      <c r="D52" s="237" t="s">
+      <c r="D52" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E52" s="238"/>
+      <c r="E52" s="245"/>
       <c r="F52" s="61" t="s">
         <v>149</v>
       </c>
@@ -32098,12 +32198,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D32:E32"/>
@@ -32114,6 +32208,12 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B48:E48"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -32127,7 +32227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -32210,15 +32310,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="263" t="s">
+      <c r="C4" s="268" t="s">
         <v>355</v>
       </c>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="238"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -32231,15 +32331,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="263" t="s">
+      <c r="C5" s="268" t="s">
         <v>355</v>
       </c>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="238"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -32273,15 +32373,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="263" t="s">
+      <c r="C7" s="268" t="s">
         <v>356</v>
       </c>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="238"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -32315,15 +32415,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="239" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="249"/>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="249"/>
-      <c r="H9" s="249"/>
-      <c r="I9" s="238"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -32386,19 +32486,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="250" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="251"/>
-      <c r="D13" s="251"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="251"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="251"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="251"/>
-      <c r="K13" s="251"/>
-      <c r="L13" s="252"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -32427,11 +32527,11 @@
       <c r="I14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="248" t="s">
+      <c r="J14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="248"/>
-      <c r="L14" s="248"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -32458,11 +32558,11 @@
       <c r="I15" s="160" t="s">
         <v>437</v>
       </c>
-      <c r="J15" s="258" t="s">
+      <c r="J15" s="265" t="s">
         <v>438</v>
       </c>
-      <c r="K15" s="246"/>
-      <c r="L15" s="246"/>
+      <c r="K15" s="252"/>
+      <c r="L15" s="252"/>
       <c r="M15" s="48"/>
       <c r="N15" s="48"/>
       <c r="O15" s="48"/>
@@ -32489,11 +32589,11 @@
       <c r="I16" s="160" t="s">
         <v>442</v>
       </c>
-      <c r="J16" s="258" t="s">
+      <c r="J16" s="265" t="s">
         <v>443</v>
       </c>
-      <c r="K16" s="246"/>
-      <c r="L16" s="246"/>
+      <c r="K16" s="252"/>
+      <c r="L16" s="252"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -32539,9 +32639,9 @@
       <c r="G18" s="63"/>
       <c r="H18" s="63"/>
       <c r="I18" s="162"/>
-      <c r="J18" s="239"/>
-      <c r="K18" s="249"/>
-      <c r="L18" s="238"/>
+      <c r="J18" s="243"/>
+      <c r="K18" s="244"/>
+      <c r="L18" s="245"/>
       <c r="M18" s="48"/>
       <c r="N18" s="48"/>
       <c r="O18" s="48"/>
@@ -32703,11 +32803,11 @@
     </row>
     <row r="28" spans="1:17" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="51"/>
-      <c r="B28" s="247" t="s">
+      <c r="B28" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="247"/>
-      <c r="D28" s="247"/>
+      <c r="C28" s="253"/>
+      <c r="D28" s="253"/>
       <c r="E28" s="67"/>
       <c r="F28" s="68"/>
       <c r="G28" s="67"/>
@@ -32722,14 +32822,14 @@
     </row>
     <row r="29" spans="1:17" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A29" s="70"/>
-      <c r="B29" s="243" t="s">
+      <c r="B29" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="244"/>
-      <c r="D29" s="244"/>
-      <c r="E29" s="244"/>
-      <c r="F29" s="244"/>
-      <c r="G29" s="245"/>
+      <c r="C29" s="250"/>
+      <c r="D29" s="250"/>
+      <c r="E29" s="250"/>
+      <c r="F29" s="250"/>
+      <c r="G29" s="251"/>
       <c r="H29" s="92" t="s">
         <v>90</v>
       </c>
@@ -32763,8 +32863,8 @@
       <c r="C30" s="73"/>
       <c r="D30" s="73"/>
       <c r="E30" s="149"/>
-      <c r="F30" s="266"/>
-      <c r="G30" s="241"/>
+      <c r="F30" s="271"/>
+      <c r="G30" s="256"/>
       <c r="H30" s="63" t="s">
         <v>118</v>
       </c>
@@ -32796,8 +32896,8 @@
       </c>
       <c r="D31" s="76"/>
       <c r="E31" s="149"/>
-      <c r="F31" s="266"/>
-      <c r="G31" s="241"/>
+      <c r="F31" s="271"/>
+      <c r="G31" s="256"/>
       <c r="H31" s="61" t="s">
         <v>125</v>
       </c>
@@ -32824,13 +32924,13 @@
     <row r="32" spans="1:17" ht="18.95" customHeight="1">
       <c r="A32" s="48"/>
       <c r="B32" s="72"/>
-      <c r="C32" s="264"/>
+      <c r="C32" s="269"/>
       <c r="D32" s="89" t="s">
         <v>167</v>
       </c>
       <c r="E32" s="149"/>
-      <c r="F32" s="249"/>
-      <c r="G32" s="238"/>
+      <c r="F32" s="244"/>
+      <c r="G32" s="245"/>
       <c r="H32" s="61" t="s">
         <v>190</v>
       </c>
@@ -32859,13 +32959,13 @@
     <row r="33" spans="1:17" ht="18.95" customHeight="1">
       <c r="A33" s="48"/>
       <c r="B33" s="72"/>
-      <c r="C33" s="265"/>
+      <c r="C33" s="270"/>
       <c r="D33" s="89" t="s">
         <v>128</v>
       </c>
       <c r="E33" s="149"/>
-      <c r="F33" s="249"/>
-      <c r="G33" s="238"/>
+      <c r="F33" s="244"/>
+      <c r="G33" s="245"/>
       <c r="H33" s="61" t="s">
         <v>129</v>
       </c>
@@ -32901,8 +33001,8 @@
         <v>42</v>
       </c>
       <c r="E34" s="149"/>
-      <c r="F34" s="249"/>
-      <c r="G34" s="238"/>
+      <c r="F34" s="244"/>
+      <c r="G34" s="245"/>
       <c r="H34" s="61" t="s">
         <v>297</v>
       </c>
@@ -32930,8 +33030,8 @@
       <c r="E35" s="89" t="s">
         <v>299</v>
       </c>
-      <c r="F35" s="249"/>
-      <c r="G35" s="238"/>
+      <c r="F35" s="244"/>
+      <c r="G35" s="245"/>
       <c r="H35" s="61" t="s">
         <v>300</v>
       </c>
@@ -32965,8 +33065,8 @@
       <c r="E36" s="89" t="s">
         <v>305</v>
       </c>
-      <c r="F36" s="249"/>
-      <c r="G36" s="238"/>
+      <c r="F36" s="244"/>
+      <c r="G36" s="245"/>
       <c r="H36" s="61" t="s">
         <v>306</v>
       </c>
@@ -33000,8 +33100,8 @@
       <c r="E37" s="89" t="s">
         <v>310</v>
       </c>
-      <c r="F37" s="249"/>
-      <c r="G37" s="238"/>
+      <c r="F37" s="244"/>
+      <c r="G37" s="245"/>
       <c r="H37" s="61" t="s">
         <v>311</v>
       </c>
@@ -33035,8 +33135,8 @@
       <c r="E38" s="89" t="s">
         <v>308</v>
       </c>
-      <c r="F38" s="249"/>
-      <c r="G38" s="238"/>
+      <c r="F38" s="244"/>
+      <c r="G38" s="245"/>
       <c r="H38" s="61" t="s">
         <v>313</v>
       </c>
@@ -33070,8 +33170,8 @@
       <c r="E39" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="F39" s="249"/>
-      <c r="G39" s="238"/>
+      <c r="F39" s="244"/>
+      <c r="G39" s="245"/>
       <c r="H39" s="61" t="s">
         <v>194</v>
       </c>
@@ -33157,10 +33257,10 @@
       <c r="C42" s="72"/>
       <c r="D42" s="72"/>
       <c r="E42" s="79"/>
-      <c r="F42" s="239" t="s">
+      <c r="F42" s="243" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="238"/>
+      <c r="G42" s="245"/>
       <c r="H42" s="61" t="s">
         <v>98</v>
       </c>
@@ -33188,12 +33288,12 @@
       <c r="A43" s="48"/>
       <c r="B43" s="72"/>
       <c r="C43" s="72"/>
-      <c r="D43" s="264"/>
+      <c r="D43" s="269"/>
       <c r="E43" s="66"/>
-      <c r="F43" s="239" t="s">
+      <c r="F43" s="243" t="s">
         <v>109</v>
       </c>
-      <c r="G43" s="238"/>
+      <c r="G43" s="245"/>
       <c r="H43" s="61" t="s">
         <v>110</v>
       </c>
@@ -33221,12 +33321,12 @@
       <c r="A44" s="48"/>
       <c r="B44" s="72"/>
       <c r="C44" s="72"/>
-      <c r="D44" s="264"/>
+      <c r="D44" s="269"/>
       <c r="E44" s="66"/>
-      <c r="F44" s="239" t="s">
+      <c r="F44" s="243" t="s">
         <v>112</v>
       </c>
-      <c r="G44" s="238"/>
+      <c r="G44" s="245"/>
       <c r="H44" s="61" t="s">
         <v>113</v>
       </c>
@@ -33254,7 +33354,7 @@
       <c r="A45" s="48"/>
       <c r="B45" s="72"/>
       <c r="C45" s="72"/>
-      <c r="D45" s="264"/>
+      <c r="D45" s="269"/>
       <c r="E45" s="132"/>
       <c r="F45" s="88" t="s">
         <v>114</v>
@@ -33831,11 +33931,11 @@
     </row>
     <row r="78" spans="1:15" ht="18.95" customHeight="1">
       <c r="A78" s="48"/>
-      <c r="B78" s="257" t="s">
+      <c r="B78" s="262" t="s">
         <v>146</v>
       </c>
-      <c r="C78" s="257"/>
-      <c r="D78" s="257"/>
+      <c r="C78" s="262"/>
+      <c r="D78" s="262"/>
       <c r="E78" s="48"/>
       <c r="F78" s="48"/>
       <c r="G78" s="48"/>
@@ -33850,12 +33950,12 @@
     </row>
     <row r="79" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A79" s="70"/>
-      <c r="B79" s="243" t="s">
+      <c r="B79" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C79" s="244"/>
-      <c r="D79" s="244"/>
-      <c r="E79" s="245"/>
+      <c r="C79" s="250"/>
+      <c r="D79" s="250"/>
+      <c r="E79" s="251"/>
       <c r="F79" s="92" t="s">
         <v>90</v>
       </c>
@@ -33947,10 +34047,10 @@
       <c r="A82" s="48"/>
       <c r="B82" s="72"/>
       <c r="C82" s="77"/>
-      <c r="D82" s="239" t="s">
+      <c r="D82" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E82" s="238"/>
+      <c r="E82" s="245"/>
       <c r="F82" s="61" t="s">
         <v>190</v>
       </c>
@@ -33980,10 +34080,10 @@
       <c r="A83" s="48"/>
       <c r="B83" s="72"/>
       <c r="C83" s="77"/>
-      <c r="D83" s="237" t="s">
+      <c r="D83" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E83" s="238"/>
+      <c r="E83" s="245"/>
       <c r="F83" s="61" t="s">
         <v>149</v>
       </c>
@@ -34369,20 +34469,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J15:L15"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B79:E79"/>
     <mergeCell ref="D82:E82"/>
@@ -34399,6 +34485,20 @@
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J15:L15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -34414,9 +34514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q120"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD18"/>
-    </sheetView>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -34497,15 +34595,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="239" t="s">
+      <c r="C4" s="243" t="s">
         <v>363</v>
       </c>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="238"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -34518,15 +34616,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="239" t="s">
+      <c r="C5" s="243" t="s">
         <v>363</v>
       </c>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="238"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -34560,15 +34658,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="239" t="s">
+      <c r="C7" s="243" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="238"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -34602,15 +34700,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="239" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="249"/>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="249"/>
-      <c r="H9" s="249"/>
-      <c r="I9" s="238"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -34673,19 +34771,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="250" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="251"/>
-      <c r="D13" s="251"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="251"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="251"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="251"/>
-      <c r="K13" s="251"/>
-      <c r="L13" s="252"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -34714,11 +34812,11 @@
       <c r="I14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="248" t="s">
+      <c r="J14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="248"/>
-      <c r="L14" s="248"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -34776,11 +34874,11 @@
       <c r="I16" s="160" t="s">
         <v>437</v>
       </c>
-      <c r="J16" s="258" t="s">
+      <c r="J16" s="265" t="s">
         <v>438</v>
       </c>
-      <c r="K16" s="246"/>
-      <c r="L16" s="246"/>
+      <c r="K16" s="252"/>
+      <c r="L16" s="252"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -34807,11 +34905,11 @@
       <c r="I17" s="160" t="s">
         <v>442</v>
       </c>
-      <c r="J17" s="258" t="s">
+      <c r="J17" s="265" t="s">
         <v>443</v>
       </c>
-      <c r="K17" s="246"/>
-      <c r="L17" s="246"/>
+      <c r="K17" s="252"/>
+      <c r="L17" s="252"/>
       <c r="M17" s="48"/>
       <c r="N17" s="48"/>
       <c r="O17" s="48"/>
@@ -34857,9 +34955,9 @@
       <c r="G19" s="63"/>
       <c r="H19" s="63"/>
       <c r="I19" s="162"/>
-      <c r="J19" s="239"/>
-      <c r="K19" s="249"/>
-      <c r="L19" s="238"/>
+      <c r="J19" s="243"/>
+      <c r="K19" s="244"/>
+      <c r="L19" s="245"/>
       <c r="M19" s="48"/>
       <c r="N19" s="48"/>
       <c r="O19" s="48"/>
@@ -35021,11 +35119,11 @@
     </row>
     <row r="29" spans="1:15" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="51"/>
-      <c r="B29" s="247" t="s">
+      <c r="B29" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="247"/>
-      <c r="D29" s="247"/>
+      <c r="C29" s="253"/>
+      <c r="D29" s="253"/>
       <c r="E29" s="67"/>
       <c r="F29" s="68"/>
       <c r="G29" s="67"/>
@@ -35040,12 +35138,12 @@
     </row>
     <row r="30" spans="1:15" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="70"/>
-      <c r="B30" s="243" t="s">
+      <c r="B30" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="244"/>
-      <c r="D30" s="244"/>
-      <c r="E30" s="245"/>
+      <c r="C30" s="250"/>
+      <c r="D30" s="250"/>
+      <c r="E30" s="251"/>
       <c r="F30" s="92" t="s">
         <v>90</v>
       </c>
@@ -35137,10 +35235,10 @@
       <c r="A33" s="48"/>
       <c r="B33" s="72"/>
       <c r="C33" s="77"/>
-      <c r="D33" s="239" t="s">
+      <c r="D33" s="243" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="238"/>
+      <c r="E33" s="245"/>
       <c r="F33" s="61" t="s">
         <v>349</v>
       </c>
@@ -35170,10 +35268,10 @@
       <c r="A34" s="48"/>
       <c r="B34" s="72"/>
       <c r="C34" s="78"/>
-      <c r="D34" s="239" t="s">
+      <c r="D34" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="238"/>
+      <c r="E34" s="245"/>
       <c r="F34" s="61" t="s">
         <v>129</v>
       </c>
@@ -35236,10 +35334,10 @@
       <c r="A36" s="48"/>
       <c r="B36" s="72"/>
       <c r="C36" s="79"/>
-      <c r="D36" s="239" t="s">
+      <c r="D36" s="243" t="s">
         <v>358</v>
       </c>
-      <c r="E36" s="238"/>
+      <c r="E36" s="245"/>
       <c r="F36" s="61" t="s">
         <v>359</v>
       </c>
@@ -35269,10 +35367,10 @@
       <c r="A37" s="48"/>
       <c r="B37" s="72"/>
       <c r="C37" s="79"/>
-      <c r="D37" s="240" t="s">
+      <c r="D37" s="255" t="s">
         <v>321</v>
       </c>
-      <c r="E37" s="241"/>
+      <c r="E37" s="256"/>
       <c r="F37" s="61" t="s">
         <v>322</v>
       </c>
@@ -35302,10 +35400,10 @@
       <c r="A38" s="48"/>
       <c r="B38" s="72"/>
       <c r="C38" s="77"/>
-      <c r="D38" s="239" t="s">
+      <c r="D38" s="243" t="s">
         <v>361</v>
       </c>
-      <c r="E38" s="238"/>
+      <c r="E38" s="245"/>
       <c r="F38" s="61" t="s">
         <v>238</v>
       </c>
@@ -35385,8 +35483,8 @@
       <c r="A41" s="48"/>
       <c r="B41" s="83"/>
       <c r="C41" s="78"/>
-      <c r="D41" s="239"/>
-      <c r="E41" s="238"/>
+      <c r="D41" s="243"/>
+      <c r="E41" s="245"/>
       <c r="F41" s="61"/>
       <c r="G41" s="63"/>
       <c r="H41" s="63"/>
@@ -35417,11 +35515,11 @@
     </row>
     <row r="43" spans="1:17" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="51"/>
-      <c r="B43" s="247" t="s">
+      <c r="B43" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="247"/>
-      <c r="D43" s="247"/>
+      <c r="C43" s="253"/>
+      <c r="D43" s="253"/>
       <c r="E43" s="67"/>
       <c r="F43" s="68"/>
       <c r="G43" s="67"/>
@@ -35436,14 +35534,14 @@
     </row>
     <row r="44" spans="1:17" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A44" s="70"/>
-      <c r="B44" s="243" t="s">
+      <c r="B44" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="244"/>
-      <c r="D44" s="244"/>
-      <c r="E44" s="244"/>
-      <c r="F44" s="244"/>
-      <c r="G44" s="245"/>
+      <c r="C44" s="250"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="251"/>
       <c r="H44" s="92" t="s">
         <v>90</v>
       </c>
@@ -35477,8 +35575,8 @@
       <c r="C45" s="73"/>
       <c r="D45" s="73"/>
       <c r="E45" s="149"/>
-      <c r="F45" s="266"/>
-      <c r="G45" s="241"/>
+      <c r="F45" s="271"/>
+      <c r="G45" s="256"/>
       <c r="H45" s="63" t="s">
         <v>118</v>
       </c>
@@ -35510,8 +35608,8 @@
       </c>
       <c r="D46" s="76"/>
       <c r="E46" s="149"/>
-      <c r="F46" s="266"/>
-      <c r="G46" s="241"/>
+      <c r="F46" s="271"/>
+      <c r="G46" s="256"/>
       <c r="H46" s="61" t="s">
         <v>125</v>
       </c>
@@ -35538,13 +35636,13 @@
     <row r="47" spans="1:17" ht="18.95" customHeight="1">
       <c r="A47" s="48"/>
       <c r="B47" s="72"/>
-      <c r="C47" s="264"/>
+      <c r="C47" s="269"/>
       <c r="D47" s="89" t="s">
         <v>167</v>
       </c>
       <c r="E47" s="149"/>
-      <c r="F47" s="249"/>
-      <c r="G47" s="238"/>
+      <c r="F47" s="244"/>
+      <c r="G47" s="245"/>
       <c r="H47" s="61" t="s">
         <v>190</v>
       </c>
@@ -35573,13 +35671,13 @@
     <row r="48" spans="1:17" ht="18.95" customHeight="1">
       <c r="A48" s="48"/>
       <c r="B48" s="72"/>
-      <c r="C48" s="265"/>
+      <c r="C48" s="270"/>
       <c r="D48" s="89" t="s">
         <v>128</v>
       </c>
       <c r="E48" s="149"/>
-      <c r="F48" s="249"/>
-      <c r="G48" s="238"/>
+      <c r="F48" s="244"/>
+      <c r="G48" s="245"/>
       <c r="H48" s="61" t="s">
         <v>129</v>
       </c>
@@ -35615,8 +35713,8 @@
         <v>42</v>
       </c>
       <c r="E49" s="149"/>
-      <c r="F49" s="249"/>
-      <c r="G49" s="238"/>
+      <c r="F49" s="244"/>
+      <c r="G49" s="245"/>
       <c r="H49" s="61" t="s">
         <v>297</v>
       </c>
@@ -35644,8 +35742,8 @@
       <c r="E50" s="89" t="s">
         <v>299</v>
       </c>
-      <c r="F50" s="249"/>
-      <c r="G50" s="238"/>
+      <c r="F50" s="244"/>
+      <c r="G50" s="245"/>
       <c r="H50" s="61" t="s">
         <v>300</v>
       </c>
@@ -35679,8 +35777,8 @@
       <c r="E51" s="89" t="s">
         <v>305</v>
       </c>
-      <c r="F51" s="249"/>
-      <c r="G51" s="238"/>
+      <c r="F51" s="244"/>
+      <c r="G51" s="245"/>
       <c r="H51" s="61" t="s">
         <v>306</v>
       </c>
@@ -35714,8 +35812,8 @@
       <c r="E52" s="89" t="s">
         <v>310</v>
       </c>
-      <c r="F52" s="249"/>
-      <c r="G52" s="238"/>
+      <c r="F52" s="244"/>
+      <c r="G52" s="245"/>
       <c r="H52" s="61" t="s">
         <v>311</v>
       </c>
@@ -35749,8 +35847,8 @@
       <c r="E53" s="89" t="s">
         <v>308</v>
       </c>
-      <c r="F53" s="249"/>
-      <c r="G53" s="238"/>
+      <c r="F53" s="244"/>
+      <c r="G53" s="245"/>
       <c r="H53" s="61" t="s">
         <v>313</v>
       </c>
@@ -35784,8 +35882,8 @@
       <c r="E54" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="F54" s="249"/>
-      <c r="G54" s="238"/>
+      <c r="F54" s="244"/>
+      <c r="G54" s="245"/>
       <c r="H54" s="61" t="s">
         <v>194</v>
       </c>
@@ -35871,10 +35969,10 @@
       <c r="C57" s="72"/>
       <c r="D57" s="72"/>
       <c r="E57" s="79"/>
-      <c r="F57" s="239" t="s">
+      <c r="F57" s="243" t="s">
         <v>97</v>
       </c>
-      <c r="G57" s="238"/>
+      <c r="G57" s="245"/>
       <c r="H57" s="61" t="s">
         <v>98</v>
       </c>
@@ -35902,12 +36000,12 @@
       <c r="A58" s="48"/>
       <c r="B58" s="72"/>
       <c r="C58" s="72"/>
-      <c r="D58" s="264"/>
+      <c r="D58" s="269"/>
       <c r="E58" s="66"/>
-      <c r="F58" s="239" t="s">
+      <c r="F58" s="243" t="s">
         <v>109</v>
       </c>
-      <c r="G58" s="238"/>
+      <c r="G58" s="245"/>
       <c r="H58" s="61" t="s">
         <v>110</v>
       </c>
@@ -35935,12 +36033,12 @@
       <c r="A59" s="48"/>
       <c r="B59" s="72"/>
       <c r="C59" s="72"/>
-      <c r="D59" s="264"/>
+      <c r="D59" s="269"/>
       <c r="E59" s="66"/>
-      <c r="F59" s="239" t="s">
+      <c r="F59" s="243" t="s">
         <v>112</v>
       </c>
-      <c r="G59" s="238"/>
+      <c r="G59" s="245"/>
       <c r="H59" s="61" t="s">
         <v>113</v>
       </c>
@@ -35968,7 +36066,7 @@
       <c r="A60" s="48"/>
       <c r="B60" s="72"/>
       <c r="C60" s="72"/>
-      <c r="D60" s="264"/>
+      <c r="D60" s="269"/>
       <c r="E60" s="132"/>
       <c r="F60" s="88" t="s">
         <v>114</v>
@@ -36545,11 +36643,11 @@
     </row>
     <row r="93" spans="1:15" ht="18.95" customHeight="1">
       <c r="A93" s="48"/>
-      <c r="B93" s="257" t="s">
+      <c r="B93" s="262" t="s">
         <v>146</v>
       </c>
-      <c r="C93" s="257"/>
-      <c r="D93" s="257"/>
+      <c r="C93" s="262"/>
+      <c r="D93" s="262"/>
       <c r="E93" s="48"/>
       <c r="F93" s="48"/>
       <c r="G93" s="48"/>
@@ -36564,12 +36662,12 @@
     </row>
     <row r="94" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A94" s="70"/>
-      <c r="B94" s="243" t="s">
+      <c r="B94" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C94" s="244"/>
-      <c r="D94" s="244"/>
-      <c r="E94" s="245"/>
+      <c r="C94" s="250"/>
+      <c r="D94" s="250"/>
+      <c r="E94" s="251"/>
       <c r="F94" s="92" t="s">
         <v>90</v>
       </c>
@@ -36661,10 +36759,10 @@
       <c r="A97" s="48"/>
       <c r="B97" s="72"/>
       <c r="C97" s="77"/>
-      <c r="D97" s="239" t="s">
+      <c r="D97" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E97" s="238"/>
+      <c r="E97" s="245"/>
       <c r="F97" s="61" t="s">
         <v>190</v>
       </c>
@@ -36694,10 +36792,10 @@
       <c r="A98" s="48"/>
       <c r="B98" s="72"/>
       <c r="C98" s="77"/>
-      <c r="D98" s="237" t="s">
+      <c r="D98" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E98" s="238"/>
+      <c r="E98" s="245"/>
       <c r="F98" s="61" t="s">
         <v>149</v>
       </c>
@@ -37117,29 +37215,19 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="F47:G47"/>
     <mergeCell ref="F53:G53"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D38:E38"/>
     <mergeCell ref="F48:G48"/>
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="F52:G52"/>
-    <mergeCell ref="J16:L16"/>
     <mergeCell ref="D97:E97"/>
     <mergeCell ref="D98:E98"/>
     <mergeCell ref="F57:G57"/>
@@ -37148,13 +37236,23 @@
     <mergeCell ref="F59:G59"/>
     <mergeCell ref="B93:D93"/>
     <mergeCell ref="B94:E94"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J16:L16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I16" r:id="rId1" display="foo@mulodo.com"/>
@@ -37248,14 +37346,14 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="239" t="s">
+      <c r="C4" s="243" t="s">
         <v>371</v>
       </c>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="238"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="245"/>
       <c r="I4" s="48"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
@@ -37268,14 +37366,14 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="239" t="s">
+      <c r="C5" s="243" t="s">
         <v>371</v>
       </c>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="238"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="245"/>
       <c r="I5" s="48"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
@@ -37308,14 +37406,14 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="239" t="s">
+      <c r="C7" s="243" t="s">
         <v>356</v>
       </c>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="238"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="245"/>
       <c r="I7" s="48"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
@@ -37348,14 +37446,14 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="239" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="249"/>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="249"/>
-      <c r="H9" s="238"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="245"/>
       <c r="I9" s="48"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
@@ -37415,18 +37513,18 @@
     </row>
     <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="250" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="251"/>
-      <c r="D13" s="251"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="251"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="251"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="251"/>
-      <c r="K13" s="252"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="248"/>
       <c r="L13" s="48"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
@@ -37452,11 +37550,11 @@
       <c r="H14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="248" t="s">
+      <c r="I14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="248"/>
-      <c r="K14" s="248"/>
+      <c r="J14" s="242"/>
+      <c r="K14" s="242"/>
       <c r="L14" s="48"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
@@ -37470,9 +37568,9 @@
       <c r="F15" s="63"/>
       <c r="G15" s="63"/>
       <c r="H15" s="162"/>
-      <c r="I15" s="239"/>
-      <c r="J15" s="249"/>
-      <c r="K15" s="238"/>
+      <c r="I15" s="243"/>
+      <c r="J15" s="244"/>
+      <c r="K15" s="245"/>
       <c r="L15" s="48"/>
       <c r="M15" s="48"/>
       <c r="N15" s="48"/>
@@ -37625,10 +37723,10 @@
     </row>
     <row r="25" spans="1:16" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="51"/>
-      <c r="B25" s="247" t="s">
+      <c r="B25" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="247"/>
+      <c r="C25" s="253"/>
       <c r="D25" s="67"/>
       <c r="E25" s="68"/>
       <c r="F25" s="67"/>
@@ -37643,13 +37741,13 @@
     </row>
     <row r="26" spans="1:16" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A26" s="70"/>
-      <c r="B26" s="243" t="s">
+      <c r="B26" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="244"/>
-      <c r="D26" s="244"/>
-      <c r="E26" s="244"/>
-      <c r="F26" s="245"/>
+      <c r="C26" s="250"/>
+      <c r="D26" s="250"/>
+      <c r="E26" s="250"/>
+      <c r="F26" s="251"/>
       <c r="G26" s="92" t="s">
         <v>90</v>
       </c>
@@ -37682,8 +37780,8 @@
       </c>
       <c r="C27" s="73"/>
       <c r="D27" s="149"/>
-      <c r="E27" s="266"/>
-      <c r="F27" s="241"/>
+      <c r="E27" s="271"/>
+      <c r="F27" s="256"/>
       <c r="G27" s="63" t="s">
         <v>118</v>
       </c>
@@ -37714,8 +37812,8 @@
         <v>124</v>
       </c>
       <c r="D28" s="149"/>
-      <c r="E28" s="266"/>
-      <c r="F28" s="241"/>
+      <c r="E28" s="271"/>
+      <c r="F28" s="256"/>
       <c r="G28" s="61" t="s">
         <v>125</v>
       </c>
@@ -37742,12 +37840,12 @@
     <row r="29" spans="1:16" ht="18.95" customHeight="1">
       <c r="A29" s="48"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="264"/>
+      <c r="C29" s="269"/>
       <c r="D29" s="149" t="s">
         <v>167</v>
       </c>
-      <c r="E29" s="249"/>
-      <c r="F29" s="238"/>
+      <c r="E29" s="244"/>
+      <c r="F29" s="245"/>
       <c r="G29" s="61" t="s">
         <v>190</v>
       </c>
@@ -37776,12 +37874,12 @@
     <row r="30" spans="1:16" ht="18.95" customHeight="1">
       <c r="A30" s="48"/>
       <c r="B30" s="72"/>
-      <c r="C30" s="265"/>
+      <c r="C30" s="270"/>
       <c r="D30" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="E30" s="249"/>
-      <c r="F30" s="238"/>
+      <c r="E30" s="244"/>
+      <c r="F30" s="245"/>
       <c r="G30" s="61" t="s">
         <v>129</v>
       </c>
@@ -37814,8 +37912,8 @@
         <v>131</v>
       </c>
       <c r="D31" s="149"/>
-      <c r="E31" s="249"/>
-      <c r="F31" s="238"/>
+      <c r="E31" s="244"/>
+      <c r="F31" s="245"/>
       <c r="G31" s="61" t="s">
         <v>297</v>
       </c>
@@ -37842,8 +37940,8 @@
       <c r="D32" s="89" t="s">
         <v>299</v>
       </c>
-      <c r="E32" s="249"/>
-      <c r="F32" s="238"/>
+      <c r="E32" s="244"/>
+      <c r="F32" s="245"/>
       <c r="G32" s="61" t="s">
         <v>300</v>
       </c>
@@ -37876,8 +37974,8 @@
       <c r="D33" s="89" t="s">
         <v>310</v>
       </c>
-      <c r="E33" s="249"/>
-      <c r="F33" s="238"/>
+      <c r="E33" s="244"/>
+      <c r="F33" s="245"/>
       <c r="G33" s="61" t="s">
         <v>311</v>
       </c>
@@ -37910,8 +38008,8 @@
       <c r="D34" s="89" t="s">
         <v>305</v>
       </c>
-      <c r="E34" s="249"/>
-      <c r="F34" s="238"/>
+      <c r="E34" s="244"/>
+      <c r="F34" s="245"/>
       <c r="G34" s="61" t="s">
         <v>306</v>
       </c>
@@ -37944,8 +38042,8 @@
       <c r="D35" s="89" t="s">
         <v>372</v>
       </c>
-      <c r="E35" s="249"/>
-      <c r="F35" s="238"/>
+      <c r="E35" s="244"/>
+      <c r="F35" s="245"/>
       <c r="G35" s="61" t="s">
         <v>373</v>
       </c>
@@ -37978,8 +38076,8 @@
       <c r="D36" s="89" t="s">
         <v>308</v>
       </c>
-      <c r="E36" s="249"/>
-      <c r="F36" s="238"/>
+      <c r="E36" s="244"/>
+      <c r="F36" s="245"/>
       <c r="G36" s="61" t="s">
         <v>313</v>
       </c>
@@ -38012,8 +38110,8 @@
       <c r="D37" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="E37" s="249"/>
-      <c r="F37" s="238"/>
+      <c r="E37" s="244"/>
+      <c r="F37" s="245"/>
       <c r="G37" s="61" t="s">
         <v>194</v>
       </c>
@@ -38105,10 +38203,10 @@
       <c r="B40" s="72"/>
       <c r="C40" s="72"/>
       <c r="D40" s="79"/>
-      <c r="E40" s="239" t="s">
+      <c r="E40" s="243" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="238"/>
+      <c r="F40" s="245"/>
       <c r="G40" s="61" t="s">
         <v>98</v>
       </c>
@@ -38137,10 +38235,10 @@
       <c r="B41" s="72"/>
       <c r="C41" s="72"/>
       <c r="D41" s="79"/>
-      <c r="E41" s="239" t="s">
+      <c r="E41" s="243" t="s">
         <v>109</v>
       </c>
-      <c r="F41" s="238"/>
+      <c r="F41" s="245"/>
       <c r="G41" s="61" t="s">
         <v>110</v>
       </c>
@@ -38169,10 +38267,10 @@
       <c r="B42" s="72"/>
       <c r="C42" s="72"/>
       <c r="D42" s="79"/>
-      <c r="E42" s="239" t="s">
+      <c r="E42" s="243" t="s">
         <v>112</v>
       </c>
-      <c r="F42" s="238"/>
+      <c r="F42" s="245"/>
       <c r="G42" s="61" t="s">
         <v>113</v>
       </c>
@@ -38665,10 +38763,10 @@
     </row>
     <row r="71" spans="1:15" ht="18.95" customHeight="1">
       <c r="A71" s="48"/>
-      <c r="B71" s="257" t="s">
+      <c r="B71" s="262" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="257"/>
+      <c r="C71" s="262"/>
       <c r="D71" s="48"/>
       <c r="E71" s="48"/>
       <c r="F71" s="48"/>
@@ -38683,11 +38781,11 @@
     </row>
     <row r="72" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A72" s="70"/>
-      <c r="B72" s="243" t="s">
+      <c r="B72" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245"/>
+      <c r="C72" s="250"/>
+      <c r="D72" s="251"/>
       <c r="E72" s="92" t="s">
         <v>90</v>
       </c>
@@ -39237,6 +39335,25 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
@@ -39244,25 +39361,6 @@
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="I14:K14"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -39354,15 +39452,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="239" t="s">
+      <c r="C4" s="243" t="s">
         <v>375</v>
       </c>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="238"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -39375,15 +39473,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="239" t="s">
+      <c r="C5" s="243" t="s">
         <v>375</v>
       </c>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="238"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -39417,15 +39515,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="239" t="s">
+      <c r="C7" s="243" t="s">
         <v>319</v>
       </c>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="238"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -39459,15 +39557,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="239" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="249"/>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="249"/>
-      <c r="H9" s="249"/>
-      <c r="I9" s="238"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -39530,19 +39628,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="250" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="251"/>
-      <c r="D13" s="251"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="251"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="251"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="251"/>
-      <c r="K13" s="251"/>
-      <c r="L13" s="252"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -39571,11 +39669,11 @@
       <c r="I14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="248" t="s">
+      <c r="J14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="248"/>
-      <c r="L14" s="248"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -39637,11 +39735,11 @@
       <c r="I16" s="153" t="s">
         <v>354</v>
       </c>
-      <c r="J16" s="239" t="s">
+      <c r="J16" s="243" t="s">
         <v>142</v>
       </c>
-      <c r="K16" s="249"/>
-      <c r="L16" s="238"/>
+      <c r="K16" s="244"/>
+      <c r="L16" s="245"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -39803,11 +39901,11 @@
     </row>
     <row r="26" spans="1:15" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="51"/>
-      <c r="B26" s="247" t="s">
+      <c r="B26" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="247"/>
-      <c r="D26" s="247"/>
+      <c r="C26" s="253"/>
+      <c r="D26" s="253"/>
       <c r="E26" s="67"/>
       <c r="F26" s="68"/>
       <c r="G26" s="67"/>
@@ -39822,12 +39920,12 @@
     </row>
     <row r="27" spans="1:15" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="70"/>
-      <c r="B27" s="243" t="s">
+      <c r="B27" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="244"/>
-      <c r="D27" s="244"/>
-      <c r="E27" s="245"/>
+      <c r="C27" s="250"/>
+      <c r="D27" s="250"/>
+      <c r="E27" s="251"/>
       <c r="F27" s="92" t="s">
         <v>90</v>
       </c>
@@ -39919,10 +40017,10 @@
       <c r="A30" s="48"/>
       <c r="B30" s="72"/>
       <c r="C30" s="77"/>
-      <c r="D30" s="239" t="s">
+      <c r="D30" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E30" s="238"/>
+      <c r="E30" s="245"/>
       <c r="F30" s="61" t="s">
         <v>190</v>
       </c>
@@ -39952,10 +40050,10 @@
       <c r="A31" s="48"/>
       <c r="B31" s="72"/>
       <c r="C31" s="78"/>
-      <c r="D31" s="239" t="s">
+      <c r="D31" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="238"/>
+      <c r="E31" s="245"/>
       <c r="F31" s="61" t="s">
         <v>129</v>
       </c>
@@ -40018,8 +40116,8 @@
       <c r="A33" s="48"/>
       <c r="B33" s="83"/>
       <c r="C33" s="78"/>
-      <c r="D33" s="239"/>
-      <c r="E33" s="238"/>
+      <c r="D33" s="243"/>
+      <c r="E33" s="245"/>
       <c r="F33" s="61"/>
       <c r="G33" s="63"/>
       <c r="H33" s="63"/>
@@ -40256,11 +40354,11 @@
     </row>
     <row r="47" spans="1:15" ht="18.95" customHeight="1">
       <c r="A47" s="48"/>
-      <c r="B47" s="242" t="s">
+      <c r="B47" s="257" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="242"/>
-      <c r="D47" s="242"/>
+      <c r="C47" s="257"/>
+      <c r="D47" s="257"/>
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
       <c r="G47" s="48"/>
@@ -40275,12 +40373,12 @@
     </row>
     <row r="48" spans="1:15" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A48" s="70"/>
-      <c r="B48" s="243" t="s">
+      <c r="B48" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="244"/>
-      <c r="D48" s="244"/>
-      <c r="E48" s="245"/>
+      <c r="C48" s="250"/>
+      <c r="D48" s="250"/>
+      <c r="E48" s="251"/>
       <c r="F48" s="92" t="s">
         <v>90</v>
       </c>
@@ -40372,10 +40470,10 @@
       <c r="A51" s="48"/>
       <c r="B51" s="72"/>
       <c r="C51" s="77"/>
-      <c r="D51" s="239" t="s">
+      <c r="D51" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="238"/>
+      <c r="E51" s="245"/>
       <c r="F51" s="61" t="s">
         <v>190</v>
       </c>
@@ -40405,10 +40503,10 @@
       <c r="A52" s="48"/>
       <c r="B52" s="72"/>
       <c r="C52" s="77"/>
-      <c r="D52" s="237" t="s">
+      <c r="D52" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E52" s="253"/>
+      <c r="E52" s="261"/>
       <c r="F52" s="61" t="s">
         <v>149</v>
       </c>
@@ -40502,8 +40600,8 @@
       <c r="A55" s="48"/>
       <c r="B55" s="83"/>
       <c r="C55" s="78"/>
-      <c r="D55" s="239"/>
-      <c r="E55" s="238"/>
+      <c r="D55" s="243"/>
+      <c r="E55" s="245"/>
       <c r="F55" s="61"/>
       <c r="G55" s="63"/>
       <c r="H55" s="63"/>
@@ -40808,12 +40906,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="B48:E48"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
@@ -40825,6 +40917,12 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="B47:D47"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -41345,15 +41443,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="239" t="s">
+      <c r="C4" s="243" t="s">
         <v>378</v>
       </c>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="238"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -41366,15 +41464,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="239" t="s">
+      <c r="C5" s="243" t="s">
         <v>378</v>
       </c>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="238"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -41408,15 +41506,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="239" t="s">
+      <c r="C7" s="243" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="238"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -41450,15 +41548,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="239" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="249"/>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="249"/>
-      <c r="H9" s="249"/>
-      <c r="I9" s="238"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -41521,19 +41619,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="250" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="251"/>
-      <c r="D13" s="251"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="251"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="251"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="251"/>
-      <c r="K13" s="251"/>
-      <c r="L13" s="252"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -41562,11 +41660,11 @@
       <c r="I14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="248" t="s">
+      <c r="J14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="248"/>
-      <c r="L14" s="248"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -41628,11 +41726,11 @@
       <c r="I16" s="153" t="s">
         <v>354</v>
       </c>
-      <c r="J16" s="239" t="s">
+      <c r="J16" s="243" t="s">
         <v>142</v>
       </c>
-      <c r="K16" s="249"/>
-      <c r="L16" s="238"/>
+      <c r="K16" s="244"/>
+      <c r="L16" s="245"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -41794,11 +41892,11 @@
     </row>
     <row r="26" spans="1:15" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="51"/>
-      <c r="B26" s="247" t="s">
+      <c r="B26" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="247"/>
-      <c r="D26" s="247"/>
+      <c r="C26" s="253"/>
+      <c r="D26" s="253"/>
       <c r="E26" s="67"/>
       <c r="F26" s="68"/>
       <c r="G26" s="67"/>
@@ -41813,12 +41911,12 @@
     </row>
     <row r="27" spans="1:15" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="70"/>
-      <c r="B27" s="243" t="s">
+      <c r="B27" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="244"/>
-      <c r="D27" s="244"/>
-      <c r="E27" s="245"/>
+      <c r="C27" s="250"/>
+      <c r="D27" s="250"/>
+      <c r="E27" s="251"/>
       <c r="F27" s="92" t="s">
         <v>90</v>
       </c>
@@ -41910,10 +42008,10 @@
       <c r="A30" s="48"/>
       <c r="B30" s="72"/>
       <c r="C30" s="77"/>
-      <c r="D30" s="239" t="s">
+      <c r="D30" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E30" s="238"/>
+      <c r="E30" s="245"/>
       <c r="F30" s="61" t="s">
         <v>190</v>
       </c>
@@ -41943,10 +42041,10 @@
       <c r="A31" s="48"/>
       <c r="B31" s="72"/>
       <c r="C31" s="78"/>
-      <c r="D31" s="239" t="s">
+      <c r="D31" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="238"/>
+      <c r="E31" s="245"/>
       <c r="F31" s="61" t="s">
         <v>129</v>
       </c>
@@ -42009,8 +42107,8 @@
       <c r="A33" s="48"/>
       <c r="B33" s="83"/>
       <c r="C33" s="78"/>
-      <c r="D33" s="239"/>
-      <c r="E33" s="238"/>
+      <c r="D33" s="243"/>
+      <c r="E33" s="245"/>
       <c r="F33" s="61"/>
       <c r="G33" s="63"/>
       <c r="H33" s="63"/>
@@ -42247,11 +42345,11 @@
     </row>
     <row r="47" spans="1:15" ht="18.95" customHeight="1">
       <c r="A47" s="48"/>
-      <c r="B47" s="242" t="s">
+      <c r="B47" s="257" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="242"/>
-      <c r="D47" s="242"/>
+      <c r="C47" s="257"/>
+      <c r="D47" s="257"/>
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
       <c r="G47" s="48"/>
@@ -42266,12 +42364,12 @@
     </row>
     <row r="48" spans="1:15" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A48" s="70"/>
-      <c r="B48" s="243" t="s">
+      <c r="B48" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="244"/>
-      <c r="D48" s="244"/>
-      <c r="E48" s="245"/>
+      <c r="C48" s="250"/>
+      <c r="D48" s="250"/>
+      <c r="E48" s="251"/>
       <c r="F48" s="92" t="s">
         <v>90</v>
       </c>
@@ -42363,10 +42461,10 @@
       <c r="A51" s="48"/>
       <c r="B51" s="72"/>
       <c r="C51" s="77"/>
-      <c r="D51" s="239" t="s">
+      <c r="D51" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="238"/>
+      <c r="E51" s="245"/>
       <c r="F51" s="61" t="s">
         <v>190</v>
       </c>
@@ -42396,10 +42494,10 @@
       <c r="A52" s="48"/>
       <c r="B52" s="72"/>
       <c r="C52" s="77"/>
-      <c r="D52" s="237" t="s">
+      <c r="D52" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E52" s="253"/>
+      <c r="E52" s="261"/>
       <c r="F52" s="61" t="s">
         <v>149</v>
       </c>
@@ -42493,8 +42591,8 @@
       <c r="A55" s="48"/>
       <c r="B55" s="83"/>
       <c r="C55" s="78"/>
-      <c r="D55" s="239"/>
-      <c r="E55" s="238"/>
+      <c r="D55" s="243"/>
+      <c r="E55" s="245"/>
       <c r="F55" s="61"/>
       <c r="G55" s="63"/>
       <c r="H55" s="63"/>
@@ -42799,14 +42897,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B47:D47"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B26:D26"/>
@@ -42816,6 +42906,14 @@
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -42907,15 +43005,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="239" t="s">
+      <c r="C4" s="243" t="s">
         <v>379</v>
       </c>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="238"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -42928,15 +43026,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="239" t="s">
+      <c r="C5" s="243" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="238"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -42970,15 +43068,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="239" t="s">
+      <c r="C7" s="243" t="s">
         <v>353</v>
       </c>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="238"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -43012,15 +43110,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="239" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="249"/>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="249"/>
-      <c r="H9" s="249"/>
-      <c r="I9" s="238"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -43083,19 +43181,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="250" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="251"/>
-      <c r="D13" s="251"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="251"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="251"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="251"/>
-      <c r="K13" s="251"/>
-      <c r="L13" s="252"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -43124,11 +43222,11 @@
       <c r="I14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="248" t="s">
+      <c r="J14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="248"/>
-      <c r="L14" s="248"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -43157,11 +43255,11 @@
       <c r="I15" s="64" t="s">
         <v>380</v>
       </c>
-      <c r="J15" s="246" t="s">
+      <c r="J15" s="252" t="s">
         <v>142</v>
       </c>
-      <c r="K15" s="246"/>
-      <c r="L15" s="246"/>
+      <c r="K15" s="252"/>
+      <c r="L15" s="252"/>
       <c r="M15" s="48"/>
       <c r="N15" s="48"/>
       <c r="O15" s="48"/>
@@ -43176,9 +43274,9 @@
       <c r="G16" s="63"/>
       <c r="H16" s="63"/>
       <c r="I16" s="153"/>
-      <c r="J16" s="239"/>
-      <c r="K16" s="249"/>
-      <c r="L16" s="238"/>
+      <c r="J16" s="243"/>
+      <c r="K16" s="244"/>
+      <c r="L16" s="245"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -43340,11 +43438,11 @@
     </row>
     <row r="26" spans="1:15" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="51"/>
-      <c r="B26" s="247" t="s">
+      <c r="B26" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="247"/>
-      <c r="D26" s="247"/>
+      <c r="C26" s="253"/>
+      <c r="D26" s="253"/>
       <c r="E26" s="67"/>
       <c r="F26" s="68"/>
       <c r="G26" s="67"/>
@@ -43359,12 +43457,12 @@
     </row>
     <row r="27" spans="1:15" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="70"/>
-      <c r="B27" s="243" t="s">
+      <c r="B27" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="244"/>
-      <c r="D27" s="244"/>
-      <c r="E27" s="245"/>
+      <c r="C27" s="250"/>
+      <c r="D27" s="250"/>
+      <c r="E27" s="251"/>
       <c r="F27" s="92" t="s">
         <v>90</v>
       </c>
@@ -43456,10 +43554,10 @@
       <c r="A30" s="48"/>
       <c r="B30" s="72"/>
       <c r="C30" s="77"/>
-      <c r="D30" s="239" t="s">
+      <c r="D30" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E30" s="238"/>
+      <c r="E30" s="245"/>
       <c r="F30" s="61" t="s">
         <v>190</v>
       </c>
@@ -43489,10 +43587,10 @@
       <c r="A31" s="48"/>
       <c r="B31" s="72"/>
       <c r="C31" s="78"/>
-      <c r="D31" s="239" t="s">
+      <c r="D31" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="238"/>
+      <c r="E31" s="245"/>
       <c r="F31" s="61" t="s">
         <v>129</v>
       </c>
@@ -43555,8 +43653,8 @@
       <c r="A33" s="48"/>
       <c r="B33" s="83"/>
       <c r="C33" s="78"/>
-      <c r="D33" s="239"/>
-      <c r="E33" s="238"/>
+      <c r="D33" s="243"/>
+      <c r="E33" s="245"/>
       <c r="F33" s="61"/>
       <c r="G33" s="63"/>
       <c r="H33" s="63"/>
@@ -43793,11 +43891,11 @@
     </row>
     <row r="47" spans="1:15" ht="18.95" customHeight="1">
       <c r="A47" s="48"/>
-      <c r="B47" s="242" t="s">
+      <c r="B47" s="257" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="242"/>
-      <c r="D47" s="242"/>
+      <c r="C47" s="257"/>
+      <c r="D47" s="257"/>
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
       <c r="G47" s="48"/>
@@ -43812,12 +43910,12 @@
     </row>
     <row r="48" spans="1:15" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A48" s="70"/>
-      <c r="B48" s="243" t="s">
+      <c r="B48" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="244"/>
-      <c r="D48" s="244"/>
-      <c r="E48" s="245"/>
+      <c r="C48" s="250"/>
+      <c r="D48" s="250"/>
+      <c r="E48" s="251"/>
       <c r="F48" s="92" t="s">
         <v>90</v>
       </c>
@@ -43909,10 +44007,10 @@
       <c r="A51" s="48"/>
       <c r="B51" s="72"/>
       <c r="C51" s="77"/>
-      <c r="D51" s="239" t="s">
+      <c r="D51" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="238"/>
+      <c r="E51" s="245"/>
       <c r="F51" s="61" t="s">
         <v>190</v>
       </c>
@@ -43942,10 +44040,10 @@
       <c r="A52" s="48"/>
       <c r="B52" s="72"/>
       <c r="C52" s="77"/>
-      <c r="D52" s="237" t="s">
+      <c r="D52" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E52" s="253"/>
+      <c r="E52" s="261"/>
       <c r="F52" s="61" t="s">
         <v>149</v>
       </c>
@@ -44039,8 +44137,8 @@
       <c r="A55" s="48"/>
       <c r="B55" s="83"/>
       <c r="C55" s="78"/>
-      <c r="D55" s="239"/>
-      <c r="E55" s="238"/>
+      <c r="D55" s="243"/>
+      <c r="E55" s="245"/>
       <c r="F55" s="61"/>
       <c r="G55" s="63"/>
       <c r="H55" s="63"/>
@@ -44345,7 +44443,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B27:E27"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D33:E33"/>
@@ -44363,6 +44460,7 @@
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -44376,9 +44474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:XFD74"/>
-    </sheetView>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -44460,15 +44556,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="239" t="s">
+      <c r="C4" s="243" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="238"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -44481,15 +44577,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="239" t="s">
+      <c r="C5" s="243" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="238"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -44523,15 +44619,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="239" t="s">
+      <c r="C7" s="243" t="s">
         <v>356</v>
       </c>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="238"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -44565,15 +44661,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="239" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="249"/>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="249"/>
-      <c r="H9" s="249"/>
-      <c r="I9" s="238"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -44636,19 +44732,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="250" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="251"/>
-      <c r="D13" s="251"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="251"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="251"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="251"/>
-      <c r="K13" s="251"/>
-      <c r="L13" s="252"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -44677,11 +44773,11 @@
       <c r="I14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="248" t="s">
+      <c r="J14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="248"/>
-      <c r="L14" s="248"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -44708,11 +44804,11 @@
       <c r="I15" s="160" t="s">
         <v>437</v>
       </c>
-      <c r="J15" s="258" t="s">
+      <c r="J15" s="265" t="s">
         <v>438</v>
       </c>
-      <c r="K15" s="246"/>
-      <c r="L15" s="246"/>
+      <c r="K15" s="252"/>
+      <c r="L15" s="252"/>
       <c r="M15" s="48"/>
       <c r="N15" s="48"/>
       <c r="O15" s="48"/>
@@ -44739,11 +44835,11 @@
       <c r="I16" s="160" t="s">
         <v>442</v>
       </c>
-      <c r="J16" s="258" t="s">
+      <c r="J16" s="265" t="s">
         <v>443</v>
       </c>
-      <c r="K16" s="246"/>
-      <c r="L16" s="246"/>
+      <c r="K16" s="252"/>
+      <c r="L16" s="252"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -44789,9 +44885,9 @@
       <c r="G18" s="63"/>
       <c r="H18" s="63"/>
       <c r="I18" s="162"/>
-      <c r="J18" s="239"/>
-      <c r="K18" s="249"/>
-      <c r="L18" s="238"/>
+      <c r="J18" s="243"/>
+      <c r="K18" s="244"/>
+      <c r="L18" s="245"/>
       <c r="M18" s="48"/>
       <c r="N18" s="48"/>
       <c r="O18" s="48"/>
@@ -44953,11 +45049,11 @@
     </row>
     <row r="28" spans="1:16" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="51"/>
-      <c r="B28" s="247" t="s">
+      <c r="B28" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="247"/>
-      <c r="D28" s="247"/>
+      <c r="C28" s="253"/>
+      <c r="D28" s="253"/>
       <c r="E28" s="67"/>
       <c r="F28" s="68"/>
       <c r="G28" s="67"/>
@@ -44972,13 +45068,13 @@
     </row>
     <row r="29" spans="1:16" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="70"/>
-      <c r="B29" s="267" t="s">
+      <c r="B29" s="272" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="268"/>
-      <c r="D29" s="268"/>
-      <c r="E29" s="268"/>
-      <c r="F29" s="269"/>
+      <c r="C29" s="273"/>
+      <c r="D29" s="273"/>
+      <c r="E29" s="273"/>
+      <c r="F29" s="274"/>
       <c r="G29" s="92" t="s">
         <v>90</v>
       </c>
@@ -45011,8 +45107,8 @@
       </c>
       <c r="C30" s="73"/>
       <c r="D30" s="73"/>
-      <c r="E30" s="266"/>
-      <c r="F30" s="241"/>
+      <c r="E30" s="271"/>
+      <c r="F30" s="256"/>
       <c r="G30" s="63" t="s">
         <v>118</v>
       </c>
@@ -45043,8 +45139,8 @@
         <v>124</v>
       </c>
       <c r="D31" s="76"/>
-      <c r="E31" s="266"/>
-      <c r="F31" s="241"/>
+      <c r="E31" s="271"/>
+      <c r="F31" s="256"/>
       <c r="G31" s="61" t="s">
         <v>125</v>
       </c>
@@ -45072,11 +45168,11 @@
       <c r="A32" s="48"/>
       <c r="B32" s="72"/>
       <c r="C32" s="77"/>
-      <c r="D32" s="239" t="s">
+      <c r="D32" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E32" s="249"/>
-      <c r="F32" s="238"/>
+      <c r="E32" s="244"/>
+      <c r="F32" s="245"/>
       <c r="G32" s="61" t="s">
         <v>190</v>
       </c>
@@ -45106,11 +45202,11 @@
       <c r="A33" s="48"/>
       <c r="B33" s="72"/>
       <c r="C33" s="78"/>
-      <c r="D33" s="239" t="s">
+      <c r="D33" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="249"/>
-      <c r="F33" s="238"/>
+      <c r="E33" s="244"/>
+      <c r="F33" s="245"/>
       <c r="G33" s="61" t="s">
         <v>129</v>
       </c>
@@ -45143,8 +45239,8 @@
         <v>131</v>
       </c>
       <c r="D34" s="76"/>
-      <c r="E34" s="266"/>
-      <c r="F34" s="241"/>
+      <c r="E34" s="271"/>
+      <c r="F34" s="256"/>
       <c r="G34" s="61" t="s">
         <v>132</v>
       </c>
@@ -45174,11 +45270,11 @@
       <c r="A35" s="48"/>
       <c r="B35" s="72"/>
       <c r="C35" s="79"/>
-      <c r="D35" s="239" t="s">
+      <c r="D35" s="243" t="s">
         <v>381</v>
       </c>
-      <c r="E35" s="249"/>
-      <c r="F35" s="238"/>
+      <c r="E35" s="244"/>
+      <c r="F35" s="245"/>
       <c r="G35" s="61" t="s">
         <v>359</v>
       </c>
@@ -45208,11 +45304,11 @@
       <c r="A36" s="48"/>
       <c r="B36" s="72"/>
       <c r="C36" s="79"/>
-      <c r="D36" s="240" t="s">
+      <c r="D36" s="255" t="s">
         <v>325</v>
       </c>
-      <c r="E36" s="266"/>
-      <c r="F36" s="241"/>
+      <c r="E36" s="271"/>
+      <c r="F36" s="256"/>
       <c r="G36" s="61" t="s">
         <v>326</v>
       </c>
@@ -45242,11 +45338,11 @@
       <c r="A37" s="48"/>
       <c r="B37" s="72"/>
       <c r="C37" s="77"/>
-      <c r="D37" s="239" t="s">
+      <c r="D37" s="243" t="s">
         <v>237</v>
       </c>
-      <c r="E37" s="249"/>
-      <c r="F37" s="238"/>
+      <c r="E37" s="244"/>
+      <c r="F37" s="245"/>
       <c r="G37" s="61" t="s">
         <v>238</v>
       </c>
@@ -45276,11 +45372,11 @@
       <c r="A38" s="48"/>
       <c r="B38" s="72"/>
       <c r="C38" s="77"/>
-      <c r="D38" s="239" t="s">
+      <c r="D38" s="243" t="s">
         <v>195</v>
       </c>
-      <c r="E38" s="249"/>
-      <c r="F38" s="238"/>
+      <c r="E38" s="244"/>
+      <c r="F38" s="245"/>
       <c r="G38" s="61" t="s">
         <v>194</v>
       </c>
@@ -45376,10 +45472,10 @@
       <c r="B41" s="72"/>
       <c r="C41" s="72"/>
       <c r="D41" s="79"/>
-      <c r="E41" s="239" t="s">
+      <c r="E41" s="243" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="238"/>
+      <c r="F41" s="245"/>
       <c r="G41" s="61" t="s">
         <v>98</v>
       </c>
@@ -45408,10 +45504,10 @@
       <c r="B42" s="72"/>
       <c r="C42" s="72"/>
       <c r="D42" s="79"/>
-      <c r="E42" s="239" t="s">
+      <c r="E42" s="243" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="238"/>
+      <c r="F42" s="245"/>
       <c r="G42" s="61" t="s">
         <v>110</v>
       </c>
@@ -45440,10 +45536,10 @@
       <c r="B43" s="72"/>
       <c r="C43" s="72"/>
       <c r="D43" s="79"/>
-      <c r="E43" s="239" t="s">
+      <c r="E43" s="243" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="238"/>
+      <c r="F43" s="245"/>
       <c r="G43" s="61" t="s">
         <v>113</v>
       </c>
@@ -46081,10 +46177,10 @@
     </row>
     <row r="79" spans="1:15" ht="18.95" customHeight="1">
       <c r="A79" s="48"/>
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="262" t="s">
         <v>146</v>
       </c>
-      <c r="C79" s="257"/>
+      <c r="C79" s="262"/>
       <c r="D79" s="48"/>
       <c r="E79" s="48"/>
       <c r="F79" s="48"/>
@@ -46099,11 +46195,11 @@
     </row>
     <row r="80" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A80" s="70"/>
-      <c r="B80" s="243" t="s">
+      <c r="B80" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C80" s="244"/>
-      <c r="D80" s="245"/>
+      <c r="C80" s="250"/>
+      <c r="D80" s="251"/>
       <c r="E80" s="92" t="s">
         <v>90</v>
       </c>
@@ -46621,6 +46717,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -46635,17 +46742,6 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -46658,10 +46754,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L29"/>
+  <dimension ref="B1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15"/>
@@ -46701,10 +46797,10 @@
       <c r="C3" s="164" t="s">
         <v>429</v>
       </c>
-      <c r="D3" s="215" t="s">
+      <c r="D3" s="221" t="s">
         <v>430</v>
       </c>
-      <c r="E3" s="215"/>
+      <c r="E3" s="221"/>
       <c r="F3" s="164" t="s">
         <v>172</v>
       </c>
@@ -46716,10 +46812,10 @@
       <c r="C4" s="101" t="s">
         <v>449</v>
       </c>
-      <c r="D4" s="213" t="s">
+      <c r="D4" s="218" t="s">
         <v>191</v>
       </c>
-      <c r="E4" s="214"/>
+      <c r="E4" s="219"/>
       <c r="F4" s="163"/>
       <c r="G4" s="97"/>
       <c r="H4" s="97"/>
@@ -46764,10 +46860,10 @@
       <c r="C8" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D8" s="226" t="s">
+      <c r="D8" s="220" t="s">
         <v>171</v>
       </c>
-      <c r="E8" s="226"/>
+      <c r="E8" s="220"/>
       <c r="F8" s="16" t="s">
         <v>172</v>
       </c>
@@ -46785,55 +46881,49 @@
       <c r="C9" s="101" t="s">
         <v>174</v>
       </c>
-      <c r="D9" s="213" t="s">
+      <c r="D9" s="218" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="214"/>
+      <c r="E9" s="219"/>
       <c r="F9" s="102"/>
       <c r="G9" s="97"/>
       <c r="H9" s="97"/>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="224">
+      <c r="B10" s="230">
         <v>2</v>
       </c>
-      <c r="C10" s="222" t="s">
+      <c r="C10" s="228" t="s">
         <v>177</v>
       </c>
-      <c r="D10" s="218" t="s">
+      <c r="D10" s="224" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="219"/>
-      <c r="F10" s="216"/>
+      <c r="E10" s="225"/>
+      <c r="F10" s="222"/>
       <c r="G10" s="97"/>
       <c r="H10" s="97"/>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="225"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="220"/>
-      <c r="E11" s="221"/>
-      <c r="F11" s="217"/>
+      <c r="B11" s="231"/>
+      <c r="C11" s="229"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="227"/>
+      <c r="F11" s="223"/>
       <c r="G11" s="97"/>
       <c r="H11" s="97"/>
     </row>
-    <row r="12" spans="2:12" ht="15.75">
-      <c r="B12" s="96"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="169"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="171"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
     </row>
     <row r="13" spans="2:12" ht="15.75">
-      <c r="B13" s="96" t="s">
-        <v>173</v>
-      </c>
+      <c r="B13" s="96"/>
       <c r="C13" s="100"/>
       <c r="D13" s="100"/>
       <c r="E13" s="95"/>
@@ -46846,228 +46936,259 @@
       <c r="L13" s="95"/>
     </row>
     <row r="14" spans="2:12" ht="15.75">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="96" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+    </row>
+    <row r="15" spans="2:12" ht="15.75">
+      <c r="B15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D14" s="226" t="s">
+      <c r="D15" s="220" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="226"/>
-      <c r="F14" s="16" t="s">
+      <c r="E15" s="220"/>
+      <c r="F15" s="16" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="98">
-        <v>1</v>
-      </c>
-      <c r="C15" s="101" t="s">
-        <v>178</v>
-      </c>
-      <c r="D15" s="213" t="s">
-        <v>186</v>
-      </c>
-      <c r="E15" s="214"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
     </row>
     <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="101" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="214" t="s">
-        <v>175</v>
-      </c>
-      <c r="E16" s="214"/>
+        <v>178</v>
+      </c>
+      <c r="D16" s="218" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="219"/>
       <c r="F16" s="99"/>
       <c r="G16" s="97"/>
       <c r="H16" s="97"/>
     </row>
-    <row r="18" spans="2:8" s="136" customFormat="1" ht="15.75">
-      <c r="B18" s="138"/>
-      <c r="C18" s="139" t="s">
+    <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="98">
+        <v>2</v>
+      </c>
+      <c r="C17" s="101" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="219" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" s="219"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+    </row>
+    <row r="19" spans="2:8" s="136" customFormat="1" ht="15.75">
+      <c r="B19" s="138"/>
+      <c r="C19" s="139" t="s">
         <v>170</v>
       </c>
-      <c r="D18" s="215" t="s">
+      <c r="D19" s="221" t="s">
         <v>171</v>
       </c>
-      <c r="E18" s="215"/>
-      <c r="F18" s="139" t="s">
+      <c r="E19" s="221"/>
+      <c r="F19" s="139" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="98">
-        <v>3</v>
-      </c>
-      <c r="C19" s="101" t="s">
-        <v>254</v>
-      </c>
-      <c r="D19" s="213" t="s">
-        <v>260</v>
-      </c>
-      <c r="E19" s="214"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
     </row>
     <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="101" t="s">
-        <v>255</v>
-      </c>
-      <c r="D20" s="213" t="s">
-        <v>261</v>
-      </c>
-      <c r="E20" s="214"/>
+        <v>254</v>
+      </c>
+      <c r="D20" s="218" t="s">
+        <v>260</v>
+      </c>
+      <c r="E20" s="219"/>
       <c r="F20" s="99"/>
       <c r="G20" s="97"/>
       <c r="H20" s="97"/>
     </row>
-    <row r="21" spans="2:8" s="136" customFormat="1">
+    <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="98">
+        <v>4</v>
+      </c>
+      <c r="C21" s="101" t="s">
+        <v>255</v>
+      </c>
+      <c r="D21" s="218" t="s">
+        <v>261</v>
+      </c>
+      <c r="E21" s="219"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+    </row>
+    <row r="22" spans="2:8" s="136" customFormat="1">
+      <c r="B22" s="98">
         <v>5</v>
       </c>
-      <c r="C21" s="101" t="s">
+      <c r="C22" s="101" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="213" t="s">
+      <c r="D22" s="218" t="s">
         <v>262</v>
       </c>
-      <c r="E21" s="214"/>
-      <c r="F21" s="137"/>
-    </row>
-    <row r="22" spans="2:8" s="136" customFormat="1" ht="15" customHeight="1">
-      <c r="B22" s="98">
+      <c r="E22" s="219"/>
+      <c r="F22" s="137"/>
+    </row>
+    <row r="23" spans="2:8" s="136" customFormat="1" ht="15" customHeight="1">
+      <c r="B23" s="98">
         <v>6</v>
       </c>
-      <c r="C22" s="101" t="s">
+      <c r="C23" s="101" t="s">
         <v>257</v>
       </c>
-      <c r="D22" s="213" t="s">
+      <c r="D23" s="218" t="s">
         <v>263</v>
       </c>
-      <c r="E22" s="214"/>
-      <c r="F22" s="137"/>
-    </row>
-    <row r="23" spans="2:8" s="136" customFormat="1">
-      <c r="B23" s="98">
+      <c r="E23" s="219"/>
+      <c r="F23" s="137"/>
+    </row>
+    <row r="24" spans="2:8" s="136" customFormat="1">
+      <c r="B24" s="98">
         <v>7</v>
       </c>
-      <c r="C23" s="101" t="s">
+      <c r="C24" s="101" t="s">
         <v>258</v>
       </c>
-      <c r="D23" s="213" t="s">
+      <c r="D24" s="218" t="s">
         <v>264</v>
       </c>
-      <c r="E23" s="214"/>
-      <c r="F23" s="137"/>
-    </row>
-    <row r="24" spans="2:8" s="136" customFormat="1" ht="15" customHeight="1">
-      <c r="B24" s="98">
+      <c r="E24" s="219"/>
+      <c r="F24" s="137"/>
+    </row>
+    <row r="25" spans="2:8" s="136" customFormat="1" ht="15" customHeight="1">
+      <c r="B25" s="98">
         <v>8</v>
       </c>
-      <c r="C24" s="101" t="s">
+      <c r="C25" s="101" t="s">
         <v>259</v>
       </c>
-      <c r="D24" s="213" t="s">
+      <c r="D25" s="218" t="s">
         <v>265</v>
       </c>
-      <c r="E24" s="214"/>
-      <c r="F24" s="137"/>
-    </row>
-    <row r="25" spans="2:8" s="136" customFormat="1">
-      <c r="B25" s="140"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="143"/>
-    </row>
-    <row r="26" spans="2:8" ht="15.75">
-      <c r="B26" s="103" t="s">
+      <c r="E25" s="219"/>
+      <c r="F25" s="137"/>
+    </row>
+    <row r="26" spans="2:8" s="136" customFormat="1">
+      <c r="B26" s="140"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="143"/>
+    </row>
+    <row r="27" spans="2:8" ht="15.75">
+      <c r="B27" s="103" t="s">
         <v>432</v>
       </c>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="95"/>
-    </row>
-    <row r="27" spans="2:8" ht="15.75">
-      <c r="B27" s="16" t="s">
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="95"/>
+    </row>
+    <row r="28" spans="2:8" ht="15.75">
+      <c r="B28" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C28" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="226" t="s">
+      <c r="D28" s="220" t="s">
         <v>430</v>
       </c>
-      <c r="E27" s="226"/>
-      <c r="F27" s="16" t="s">
+      <c r="E28" s="220"/>
+      <c r="F28" s="16" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="98">
-        <v>1</v>
-      </c>
-      <c r="C28" s="101" t="s">
-        <v>431</v>
-      </c>
-      <c r="D28" s="213" t="s">
-        <v>433</v>
-      </c>
-      <c r="E28" s="214"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="97"/>
     </row>
     <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="101" t="s">
-        <v>185</v>
-      </c>
-      <c r="D29" s="213" t="s">
-        <v>180</v>
-      </c>
-      <c r="E29" s="214"/>
-      <c r="F29" s="99"/>
+        <v>431</v>
+      </c>
+      <c r="D29" s="218" t="s">
+        <v>433</v>
+      </c>
+      <c r="E29" s="219"/>
+      <c r="F29" s="163"/>
       <c r="G29" s="97"/>
       <c r="H29" s="97"/>
     </row>
+    <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B30" s="98">
+        <v>2</v>
+      </c>
+      <c r="C30" s="101" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="218" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30" s="219"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="97"/>
+    </row>
+    <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B31" s="98">
+        <v>3</v>
+      </c>
+      <c r="C31" s="101" t="s">
+        <v>450</v>
+      </c>
+      <c r="D31" s="218" t="s">
+        <v>451</v>
+      </c>
+      <c r="E31" s="219"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="97"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="D29:E29"/>
+  <mergeCells count="22">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="D10:E11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47077,7 +47198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N30"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -47141,10 +47262,10 @@
       <c r="D4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="227" t="s">
+      <c r="E4" s="232" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="228"/>
+      <c r="F4" s="233"/>
       <c r="G4" s="16" t="s">
         <v>26</v>
       </c>
@@ -47159,7 +47280,7 @@
       <c r="C5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="229" t="s">
+      <c r="D5" s="234" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="120" t="s">
@@ -47184,7 +47305,7 @@
       <c r="C6" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="230"/>
+      <c r="D6" s="235"/>
       <c r="E6" s="120" t="s">
         <v>83</v>
       </c>
@@ -47207,7 +47328,7 @@
       <c r="C7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="230"/>
+      <c r="D7" s="235"/>
       <c r="E7" s="120" t="s">
         <v>187</v>
       </c>
@@ -47230,7 +47351,7 @@
       <c r="C8" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="230"/>
+      <c r="D8" s="235"/>
       <c r="E8" s="120" t="s">
         <v>188</v>
       </c>
@@ -47253,7 +47374,7 @@
       <c r="C9" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="D9" s="230"/>
+      <c r="D9" s="235"/>
       <c r="E9" s="120" t="s">
         <v>187</v>
       </c>
@@ -47276,7 +47397,7 @@
       <c r="C10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="230"/>
+      <c r="D10" s="235"/>
       <c r="E10" s="120" t="s">
         <v>188</v>
       </c>
@@ -47299,7 +47420,7 @@
       <c r="C11" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="230"/>
+      <c r="D11" s="235"/>
       <c r="E11" s="120" t="s">
         <v>188</v>
       </c>
@@ -47333,7 +47454,7 @@
       <c r="C13" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="231" t="s">
+      <c r="D13" s="236" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="121" t="s">
@@ -47354,7 +47475,7 @@
     <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="40"/>
       <c r="C14" s="41"/>
-      <c r="D14" s="232"/>
+      <c r="D14" s="237"/>
       <c r="E14" s="37"/>
       <c r="F14" s="42"/>
       <c r="G14" s="43"/>
@@ -47369,7 +47490,7 @@
       <c r="C15" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="233" t="s">
+      <c r="D15" s="238" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="120" t="s">
@@ -47394,7 +47515,7 @@
       <c r="C16" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="234"/>
+      <c r="D16" s="239"/>
       <c r="E16" s="120" t="s">
         <v>187</v>
       </c>
@@ -47417,7 +47538,7 @@
       <c r="C17" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="234"/>
+      <c r="D17" s="239"/>
       <c r="E17" s="120" t="s">
         <v>189</v>
       </c>
@@ -47440,7 +47561,7 @@
       <c r="C18" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="234"/>
+      <c r="D18" s="239"/>
       <c r="E18" s="120" t="s">
         <v>188</v>
       </c>
@@ -47463,7 +47584,7 @@
       <c r="C19" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="234"/>
+      <c r="D19" s="239"/>
       <c r="E19" s="120" t="s">
         <v>188</v>
       </c>
@@ -47486,7 +47607,7 @@
       <c r="C20" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="234"/>
+      <c r="D20" s="239"/>
       <c r="E20" s="120" t="s">
         <v>188</v>
       </c>
@@ -47505,7 +47626,7 @@
     <row r="21" spans="2:10">
       <c r="B21" s="17"/>
       <c r="C21" s="25"/>
-      <c r="D21" s="235"/>
+      <c r="D21" s="240"/>
       <c r="E21" s="19"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
@@ -47520,7 +47641,7 @@
       <c r="C22" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="231" t="s">
+      <c r="D22" s="236" t="s">
         <v>56</v>
       </c>
       <c r="E22" s="121" t="s">
@@ -47545,7 +47666,7 @@
       <c r="C23" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="232"/>
+      <c r="D23" s="237"/>
       <c r="E23" s="121" t="s">
         <v>187</v>
       </c>
@@ -47568,7 +47689,7 @@
       <c r="C24" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="232"/>
+      <c r="D24" s="237"/>
       <c r="E24" s="121" t="s">
         <v>189</v>
       </c>
@@ -47591,7 +47712,7 @@
       <c r="C25" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="232"/>
+      <c r="D25" s="237"/>
       <c r="E25" s="121" t="s">
         <v>188</v>
       </c>
@@ -47610,7 +47731,7 @@
     <row r="26" spans="2:10">
       <c r="B26" s="40"/>
       <c r="C26" s="41"/>
-      <c r="D26" s="236"/>
+      <c r="D26" s="241"/>
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
@@ -47780,15 +47901,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="239" t="s">
+      <c r="C4" s="243" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="238"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -47801,15 +47922,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="239" t="s">
+      <c r="C5" s="243" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="238"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -47843,15 +47964,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="239" t="s">
+      <c r="C7" s="243" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="238"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -47885,15 +48006,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="239" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="249"/>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="249"/>
-      <c r="H9" s="249"/>
-      <c r="I9" s="238"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -47956,19 +48077,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="250" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="251"/>
-      <c r="D13" s="251"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="251"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="251"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="251"/>
-      <c r="K13" s="251"/>
-      <c r="L13" s="252"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -47997,11 +48118,11 @@
       <c r="I14" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="248" t="s">
+      <c r="J14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="248"/>
-      <c r="L14" s="248"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -48030,11 +48151,11 @@
       <c r="I15" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="J15" s="246" t="s">
+      <c r="J15" s="252" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="246"/>
-      <c r="L15" s="246"/>
+      <c r="K15" s="252"/>
+      <c r="L15" s="252"/>
       <c r="M15" s="48"/>
       <c r="N15" s="48"/>
       <c r="O15" s="48"/>
@@ -48063,11 +48184,11 @@
       <c r="I16" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="J16" s="239" t="s">
+      <c r="J16" s="243" t="s">
         <v>249</v>
       </c>
-      <c r="K16" s="249"/>
-      <c r="L16" s="238"/>
+      <c r="K16" s="244"/>
+      <c r="L16" s="245"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -48096,11 +48217,11 @@
       <c r="I17" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="J17" s="246" t="s">
+      <c r="J17" s="252" t="s">
         <v>105</v>
       </c>
-      <c r="K17" s="246"/>
-      <c r="L17" s="246"/>
+      <c r="K17" s="252"/>
+      <c r="L17" s="252"/>
       <c r="M17" s="48"/>
       <c r="N17" s="48"/>
       <c r="O17" s="48"/>
@@ -48278,11 +48399,11 @@
     </row>
     <row r="27" spans="1:15" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="51"/>
-      <c r="B27" s="247" t="s">
+      <c r="B27" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="247"/>
-      <c r="D27" s="247"/>
+      <c r="C27" s="253"/>
+      <c r="D27" s="253"/>
       <c r="E27" s="67"/>
       <c r="F27" s="68"/>
       <c r="G27" s="67"/>
@@ -48297,12 +48418,12 @@
     </row>
     <row r="28" spans="1:15" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="70"/>
-      <c r="B28" s="243" t="s">
+      <c r="B28" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="244"/>
-      <c r="D28" s="244"/>
-      <c r="E28" s="245"/>
+      <c r="C28" s="250"/>
+      <c r="D28" s="250"/>
+      <c r="E28" s="251"/>
       <c r="F28" s="58" t="s">
         <v>90</v>
       </c>
@@ -48394,10 +48515,10 @@
       <c r="A31" s="48"/>
       <c r="B31" s="72"/>
       <c r="C31" s="77"/>
-      <c r="D31" s="239" t="s">
+      <c r="D31" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E31" s="238"/>
+      <c r="E31" s="245"/>
       <c r="F31" s="61" t="s">
         <v>190</v>
       </c>
@@ -48427,10 +48548,10 @@
       <c r="A32" s="48"/>
       <c r="B32" s="72"/>
       <c r="C32" s="78"/>
-      <c r="D32" s="239" t="s">
+      <c r="D32" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="238"/>
+      <c r="E32" s="245"/>
       <c r="F32" s="61" t="s">
         <v>129</v>
       </c>
@@ -48493,10 +48614,10 @@
       <c r="A34" s="48"/>
       <c r="B34" s="72"/>
       <c r="C34" s="79"/>
-      <c r="D34" s="239" t="s">
+      <c r="D34" s="243" t="s">
         <v>134</v>
       </c>
-      <c r="E34" s="238"/>
+      <c r="E34" s="245"/>
       <c r="F34" s="61" t="s">
         <v>135</v>
       </c>
@@ -48526,10 +48647,10 @@
       <c r="A35" s="48"/>
       <c r="B35" s="72"/>
       <c r="C35" s="79"/>
-      <c r="D35" s="240" t="s">
+      <c r="D35" s="255" t="s">
         <v>97</v>
       </c>
-      <c r="E35" s="241"/>
+      <c r="E35" s="256"/>
       <c r="F35" s="61" t="s">
         <v>98</v>
       </c>
@@ -48559,10 +48680,10 @@
       <c r="A36" s="48"/>
       <c r="B36" s="83"/>
       <c r="C36" s="78"/>
-      <c r="D36" s="239" t="s">
+      <c r="D36" s="243" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="238"/>
+      <c r="E36" s="245"/>
       <c r="F36" s="61" t="s">
         <v>143</v>
       </c>
@@ -48830,11 +48951,11 @@
     </row>
     <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="48"/>
-      <c r="B51" s="242" t="s">
+      <c r="B51" s="257" t="s">
         <v>146</v>
       </c>
-      <c r="C51" s="242"/>
-      <c r="D51" s="242"/>
+      <c r="C51" s="257"/>
+      <c r="D51" s="257"/>
       <c r="E51" s="48"/>
       <c r="F51" s="48"/>
       <c r="G51" s="48"/>
@@ -48849,12 +48970,12 @@
     </row>
     <row r="52" spans="1:15" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="70"/>
-      <c r="B52" s="243" t="s">
+      <c r="B52" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="244"/>
-      <c r="D52" s="244"/>
-      <c r="E52" s="245"/>
+      <c r="C52" s="250"/>
+      <c r="D52" s="250"/>
+      <c r="E52" s="251"/>
       <c r="F52" s="58" t="s">
         <v>90</v>
       </c>
@@ -48946,10 +49067,10 @@
       <c r="A55" s="48"/>
       <c r="B55" s="72"/>
       <c r="C55" s="77"/>
-      <c r="D55" s="239" t="s">
+      <c r="D55" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E55" s="238"/>
+      <c r="E55" s="245"/>
       <c r="F55" s="61" t="s">
         <v>190</v>
       </c>
@@ -48979,10 +49100,10 @@
       <c r="A56" s="48"/>
       <c r="B56" s="72"/>
       <c r="C56" s="77"/>
-      <c r="D56" s="237" t="s">
+      <c r="D56" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E56" s="238"/>
+      <c r="E56" s="245"/>
       <c r="F56" s="61" t="s">
         <v>149</v>
       </c>
@@ -49076,8 +49197,8 @@
       <c r="A59" s="48"/>
       <c r="B59" s="83"/>
       <c r="C59" s="78"/>
-      <c r="D59" s="239"/>
-      <c r="E59" s="238"/>
+      <c r="D59" s="243"/>
+      <c r="E59" s="245"/>
       <c r="F59" s="61"/>
       <c r="G59" s="63"/>
       <c r="H59" s="63"/>
@@ -49467,6 +49588,20 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="C4:I4"/>
@@ -49474,20 +49609,6 @@
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="D55:E55"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -49584,15 +49705,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="239" t="s">
+      <c r="C4" s="243" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="238"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -49605,15 +49726,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="239" t="s">
+      <c r="C5" s="243" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="238"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -49647,15 +49768,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="239" t="s">
+      <c r="C7" s="243" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="238"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -49689,15 +49810,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="239" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="249"/>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="249"/>
-      <c r="H9" s="249"/>
-      <c r="I9" s="238"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -49760,19 +49881,19 @@
     </row>
     <row r="13" spans="1:15" ht="18.95" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="250" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="251"/>
-      <c r="D13" s="251"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="251"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="251"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="251"/>
-      <c r="K13" s="251"/>
-      <c r="L13" s="252"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -49801,11 +49922,11 @@
       <c r="I14" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="248" t="s">
+      <c r="J14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="248"/>
-      <c r="L14" s="248"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -49867,11 +49988,11 @@
       <c r="I16" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="J16" s="237" t="s">
+      <c r="J16" s="254" t="s">
         <v>162</v>
       </c>
-      <c r="K16" s="249"/>
-      <c r="L16" s="238"/>
+      <c r="K16" s="244"/>
+      <c r="L16" s="245"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -49900,11 +50021,11 @@
       <c r="I17" s="130" t="s">
         <v>165</v>
       </c>
-      <c r="J17" s="254" t="s">
+      <c r="J17" s="258" t="s">
         <v>166</v>
       </c>
-      <c r="K17" s="255"/>
-      <c r="L17" s="256"/>
+      <c r="K17" s="259"/>
+      <c r="L17" s="260"/>
       <c r="M17" s="48"/>
       <c r="N17" s="48"/>
       <c r="O17" s="48"/>
@@ -50049,11 +50170,11 @@
     </row>
     <row r="26" spans="1:15" s="69" customFormat="1" ht="18.95" customHeight="1">
       <c r="A26" s="51"/>
-      <c r="B26" s="247" t="s">
+      <c r="B26" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="247"/>
-      <c r="D26" s="247"/>
+      <c r="C26" s="253"/>
+      <c r="D26" s="253"/>
       <c r="E26" s="67"/>
       <c r="F26" s="68"/>
       <c r="G26" s="67"/>
@@ -50068,12 +50189,12 @@
     </row>
     <row r="27" spans="1:15" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A27" s="70"/>
-      <c r="B27" s="243" t="s">
+      <c r="B27" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="244"/>
-      <c r="D27" s="244"/>
-      <c r="E27" s="245"/>
+      <c r="C27" s="250"/>
+      <c r="D27" s="250"/>
+      <c r="E27" s="251"/>
       <c r="F27" s="59" t="s">
         <v>90</v>
       </c>
@@ -50165,10 +50286,10 @@
       <c r="A30" s="48"/>
       <c r="B30" s="72"/>
       <c r="C30" s="77"/>
-      <c r="D30" s="239" t="s">
+      <c r="D30" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E30" s="238"/>
+      <c r="E30" s="245"/>
       <c r="F30" s="61" t="s">
         <v>190</v>
       </c>
@@ -50198,10 +50319,10 @@
       <c r="A31" s="48"/>
       <c r="B31" s="72"/>
       <c r="C31" s="78"/>
-      <c r="D31" s="239" t="s">
+      <c r="D31" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="238"/>
+      <c r="E31" s="245"/>
       <c r="F31" s="61" t="s">
         <v>129</v>
       </c>
@@ -50264,10 +50385,10 @@
       <c r="A33" s="48"/>
       <c r="B33" s="72"/>
       <c r="C33" s="79"/>
-      <c r="D33" s="239" t="s">
+      <c r="D33" s="243" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="238"/>
+      <c r="E33" s="245"/>
       <c r="F33" s="61" t="s">
         <v>135</v>
       </c>
@@ -50297,10 +50418,10 @@
       <c r="A34" s="48"/>
       <c r="B34" s="72"/>
       <c r="C34" s="79"/>
-      <c r="D34" s="240" t="s">
+      <c r="D34" s="255" t="s">
         <v>97</v>
       </c>
-      <c r="E34" s="241"/>
+      <c r="E34" s="256"/>
       <c r="F34" s="61" t="s">
         <v>98</v>
       </c>
@@ -50361,10 +50482,10 @@
       <c r="A36" s="48"/>
       <c r="B36" s="72"/>
       <c r="C36" s="77"/>
-      <c r="D36" s="239" t="s">
+      <c r="D36" s="243" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="238"/>
+      <c r="E36" s="245"/>
       <c r="F36" s="62" t="s">
         <v>115</v>
       </c>
@@ -50392,10 +50513,10 @@
       <c r="A37" s="48"/>
       <c r="B37" s="83"/>
       <c r="C37" s="78"/>
-      <c r="D37" s="239" t="s">
+      <c r="D37" s="243" t="s">
         <v>202</v>
       </c>
-      <c r="E37" s="238"/>
+      <c r="E37" s="245"/>
       <c r="F37" s="61" t="s">
         <v>203</v>
       </c>
@@ -50765,11 +50886,11 @@
     </row>
     <row r="58" spans="1:15" ht="18.95" customHeight="1">
       <c r="A58" s="48"/>
-      <c r="B58" s="242" t="s">
+      <c r="B58" s="257" t="s">
         <v>206</v>
       </c>
-      <c r="C58" s="242"/>
-      <c r="D58" s="242"/>
+      <c r="C58" s="257"/>
+      <c r="D58" s="257"/>
       <c r="E58" s="48"/>
       <c r="F58" s="48"/>
       <c r="G58" s="48"/>
@@ -50784,12 +50905,12 @@
     </row>
     <row r="59" spans="1:15" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A59" s="70"/>
-      <c r="B59" s="243" t="s">
+      <c r="B59" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="244"/>
-      <c r="D59" s="244"/>
-      <c r="E59" s="245"/>
+      <c r="C59" s="250"/>
+      <c r="D59" s="250"/>
+      <c r="E59" s="251"/>
       <c r="F59" s="59" t="s">
         <v>90</v>
       </c>
@@ -50881,10 +51002,10 @@
       <c r="A62" s="48"/>
       <c r="B62" s="72"/>
       <c r="C62" s="77"/>
-      <c r="D62" s="239" t="s">
+      <c r="D62" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E62" s="238"/>
+      <c r="E62" s="245"/>
       <c r="F62" s="61" t="s">
         <v>190</v>
       </c>
@@ -50914,10 +51035,10 @@
       <c r="A63" s="48"/>
       <c r="B63" s="72"/>
       <c r="C63" s="77"/>
-      <c r="D63" s="237" t="s">
+      <c r="D63" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E63" s="253"/>
+      <c r="E63" s="261"/>
       <c r="F63" s="61" t="s">
         <v>149</v>
       </c>
@@ -51011,8 +51132,8 @@
       <c r="A66" s="48"/>
       <c r="B66" s="83"/>
       <c r="C66" s="78"/>
-      <c r="D66" s="239"/>
-      <c r="E66" s="238"/>
+      <c r="D66" s="243"/>
+      <c r="E66" s="245"/>
       <c r="F66" s="61"/>
       <c r="G66" s="63"/>
       <c r="H66" s="63"/>
@@ -51402,27 +51523,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B58:D58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -51514,15 +51635,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="239" t="s">
+      <c r="C4" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="238"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -51535,15 +51656,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="239" t="s">
+      <c r="C5" s="243" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="238"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -51577,15 +51698,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="239" t="s">
+      <c r="C7" s="243" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="238"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -51619,15 +51740,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="239" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="249"/>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="249"/>
-      <c r="H9" s="249"/>
-      <c r="I9" s="238"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -51690,19 +51811,19 @@
     </row>
     <row r="13" spans="1:15" ht="21.95" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="250" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="251"/>
-      <c r="D13" s="251"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="251"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="251"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="251"/>
-      <c r="K13" s="251"/>
-      <c r="L13" s="252"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -51731,11 +51852,11 @@
       <c r="I14" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="248" t="s">
+      <c r="J14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="248"/>
-      <c r="L14" s="248"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -51797,11 +51918,11 @@
       <c r="I16" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="J16" s="239" t="s">
+      <c r="J16" s="243" t="s">
         <v>214</v>
       </c>
-      <c r="K16" s="249"/>
-      <c r="L16" s="238"/>
+      <c r="K16" s="244"/>
+      <c r="L16" s="245"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -51830,11 +51951,11 @@
       <c r="I17" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="J17" s="239" t="s">
+      <c r="J17" s="243" t="s">
         <v>221</v>
       </c>
-      <c r="K17" s="249"/>
-      <c r="L17" s="238"/>
+      <c r="K17" s="244"/>
+      <c r="L17" s="245"/>
       <c r="M17" s="48"/>
       <c r="N17" s="48"/>
       <c r="O17" s="48"/>
@@ -52012,11 +52133,11 @@
     </row>
     <row r="27" spans="1:15" s="69" customFormat="1" ht="21.95" customHeight="1">
       <c r="A27" s="51"/>
-      <c r="B27" s="247" t="s">
+      <c r="B27" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="247"/>
-      <c r="D27" s="247"/>
+      <c r="C27" s="253"/>
+      <c r="D27" s="253"/>
       <c r="E27" s="67"/>
       <c r="F27" s="68"/>
       <c r="G27" s="67"/>
@@ -52031,12 +52152,12 @@
     </row>
     <row r="28" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A28" s="70"/>
-      <c r="B28" s="243" t="s">
+      <c r="B28" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="244"/>
-      <c r="D28" s="244"/>
-      <c r="E28" s="245"/>
+      <c r="C28" s="250"/>
+      <c r="D28" s="250"/>
+      <c r="E28" s="251"/>
       <c r="F28" s="59" t="s">
         <v>90</v>
       </c>
@@ -52128,10 +52249,10 @@
       <c r="A31" s="48"/>
       <c r="B31" s="72"/>
       <c r="C31" s="77"/>
-      <c r="D31" s="239" t="s">
+      <c r="D31" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E31" s="238"/>
+      <c r="E31" s="245"/>
       <c r="F31" s="61" t="s">
         <v>190</v>
       </c>
@@ -52161,10 +52282,10 @@
       <c r="A32" s="48"/>
       <c r="B32" s="131"/>
       <c r="C32" s="78"/>
-      <c r="D32" s="239" t="s">
+      <c r="D32" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="238"/>
+      <c r="E32" s="245"/>
       <c r="F32" s="61" t="s">
         <v>129</v>
       </c>
@@ -52364,11 +52485,11 @@
     </row>
     <row r="43" spans="1:15" ht="21.95" customHeight="1">
       <c r="A43" s="48"/>
-      <c r="B43" s="242" t="s">
+      <c r="B43" s="257" t="s">
         <v>216</v>
       </c>
-      <c r="C43" s="242"/>
-      <c r="D43" s="242"/>
+      <c r="C43" s="257"/>
+      <c r="D43" s="257"/>
       <c r="E43" s="48"/>
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
@@ -52383,12 +52504,12 @@
     </row>
     <row r="44" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A44" s="70"/>
-      <c r="B44" s="243" t="s">
+      <c r="B44" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="244"/>
-      <c r="D44" s="244"/>
-      <c r="E44" s="245"/>
+      <c r="C44" s="250"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="251"/>
       <c r="F44" s="59" t="s">
         <v>90</v>
       </c>
@@ -52480,10 +52601,10 @@
       <c r="A47" s="48"/>
       <c r="B47" s="72"/>
       <c r="C47" s="77"/>
-      <c r="D47" s="239" t="s">
+      <c r="D47" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E47" s="238"/>
+      <c r="E47" s="245"/>
       <c r="F47" s="61" t="s">
         <v>190</v>
       </c>
@@ -52513,10 +52634,10 @@
       <c r="A48" s="48"/>
       <c r="B48" s="72"/>
       <c r="C48" s="77"/>
-      <c r="D48" s="237" t="s">
+      <c r="D48" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E48" s="238"/>
+      <c r="E48" s="245"/>
       <c r="F48" s="61" t="s">
         <v>149</v>
       </c>
@@ -52885,6 +53006,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:E44"/>
     <mergeCell ref="D47:E47"/>
@@ -52895,12 +53022,6 @@
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -52992,15 +53113,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="239" t="s">
+      <c r="C4" s="243" t="s">
         <v>223</v>
       </c>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="238"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -53013,15 +53134,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="239" t="s">
+      <c r="C5" s="243" t="s">
         <v>243</v>
       </c>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="238"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -53055,15 +53176,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="239" t="s">
+      <c r="C7" s="243" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="238"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -53097,15 +53218,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="239" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="249"/>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="249"/>
-      <c r="H9" s="249"/>
-      <c r="I9" s="238"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -53168,19 +53289,19 @@
     </row>
     <row r="13" spans="1:15" ht="18.95" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="250" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="251"/>
-      <c r="D13" s="251"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="251"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="251"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="251"/>
-      <c r="K13" s="251"/>
-      <c r="L13" s="252"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -53209,11 +53330,11 @@
       <c r="I14" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="248" t="s">
+      <c r="J14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="248"/>
-      <c r="L14" s="248"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -53408,11 +53529,11 @@
     </row>
     <row r="25" spans="1:15" s="69" customFormat="1" ht="18.95" customHeight="1">
       <c r="A25" s="51"/>
-      <c r="B25" s="257" t="s">
+      <c r="B25" s="262" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="257"/>
-      <c r="D25" s="257"/>
+      <c r="C25" s="262"/>
+      <c r="D25" s="262"/>
       <c r="E25" s="67"/>
       <c r="F25" s="68"/>
       <c r="G25" s="67"/>
@@ -53427,12 +53548,12 @@
     </row>
     <row r="26" spans="1:15" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A26" s="70"/>
-      <c r="B26" s="243" t="s">
+      <c r="B26" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="244"/>
-      <c r="D26" s="244"/>
-      <c r="E26" s="245"/>
+      <c r="C26" s="250"/>
+      <c r="D26" s="250"/>
+      <c r="E26" s="251"/>
       <c r="F26" s="59" t="s">
         <v>90</v>
       </c>
@@ -53524,10 +53645,10 @@
       <c r="A29" s="48"/>
       <c r="B29" s="72"/>
       <c r="C29" s="77"/>
-      <c r="D29" s="239" t="s">
+      <c r="D29" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E29" s="238"/>
+      <c r="E29" s="245"/>
       <c r="F29" s="61" t="s">
         <v>190</v>
       </c>
@@ -53557,10 +53678,10 @@
       <c r="A30" s="48"/>
       <c r="B30" s="72"/>
       <c r="C30" s="78"/>
-      <c r="D30" s="239" t="s">
+      <c r="D30" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E30" s="238"/>
+      <c r="E30" s="245"/>
       <c r="F30" s="61" t="s">
         <v>129</v>
       </c>
@@ -53623,10 +53744,10 @@
       <c r="A32" s="48"/>
       <c r="B32" s="72"/>
       <c r="C32" s="79"/>
-      <c r="D32" s="239" t="s">
+      <c r="D32" s="243" t="s">
         <v>134</v>
       </c>
-      <c r="E32" s="238"/>
+      <c r="E32" s="245"/>
       <c r="F32" s="61" t="s">
         <v>135</v>
       </c>
@@ -53689,10 +53810,10 @@
       <c r="A34" s="48"/>
       <c r="B34" s="72"/>
       <c r="C34" s="79"/>
-      <c r="D34" s="240" t="s">
+      <c r="D34" s="255" t="s">
         <v>97</v>
       </c>
-      <c r="E34" s="241"/>
+      <c r="E34" s="256"/>
       <c r="F34" s="61" t="s">
         <v>98</v>
       </c>
@@ -53722,10 +53843,10 @@
       <c r="A35" s="48"/>
       <c r="B35" s="72"/>
       <c r="C35" s="77"/>
-      <c r="D35" s="239" t="s">
+      <c r="D35" s="243" t="s">
         <v>109</v>
       </c>
-      <c r="E35" s="238"/>
+      <c r="E35" s="245"/>
       <c r="F35" s="61" t="s">
         <v>110</v>
       </c>
@@ -53788,10 +53909,10 @@
       <c r="A37" s="48"/>
       <c r="B37" s="72"/>
       <c r="C37" s="77"/>
-      <c r="D37" s="239" t="s">
+      <c r="D37" s="243" t="s">
         <v>227</v>
       </c>
-      <c r="E37" s="238"/>
+      <c r="E37" s="245"/>
       <c r="F37" s="62" t="s">
         <v>228</v>
       </c>
@@ -53821,10 +53942,10 @@
       <c r="A38" s="48"/>
       <c r="B38" s="72"/>
       <c r="C38" s="77"/>
-      <c r="D38" s="239" t="s">
+      <c r="D38" s="243" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="238"/>
+      <c r="E38" s="245"/>
       <c r="F38" s="62" t="s">
         <v>115</v>
       </c>
@@ -53852,10 +53973,10 @@
       <c r="A39" s="48"/>
       <c r="B39" s="72"/>
       <c r="C39" s="77"/>
-      <c r="D39" s="239" t="s">
+      <c r="D39" s="243" t="s">
         <v>233</v>
       </c>
-      <c r="E39" s="238"/>
+      <c r="E39" s="245"/>
       <c r="F39" s="62" t="s">
         <v>234</v>
       </c>
@@ -53883,10 +54004,10 @@
       <c r="A40" s="48"/>
       <c r="B40" s="72"/>
       <c r="C40" s="77"/>
-      <c r="D40" s="239" t="s">
+      <c r="D40" s="243" t="s">
         <v>224</v>
       </c>
-      <c r="E40" s="238"/>
+      <c r="E40" s="245"/>
       <c r="F40" s="62" t="s">
         <v>225</v>
       </c>
@@ -53914,10 +54035,10 @@
       <c r="A41" s="48"/>
       <c r="B41" s="72"/>
       <c r="C41" s="77"/>
-      <c r="D41" s="239" t="s">
+      <c r="D41" s="243" t="s">
         <v>230</v>
       </c>
-      <c r="E41" s="238"/>
+      <c r="E41" s="245"/>
       <c r="F41" s="62" t="s">
         <v>231</v>
       </c>
@@ -53947,10 +54068,10 @@
       <c r="A42" s="48"/>
       <c r="B42" s="72"/>
       <c r="C42" s="77"/>
-      <c r="D42" s="239" t="s">
+      <c r="D42" s="243" t="s">
         <v>250</v>
       </c>
-      <c r="E42" s="238"/>
+      <c r="E42" s="245"/>
       <c r="F42" s="62" t="s">
         <v>251</v>
       </c>
@@ -53978,10 +54099,10 @@
       <c r="A43" s="48"/>
       <c r="B43" s="72"/>
       <c r="C43" s="77"/>
-      <c r="D43" s="239" t="s">
+      <c r="D43" s="243" t="s">
         <v>237</v>
       </c>
-      <c r="E43" s="238"/>
+      <c r="E43" s="245"/>
       <c r="F43" s="62" t="s">
         <v>238</v>
       </c>
@@ -54011,10 +54132,10 @@
       <c r="A44" s="48"/>
       <c r="B44" s="131"/>
       <c r="C44" s="78"/>
-      <c r="D44" s="239" t="s">
+      <c r="D44" s="243" t="s">
         <v>195</v>
       </c>
-      <c r="E44" s="238"/>
+      <c r="E44" s="245"/>
       <c r="F44" s="62" t="s">
         <v>194</v>
       </c>
@@ -54452,11 +54573,11 @@
     </row>
     <row r="69" spans="1:15" ht="18.95" customHeight="1">
       <c r="A69" s="48"/>
-      <c r="B69" s="257" t="s">
+      <c r="B69" s="262" t="s">
         <v>240</v>
       </c>
-      <c r="C69" s="257"/>
-      <c r="D69" s="257"/>
+      <c r="C69" s="262"/>
+      <c r="D69" s="262"/>
       <c r="E69" s="48"/>
       <c r="F69" s="48"/>
       <c r="G69" s="48"/>
@@ -54471,12 +54592,12 @@
     </row>
     <row r="70" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A70" s="70"/>
-      <c r="B70" s="243" t="s">
+      <c r="B70" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C70" s="244"/>
-      <c r="D70" s="244"/>
-      <c r="E70" s="245"/>
+      <c r="C70" s="250"/>
+      <c r="D70" s="250"/>
+      <c r="E70" s="251"/>
       <c r="F70" s="59" t="s">
         <v>90</v>
       </c>
@@ -54568,10 +54689,10 @@
       <c r="A73" s="48"/>
       <c r="B73" s="72"/>
       <c r="C73" s="77"/>
-      <c r="D73" s="239" t="s">
+      <c r="D73" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E73" s="238"/>
+      <c r="E73" s="245"/>
       <c r="F73" s="61" t="s">
         <v>190</v>
       </c>
@@ -54601,10 +54722,10 @@
       <c r="A74" s="48"/>
       <c r="B74" s="72"/>
       <c r="C74" s="77"/>
-      <c r="D74" s="237" t="s">
+      <c r="D74" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E74" s="238"/>
+      <c r="E74" s="245"/>
       <c r="F74" s="61" t="s">
         <v>149</v>
       </c>
@@ -55041,19 +55162,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D39:E39"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -55066,6 +55174,19 @@
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B69:D69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -55157,15 +55278,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="239" t="s">
+      <c r="C4" s="243" t="s">
         <v>242</v>
       </c>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="238"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -55178,15 +55299,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="239" t="s">
+      <c r="C5" s="243" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="238"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -55220,15 +55341,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="239" t="s">
+      <c r="C7" s="243" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="238"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -55262,15 +55383,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="239" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="249"/>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="249"/>
-      <c r="H9" s="249"/>
-      <c r="I9" s="238"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -55316,19 +55437,19 @@
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="48"/>
-      <c r="B12" s="250" t="s">
+      <c r="B12" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="251"/>
-      <c r="D12" s="251"/>
-      <c r="E12" s="251"/>
-      <c r="F12" s="251"/>
-      <c r="G12" s="251"/>
-      <c r="H12" s="251"/>
-      <c r="I12" s="251"/>
-      <c r="J12" s="251"/>
-      <c r="K12" s="251"/>
-      <c r="L12" s="252"/>
+      <c r="C12" s="247"/>
+      <c r="D12" s="247"/>
+      <c r="E12" s="247"/>
+      <c r="F12" s="247"/>
+      <c r="G12" s="247"/>
+      <c r="H12" s="247"/>
+      <c r="I12" s="247"/>
+      <c r="J12" s="247"/>
+      <c r="K12" s="247"/>
+      <c r="L12" s="248"/>
       <c r="M12" s="48"/>
       <c r="N12" s="48"/>
       <c r="O12" s="48"/>
@@ -55357,11 +55478,11 @@
       <c r="I13" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="248" t="s">
+      <c r="J13" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="248"/>
-      <c r="L13" s="248"/>
+      <c r="K13" s="242"/>
+      <c r="L13" s="242"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -55456,11 +55577,11 @@
       <c r="I16" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="J16" s="239" t="s">
+      <c r="J16" s="243" t="s">
         <v>268</v>
       </c>
-      <c r="K16" s="249"/>
-      <c r="L16" s="238"/>
+      <c r="K16" s="244"/>
+      <c r="L16" s="245"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -55516,11 +55637,11 @@
       <c r="I18" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="J18" s="239" t="s">
+      <c r="J18" s="243" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="249"/>
-      <c r="L18" s="238"/>
+      <c r="K18" s="244"/>
+      <c r="L18" s="245"/>
       <c r="M18" s="48"/>
       <c r="N18" s="48"/>
       <c r="O18" s="48"/>
@@ -55611,11 +55732,11 @@
       <c r="I21" s="144" t="s">
         <v>276</v>
       </c>
-      <c r="J21" s="239" t="s">
+      <c r="J21" s="243" t="s">
         <v>232</v>
       </c>
-      <c r="K21" s="249"/>
-      <c r="L21" s="238"/>
+      <c r="K21" s="244"/>
+      <c r="L21" s="245"/>
       <c r="M21" s="48"/>
       <c r="N21" s="48"/>
       <c r="O21" s="48"/>
@@ -55858,11 +55979,11 @@
     </row>
     <row r="34" spans="1:15" s="69" customFormat="1" ht="18.95" customHeight="1">
       <c r="A34" s="51"/>
-      <c r="B34" s="257" t="s">
+      <c r="B34" s="262" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="257"/>
-      <c r="D34" s="257"/>
+      <c r="C34" s="262"/>
+      <c r="D34" s="262"/>
       <c r="E34" s="67"/>
       <c r="F34" s="68"/>
       <c r="G34" s="67"/>
@@ -55877,12 +55998,12 @@
     </row>
     <row r="35" spans="1:15" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A35" s="70"/>
-      <c r="B35" s="243" t="s">
+      <c r="B35" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="244"/>
-      <c r="D35" s="244"/>
-      <c r="E35" s="245"/>
+      <c r="C35" s="250"/>
+      <c r="D35" s="250"/>
+      <c r="E35" s="251"/>
       <c r="F35" s="59" t="s">
         <v>90</v>
       </c>
@@ -55974,10 +56095,10 @@
       <c r="A38" s="48"/>
       <c r="B38" s="72"/>
       <c r="C38" s="77"/>
-      <c r="D38" s="239" t="s">
+      <c r="D38" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E38" s="238"/>
+      <c r="E38" s="245"/>
       <c r="F38" s="61" t="s">
         <v>190</v>
       </c>
@@ -56007,10 +56128,10 @@
       <c r="A39" s="48"/>
       <c r="B39" s="72"/>
       <c r="C39" s="78"/>
-      <c r="D39" s="239" t="s">
+      <c r="D39" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="238"/>
+      <c r="E39" s="245"/>
       <c r="F39" s="61" t="s">
         <v>129</v>
       </c>
@@ -56073,10 +56194,10 @@
       <c r="A41" s="48"/>
       <c r="B41" s="72"/>
       <c r="C41" s="79"/>
-      <c r="D41" s="239" t="s">
+      <c r="D41" s="243" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="238"/>
+      <c r="E41" s="245"/>
       <c r="F41" s="61" t="s">
         <v>135</v>
       </c>
@@ -56139,10 +56260,10 @@
       <c r="A43" s="48"/>
       <c r="B43" s="72"/>
       <c r="C43" s="79"/>
-      <c r="D43" s="240" t="s">
+      <c r="D43" s="255" t="s">
         <v>97</v>
       </c>
-      <c r="E43" s="241"/>
+      <c r="E43" s="256"/>
       <c r="F43" s="61" t="s">
         <v>98</v>
       </c>
@@ -56172,10 +56293,10 @@
       <c r="A44" s="48"/>
       <c r="B44" s="72"/>
       <c r="C44" s="77"/>
-      <c r="D44" s="239" t="s">
+      <c r="D44" s="243" t="s">
         <v>114</v>
       </c>
-      <c r="E44" s="238"/>
+      <c r="E44" s="245"/>
       <c r="F44" s="62" t="s">
         <v>115</v>
       </c>
@@ -56203,10 +56324,10 @@
       <c r="A45" s="48"/>
       <c r="B45" s="72"/>
       <c r="C45" s="77"/>
-      <c r="D45" s="239" t="s">
+      <c r="D45" s="243" t="s">
         <v>237</v>
       </c>
-      <c r="E45" s="238"/>
+      <c r="E45" s="245"/>
       <c r="F45" s="62" t="s">
         <v>238</v>
       </c>
@@ -56236,10 +56357,10 @@
       <c r="A46" s="48"/>
       <c r="B46" s="131"/>
       <c r="C46" s="78"/>
-      <c r="D46" s="239" t="s">
+      <c r="D46" s="243" t="s">
         <v>195</v>
       </c>
-      <c r="E46" s="238"/>
+      <c r="E46" s="245"/>
       <c r="F46" s="62" t="s">
         <v>194</v>
       </c>
@@ -56677,11 +56798,11 @@
     </row>
     <row r="71" spans="1:15" ht="18.95" customHeight="1">
       <c r="A71" s="48"/>
-      <c r="B71" s="257" t="s">
+      <c r="B71" s="262" t="s">
         <v>240</v>
       </c>
-      <c r="C71" s="257"/>
-      <c r="D71" s="257"/>
+      <c r="C71" s="262"/>
+      <c r="D71" s="262"/>
       <c r="E71" s="48"/>
       <c r="F71" s="48"/>
       <c r="G71" s="48"/>
@@ -56696,12 +56817,12 @@
     </row>
     <row r="72" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A72" s="70"/>
-      <c r="B72" s="243" t="s">
+      <c r="B72" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="244"/>
-      <c r="E72" s="245"/>
+      <c r="C72" s="250"/>
+      <c r="D72" s="250"/>
+      <c r="E72" s="251"/>
       <c r="F72" s="59" t="s">
         <v>90</v>
       </c>
@@ -56793,10 +56914,10 @@
       <c r="A75" s="48"/>
       <c r="B75" s="72"/>
       <c r="C75" s="77"/>
-      <c r="D75" s="239" t="s">
+      <c r="D75" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E75" s="238"/>
+      <c r="E75" s="245"/>
       <c r="F75" s="61" t="s">
         <v>190</v>
       </c>
@@ -56826,10 +56947,10 @@
       <c r="A76" s="48"/>
       <c r="B76" s="72"/>
       <c r="C76" s="77"/>
-      <c r="D76" s="237" t="s">
+      <c r="D76" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E76" s="238"/>
+      <c r="E76" s="245"/>
       <c r="F76" s="61" t="s">
         <v>149</v>
       </c>
@@ -57266,6 +57387,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="B12:L12"/>
@@ -57282,12 +57409,6 @@
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I21" r:id="rId1"/>

--- a/doc/backend/api/TRN-MiniBlog_API-Specification_HUYENNGUYEN.xlsx
+++ b/doc/backend/api/TRN-MiniBlog_API-Specification_HUYENNGUYEN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="19530" windowHeight="8340" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="10560" yWindow="0" windowWidth="19530" windowHeight="8340" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3534" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3534" uniqueCount="454">
   <si>
     <t>API Name</t>
   </si>
@@ -1417,19 +1417,7 @@
     <t>GET /comments/2</t>
   </si>
   <si>
-    <t>http://{domain}/users</t>
-  </si>
-  <si>
-    <t>http://{domain}/users/signin</t>
-  </si>
-  <si>
-    <t>http://{domain}/users/{user_id}/password</t>
-  </si>
-  <si>
     <t>http://{domain}/users/{user_id}</t>
-  </si>
-  <si>
-    <t>http://{domain}/users/search?keyword={keyword}</t>
   </si>
   <si>
     <t>http://{domain}/users/{user_id}/posts</t>
@@ -1532,6 +1520,24 @@
   </si>
   <si>
     <t>Existing of session token</t>
+  </si>
+  <si>
+    <t>http://{domain}/api/create_user</t>
+  </si>
+  <si>
+    <t>http://{domain}/api/login</t>
+  </si>
+  <si>
+    <t>http://{domain}/api/change_password</t>
+  </si>
+  <si>
+    <t>http://{domain}/api/get_user_info</t>
+  </si>
+  <si>
+    <t>http://{domain}/api/update_user_info</t>
+  </si>
+  <si>
+    <t>http://{domain}/api/search_user?keyword={keyword}</t>
   </si>
 </sst>
 </file>
@@ -2344,100 +2350,6 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2460,6 +2372,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2495,6 +2416,94 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2502,9 +2511,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2567,21 +2573,20 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2597,12 +2602,16 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2614,10 +2623,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2625,9 +2634,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11568,7 +11574,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>POST /v1/users</a:t>
+            <a:t>POST /api/create_user</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
@@ -12397,7 +12403,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>POST /v1/users/signin HTTP/1.1</a:t>
+            <a:t>POST /api/login HTTP/1.1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -13122,7 +13128,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>PUT /v1/users/user-id/passsword HTTP/1.1</a:t>
+            <a:t>PUT /api/change_passsword HTTP/1.1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -13777,7 +13783,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>GET /v1/users/user-id HTTP/1.1</a:t>
+            <a:t>GET /api/get_user_info HTTP/1.1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -14886,7 +14892,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>GET /v1/users/user-id HTTP/1.1</a:t>
+            <a:t>GET /api/update_user_info HTTP/1.1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -15764,7 +15770,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>GET /v1/users/search?keyword=vivi&amp;token=xxxxxx&amp;limit=20&amp;offset=20&amp;order=date HTTP/1.1</a:t>
+            <a:t>GET /api/search_user?keyword=vivi&amp;token=xxxxxx&amp;limit=20&amp;offset=20&amp;order=date HTTP/1.1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -19940,306 +19946,338 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="1" customFormat="1" ht="15.75">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="207" t="s">
+      <c r="B1" s="177"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="215" t="s">
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="216"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="198" t="s">
+      <c r="L1" s="191"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="199"/>
-      <c r="T1" s="199"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="201" t="s">
+      <c r="O1" s="194"/>
+      <c r="P1" s="194"/>
+      <c r="Q1" s="194"/>
+      <c r="R1" s="194"/>
+      <c r="S1" s="194"/>
+      <c r="T1" s="194"/>
+      <c r="U1" s="195"/>
+      <c r="V1" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="202"/>
-      <c r="X1" s="202"/>
-      <c r="Y1" s="202"/>
-      <c r="Z1" s="202"/>
-      <c r="AA1" s="202"/>
-      <c r="AB1" s="202"/>
-      <c r="AC1" s="202"/>
-      <c r="AD1" s="203"/>
+      <c r="W1" s="174"/>
+      <c r="X1" s="174"/>
+      <c r="Y1" s="174"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="174"/>
+      <c r="AB1" s="174"/>
+      <c r="AC1" s="174"/>
+      <c r="AD1" s="175"/>
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" ht="15.75">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="205"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="207" t="s">
+      <c r="B2" s="177"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="193" t="s">
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="194"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="209" t="s">
+      <c r="L2" s="182"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="210"/>
-      <c r="P2" s="210"/>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="210"/>
-      <c r="S2" s="210"/>
-      <c r="T2" s="210"/>
-      <c r="U2" s="211"/>
-      <c r="V2" s="212" t="s">
+      <c r="O2" s="185"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="185"/>
+      <c r="U2" s="186"/>
+      <c r="V2" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="213"/>
-      <c r="X2" s="214"/>
-      <c r="Y2" s="212" t="s">
+      <c r="W2" s="188"/>
+      <c r="X2" s="189"/>
+      <c r="Y2" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="213"/>
-      <c r="AA2" s="214"/>
-      <c r="AB2" s="212" t="s">
+      <c r="Z2" s="188"/>
+      <c r="AA2" s="189"/>
+      <c r="AB2" s="187" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="213"/>
-      <c r="AD2" s="214"/>
+      <c r="AC2" s="188"/>
+      <c r="AD2" s="189"/>
     </row>
     <row r="3" spans="1:30" s="1" customFormat="1" ht="15.75">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="194"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="196" t="s">
+      <c r="B3" s="182"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="193" t="s">
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="194"/>
-      <c r="M3" s="195"/>
-      <c r="N3" s="198" t="s">
+      <c r="L3" s="182"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="193" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="199"/>
-      <c r="P3" s="199"/>
-      <c r="Q3" s="199"/>
-      <c r="R3" s="199"/>
-      <c r="S3" s="199"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="200"/>
-      <c r="V3" s="185" t="s">
+      <c r="O3" s="194"/>
+      <c r="P3" s="194"/>
+      <c r="Q3" s="194"/>
+      <c r="R3" s="194"/>
+      <c r="S3" s="194"/>
+      <c r="T3" s="194"/>
+      <c r="U3" s="195"/>
+      <c r="V3" s="196" t="s">
         <v>388</v>
       </c>
-      <c r="W3" s="186"/>
-      <c r="X3" s="187"/>
-      <c r="Y3" s="188">
+      <c r="W3" s="197"/>
+      <c r="X3" s="198"/>
+      <c r="Y3" s="199">
         <v>42045</v>
       </c>
-      <c r="Z3" s="189"/>
-      <c r="AA3" s="190"/>
-      <c r="AB3" s="191">
+      <c r="Z3" s="200"/>
+      <c r="AA3" s="201"/>
+      <c r="AB3" s="202">
         <v>42048</v>
       </c>
-      <c r="AC3" s="189"/>
-      <c r="AD3" s="190"/>
+      <c r="AC3" s="200"/>
+      <c r="AD3" s="201"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:30" ht="16.5" thickBot="1">
-      <c r="B8" s="192" t="s">
+      <c r="B8" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="192"/>
-      <c r="D8" s="192"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="192" t="s">
+      <c r="C8" s="203"/>
+      <c r="D8" s="203"/>
+      <c r="E8" s="203"/>
+      <c r="F8" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="192"/>
-      <c r="H8" s="192" t="s">
+      <c r="G8" s="203"/>
+      <c r="H8" s="203" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="192"/>
-      <c r="J8" s="192"/>
-      <c r="K8" s="192" t="s">
+      <c r="I8" s="203"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="192"/>
-      <c r="M8" s="192"/>
-      <c r="N8" s="192"/>
-      <c r="O8" s="192"/>
-      <c r="P8" s="192"/>
-      <c r="Q8" s="192"/>
-      <c r="R8" s="192"/>
-      <c r="S8" s="192"/>
-      <c r="T8" s="192"/>
-      <c r="U8" s="192"/>
-      <c r="V8" s="192"/>
-      <c r="W8" s="192"/>
-      <c r="X8" s="192" t="s">
+      <c r="L8" s="203"/>
+      <c r="M8" s="203"/>
+      <c r="N8" s="203"/>
+      <c r="O8" s="203"/>
+      <c r="P8" s="203"/>
+      <c r="Q8" s="203"/>
+      <c r="R8" s="203"/>
+      <c r="S8" s="203"/>
+      <c r="T8" s="203"/>
+      <c r="U8" s="203"/>
+      <c r="V8" s="203"/>
+      <c r="W8" s="203"/>
+      <c r="X8" s="203" t="s">
         <v>19</v>
       </c>
-      <c r="Y8" s="192"/>
-      <c r="Z8" s="192"/>
-      <c r="AA8" s="192"/>
-      <c r="AB8" s="192"/>
-      <c r="AC8" s="192"/>
+      <c r="Y8" s="203"/>
+      <c r="Z8" s="203"/>
+      <c r="AA8" s="203"/>
+      <c r="AB8" s="203"/>
+      <c r="AC8" s="203"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="184">
+      <c r="B9" s="217">
         <v>42045</v>
       </c>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="176" t="s">
+      <c r="C9" s="210"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="212" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="177"/>
-      <c r="H9" s="173"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="175"/>
-      <c r="K9" s="178"/>
-      <c r="L9" s="179"/>
-      <c r="M9" s="179"/>
-      <c r="N9" s="179"/>
-      <c r="O9" s="179"/>
-      <c r="P9" s="179"/>
-      <c r="Q9" s="179"/>
-      <c r="R9" s="179"/>
-      <c r="S9" s="179"/>
-      <c r="T9" s="179"/>
-      <c r="U9" s="179"/>
-      <c r="V9" s="179"/>
-      <c r="W9" s="180"/>
-      <c r="X9" s="181"/>
-      <c r="Y9" s="182"/>
-      <c r="Z9" s="182"/>
-      <c r="AA9" s="182"/>
-      <c r="AB9" s="182"/>
-      <c r="AC9" s="183"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="209"/>
+      <c r="I9" s="210"/>
+      <c r="J9" s="211"/>
+      <c r="K9" s="214"/>
+      <c r="L9" s="215"/>
+      <c r="M9" s="215"/>
+      <c r="N9" s="215"/>
+      <c r="O9" s="215"/>
+      <c r="P9" s="215"/>
+      <c r="Q9" s="215"/>
+      <c r="R9" s="215"/>
+      <c r="S9" s="215"/>
+      <c r="T9" s="215"/>
+      <c r="U9" s="215"/>
+      <c r="V9" s="215"/>
+      <c r="W9" s="216"/>
+      <c r="X9" s="206"/>
+      <c r="Y9" s="207"/>
+      <c r="Z9" s="207"/>
+      <c r="AA9" s="207"/>
+      <c r="AB9" s="207"/>
+      <c r="AC9" s="208"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="173"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="176"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="173"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="179"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="179"/>
-      <c r="O10" s="179"/>
-      <c r="P10" s="179"/>
-      <c r="Q10" s="179"/>
-      <c r="R10" s="179"/>
-      <c r="S10" s="179"/>
-      <c r="T10" s="179"/>
-      <c r="U10" s="179"/>
-      <c r="V10" s="179"/>
-      <c r="W10" s="180"/>
-      <c r="X10" s="181"/>
-      <c r="Y10" s="182"/>
-      <c r="Z10" s="182"/>
-      <c r="AA10" s="182"/>
-      <c r="AB10" s="182"/>
-      <c r="AC10" s="183"/>
+      <c r="B10" s="209"/>
+      <c r="C10" s="210"/>
+      <c r="D10" s="210"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="212"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="209"/>
+      <c r="I10" s="210"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="214"/>
+      <c r="L10" s="215"/>
+      <c r="M10" s="215"/>
+      <c r="N10" s="215"/>
+      <c r="O10" s="215"/>
+      <c r="P10" s="215"/>
+      <c r="Q10" s="215"/>
+      <c r="R10" s="215"/>
+      <c r="S10" s="215"/>
+      <c r="T10" s="215"/>
+      <c r="U10" s="215"/>
+      <c r="V10" s="215"/>
+      <c r="W10" s="216"/>
+      <c r="X10" s="206"/>
+      <c r="Y10" s="207"/>
+      <c r="Z10" s="207"/>
+      <c r="AA10" s="207"/>
+      <c r="AB10" s="207"/>
+      <c r="AC10" s="208"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="173"/>
-      <c r="C11" s="174"/>
-      <c r="D11" s="174"/>
-      <c r="E11" s="175"/>
-      <c r="F11" s="176"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="173"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="175"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="179"/>
-      <c r="M11" s="179"/>
-      <c r="N11" s="179"/>
-      <c r="O11" s="179"/>
-      <c r="P11" s="179"/>
-      <c r="Q11" s="179"/>
-      <c r="R11" s="179"/>
-      <c r="S11" s="179"/>
-      <c r="T11" s="179"/>
-      <c r="U11" s="179"/>
-      <c r="V11" s="179"/>
-      <c r="W11" s="180"/>
-      <c r="X11" s="181"/>
-      <c r="Y11" s="182"/>
-      <c r="Z11" s="182"/>
-      <c r="AA11" s="182"/>
-      <c r="AB11" s="182"/>
-      <c r="AC11" s="183"/>
+      <c r="B11" s="209"/>
+      <c r="C11" s="210"/>
+      <c r="D11" s="210"/>
+      <c r="E11" s="211"/>
+      <c r="F11" s="212"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="209"/>
+      <c r="I11" s="210"/>
+      <c r="J11" s="211"/>
+      <c r="K11" s="214"/>
+      <c r="L11" s="215"/>
+      <c r="M11" s="215"/>
+      <c r="N11" s="215"/>
+      <c r="O11" s="215"/>
+      <c r="P11" s="215"/>
+      <c r="Q11" s="215"/>
+      <c r="R11" s="215"/>
+      <c r="S11" s="215"/>
+      <c r="T11" s="215"/>
+      <c r="U11" s="215"/>
+      <c r="V11" s="215"/>
+      <c r="W11" s="216"/>
+      <c r="X11" s="206"/>
+      <c r="Y11" s="207"/>
+      <c r="Z11" s="207"/>
+      <c r="AA11" s="207"/>
+      <c r="AB11" s="207"/>
+      <c r="AC11" s="208"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="173"/>
-      <c r="C12" s="174"/>
-      <c r="D12" s="174"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="176"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="175"/>
-      <c r="K12" s="178"/>
-      <c r="L12" s="179"/>
-      <c r="M12" s="179"/>
-      <c r="N12" s="179"/>
-      <c r="O12" s="179"/>
-      <c r="P12" s="179"/>
-      <c r="Q12" s="179"/>
-      <c r="R12" s="179"/>
-      <c r="S12" s="179"/>
-      <c r="T12" s="179"/>
-      <c r="U12" s="179"/>
-      <c r="V12" s="179"/>
-      <c r="W12" s="180"/>
-      <c r="X12" s="181"/>
-      <c r="Y12" s="182"/>
-      <c r="Z12" s="182"/>
-      <c r="AA12" s="182"/>
-      <c r="AB12" s="182"/>
-      <c r="AC12" s="183"/>
+      <c r="B12" s="209"/>
+      <c r="C12" s="210"/>
+      <c r="D12" s="210"/>
+      <c r="E12" s="211"/>
+      <c r="F12" s="212"/>
+      <c r="G12" s="213"/>
+      <c r="H12" s="209"/>
+      <c r="I12" s="210"/>
+      <c r="J12" s="211"/>
+      <c r="K12" s="214"/>
+      <c r="L12" s="215"/>
+      <c r="M12" s="215"/>
+      <c r="N12" s="215"/>
+      <c r="O12" s="215"/>
+      <c r="P12" s="215"/>
+      <c r="Q12" s="215"/>
+      <c r="R12" s="215"/>
+      <c r="S12" s="215"/>
+      <c r="T12" s="215"/>
+      <c r="U12" s="215"/>
+      <c r="V12" s="215"/>
+      <c r="W12" s="216"/>
+      <c r="X12" s="206"/>
+      <c r="Y12" s="207"/>
+      <c r="Z12" s="207"/>
+      <c r="AA12" s="207"/>
+      <c r="AB12" s="207"/>
+      <c r="AC12" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:U3"/>
     <mergeCell ref="V1:AD1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:J2"/>
@@ -20252,38 +20290,6 @@
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:U3"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20293,7 +20299,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -20374,15 +20382,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="243" t="s">
+      <c r="C4" s="244" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="245"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="243"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -20395,15 +20403,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="243" t="s">
+      <c r="C5" s="244" t="s">
         <v>279</v>
       </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="245"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="243"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -20417,7 +20425,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
@@ -20437,15 +20445,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="243" t="s">
+      <c r="C7" s="244" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="245"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="243"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -20479,15 +20487,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="243" t="s">
+      <c r="C9" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="244"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="245"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="243"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -20550,19 +20558,19 @@
     </row>
     <row r="13" spans="1:15" ht="18.95" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="246" t="s">
+      <c r="B13" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="247"/>
-      <c r="D13" s="247"/>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="247"/>
-      <c r="H13" s="247"/>
-      <c r="I13" s="247"/>
-      <c r="J13" s="247"/>
-      <c r="K13" s="247"/>
-      <c r="L13" s="248"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="256"/>
+      <c r="J13" s="256"/>
+      <c r="K13" s="256"/>
+      <c r="L13" s="257"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -20591,11 +20599,11 @@
       <c r="I14" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="242" t="s">
+      <c r="J14" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="242"/>
-      <c r="L14" s="242"/>
+      <c r="K14" s="253"/>
+      <c r="L14" s="253"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -20670,29 +20678,29 @@
       <c r="A17" s="48"/>
       <c r="B17" s="60"/>
       <c r="C17" s="157" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D17" s="158" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E17" s="159" t="s">
         <v>336</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="159" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H17" s="159" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I17" s="160" t="s">
-        <v>437</v>
-      </c>
-      <c r="J17" s="265" t="s">
-        <v>438</v>
-      </c>
-      <c r="K17" s="252"/>
-      <c r="L17" s="252"/>
+        <v>433</v>
+      </c>
+      <c r="J17" s="263" t="s">
+        <v>434</v>
+      </c>
+      <c r="K17" s="251"/>
+      <c r="L17" s="251"/>
       <c r="M17" s="48"/>
       <c r="N17" s="48"/>
       <c r="O17" s="48"/>
@@ -20701,29 +20709,29 @@
       <c r="A18" s="48"/>
       <c r="B18" s="60"/>
       <c r="C18" s="157" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D18" s="158" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E18" s="159" t="s">
         <v>336</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="159" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H18" s="159" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I18" s="160" t="s">
-        <v>442</v>
-      </c>
-      <c r="J18" s="265" t="s">
-        <v>443</v>
-      </c>
-      <c r="K18" s="252"/>
-      <c r="L18" s="252"/>
+        <v>438</v>
+      </c>
+      <c r="J18" s="263" t="s">
+        <v>439</v>
+      </c>
+      <c r="K18" s="251"/>
+      <c r="L18" s="251"/>
       <c r="M18" s="48"/>
       <c r="N18" s="48"/>
       <c r="O18" s="48"/>
@@ -20732,26 +20740,26 @@
       <c r="A19" s="48"/>
       <c r="B19" s="60"/>
       <c r="C19" s="157" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D19" s="158" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E19" s="159" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="159" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H19" s="159" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I19" s="160" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="J19" s="167" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="K19" s="166"/>
       <c r="L19" s="165"/>
@@ -20935,12 +20943,12 @@
     </row>
     <row r="30" spans="1:15" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A30" s="70"/>
-      <c r="B30" s="249" t="s">
+      <c r="B30" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="250"/>
-      <c r="D30" s="250"/>
-      <c r="E30" s="251"/>
+      <c r="C30" s="249"/>
+      <c r="D30" s="249"/>
+      <c r="E30" s="250"/>
       <c r="F30" s="59" t="s">
         <v>90</v>
       </c>
@@ -21032,10 +21040,10 @@
       <c r="A33" s="48"/>
       <c r="B33" s="72"/>
       <c r="C33" s="77"/>
-      <c r="D33" s="243" t="s">
+      <c r="D33" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E33" s="245"/>
+      <c r="E33" s="243"/>
       <c r="F33" s="61" t="s">
         <v>190</v>
       </c>
@@ -21065,10 +21073,10 @@
       <c r="A34" s="48"/>
       <c r="B34" s="72"/>
       <c r="C34" s="78"/>
-      <c r="D34" s="243" t="s">
+      <c r="D34" s="244" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="245"/>
+      <c r="E34" s="243"/>
       <c r="F34" s="61" t="s">
         <v>129</v>
       </c>
@@ -21131,10 +21139,10 @@
       <c r="A36" s="48"/>
       <c r="B36" s="72"/>
       <c r="C36" s="79"/>
-      <c r="D36" s="243" t="s">
+      <c r="D36" s="244" t="s">
         <v>134</v>
       </c>
-      <c r="E36" s="245"/>
+      <c r="E36" s="243"/>
       <c r="F36" s="61" t="s">
         <v>135</v>
       </c>
@@ -21164,10 +21172,10 @@
       <c r="A37" s="48"/>
       <c r="B37" s="72"/>
       <c r="C37" s="79"/>
-      <c r="D37" s="255" t="s">
+      <c r="D37" s="245" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="256"/>
+      <c r="E37" s="246"/>
       <c r="F37" s="61" t="s">
         <v>98</v>
       </c>
@@ -21197,10 +21205,10 @@
       <c r="A38" s="48"/>
       <c r="B38" s="72"/>
       <c r="C38" s="77"/>
-      <c r="D38" s="243" t="s">
+      <c r="D38" s="244" t="s">
         <v>109</v>
       </c>
-      <c r="E38" s="245"/>
+      <c r="E38" s="243"/>
       <c r="F38" s="61" t="s">
         <v>110</v>
       </c>
@@ -21263,10 +21271,10 @@
       <c r="A40" s="48"/>
       <c r="B40" s="72"/>
       <c r="C40" s="77"/>
-      <c r="D40" s="243" t="s">
+      <c r="D40" s="244" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="245"/>
+      <c r="E40" s="243"/>
       <c r="F40" s="62" t="s">
         <v>115</v>
       </c>
@@ -21292,8 +21300,8 @@
     </row>
     <row r="41" spans="1:15" ht="18.95" customHeight="1">
       <c r="A41" s="48"/>
-      <c r="B41" s="263"/>
-      <c r="C41" s="263"/>
+      <c r="B41" s="264"/>
+      <c r="C41" s="264"/>
       <c r="D41" s="53" t="s">
         <v>285</v>
       </c>
@@ -21323,8 +21331,8 @@
     </row>
     <row r="42" spans="1:15" ht="18.95" customHeight="1">
       <c r="A42" s="48"/>
-      <c r="B42" s="264"/>
-      <c r="C42" s="264"/>
+      <c r="B42" s="265"/>
+      <c r="C42" s="265"/>
       <c r="D42" s="53" t="s">
         <v>195</v>
       </c>
@@ -21851,12 +21859,12 @@
     </row>
     <row r="72" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A72" s="70"/>
-      <c r="B72" s="249" t="s">
+      <c r="B72" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C72" s="250"/>
-      <c r="D72" s="250"/>
-      <c r="E72" s="251"/>
+      <c r="C72" s="249"/>
+      <c r="D72" s="249"/>
+      <c r="E72" s="250"/>
       <c r="F72" s="59" t="s">
         <v>90</v>
       </c>
@@ -21948,10 +21956,10 @@
       <c r="A75" s="48"/>
       <c r="B75" s="72"/>
       <c r="C75" s="77"/>
-      <c r="D75" s="243" t="s">
+      <c r="D75" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E75" s="245"/>
+      <c r="E75" s="243"/>
       <c r="F75" s="61" t="s">
         <v>190</v>
       </c>
@@ -21981,10 +21989,10 @@
       <c r="A76" s="48"/>
       <c r="B76" s="72"/>
       <c r="C76" s="77"/>
-      <c r="D76" s="254" t="s">
+      <c r="D76" s="242" t="s">
         <v>148</v>
       </c>
-      <c r="E76" s="245"/>
+      <c r="E76" s="243"/>
       <c r="F76" s="61" t="s">
         <v>149</v>
       </c>
@@ -22353,6 +22361,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
     <mergeCell ref="J17:L17"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="J14:L14"/>
@@ -22361,20 +22383,6 @@
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B72:E72"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I17" r:id="rId1" display="foo@mulodo.com"/>
@@ -22474,16 +22482,16 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="243" t="s">
+      <c r="C4" s="244" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="244"/>
-      <c r="J4" s="245"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="254"/>
+      <c r="J4" s="243"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
       <c r="M4" s="48"/>
@@ -22496,16 +22504,16 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="243" t="s">
+      <c r="C5" s="244" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="245"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="254"/>
+      <c r="J5" s="243"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
       <c r="M5" s="48"/>
@@ -22519,7 +22527,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
@@ -22540,16 +22548,16 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="243" t="s">
+      <c r="C7" s="244" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="244"/>
-      <c r="J7" s="245"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="254"/>
+      <c r="J7" s="243"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
       <c r="M7" s="48"/>
@@ -22584,16 +22592,16 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="243" t="s">
+      <c r="C9" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="244"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="244"/>
-      <c r="J9" s="245"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="254"/>
+      <c r="J9" s="243"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
       <c r="M9" s="48"/>
@@ -22659,20 +22667,20 @@
     </row>
     <row r="13" spans="1:16" ht="18.95" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="246" t="s">
+      <c r="B13" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="247"/>
-      <c r="D13" s="247"/>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="247"/>
-      <c r="H13" s="247"/>
-      <c r="I13" s="247"/>
-      <c r="J13" s="247"/>
-      <c r="K13" s="247"/>
-      <c r="L13" s="247"/>
-      <c r="M13" s="248"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="256"/>
+      <c r="J13" s="256"/>
+      <c r="K13" s="256"/>
+      <c r="L13" s="256"/>
+      <c r="M13" s="257"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
       <c r="P13" s="48"/>
@@ -22702,11 +22710,11 @@
       <c r="J14" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="242" t="s">
+      <c r="K14" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="242"/>
-      <c r="M14" s="242"/>
+      <c r="L14" s="253"/>
+      <c r="M14" s="253"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
       <c r="P14" s="48"/>
@@ -22736,11 +22744,11 @@
       <c r="J15" s="130" t="s">
         <v>165</v>
       </c>
-      <c r="K15" s="258" t="s">
+      <c r="K15" s="259" t="s">
         <v>166</v>
       </c>
-      <c r="L15" s="259"/>
-      <c r="M15" s="260"/>
+      <c r="L15" s="260"/>
+      <c r="M15" s="261"/>
       <c r="N15" s="48"/>
       <c r="O15" s="48"/>
       <c r="P15" s="48"/>
@@ -22749,29 +22757,29 @@
       <c r="A16" s="48"/>
       <c r="B16" s="60"/>
       <c r="C16" s="157" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D16" s="158" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E16" s="159" t="s">
         <v>336</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="159" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H16" s="159" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I16" s="160" t="s">
-        <v>437</v>
-      </c>
-      <c r="J16" s="265" t="s">
-        <v>438</v>
-      </c>
-      <c r="K16" s="252"/>
-      <c r="L16" s="252"/>
+        <v>433</v>
+      </c>
+      <c r="J16" s="263" t="s">
+        <v>434</v>
+      </c>
+      <c r="K16" s="251"/>
+      <c r="L16" s="251"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -22780,29 +22788,29 @@
       <c r="A17" s="48"/>
       <c r="B17" s="60"/>
       <c r="C17" s="157" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D17" s="158" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E17" s="159" t="s">
         <v>336</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="159" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H17" s="159" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I17" s="160" t="s">
-        <v>442</v>
-      </c>
-      <c r="J17" s="265" t="s">
-        <v>443</v>
-      </c>
-      <c r="K17" s="252"/>
-      <c r="L17" s="252"/>
+        <v>438</v>
+      </c>
+      <c r="J17" s="263" t="s">
+        <v>439</v>
+      </c>
+      <c r="K17" s="251"/>
+      <c r="L17" s="251"/>
       <c r="M17" s="48"/>
       <c r="N17" s="48"/>
       <c r="O17" s="48"/>
@@ -22811,26 +22819,26 @@
       <c r="A18" s="48"/>
       <c r="B18" s="60"/>
       <c r="C18" s="157" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D18" s="158" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E18" s="159" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="159" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H18" s="159" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I18" s="160" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="J18" s="167" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="K18" s="166"/>
       <c r="L18" s="165"/>
@@ -22986,11 +22994,11 @@
     </row>
     <row r="27" spans="1:16" s="69" customFormat="1" ht="18.95" customHeight="1">
       <c r="A27" s="51"/>
-      <c r="B27" s="253" t="s">
+      <c r="B27" s="252" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="253"/>
-      <c r="D27" s="253"/>
+      <c r="C27" s="252"/>
+      <c r="D27" s="252"/>
       <c r="E27" s="67"/>
       <c r="F27" s="67"/>
       <c r="G27" s="68"/>
@@ -23006,13 +23014,13 @@
     </row>
     <row r="28" spans="1:16" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A28" s="70"/>
-      <c r="B28" s="249" t="s">
+      <c r="B28" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="250"/>
-      <c r="D28" s="250"/>
-      <c r="E28" s="250"/>
-      <c r="F28" s="251"/>
+      <c r="C28" s="249"/>
+      <c r="D28" s="249"/>
+      <c r="E28" s="249"/>
+      <c r="F28" s="250"/>
       <c r="G28" s="59" t="s">
         <v>90</v>
       </c>
@@ -23106,10 +23114,10 @@
       <c r="A31" s="48"/>
       <c r="B31" s="72"/>
       <c r="C31" s="77"/>
-      <c r="D31" s="243" t="s">
+      <c r="D31" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E31" s="244"/>
+      <c r="E31" s="254"/>
       <c r="F31" s="55"/>
       <c r="G31" s="61" t="s">
         <v>190</v>
@@ -23140,10 +23148,10 @@
       <c r="A32" s="48"/>
       <c r="B32" s="72"/>
       <c r="C32" s="78"/>
-      <c r="D32" s="243" t="s">
+      <c r="D32" s="244" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="244"/>
+      <c r="E32" s="254"/>
       <c r="F32" s="55"/>
       <c r="G32" s="61" t="s">
         <v>129</v>
@@ -23277,10 +23285,10 @@
       <c r="B36" s="72"/>
       <c r="C36" s="79"/>
       <c r="D36" s="79"/>
-      <c r="E36" s="243" t="s">
+      <c r="E36" s="244" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="245"/>
+      <c r="F36" s="243"/>
       <c r="G36" s="61" t="s">
         <v>98</v>
       </c>
@@ -23311,10 +23319,10 @@
       <c r="B37" s="72"/>
       <c r="C37" s="77"/>
       <c r="D37" s="66"/>
-      <c r="E37" s="243" t="s">
+      <c r="E37" s="244" t="s">
         <v>109</v>
       </c>
-      <c r="F37" s="245"/>
+      <c r="F37" s="243"/>
       <c r="G37" s="61" t="s">
         <v>110</v>
       </c>
@@ -23345,10 +23353,10 @@
       <c r="B38" s="72"/>
       <c r="C38" s="77"/>
       <c r="D38" s="66"/>
-      <c r="E38" s="243" t="s">
+      <c r="E38" s="244" t="s">
         <v>112</v>
       </c>
-      <c r="F38" s="245"/>
+      <c r="F38" s="243"/>
       <c r="G38" s="61" t="s">
         <v>113</v>
       </c>
@@ -24274,11 +24282,11 @@
     </row>
     <row r="82" spans="1:16" ht="18.95" customHeight="1">
       <c r="A82" s="48"/>
-      <c r="B82" s="257" t="s">
+      <c r="B82" s="247" t="s">
         <v>206</v>
       </c>
-      <c r="C82" s="257"/>
-      <c r="D82" s="257"/>
+      <c r="C82" s="247"/>
+      <c r="D82" s="247"/>
       <c r="E82" s="48"/>
       <c r="F82" s="48"/>
       <c r="G82" s="48"/>
@@ -24294,12 +24302,12 @@
     </row>
     <row r="83" spans="1:16" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A83" s="70"/>
-      <c r="B83" s="249" t="s">
+      <c r="B83" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C83" s="250"/>
-      <c r="D83" s="250"/>
-      <c r="E83" s="251"/>
+      <c r="C83" s="249"/>
+      <c r="D83" s="249"/>
+      <c r="E83" s="250"/>
       <c r="F83" s="59" t="s">
         <v>90</v>
       </c>
@@ -24391,10 +24399,10 @@
       <c r="A86" s="48"/>
       <c r="B86" s="72"/>
       <c r="C86" s="77"/>
-      <c r="D86" s="243" t="s">
+      <c r="D86" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E86" s="245"/>
+      <c r="E86" s="243"/>
       <c r="F86" s="61" t="s">
         <v>190</v>
       </c>
@@ -24424,10 +24432,10 @@
       <c r="A87" s="48"/>
       <c r="B87" s="72"/>
       <c r="C87" s="77"/>
-      <c r="D87" s="254" t="s">
+      <c r="D87" s="242" t="s">
         <v>148</v>
       </c>
-      <c r="E87" s="261"/>
+      <c r="E87" s="258"/>
       <c r="F87" s="61" t="s">
         <v>149</v>
       </c>
@@ -24521,8 +24529,8 @@
       <c r="A90" s="48"/>
       <c r="B90" s="83"/>
       <c r="C90" s="78"/>
-      <c r="D90" s="243"/>
-      <c r="E90" s="245"/>
+      <c r="D90" s="244"/>
+      <c r="E90" s="243"/>
       <c r="F90" s="61"/>
       <c r="G90" s="63"/>
       <c r="H90" s="63"/>
@@ -24811,6 +24819,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B82:D82"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="C5:J5"/>
@@ -24825,13 +24840,6 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="J17:L17"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I16" r:id="rId1" display="foo@mulodo.com"/>
@@ -24927,15 +24935,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="243" t="s">
+      <c r="C4" s="244" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="245"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="243"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -24948,15 +24956,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="243" t="s">
+      <c r="C5" s="244" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="245"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="243"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -24970,7 +24978,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
@@ -24990,15 +24998,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="243" t="s">
+      <c r="C7" s="244" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="245"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="243"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -25032,15 +25040,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="243" t="s">
+      <c r="C9" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="244"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="245"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="243"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -25086,19 +25094,19 @@
     </row>
     <row r="12" spans="1:15" ht="15.75">
       <c r="A12" s="48"/>
-      <c r="B12" s="246" t="s">
+      <c r="B12" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="247"/>
-      <c r="D12" s="247"/>
-      <c r="E12" s="247"/>
-      <c r="F12" s="247"/>
-      <c r="G12" s="247"/>
-      <c r="H12" s="247"/>
-      <c r="I12" s="247"/>
-      <c r="J12" s="247"/>
-      <c r="K12" s="247"/>
-      <c r="L12" s="248"/>
+      <c r="C12" s="256"/>
+      <c r="D12" s="256"/>
+      <c r="E12" s="256"/>
+      <c r="F12" s="256"/>
+      <c r="G12" s="256"/>
+      <c r="H12" s="256"/>
+      <c r="I12" s="256"/>
+      <c r="J12" s="256"/>
+      <c r="K12" s="256"/>
+      <c r="L12" s="257"/>
       <c r="M12" s="48"/>
       <c r="N12" s="48"/>
       <c r="O12" s="48"/>
@@ -25127,11 +25135,11 @@
       <c r="I13" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="242" t="s">
+      <c r="J13" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="242"/>
-      <c r="L13" s="242"/>
+      <c r="K13" s="253"/>
+      <c r="L13" s="253"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -25226,11 +25234,11 @@
       <c r="I16" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="J16" s="243" t="s">
+      <c r="J16" s="244" t="s">
         <v>268</v>
       </c>
-      <c r="K16" s="244"/>
-      <c r="L16" s="245"/>
+      <c r="K16" s="254"/>
+      <c r="L16" s="243"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -25286,11 +25294,11 @@
       <c r="I18" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="J18" s="243" t="s">
+      <c r="J18" s="244" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="244"/>
-      <c r="L18" s="245"/>
+      <c r="K18" s="254"/>
+      <c r="L18" s="243"/>
       <c r="M18" s="48"/>
       <c r="N18" s="48"/>
       <c r="O18" s="48"/>
@@ -25381,11 +25389,11 @@
       <c r="I21" s="144" t="s">
         <v>276</v>
       </c>
-      <c r="J21" s="243" t="s">
+      <c r="J21" s="244" t="s">
         <v>232</v>
       </c>
-      <c r="K21" s="244"/>
-      <c r="L21" s="245"/>
+      <c r="K21" s="254"/>
+      <c r="L21" s="243"/>
       <c r="M21" s="48"/>
       <c r="N21" s="48"/>
       <c r="O21" s="48"/>
@@ -25647,12 +25655,12 @@
     </row>
     <row r="35" spans="1:15" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A35" s="70"/>
-      <c r="B35" s="249" t="s">
+      <c r="B35" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="250"/>
-      <c r="D35" s="250"/>
-      <c r="E35" s="251"/>
+      <c r="C35" s="249"/>
+      <c r="D35" s="249"/>
+      <c r="E35" s="250"/>
       <c r="F35" s="59" t="s">
         <v>90</v>
       </c>
@@ -25744,10 +25752,10 @@
       <c r="A38" s="48"/>
       <c r="B38" s="72"/>
       <c r="C38" s="77"/>
-      <c r="D38" s="243" t="s">
+      <c r="D38" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E38" s="245"/>
+      <c r="E38" s="243"/>
       <c r="F38" s="61" t="s">
         <v>190</v>
       </c>
@@ -25777,10 +25785,10 @@
       <c r="A39" s="48"/>
       <c r="B39" s="72"/>
       <c r="C39" s="78"/>
-      <c r="D39" s="243" t="s">
+      <c r="D39" s="244" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="245"/>
+      <c r="E39" s="243"/>
       <c r="F39" s="61" t="s">
         <v>129</v>
       </c>
@@ -25843,10 +25851,10 @@
       <c r="A41" s="48"/>
       <c r="B41" s="72"/>
       <c r="C41" s="79"/>
-      <c r="D41" s="243" t="s">
+      <c r="D41" s="244" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="245"/>
+      <c r="E41" s="243"/>
       <c r="F41" s="61" t="s">
         <v>135</v>
       </c>
@@ -25909,10 +25917,10 @@
       <c r="A43" s="48"/>
       <c r="B43" s="72"/>
       <c r="C43" s="79"/>
-      <c r="D43" s="255" t="s">
+      <c r="D43" s="245" t="s">
         <v>97</v>
       </c>
-      <c r="E43" s="256"/>
+      <c r="E43" s="246"/>
       <c r="F43" s="61" t="s">
         <v>98</v>
       </c>
@@ -25942,10 +25950,10 @@
       <c r="A44" s="48"/>
       <c r="B44" s="72"/>
       <c r="C44" s="77"/>
-      <c r="D44" s="243" t="s">
+      <c r="D44" s="244" t="s">
         <v>109</v>
       </c>
-      <c r="E44" s="245"/>
+      <c r="E44" s="243"/>
       <c r="F44" s="61" t="s">
         <v>110</v>
       </c>
@@ -26008,10 +26016,10 @@
       <c r="A46" s="48"/>
       <c r="B46" s="72"/>
       <c r="C46" s="77"/>
-      <c r="D46" s="243" t="s">
+      <c r="D46" s="244" t="s">
         <v>227</v>
       </c>
-      <c r="E46" s="245"/>
+      <c r="E46" s="243"/>
       <c r="F46" s="62" t="s">
         <v>228</v>
       </c>
@@ -26041,10 +26049,10 @@
       <c r="A47" s="48"/>
       <c r="B47" s="72"/>
       <c r="C47" s="77"/>
-      <c r="D47" s="243" t="s">
+      <c r="D47" s="244" t="s">
         <v>114</v>
       </c>
-      <c r="E47" s="245"/>
+      <c r="E47" s="243"/>
       <c r="F47" s="62" t="s">
         <v>115</v>
       </c>
@@ -26072,10 +26080,10 @@
       <c r="A48" s="48"/>
       <c r="B48" s="72"/>
       <c r="C48" s="77"/>
-      <c r="D48" s="243" t="s">
+      <c r="D48" s="244" t="s">
         <v>233</v>
       </c>
-      <c r="E48" s="245"/>
+      <c r="E48" s="243"/>
       <c r="F48" s="62" t="s">
         <v>234</v>
       </c>
@@ -26103,10 +26111,10 @@
       <c r="A49" s="48"/>
       <c r="B49" s="72"/>
       <c r="C49" s="77"/>
-      <c r="D49" s="243" t="s">
+      <c r="D49" s="244" t="s">
         <v>224</v>
       </c>
-      <c r="E49" s="245"/>
+      <c r="E49" s="243"/>
       <c r="F49" s="62" t="s">
         <v>225</v>
       </c>
@@ -26134,10 +26142,10 @@
       <c r="A50" s="48"/>
       <c r="B50" s="72"/>
       <c r="C50" s="77"/>
-      <c r="D50" s="243" t="s">
+      <c r="D50" s="244" t="s">
         <v>230</v>
       </c>
-      <c r="E50" s="245"/>
+      <c r="E50" s="243"/>
       <c r="F50" s="62" t="s">
         <v>231</v>
       </c>
@@ -26167,10 +26175,10 @@
       <c r="A51" s="48"/>
       <c r="B51" s="72"/>
       <c r="C51" s="77"/>
-      <c r="D51" s="243" t="s">
+      <c r="D51" s="244" t="s">
         <v>250</v>
       </c>
-      <c r="E51" s="245"/>
+      <c r="E51" s="243"/>
       <c r="F51" s="62" t="s">
         <v>251</v>
       </c>
@@ -26198,10 +26206,10 @@
       <c r="A52" s="48"/>
       <c r="B52" s="72"/>
       <c r="C52" s="77"/>
-      <c r="D52" s="243" t="s">
+      <c r="D52" s="244" t="s">
         <v>237</v>
       </c>
-      <c r="E52" s="245"/>
+      <c r="E52" s="243"/>
       <c r="F52" s="62" t="s">
         <v>238</v>
       </c>
@@ -26231,10 +26239,10 @@
       <c r="A53" s="48"/>
       <c r="B53" s="131"/>
       <c r="C53" s="78"/>
-      <c r="D53" s="243" t="s">
+      <c r="D53" s="244" t="s">
         <v>195</v>
       </c>
-      <c r="E53" s="245"/>
+      <c r="E53" s="243"/>
       <c r="F53" s="62" t="s">
         <v>194</v>
       </c>
@@ -26674,12 +26682,12 @@
     </row>
     <row r="78" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A78" s="70"/>
-      <c r="B78" s="249" t="s">
+      <c r="B78" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C78" s="250"/>
-      <c r="D78" s="250"/>
-      <c r="E78" s="251"/>
+      <c r="C78" s="249"/>
+      <c r="D78" s="249"/>
+      <c r="E78" s="250"/>
       <c r="F78" s="59" t="s">
         <v>90</v>
       </c>
@@ -26771,10 +26779,10 @@
       <c r="A81" s="48"/>
       <c r="B81" s="72"/>
       <c r="C81" s="77"/>
-      <c r="D81" s="243" t="s">
+      <c r="D81" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E81" s="245"/>
+      <c r="E81" s="243"/>
       <c r="F81" s="61" t="s">
         <v>190</v>
       </c>
@@ -26804,10 +26812,10 @@
       <c r="A82" s="48"/>
       <c r="B82" s="72"/>
       <c r="C82" s="77"/>
-      <c r="D82" s="254" t="s">
+      <c r="D82" s="242" t="s">
         <v>148</v>
       </c>
-      <c r="E82" s="245"/>
+      <c r="E82" s="243"/>
       <c r="F82" s="61" t="s">
         <v>149</v>
       </c>
@@ -27176,21 +27184,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B12:L12"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
@@ -27204,6 +27197,21 @@
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D53:E53"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D41:E41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I21" r:id="rId1"/>
@@ -27298,15 +27306,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="243" t="s">
+      <c r="C4" s="244" t="s">
         <v>318</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="245"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="243"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -27319,15 +27327,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="243" t="s">
+      <c r="C5" s="244" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="245"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="243"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -27341,7 +27349,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
@@ -27361,15 +27369,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="243" t="s">
+      <c r="C7" s="244" t="s">
         <v>319</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="245"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="243"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -27403,15 +27411,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="243" t="s">
+      <c r="C9" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="244"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="245"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="243"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -27474,19 +27482,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="246" t="s">
+      <c r="B13" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="247"/>
-      <c r="D13" s="247"/>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="247"/>
-      <c r="H13" s="247"/>
-      <c r="I13" s="247"/>
-      <c r="J13" s="247"/>
-      <c r="K13" s="247"/>
-      <c r="L13" s="248"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="256"/>
+      <c r="J13" s="256"/>
+      <c r="K13" s="256"/>
+      <c r="L13" s="257"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -27515,11 +27523,11 @@
       <c r="I14" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="242" t="s">
+      <c r="J14" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="242"/>
-      <c r="L14" s="242"/>
+      <c r="K14" s="253"/>
+      <c r="L14" s="253"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -27548,11 +27556,11 @@
       <c r="I15" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="J15" s="252" t="s">
+      <c r="J15" s="251" t="s">
         <v>324</v>
       </c>
-      <c r="K15" s="252"/>
-      <c r="L15" s="252"/>
+      <c r="K15" s="251"/>
+      <c r="L15" s="251"/>
       <c r="M15" s="48"/>
       <c r="N15" s="48"/>
       <c r="O15" s="48"/>
@@ -27581,11 +27589,11 @@
       <c r="I16" s="64" t="s">
         <v>341</v>
       </c>
-      <c r="J16" s="252" t="s">
+      <c r="J16" s="251" t="s">
         <v>340</v>
       </c>
-      <c r="K16" s="252"/>
-      <c r="L16" s="252"/>
+      <c r="K16" s="251"/>
+      <c r="L16" s="251"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -27647,11 +27655,11 @@
       <c r="I18" s="62" t="s">
         <v>332</v>
       </c>
-      <c r="J18" s="243" t="s">
+      <c r="J18" s="244" t="s">
         <v>333</v>
       </c>
-      <c r="K18" s="244"/>
-      <c r="L18" s="245"/>
+      <c r="K18" s="254"/>
+      <c r="L18" s="243"/>
       <c r="M18" s="48"/>
       <c r="N18" s="48"/>
       <c r="O18" s="48"/>
@@ -27680,11 +27688,11 @@
       <c r="I19" s="151">
         <v>1</v>
       </c>
-      <c r="J19" s="243" t="s">
+      <c r="J19" s="244" t="s">
         <v>337</v>
       </c>
-      <c r="K19" s="244"/>
-      <c r="L19" s="245"/>
+      <c r="K19" s="254"/>
+      <c r="L19" s="243"/>
       <c r="M19" s="48"/>
       <c r="N19" s="48"/>
       <c r="O19" s="48"/>
@@ -27713,11 +27721,11 @@
       <c r="I20" s="153" t="s">
         <v>215</v>
       </c>
-      <c r="J20" s="243" t="s">
+      <c r="J20" s="244" t="s">
         <v>202</v>
       </c>
-      <c r="K20" s="244"/>
-      <c r="L20" s="245"/>
+      <c r="K20" s="254"/>
+      <c r="L20" s="243"/>
       <c r="M20" s="48"/>
       <c r="N20" s="48"/>
       <c r="O20" s="48"/>
@@ -27879,11 +27887,11 @@
     </row>
     <row r="30" spans="1:15" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="51"/>
-      <c r="B30" s="253" t="s">
+      <c r="B30" s="252" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="253"/>
-      <c r="D30" s="253"/>
+      <c r="C30" s="252"/>
+      <c r="D30" s="252"/>
       <c r="E30" s="67"/>
       <c r="F30" s="68"/>
       <c r="G30" s="67"/>
@@ -27898,12 +27906,12 @@
     </row>
     <row r="31" spans="1:15" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="70"/>
-      <c r="B31" s="249" t="s">
+      <c r="B31" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="250"/>
-      <c r="D31" s="250"/>
-      <c r="E31" s="251"/>
+      <c r="C31" s="249"/>
+      <c r="D31" s="249"/>
+      <c r="E31" s="250"/>
       <c r="F31" s="59" t="s">
         <v>90</v>
       </c>
@@ -27995,10 +28003,10 @@
       <c r="A34" s="48"/>
       <c r="B34" s="72"/>
       <c r="C34" s="77"/>
-      <c r="D34" s="243" t="s">
+      <c r="D34" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E34" s="245"/>
+      <c r="E34" s="243"/>
       <c r="F34" s="61" t="s">
         <v>190</v>
       </c>
@@ -28028,10 +28036,10 @@
       <c r="A35" s="48"/>
       <c r="B35" s="72"/>
       <c r="C35" s="78"/>
-      <c r="D35" s="243" t="s">
+      <c r="D35" s="244" t="s">
         <v>128</v>
       </c>
-      <c r="E35" s="245"/>
+      <c r="E35" s="243"/>
       <c r="F35" s="61" t="s">
         <v>129</v>
       </c>
@@ -28094,10 +28102,10 @@
       <c r="A37" s="48"/>
       <c r="B37" s="72"/>
       <c r="C37" s="79"/>
-      <c r="D37" s="243" t="s">
+      <c r="D37" s="244" t="s">
         <v>299</v>
       </c>
-      <c r="E37" s="245"/>
+      <c r="E37" s="243"/>
       <c r="F37" s="61" t="s">
         <v>300</v>
       </c>
@@ -28127,8 +28135,8 @@
       <c r="A38" s="48"/>
       <c r="B38" s="83"/>
       <c r="C38" s="78"/>
-      <c r="D38" s="243"/>
-      <c r="E38" s="245"/>
+      <c r="D38" s="244"/>
+      <c r="E38" s="243"/>
       <c r="F38" s="61"/>
       <c r="G38" s="63"/>
       <c r="H38" s="63"/>
@@ -28384,12 +28392,12 @@
     </row>
     <row r="53" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A53" s="70"/>
-      <c r="B53" s="249" t="s">
+      <c r="B53" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="250"/>
-      <c r="D53" s="250"/>
-      <c r="E53" s="251"/>
+      <c r="C53" s="249"/>
+      <c r="D53" s="249"/>
+      <c r="E53" s="250"/>
       <c r="F53" s="59" t="s">
         <v>90</v>
       </c>
@@ -28481,10 +28489,10 @@
       <c r="A56" s="48"/>
       <c r="B56" s="72"/>
       <c r="C56" s="77"/>
-      <c r="D56" s="243" t="s">
+      <c r="D56" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E56" s="245"/>
+      <c r="E56" s="243"/>
       <c r="F56" s="61" t="s">
         <v>190</v>
       </c>
@@ -28514,10 +28522,10 @@
       <c r="A57" s="48"/>
       <c r="B57" s="72"/>
       <c r="C57" s="77"/>
-      <c r="D57" s="254" t="s">
+      <c r="D57" s="242" t="s">
         <v>148</v>
       </c>
-      <c r="E57" s="245"/>
+      <c r="E57" s="243"/>
       <c r="F57" s="61" t="s">
         <v>149</v>
       </c>
@@ -28903,28 +28911,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D37:E37"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D38:E38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I16" r:id="rId1" display="foo@mulodo.com"/>
@@ -29022,12 +29030,12 @@
       <c r="C4" s="268" t="s">
         <v>347</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="245"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="243"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -29043,12 +29051,12 @@
       <c r="C5" s="268" t="s">
         <v>347</v>
       </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="245"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="243"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -29062,7 +29070,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="156" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="91"/>
@@ -29085,12 +29093,12 @@
       <c r="C7" s="268" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="245"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="243"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -29124,15 +29132,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="243" t="s">
+      <c r="C9" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="244"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="245"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="243"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -29195,19 +29203,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="246" t="s">
+      <c r="B13" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="247"/>
-      <c r="D13" s="247"/>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="247"/>
-      <c r="H13" s="247"/>
-      <c r="I13" s="247"/>
-      <c r="J13" s="247"/>
-      <c r="K13" s="247"/>
-      <c r="L13" s="248"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="256"/>
+      <c r="J13" s="256"/>
+      <c r="K13" s="256"/>
+      <c r="L13" s="257"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -29236,11 +29244,11 @@
       <c r="I14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="242" t="s">
+      <c r="J14" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="242"/>
-      <c r="L14" s="242"/>
+      <c r="K14" s="253"/>
+      <c r="L14" s="253"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -29269,11 +29277,11 @@
       <c r="I15" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="J15" s="252" t="s">
+      <c r="J15" s="251" t="s">
         <v>324</v>
       </c>
-      <c r="K15" s="252"/>
-      <c r="L15" s="252"/>
+      <c r="K15" s="251"/>
+      <c r="L15" s="251"/>
       <c r="M15" s="48"/>
       <c r="N15" s="48"/>
       <c r="O15" s="48"/>
@@ -29302,11 +29310,11 @@
       <c r="I16" s="64" t="s">
         <v>341</v>
       </c>
-      <c r="J16" s="252" t="s">
+      <c r="J16" s="251" t="s">
         <v>340</v>
       </c>
-      <c r="K16" s="252"/>
-      <c r="L16" s="252"/>
+      <c r="K16" s="251"/>
+      <c r="L16" s="251"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -29368,11 +29376,11 @@
       <c r="I18" s="62" t="s">
         <v>332</v>
       </c>
-      <c r="J18" s="243" t="s">
+      <c r="J18" s="244" t="s">
         <v>333</v>
       </c>
-      <c r="K18" s="244"/>
-      <c r="L18" s="245"/>
+      <c r="K18" s="254"/>
+      <c r="L18" s="243"/>
       <c r="M18" s="48"/>
       <c r="N18" s="48"/>
       <c r="O18" s="48"/>
@@ -29401,11 +29409,11 @@
       <c r="I19" s="151">
         <v>1</v>
       </c>
-      <c r="J19" s="243" t="s">
+      <c r="J19" s="244" t="s">
         <v>337</v>
       </c>
-      <c r="K19" s="244"/>
-      <c r="L19" s="245"/>
+      <c r="K19" s="254"/>
+      <c r="L19" s="243"/>
       <c r="M19" s="48"/>
       <c r="N19" s="48"/>
       <c r="O19" s="48"/>
@@ -29434,11 +29442,11 @@
       <c r="I20" s="153" t="s">
         <v>215</v>
       </c>
-      <c r="J20" s="243" t="s">
+      <c r="J20" s="244" t="s">
         <v>142</v>
       </c>
-      <c r="K20" s="244"/>
-      <c r="L20" s="245"/>
+      <c r="K20" s="254"/>
+      <c r="L20" s="243"/>
       <c r="M20" s="48"/>
       <c r="N20" s="48"/>
       <c r="O20" s="48"/>
@@ -29600,11 +29608,11 @@
     </row>
     <row r="30" spans="1:15" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="51"/>
-      <c r="B30" s="253" t="s">
+      <c r="B30" s="252" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="253"/>
-      <c r="D30" s="253"/>
+      <c r="C30" s="252"/>
+      <c r="D30" s="252"/>
       <c r="E30" s="67"/>
       <c r="F30" s="68"/>
       <c r="G30" s="67"/>
@@ -29619,12 +29627,12 @@
     </row>
     <row r="31" spans="1:15" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="70"/>
-      <c r="B31" s="249" t="s">
+      <c r="B31" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="250"/>
-      <c r="D31" s="250"/>
-      <c r="E31" s="251"/>
+      <c r="C31" s="249"/>
+      <c r="D31" s="249"/>
+      <c r="E31" s="250"/>
       <c r="F31" s="92" t="s">
         <v>90</v>
       </c>
@@ -29716,10 +29724,10 @@
       <c r="A34" s="48"/>
       <c r="B34" s="72"/>
       <c r="C34" s="77"/>
-      <c r="D34" s="243" t="s">
+      <c r="D34" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E34" s="245"/>
+      <c r="E34" s="243"/>
       <c r="F34" s="61" t="s">
         <v>190</v>
       </c>
@@ -29749,10 +29757,10 @@
       <c r="A35" s="48"/>
       <c r="B35" s="72"/>
       <c r="C35" s="78"/>
-      <c r="D35" s="243" t="s">
+      <c r="D35" s="244" t="s">
         <v>128</v>
       </c>
-      <c r="E35" s="245"/>
+      <c r="E35" s="243"/>
       <c r="F35" s="61" t="s">
         <v>129</v>
       </c>
@@ -29815,10 +29823,10 @@
       <c r="A37" s="48"/>
       <c r="B37" s="72"/>
       <c r="C37" s="79"/>
-      <c r="D37" s="243" t="s">
+      <c r="D37" s="244" t="s">
         <v>299</v>
       </c>
-      <c r="E37" s="245"/>
+      <c r="E37" s="243"/>
       <c r="F37" s="61" t="s">
         <v>300</v>
       </c>
@@ -29848,8 +29856,8 @@
       <c r="A38" s="48"/>
       <c r="B38" s="83"/>
       <c r="C38" s="78"/>
-      <c r="D38" s="243"/>
-      <c r="E38" s="245"/>
+      <c r="D38" s="244"/>
+      <c r="E38" s="243"/>
       <c r="F38" s="61"/>
       <c r="G38" s="63"/>
       <c r="H38" s="63"/>
@@ -30105,12 +30113,12 @@
     </row>
     <row r="53" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A53" s="70"/>
-      <c r="B53" s="249" t="s">
+      <c r="B53" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="250"/>
-      <c r="D53" s="250"/>
-      <c r="E53" s="251"/>
+      <c r="C53" s="249"/>
+      <c r="D53" s="249"/>
+      <c r="E53" s="250"/>
       <c r="F53" s="92" t="s">
         <v>90</v>
       </c>
@@ -30202,10 +30210,10 @@
       <c r="A56" s="48"/>
       <c r="B56" s="72"/>
       <c r="C56" s="77"/>
-      <c r="D56" s="243" t="s">
+      <c r="D56" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E56" s="245"/>
+      <c r="E56" s="243"/>
       <c r="F56" s="61" t="s">
         <v>190</v>
       </c>
@@ -30235,10 +30243,10 @@
       <c r="A57" s="48"/>
       <c r="B57" s="72"/>
       <c r="C57" s="77"/>
-      <c r="D57" s="254" t="s">
+      <c r="D57" s="242" t="s">
         <v>148</v>
       </c>
-      <c r="E57" s="245"/>
+      <c r="E57" s="243"/>
       <c r="F57" s="61" t="s">
         <v>149</v>
       </c>
@@ -30641,12 +30649,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C7:I7"/>
@@ -30663,6 +30665,12 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="D56:E56"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I16" r:id="rId1" display="foo@mulodo.com"/>
@@ -30760,12 +30768,12 @@
       <c r="C4" s="268" t="s">
         <v>352</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="245"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="243"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -30781,12 +30789,12 @@
       <c r="C5" s="268" t="s">
         <v>352</v>
       </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="245"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="243"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -30800,7 +30808,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="156" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="91"/>
@@ -30823,12 +30831,12 @@
       <c r="C7" s="268" t="s">
         <v>353</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="245"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="243"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -30862,15 +30870,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="243" t="s">
+      <c r="C9" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="244"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="245"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="243"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -30933,19 +30941,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="246" t="s">
+      <c r="B13" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="247"/>
-      <c r="D13" s="247"/>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="247"/>
-      <c r="H13" s="247"/>
-      <c r="I13" s="247"/>
-      <c r="J13" s="247"/>
-      <c r="K13" s="247"/>
-      <c r="L13" s="248"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="256"/>
+      <c r="J13" s="256"/>
+      <c r="K13" s="256"/>
+      <c r="L13" s="257"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -30974,11 +30982,11 @@
       <c r="I14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="242" t="s">
+      <c r="J14" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="242"/>
-      <c r="L14" s="242"/>
+      <c r="K14" s="253"/>
+      <c r="L14" s="253"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -31007,11 +31015,11 @@
       <c r="I15" s="160" t="s">
         <v>354</v>
       </c>
-      <c r="J15" s="265" t="s">
+      <c r="J15" s="263" t="s">
         <v>142</v>
       </c>
-      <c r="K15" s="252"/>
-      <c r="L15" s="252"/>
+      <c r="K15" s="251"/>
+      <c r="L15" s="251"/>
       <c r="M15" s="48"/>
       <c r="N15" s="48"/>
       <c r="O15" s="48"/>
@@ -31173,11 +31181,11 @@
     </row>
     <row r="25" spans="1:15" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="51"/>
-      <c r="B25" s="253" t="s">
+      <c r="B25" s="252" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="253"/>
-      <c r="D25" s="253"/>
+      <c r="C25" s="252"/>
+      <c r="D25" s="252"/>
       <c r="E25" s="67"/>
       <c r="F25" s="68"/>
       <c r="G25" s="67"/>
@@ -31192,12 +31200,12 @@
     </row>
     <row r="26" spans="1:15" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="70"/>
-      <c r="B26" s="249" t="s">
+      <c r="B26" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="250"/>
-      <c r="D26" s="250"/>
-      <c r="E26" s="251"/>
+      <c r="C26" s="249"/>
+      <c r="D26" s="249"/>
+      <c r="E26" s="250"/>
       <c r="F26" s="92" t="s">
         <v>90</v>
       </c>
@@ -31289,10 +31297,10 @@
       <c r="A29" s="48"/>
       <c r="B29" s="72"/>
       <c r="C29" s="77"/>
-      <c r="D29" s="243" t="s">
+      <c r="D29" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E29" s="245"/>
+      <c r="E29" s="243"/>
       <c r="F29" s="61" t="s">
         <v>190</v>
       </c>
@@ -31322,10 +31330,10 @@
       <c r="A30" s="48"/>
       <c r="B30" s="72"/>
       <c r="C30" s="78"/>
-      <c r="D30" s="243" t="s">
+      <c r="D30" s="244" t="s">
         <v>128</v>
       </c>
-      <c r="E30" s="245"/>
+      <c r="E30" s="243"/>
       <c r="F30" s="61" t="s">
         <v>129</v>
       </c>
@@ -31388,8 +31396,8 @@
       <c r="A32" s="48"/>
       <c r="B32" s="83"/>
       <c r="C32" s="78"/>
-      <c r="D32" s="243"/>
-      <c r="E32" s="245"/>
+      <c r="D32" s="244"/>
+      <c r="E32" s="243"/>
       <c r="F32" s="61"/>
       <c r="G32" s="63"/>
       <c r="H32" s="63"/>
@@ -31662,12 +31670,12 @@
     </row>
     <row r="48" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A48" s="70"/>
-      <c r="B48" s="249" t="s">
+      <c r="B48" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="250"/>
-      <c r="D48" s="250"/>
-      <c r="E48" s="251"/>
+      <c r="C48" s="249"/>
+      <c r="D48" s="249"/>
+      <c r="E48" s="250"/>
       <c r="F48" s="92" t="s">
         <v>90</v>
       </c>
@@ -31759,10 +31767,10 @@
       <c r="A51" s="48"/>
       <c r="B51" s="72"/>
       <c r="C51" s="77"/>
-      <c r="D51" s="243" t="s">
+      <c r="D51" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="245"/>
+      <c r="E51" s="243"/>
       <c r="F51" s="61" t="s">
         <v>190</v>
       </c>
@@ -31792,10 +31800,10 @@
       <c r="A52" s="48"/>
       <c r="B52" s="72"/>
       <c r="C52" s="77"/>
-      <c r="D52" s="254" t="s">
+      <c r="D52" s="242" t="s">
         <v>148</v>
       </c>
-      <c r="E52" s="245"/>
+      <c r="E52" s="243"/>
       <c r="F52" s="61" t="s">
         <v>149</v>
       </c>
@@ -32198,6 +32206,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D32:E32"/>
@@ -32208,12 +32222,6 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B48:E48"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -32313,12 +32321,12 @@
       <c r="C4" s="268" t="s">
         <v>355</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="245"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="243"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -32334,12 +32342,12 @@
       <c r="C5" s="268" t="s">
         <v>355</v>
       </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="245"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="243"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -32353,7 +32361,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="156" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="91"/>
@@ -32376,12 +32384,12 @@
       <c r="C7" s="268" t="s">
         <v>356</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="245"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="243"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -32415,15 +32423,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="243" t="s">
+      <c r="C9" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="244"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="245"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="243"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -32486,19 +32494,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="246" t="s">
+      <c r="B13" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="247"/>
-      <c r="D13" s="247"/>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="247"/>
-      <c r="H13" s="247"/>
-      <c r="I13" s="247"/>
-      <c r="J13" s="247"/>
-      <c r="K13" s="247"/>
-      <c r="L13" s="248"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="256"/>
+      <c r="J13" s="256"/>
+      <c r="K13" s="256"/>
+      <c r="L13" s="257"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -32527,11 +32535,11 @@
       <c r="I14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="242" t="s">
+      <c r="J14" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="242"/>
-      <c r="L14" s="242"/>
+      <c r="K14" s="253"/>
+      <c r="L14" s="253"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -32540,29 +32548,29 @@
       <c r="A15" s="48"/>
       <c r="B15" s="60"/>
       <c r="C15" s="157" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D15" s="158" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E15" s="159" t="s">
         <v>336</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="159" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H15" s="159" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I15" s="160" t="s">
-        <v>437</v>
-      </c>
-      <c r="J15" s="265" t="s">
-        <v>438</v>
-      </c>
-      <c r="K15" s="252"/>
-      <c r="L15" s="252"/>
+        <v>433</v>
+      </c>
+      <c r="J15" s="263" t="s">
+        <v>434</v>
+      </c>
+      <c r="K15" s="251"/>
+      <c r="L15" s="251"/>
       <c r="M15" s="48"/>
       <c r="N15" s="48"/>
       <c r="O15" s="48"/>
@@ -32571,29 +32579,29 @@
       <c r="A16" s="48"/>
       <c r="B16" s="60"/>
       <c r="C16" s="157" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D16" s="158" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E16" s="159" t="s">
         <v>336</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="159" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H16" s="159" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I16" s="160" t="s">
-        <v>442</v>
-      </c>
-      <c r="J16" s="265" t="s">
-        <v>443</v>
-      </c>
-      <c r="K16" s="252"/>
-      <c r="L16" s="252"/>
+        <v>438</v>
+      </c>
+      <c r="J16" s="263" t="s">
+        <v>439</v>
+      </c>
+      <c r="K16" s="251"/>
+      <c r="L16" s="251"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -32602,26 +32610,26 @@
       <c r="A17" s="48"/>
       <c r="B17" s="60"/>
       <c r="C17" s="157" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D17" s="158" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E17" s="159" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="159" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H17" s="159" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I17" s="160" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="J17" s="167" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="K17" s="166"/>
       <c r="L17" s="165"/>
@@ -32639,9 +32647,9 @@
       <c r="G18" s="63"/>
       <c r="H18" s="63"/>
       <c r="I18" s="162"/>
-      <c r="J18" s="243"/>
-      <c r="K18" s="244"/>
-      <c r="L18" s="245"/>
+      <c r="J18" s="244"/>
+      <c r="K18" s="254"/>
+      <c r="L18" s="243"/>
       <c r="M18" s="48"/>
       <c r="N18" s="48"/>
       <c r="O18" s="48"/>
@@ -32803,11 +32811,11 @@
     </row>
     <row r="28" spans="1:17" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="51"/>
-      <c r="B28" s="253" t="s">
+      <c r="B28" s="252" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="253"/>
-      <c r="D28" s="253"/>
+      <c r="C28" s="252"/>
+      <c r="D28" s="252"/>
       <c r="E28" s="67"/>
       <c r="F28" s="68"/>
       <c r="G28" s="67"/>
@@ -32822,14 +32830,14 @@
     </row>
     <row r="29" spans="1:17" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A29" s="70"/>
-      <c r="B29" s="249" t="s">
+      <c r="B29" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="250"/>
-      <c r="D29" s="250"/>
-      <c r="E29" s="250"/>
-      <c r="F29" s="250"/>
-      <c r="G29" s="251"/>
+      <c r="C29" s="249"/>
+      <c r="D29" s="249"/>
+      <c r="E29" s="249"/>
+      <c r="F29" s="249"/>
+      <c r="G29" s="250"/>
       <c r="H29" s="92" t="s">
         <v>90</v>
       </c>
@@ -32864,7 +32872,7 @@
       <c r="D30" s="73"/>
       <c r="E30" s="149"/>
       <c r="F30" s="271"/>
-      <c r="G30" s="256"/>
+      <c r="G30" s="246"/>
       <c r="H30" s="63" t="s">
         <v>118</v>
       </c>
@@ -32897,7 +32905,7 @@
       <c r="D31" s="76"/>
       <c r="E31" s="149"/>
       <c r="F31" s="271"/>
-      <c r="G31" s="256"/>
+      <c r="G31" s="246"/>
       <c r="H31" s="61" t="s">
         <v>125</v>
       </c>
@@ -32929,8 +32937,8 @@
         <v>167</v>
       </c>
       <c r="E32" s="149"/>
-      <c r="F32" s="244"/>
-      <c r="G32" s="245"/>
+      <c r="F32" s="254"/>
+      <c r="G32" s="243"/>
       <c r="H32" s="61" t="s">
         <v>190</v>
       </c>
@@ -32964,8 +32972,8 @@
         <v>128</v>
       </c>
       <c r="E33" s="149"/>
-      <c r="F33" s="244"/>
-      <c r="G33" s="245"/>
+      <c r="F33" s="254"/>
+      <c r="G33" s="243"/>
       <c r="H33" s="61" t="s">
         <v>129</v>
       </c>
@@ -33001,8 +33009,8 @@
         <v>42</v>
       </c>
       <c r="E34" s="149"/>
-      <c r="F34" s="244"/>
-      <c r="G34" s="245"/>
+      <c r="F34" s="254"/>
+      <c r="G34" s="243"/>
       <c r="H34" s="61" t="s">
         <v>297</v>
       </c>
@@ -33030,8 +33038,8 @@
       <c r="E35" s="89" t="s">
         <v>299</v>
       </c>
-      <c r="F35" s="244"/>
-      <c r="G35" s="245"/>
+      <c r="F35" s="254"/>
+      <c r="G35" s="243"/>
       <c r="H35" s="61" t="s">
         <v>300</v>
       </c>
@@ -33065,8 +33073,8 @@
       <c r="E36" s="89" t="s">
         <v>305</v>
       </c>
-      <c r="F36" s="244"/>
-      <c r="G36" s="245"/>
+      <c r="F36" s="254"/>
+      <c r="G36" s="243"/>
       <c r="H36" s="61" t="s">
         <v>306</v>
       </c>
@@ -33100,8 +33108,8 @@
       <c r="E37" s="89" t="s">
         <v>310</v>
       </c>
-      <c r="F37" s="244"/>
-      <c r="G37" s="245"/>
+      <c r="F37" s="254"/>
+      <c r="G37" s="243"/>
       <c r="H37" s="61" t="s">
         <v>311</v>
       </c>
@@ -33135,8 +33143,8 @@
       <c r="E38" s="89" t="s">
         <v>308</v>
       </c>
-      <c r="F38" s="244"/>
-      <c r="G38" s="245"/>
+      <c r="F38" s="254"/>
+      <c r="G38" s="243"/>
       <c r="H38" s="61" t="s">
         <v>313</v>
       </c>
@@ -33170,8 +33178,8 @@
       <c r="E39" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="F39" s="244"/>
-      <c r="G39" s="245"/>
+      <c r="F39" s="254"/>
+      <c r="G39" s="243"/>
       <c r="H39" s="61" t="s">
         <v>194</v>
       </c>
@@ -33257,10 +33265,10 @@
       <c r="C42" s="72"/>
       <c r="D42" s="72"/>
       <c r="E42" s="79"/>
-      <c r="F42" s="243" t="s">
+      <c r="F42" s="244" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="245"/>
+      <c r="G42" s="243"/>
       <c r="H42" s="61" t="s">
         <v>98</v>
       </c>
@@ -33290,10 +33298,10 @@
       <c r="C43" s="72"/>
       <c r="D43" s="269"/>
       <c r="E43" s="66"/>
-      <c r="F43" s="243" t="s">
+      <c r="F43" s="244" t="s">
         <v>109</v>
       </c>
-      <c r="G43" s="245"/>
+      <c r="G43" s="243"/>
       <c r="H43" s="61" t="s">
         <v>110</v>
       </c>
@@ -33323,10 +33331,10 @@
       <c r="C44" s="72"/>
       <c r="D44" s="269"/>
       <c r="E44" s="66"/>
-      <c r="F44" s="243" t="s">
+      <c r="F44" s="244" t="s">
         <v>112</v>
       </c>
-      <c r="G44" s="245"/>
+      <c r="G44" s="243"/>
       <c r="H44" s="61" t="s">
         <v>113</v>
       </c>
@@ -33950,12 +33958,12 @@
     </row>
     <row r="79" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A79" s="70"/>
-      <c r="B79" s="249" t="s">
+      <c r="B79" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C79" s="250"/>
-      <c r="D79" s="250"/>
-      <c r="E79" s="251"/>
+      <c r="C79" s="249"/>
+      <c r="D79" s="249"/>
+      <c r="E79" s="250"/>
       <c r="F79" s="92" t="s">
         <v>90</v>
       </c>
@@ -34047,10 +34055,10 @@
       <c r="A82" s="48"/>
       <c r="B82" s="72"/>
       <c r="C82" s="77"/>
-      <c r="D82" s="243" t="s">
+      <c r="D82" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E82" s="245"/>
+      <c r="E82" s="243"/>
       <c r="F82" s="61" t="s">
         <v>190</v>
       </c>
@@ -34080,10 +34088,10 @@
       <c r="A83" s="48"/>
       <c r="B83" s="72"/>
       <c r="C83" s="77"/>
-      <c r="D83" s="254" t="s">
+      <c r="D83" s="242" t="s">
         <v>148</v>
       </c>
-      <c r="E83" s="245"/>
+      <c r="E83" s="243"/>
       <c r="F83" s="61" t="s">
         <v>149</v>
       </c>
@@ -34469,6 +34477,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J15:L15"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B79:E79"/>
     <mergeCell ref="D82:E82"/>
@@ -34485,20 +34507,6 @@
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J15:L15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -34595,15 +34603,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="243" t="s">
+      <c r="C4" s="244" t="s">
         <v>363</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="245"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="243"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -34616,15 +34624,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="243" t="s">
+      <c r="C5" s="244" t="s">
         <v>363</v>
       </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="245"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="243"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -34638,7 +34646,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="91"/>
@@ -34658,15 +34666,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="243" t="s">
+      <c r="C7" s="244" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="245"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="243"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -34700,15 +34708,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="243" t="s">
+      <c r="C9" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="244"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="245"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="243"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -34771,19 +34779,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="246" t="s">
+      <c r="B13" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="247"/>
-      <c r="D13" s="247"/>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="247"/>
-      <c r="H13" s="247"/>
-      <c r="I13" s="247"/>
-      <c r="J13" s="247"/>
-      <c r="K13" s="247"/>
-      <c r="L13" s="248"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="256"/>
+      <c r="J13" s="256"/>
+      <c r="K13" s="256"/>
+      <c r="L13" s="257"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -34812,11 +34820,11 @@
       <c r="I14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="242" t="s">
+      <c r="J14" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="242"/>
-      <c r="L14" s="242"/>
+      <c r="K14" s="253"/>
+      <c r="L14" s="253"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -34856,29 +34864,29 @@
       <c r="A16" s="48"/>
       <c r="B16" s="60"/>
       <c r="C16" s="157" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D16" s="158" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E16" s="159" t="s">
         <v>336</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="159" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H16" s="159" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I16" s="160" t="s">
-        <v>437</v>
-      </c>
-      <c r="J16" s="265" t="s">
-        <v>438</v>
-      </c>
-      <c r="K16" s="252"/>
-      <c r="L16" s="252"/>
+        <v>433</v>
+      </c>
+      <c r="J16" s="263" t="s">
+        <v>434</v>
+      </c>
+      <c r="K16" s="251"/>
+      <c r="L16" s="251"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -34887,29 +34895,29 @@
       <c r="A17" s="48"/>
       <c r="B17" s="60"/>
       <c r="C17" s="157" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D17" s="158" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E17" s="159" t="s">
         <v>336</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="159" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H17" s="159" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I17" s="160" t="s">
-        <v>442</v>
-      </c>
-      <c r="J17" s="265" t="s">
-        <v>443</v>
-      </c>
-      <c r="K17" s="252"/>
-      <c r="L17" s="252"/>
+        <v>438</v>
+      </c>
+      <c r="J17" s="263" t="s">
+        <v>439</v>
+      </c>
+      <c r="K17" s="251"/>
+      <c r="L17" s="251"/>
       <c r="M17" s="48"/>
       <c r="N17" s="48"/>
       <c r="O17" s="48"/>
@@ -34918,26 +34926,26 @@
       <c r="A18" s="48"/>
       <c r="B18" s="60"/>
       <c r="C18" s="157" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D18" s="158" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E18" s="159" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="159" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H18" s="159" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I18" s="160" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="J18" s="167" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="K18" s="166"/>
       <c r="L18" s="165"/>
@@ -34955,9 +34963,9 @@
       <c r="G19" s="63"/>
       <c r="H19" s="63"/>
       <c r="I19" s="162"/>
-      <c r="J19" s="243"/>
-      <c r="K19" s="244"/>
-      <c r="L19" s="245"/>
+      <c r="J19" s="244"/>
+      <c r="K19" s="254"/>
+      <c r="L19" s="243"/>
       <c r="M19" s="48"/>
       <c r="N19" s="48"/>
       <c r="O19" s="48"/>
@@ -35119,11 +35127,11 @@
     </row>
     <row r="29" spans="1:15" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="51"/>
-      <c r="B29" s="253" t="s">
+      <c r="B29" s="252" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="253"/>
-      <c r="D29" s="253"/>
+      <c r="C29" s="252"/>
+      <c r="D29" s="252"/>
       <c r="E29" s="67"/>
       <c r="F29" s="68"/>
       <c r="G29" s="67"/>
@@ -35138,12 +35146,12 @@
     </row>
     <row r="30" spans="1:15" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="70"/>
-      <c r="B30" s="249" t="s">
+      <c r="B30" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="250"/>
-      <c r="D30" s="250"/>
-      <c r="E30" s="251"/>
+      <c r="C30" s="249"/>
+      <c r="D30" s="249"/>
+      <c r="E30" s="250"/>
       <c r="F30" s="92" t="s">
         <v>90</v>
       </c>
@@ -35235,10 +35243,10 @@
       <c r="A33" s="48"/>
       <c r="B33" s="72"/>
       <c r="C33" s="77"/>
-      <c r="D33" s="243" t="s">
+      <c r="D33" s="244" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="245"/>
+      <c r="E33" s="243"/>
       <c r="F33" s="61" t="s">
         <v>349</v>
       </c>
@@ -35268,10 +35276,10 @@
       <c r="A34" s="48"/>
       <c r="B34" s="72"/>
       <c r="C34" s="78"/>
-      <c r="D34" s="243" t="s">
+      <c r="D34" s="244" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="245"/>
+      <c r="E34" s="243"/>
       <c r="F34" s="61" t="s">
         <v>129</v>
       </c>
@@ -35334,10 +35342,10 @@
       <c r="A36" s="48"/>
       <c r="B36" s="72"/>
       <c r="C36" s="79"/>
-      <c r="D36" s="243" t="s">
+      <c r="D36" s="244" t="s">
         <v>358</v>
       </c>
-      <c r="E36" s="245"/>
+      <c r="E36" s="243"/>
       <c r="F36" s="61" t="s">
         <v>359</v>
       </c>
@@ -35367,10 +35375,10 @@
       <c r="A37" s="48"/>
       <c r="B37" s="72"/>
       <c r="C37" s="79"/>
-      <c r="D37" s="255" t="s">
+      <c r="D37" s="245" t="s">
         <v>321</v>
       </c>
-      <c r="E37" s="256"/>
+      <c r="E37" s="246"/>
       <c r="F37" s="61" t="s">
         <v>322</v>
       </c>
@@ -35400,10 +35408,10 @@
       <c r="A38" s="48"/>
       <c r="B38" s="72"/>
       <c r="C38" s="77"/>
-      <c r="D38" s="243" t="s">
+      <c r="D38" s="244" t="s">
         <v>361</v>
       </c>
-      <c r="E38" s="245"/>
+      <c r="E38" s="243"/>
       <c r="F38" s="61" t="s">
         <v>238</v>
       </c>
@@ -35483,8 +35491,8 @@
       <c r="A41" s="48"/>
       <c r="B41" s="83"/>
       <c r="C41" s="78"/>
-      <c r="D41" s="243"/>
-      <c r="E41" s="245"/>
+      <c r="D41" s="244"/>
+      <c r="E41" s="243"/>
       <c r="F41" s="61"/>
       <c r="G41" s="63"/>
       <c r="H41" s="63"/>
@@ -35515,11 +35523,11 @@
     </row>
     <row r="43" spans="1:17" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="51"/>
-      <c r="B43" s="253" t="s">
+      <c r="B43" s="252" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="253"/>
-      <c r="D43" s="253"/>
+      <c r="C43" s="252"/>
+      <c r="D43" s="252"/>
       <c r="E43" s="67"/>
       <c r="F43" s="68"/>
       <c r="G43" s="67"/>
@@ -35534,14 +35542,14 @@
     </row>
     <row r="44" spans="1:17" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A44" s="70"/>
-      <c r="B44" s="249" t="s">
+      <c r="B44" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="250"/>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="251"/>
+      <c r="C44" s="249"/>
+      <c r="D44" s="249"/>
+      <c r="E44" s="249"/>
+      <c r="F44" s="249"/>
+      <c r="G44" s="250"/>
       <c r="H44" s="92" t="s">
         <v>90</v>
       </c>
@@ -35576,7 +35584,7 @@
       <c r="D45" s="73"/>
       <c r="E45" s="149"/>
       <c r="F45" s="271"/>
-      <c r="G45" s="256"/>
+      <c r="G45" s="246"/>
       <c r="H45" s="63" t="s">
         <v>118</v>
       </c>
@@ -35609,7 +35617,7 @@
       <c r="D46" s="76"/>
       <c r="E46" s="149"/>
       <c r="F46" s="271"/>
-      <c r="G46" s="256"/>
+      <c r="G46" s="246"/>
       <c r="H46" s="61" t="s">
         <v>125</v>
       </c>
@@ -35641,8 +35649,8 @@
         <v>167</v>
       </c>
       <c r="E47" s="149"/>
-      <c r="F47" s="244"/>
-      <c r="G47" s="245"/>
+      <c r="F47" s="254"/>
+      <c r="G47" s="243"/>
       <c r="H47" s="61" t="s">
         <v>190</v>
       </c>
@@ -35676,8 +35684,8 @@
         <v>128</v>
       </c>
       <c r="E48" s="149"/>
-      <c r="F48" s="244"/>
-      <c r="G48" s="245"/>
+      <c r="F48" s="254"/>
+      <c r="G48" s="243"/>
       <c r="H48" s="61" t="s">
         <v>129</v>
       </c>
@@ -35713,8 +35721,8 @@
         <v>42</v>
       </c>
       <c r="E49" s="149"/>
-      <c r="F49" s="244"/>
-      <c r="G49" s="245"/>
+      <c r="F49" s="254"/>
+      <c r="G49" s="243"/>
       <c r="H49" s="61" t="s">
         <v>297</v>
       </c>
@@ -35742,8 +35750,8 @@
       <c r="E50" s="89" t="s">
         <v>299</v>
       </c>
-      <c r="F50" s="244"/>
-      <c r="G50" s="245"/>
+      <c r="F50" s="254"/>
+      <c r="G50" s="243"/>
       <c r="H50" s="61" t="s">
         <v>300</v>
       </c>
@@ -35777,8 +35785,8 @@
       <c r="E51" s="89" t="s">
         <v>305</v>
       </c>
-      <c r="F51" s="244"/>
-      <c r="G51" s="245"/>
+      <c r="F51" s="254"/>
+      <c r="G51" s="243"/>
       <c r="H51" s="61" t="s">
         <v>306</v>
       </c>
@@ -35812,8 +35820,8 @@
       <c r="E52" s="89" t="s">
         <v>310</v>
       </c>
-      <c r="F52" s="244"/>
-      <c r="G52" s="245"/>
+      <c r="F52" s="254"/>
+      <c r="G52" s="243"/>
       <c r="H52" s="61" t="s">
         <v>311</v>
       </c>
@@ -35847,8 +35855,8 @@
       <c r="E53" s="89" t="s">
         <v>308</v>
       </c>
-      <c r="F53" s="244"/>
-      <c r="G53" s="245"/>
+      <c r="F53" s="254"/>
+      <c r="G53" s="243"/>
       <c r="H53" s="61" t="s">
         <v>313</v>
       </c>
@@ -35882,8 +35890,8 @@
       <c r="E54" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="F54" s="244"/>
-      <c r="G54" s="245"/>
+      <c r="F54" s="254"/>
+      <c r="G54" s="243"/>
       <c r="H54" s="61" t="s">
         <v>194</v>
       </c>
@@ -35969,10 +35977,10 @@
       <c r="C57" s="72"/>
       <c r="D57" s="72"/>
       <c r="E57" s="79"/>
-      <c r="F57" s="243" t="s">
+      <c r="F57" s="244" t="s">
         <v>97</v>
       </c>
-      <c r="G57" s="245"/>
+      <c r="G57" s="243"/>
       <c r="H57" s="61" t="s">
         <v>98</v>
       </c>
@@ -36002,10 +36010,10 @@
       <c r="C58" s="72"/>
       <c r="D58" s="269"/>
       <c r="E58" s="66"/>
-      <c r="F58" s="243" t="s">
+      <c r="F58" s="244" t="s">
         <v>109</v>
       </c>
-      <c r="G58" s="245"/>
+      <c r="G58" s="243"/>
       <c r="H58" s="61" t="s">
         <v>110</v>
       </c>
@@ -36035,10 +36043,10 @@
       <c r="C59" s="72"/>
       <c r="D59" s="269"/>
       <c r="E59" s="66"/>
-      <c r="F59" s="243" t="s">
+      <c r="F59" s="244" t="s">
         <v>112</v>
       </c>
-      <c r="G59" s="245"/>
+      <c r="G59" s="243"/>
       <c r="H59" s="61" t="s">
         <v>113</v>
       </c>
@@ -36662,12 +36670,12 @@
     </row>
     <row r="94" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A94" s="70"/>
-      <c r="B94" s="249" t="s">
+      <c r="B94" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C94" s="250"/>
-      <c r="D94" s="250"/>
-      <c r="E94" s="251"/>
+      <c r="C94" s="249"/>
+      <c r="D94" s="249"/>
+      <c r="E94" s="250"/>
       <c r="F94" s="92" t="s">
         <v>90</v>
       </c>
@@ -36759,10 +36767,10 @@
       <c r="A97" s="48"/>
       <c r="B97" s="72"/>
       <c r="C97" s="77"/>
-      <c r="D97" s="243" t="s">
+      <c r="D97" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E97" s="245"/>
+      <c r="E97" s="243"/>
       <c r="F97" s="61" t="s">
         <v>190</v>
       </c>
@@ -36792,10 +36800,10 @@
       <c r="A98" s="48"/>
       <c r="B98" s="72"/>
       <c r="C98" s="77"/>
-      <c r="D98" s="254" t="s">
+      <c r="D98" s="242" t="s">
         <v>148</v>
       </c>
-      <c r="E98" s="245"/>
+      <c r="E98" s="243"/>
       <c r="F98" s="61" t="s">
         <v>149</v>
       </c>
@@ -37215,6 +37223,31 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:E94"/>
     <mergeCell ref="F54:G54"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:G44"/>
@@ -37228,31 +37261,6 @@
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="F52:G52"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J16:L16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I16" r:id="rId1" display="foo@mulodo.com"/>
@@ -37346,14 +37354,14 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="243" t="s">
+      <c r="C4" s="244" t="s">
         <v>371</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="245"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="243"/>
       <c r="I4" s="48"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
@@ -37366,14 +37374,14 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="243" t="s">
+      <c r="C5" s="244" t="s">
         <v>371</v>
       </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="245"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="243"/>
       <c r="I5" s="48"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
@@ -37387,7 +37395,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="91"/>
@@ -37406,14 +37414,14 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="243" t="s">
+      <c r="C7" s="244" t="s">
         <v>356</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="245"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="243"/>
       <c r="I7" s="48"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
@@ -37446,14 +37454,14 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="243" t="s">
+      <c r="C9" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="244"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="245"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="243"/>
       <c r="I9" s="48"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
@@ -37513,18 +37521,18 @@
     </row>
     <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="246" t="s">
+      <c r="B13" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="247"/>
-      <c r="D13" s="247"/>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="247"/>
-      <c r="H13" s="247"/>
-      <c r="I13" s="247"/>
-      <c r="J13" s="247"/>
-      <c r="K13" s="248"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="256"/>
+      <c r="J13" s="256"/>
+      <c r="K13" s="257"/>
       <c r="L13" s="48"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
@@ -37550,11 +37558,11 @@
       <c r="H14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="242" t="s">
+      <c r="I14" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="242"/>
-      <c r="K14" s="242"/>
+      <c r="J14" s="253"/>
+      <c r="K14" s="253"/>
       <c r="L14" s="48"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
@@ -37568,9 +37576,9 @@
       <c r="F15" s="63"/>
       <c r="G15" s="63"/>
       <c r="H15" s="162"/>
-      <c r="I15" s="243"/>
-      <c r="J15" s="244"/>
-      <c r="K15" s="245"/>
+      <c r="I15" s="244"/>
+      <c r="J15" s="254"/>
+      <c r="K15" s="243"/>
       <c r="L15" s="48"/>
       <c r="M15" s="48"/>
       <c r="N15" s="48"/>
@@ -37723,10 +37731,10 @@
     </row>
     <row r="25" spans="1:16" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="51"/>
-      <c r="B25" s="253" t="s">
+      <c r="B25" s="252" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="253"/>
+      <c r="C25" s="252"/>
       <c r="D25" s="67"/>
       <c r="E25" s="68"/>
       <c r="F25" s="67"/>
@@ -37741,13 +37749,13 @@
     </row>
     <row r="26" spans="1:16" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A26" s="70"/>
-      <c r="B26" s="249" t="s">
+      <c r="B26" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="250"/>
-      <c r="D26" s="250"/>
-      <c r="E26" s="250"/>
-      <c r="F26" s="251"/>
+      <c r="C26" s="249"/>
+      <c r="D26" s="249"/>
+      <c r="E26" s="249"/>
+      <c r="F26" s="250"/>
       <c r="G26" s="92" t="s">
         <v>90</v>
       </c>
@@ -37781,7 +37789,7 @@
       <c r="C27" s="73"/>
       <c r="D27" s="149"/>
       <c r="E27" s="271"/>
-      <c r="F27" s="256"/>
+      <c r="F27" s="246"/>
       <c r="G27" s="63" t="s">
         <v>118</v>
       </c>
@@ -37813,7 +37821,7 @@
       </c>
       <c r="D28" s="149"/>
       <c r="E28" s="271"/>
-      <c r="F28" s="256"/>
+      <c r="F28" s="246"/>
       <c r="G28" s="61" t="s">
         <v>125</v>
       </c>
@@ -37844,8 +37852,8 @@
       <c r="D29" s="149" t="s">
         <v>167</v>
       </c>
-      <c r="E29" s="244"/>
-      <c r="F29" s="245"/>
+      <c r="E29" s="254"/>
+      <c r="F29" s="243"/>
       <c r="G29" s="61" t="s">
         <v>190</v>
       </c>
@@ -37878,8 +37886,8 @@
       <c r="D30" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="E30" s="244"/>
-      <c r="F30" s="245"/>
+      <c r="E30" s="254"/>
+      <c r="F30" s="243"/>
       <c r="G30" s="61" t="s">
         <v>129</v>
       </c>
@@ -37912,8 +37920,8 @@
         <v>131</v>
       </c>
       <c r="D31" s="149"/>
-      <c r="E31" s="244"/>
-      <c r="F31" s="245"/>
+      <c r="E31" s="254"/>
+      <c r="F31" s="243"/>
       <c r="G31" s="61" t="s">
         <v>297</v>
       </c>
@@ -37940,8 +37948,8 @@
       <c r="D32" s="89" t="s">
         <v>299</v>
       </c>
-      <c r="E32" s="244"/>
-      <c r="F32" s="245"/>
+      <c r="E32" s="254"/>
+      <c r="F32" s="243"/>
       <c r="G32" s="61" t="s">
         <v>300</v>
       </c>
@@ -37974,8 +37982,8 @@
       <c r="D33" s="89" t="s">
         <v>310</v>
       </c>
-      <c r="E33" s="244"/>
-      <c r="F33" s="245"/>
+      <c r="E33" s="254"/>
+      <c r="F33" s="243"/>
       <c r="G33" s="61" t="s">
         <v>311</v>
       </c>
@@ -38008,8 +38016,8 @@
       <c r="D34" s="89" t="s">
         <v>305</v>
       </c>
-      <c r="E34" s="244"/>
-      <c r="F34" s="245"/>
+      <c r="E34" s="254"/>
+      <c r="F34" s="243"/>
       <c r="G34" s="61" t="s">
         <v>306</v>
       </c>
@@ -38042,8 +38050,8 @@
       <c r="D35" s="89" t="s">
         <v>372</v>
       </c>
-      <c r="E35" s="244"/>
-      <c r="F35" s="245"/>
+      <c r="E35" s="254"/>
+      <c r="F35" s="243"/>
       <c r="G35" s="61" t="s">
         <v>373</v>
       </c>
@@ -38076,8 +38084,8 @@
       <c r="D36" s="89" t="s">
         <v>308</v>
       </c>
-      <c r="E36" s="244"/>
-      <c r="F36" s="245"/>
+      <c r="E36" s="254"/>
+      <c r="F36" s="243"/>
       <c r="G36" s="61" t="s">
         <v>313</v>
       </c>
@@ -38110,8 +38118,8 @@
       <c r="D37" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="E37" s="244"/>
-      <c r="F37" s="245"/>
+      <c r="E37" s="254"/>
+      <c r="F37" s="243"/>
       <c r="G37" s="61" t="s">
         <v>194</v>
       </c>
@@ -38203,10 +38211,10 @@
       <c r="B40" s="72"/>
       <c r="C40" s="72"/>
       <c r="D40" s="79"/>
-      <c r="E40" s="243" t="s">
+      <c r="E40" s="244" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="245"/>
+      <c r="F40" s="243"/>
       <c r="G40" s="61" t="s">
         <v>98</v>
       </c>
@@ -38235,10 +38243,10 @@
       <c r="B41" s="72"/>
       <c r="C41" s="72"/>
       <c r="D41" s="79"/>
-      <c r="E41" s="243" t="s">
+      <c r="E41" s="244" t="s">
         <v>109</v>
       </c>
-      <c r="F41" s="245"/>
+      <c r="F41" s="243"/>
       <c r="G41" s="61" t="s">
         <v>110</v>
       </c>
@@ -38267,10 +38275,10 @@
       <c r="B42" s="72"/>
       <c r="C42" s="72"/>
       <c r="D42" s="79"/>
-      <c r="E42" s="243" t="s">
+      <c r="E42" s="244" t="s">
         <v>112</v>
       </c>
-      <c r="F42" s="245"/>
+      <c r="F42" s="243"/>
       <c r="G42" s="61" t="s">
         <v>113</v>
       </c>
@@ -38781,11 +38789,11 @@
     </row>
     <row r="72" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A72" s="70"/>
-      <c r="B72" s="249" t="s">
+      <c r="B72" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C72" s="250"/>
-      <c r="D72" s="251"/>
+      <c r="C72" s="249"/>
+      <c r="D72" s="250"/>
       <c r="E72" s="92" t="s">
         <v>90</v>
       </c>
@@ -39335,18 +39343,13 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="I14:K14"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="E27:F27"/>
@@ -39354,13 +39357,18 @@
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -39452,15 +39460,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="243" t="s">
+      <c r="C4" s="244" t="s">
         <v>375</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="245"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="243"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -39473,15 +39481,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="243" t="s">
+      <c r="C5" s="244" t="s">
         <v>375</v>
       </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="245"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="243"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -39495,7 +39503,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="91"/>
@@ -39515,15 +39523,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="243" t="s">
+      <c r="C7" s="244" t="s">
         <v>319</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="245"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="243"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -39557,15 +39565,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="243" t="s">
+      <c r="C9" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="244"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="245"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="243"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -39628,19 +39636,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="246" t="s">
+      <c r="B13" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="247"/>
-      <c r="D13" s="247"/>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="247"/>
-      <c r="H13" s="247"/>
-      <c r="I13" s="247"/>
-      <c r="J13" s="247"/>
-      <c r="K13" s="247"/>
-      <c r="L13" s="248"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="256"/>
+      <c r="J13" s="256"/>
+      <c r="K13" s="256"/>
+      <c r="L13" s="257"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -39669,11 +39677,11 @@
       <c r="I14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="242" t="s">
+      <c r="J14" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="242"/>
-      <c r="L14" s="242"/>
+      <c r="K14" s="253"/>
+      <c r="L14" s="253"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -39735,11 +39743,11 @@
       <c r="I16" s="153" t="s">
         <v>354</v>
       </c>
-      <c r="J16" s="243" t="s">
+      <c r="J16" s="244" t="s">
         <v>142</v>
       </c>
-      <c r="K16" s="244"/>
-      <c r="L16" s="245"/>
+      <c r="K16" s="254"/>
+      <c r="L16" s="243"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -39901,11 +39909,11 @@
     </row>
     <row r="26" spans="1:15" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="51"/>
-      <c r="B26" s="253" t="s">
+      <c r="B26" s="252" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="253"/>
-      <c r="D26" s="253"/>
+      <c r="C26" s="252"/>
+      <c r="D26" s="252"/>
       <c r="E26" s="67"/>
       <c r="F26" s="68"/>
       <c r="G26" s="67"/>
@@ -39920,12 +39928,12 @@
     </row>
     <row r="27" spans="1:15" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="70"/>
-      <c r="B27" s="249" t="s">
+      <c r="B27" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="250"/>
-      <c r="D27" s="250"/>
-      <c r="E27" s="251"/>
+      <c r="C27" s="249"/>
+      <c r="D27" s="249"/>
+      <c r="E27" s="250"/>
       <c r="F27" s="92" t="s">
         <v>90</v>
       </c>
@@ -40017,10 +40025,10 @@
       <c r="A30" s="48"/>
       <c r="B30" s="72"/>
       <c r="C30" s="77"/>
-      <c r="D30" s="243" t="s">
+      <c r="D30" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E30" s="245"/>
+      <c r="E30" s="243"/>
       <c r="F30" s="61" t="s">
         <v>190</v>
       </c>
@@ -40050,10 +40058,10 @@
       <c r="A31" s="48"/>
       <c r="B31" s="72"/>
       <c r="C31" s="78"/>
-      <c r="D31" s="243" t="s">
+      <c r="D31" s="244" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="245"/>
+      <c r="E31" s="243"/>
       <c r="F31" s="61" t="s">
         <v>129</v>
       </c>
@@ -40116,8 +40124,8 @@
       <c r="A33" s="48"/>
       <c r="B33" s="83"/>
       <c r="C33" s="78"/>
-      <c r="D33" s="243"/>
-      <c r="E33" s="245"/>
+      <c r="D33" s="244"/>
+      <c r="E33" s="243"/>
       <c r="F33" s="61"/>
       <c r="G33" s="63"/>
       <c r="H33" s="63"/>
@@ -40354,11 +40362,11 @@
     </row>
     <row r="47" spans="1:15" ht="18.95" customHeight="1">
       <c r="A47" s="48"/>
-      <c r="B47" s="257" t="s">
+      <c r="B47" s="247" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="257"/>
-      <c r="D47" s="257"/>
+      <c r="C47" s="247"/>
+      <c r="D47" s="247"/>
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
       <c r="G47" s="48"/>
@@ -40373,12 +40381,12 @@
     </row>
     <row r="48" spans="1:15" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A48" s="70"/>
-      <c r="B48" s="249" t="s">
+      <c r="B48" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="250"/>
-      <c r="D48" s="250"/>
-      <c r="E48" s="251"/>
+      <c r="C48" s="249"/>
+      <c r="D48" s="249"/>
+      <c r="E48" s="250"/>
       <c r="F48" s="92" t="s">
         <v>90</v>
       </c>
@@ -40470,10 +40478,10 @@
       <c r="A51" s="48"/>
       <c r="B51" s="72"/>
       <c r="C51" s="77"/>
-      <c r="D51" s="243" t="s">
+      <c r="D51" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="245"/>
+      <c r="E51" s="243"/>
       <c r="F51" s="61" t="s">
         <v>190</v>
       </c>
@@ -40503,10 +40511,10 @@
       <c r="A52" s="48"/>
       <c r="B52" s="72"/>
       <c r="C52" s="77"/>
-      <c r="D52" s="254" t="s">
+      <c r="D52" s="242" t="s">
         <v>148</v>
       </c>
-      <c r="E52" s="261"/>
+      <c r="E52" s="258"/>
       <c r="F52" s="61" t="s">
         <v>149</v>
       </c>
@@ -40600,8 +40608,8 @@
       <c r="A55" s="48"/>
       <c r="B55" s="83"/>
       <c r="C55" s="78"/>
-      <c r="D55" s="243"/>
-      <c r="E55" s="245"/>
+      <c r="D55" s="244"/>
+      <c r="E55" s="243"/>
       <c r="F55" s="61"/>
       <c r="G55" s="63"/>
       <c r="H55" s="63"/>
@@ -40906,6 +40914,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="B48:E48"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
@@ -40917,12 +40931,6 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="B47:D47"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -41443,15 +41451,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="243" t="s">
+      <c r="C4" s="244" t="s">
         <v>378</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="245"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="243"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -41464,15 +41472,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="243" t="s">
+      <c r="C5" s="244" t="s">
         <v>378</v>
       </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="245"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="243"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -41486,7 +41494,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="91"/>
@@ -41506,15 +41514,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="243" t="s">
+      <c r="C7" s="244" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="245"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="243"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -41548,15 +41556,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="243" t="s">
+      <c r="C9" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="244"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="245"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="243"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -41619,19 +41627,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="246" t="s">
+      <c r="B13" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="247"/>
-      <c r="D13" s="247"/>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="247"/>
-      <c r="H13" s="247"/>
-      <c r="I13" s="247"/>
-      <c r="J13" s="247"/>
-      <c r="K13" s="247"/>
-      <c r="L13" s="248"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="256"/>
+      <c r="J13" s="256"/>
+      <c r="K13" s="256"/>
+      <c r="L13" s="257"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -41660,11 +41668,11 @@
       <c r="I14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="242" t="s">
+      <c r="J14" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="242"/>
-      <c r="L14" s="242"/>
+      <c r="K14" s="253"/>
+      <c r="L14" s="253"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -41726,11 +41734,11 @@
       <c r="I16" s="153" t="s">
         <v>354</v>
       </c>
-      <c r="J16" s="243" t="s">
+      <c r="J16" s="244" t="s">
         <v>142</v>
       </c>
-      <c r="K16" s="244"/>
-      <c r="L16" s="245"/>
+      <c r="K16" s="254"/>
+      <c r="L16" s="243"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -41892,11 +41900,11 @@
     </row>
     <row r="26" spans="1:15" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="51"/>
-      <c r="B26" s="253" t="s">
+      <c r="B26" s="252" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="253"/>
-      <c r="D26" s="253"/>
+      <c r="C26" s="252"/>
+      <c r="D26" s="252"/>
       <c r="E26" s="67"/>
       <c r="F26" s="68"/>
       <c r="G26" s="67"/>
@@ -41911,12 +41919,12 @@
     </row>
     <row r="27" spans="1:15" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="70"/>
-      <c r="B27" s="249" t="s">
+      <c r="B27" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="250"/>
-      <c r="D27" s="250"/>
-      <c r="E27" s="251"/>
+      <c r="C27" s="249"/>
+      <c r="D27" s="249"/>
+      <c r="E27" s="250"/>
       <c r="F27" s="92" t="s">
         <v>90</v>
       </c>
@@ -42008,10 +42016,10 @@
       <c r="A30" s="48"/>
       <c r="B30" s="72"/>
       <c r="C30" s="77"/>
-      <c r="D30" s="243" t="s">
+      <c r="D30" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E30" s="245"/>
+      <c r="E30" s="243"/>
       <c r="F30" s="61" t="s">
         <v>190</v>
       </c>
@@ -42041,10 +42049,10 @@
       <c r="A31" s="48"/>
       <c r="B31" s="72"/>
       <c r="C31" s="78"/>
-      <c r="D31" s="243" t="s">
+      <c r="D31" s="244" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="245"/>
+      <c r="E31" s="243"/>
       <c r="F31" s="61" t="s">
         <v>129</v>
       </c>
@@ -42107,8 +42115,8 @@
       <c r="A33" s="48"/>
       <c r="B33" s="83"/>
       <c r="C33" s="78"/>
-      <c r="D33" s="243"/>
-      <c r="E33" s="245"/>
+      <c r="D33" s="244"/>
+      <c r="E33" s="243"/>
       <c r="F33" s="61"/>
       <c r="G33" s="63"/>
       <c r="H33" s="63"/>
@@ -42345,11 +42353,11 @@
     </row>
     <row r="47" spans="1:15" ht="18.95" customHeight="1">
       <c r="A47" s="48"/>
-      <c r="B47" s="257" t="s">
+      <c r="B47" s="247" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="257"/>
-      <c r="D47" s="257"/>
+      <c r="C47" s="247"/>
+      <c r="D47" s="247"/>
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
       <c r="G47" s="48"/>
@@ -42364,12 +42372,12 @@
     </row>
     <row r="48" spans="1:15" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A48" s="70"/>
-      <c r="B48" s="249" t="s">
+      <c r="B48" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="250"/>
-      <c r="D48" s="250"/>
-      <c r="E48" s="251"/>
+      <c r="C48" s="249"/>
+      <c r="D48" s="249"/>
+      <c r="E48" s="250"/>
       <c r="F48" s="92" t="s">
         <v>90</v>
       </c>
@@ -42461,10 +42469,10 @@
       <c r="A51" s="48"/>
       <c r="B51" s="72"/>
       <c r="C51" s="77"/>
-      <c r="D51" s="243" t="s">
+      <c r="D51" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="245"/>
+      <c r="E51" s="243"/>
       <c r="F51" s="61" t="s">
         <v>190</v>
       </c>
@@ -42494,10 +42502,10 @@
       <c r="A52" s="48"/>
       <c r="B52" s="72"/>
       <c r="C52" s="77"/>
-      <c r="D52" s="254" t="s">
+      <c r="D52" s="242" t="s">
         <v>148</v>
       </c>
-      <c r="E52" s="261"/>
+      <c r="E52" s="258"/>
       <c r="F52" s="61" t="s">
         <v>149</v>
       </c>
@@ -42591,8 +42599,8 @@
       <c r="A55" s="48"/>
       <c r="B55" s="83"/>
       <c r="C55" s="78"/>
-      <c r="D55" s="243"/>
-      <c r="E55" s="245"/>
+      <c r="D55" s="244"/>
+      <c r="E55" s="243"/>
       <c r="F55" s="61"/>
       <c r="G55" s="63"/>
       <c r="H55" s="63"/>
@@ -42897,6 +42905,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B47:D47"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B26:D26"/>
@@ -42906,14 +42922,6 @@
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -43005,15 +43013,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="243" t="s">
+      <c r="C4" s="244" t="s">
         <v>379</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="245"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="243"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -43026,15 +43034,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="243" t="s">
+      <c r="C5" s="244" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="245"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="243"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -43048,7 +43056,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="91"/>
@@ -43068,15 +43076,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="243" t="s">
+      <c r="C7" s="244" t="s">
         <v>353</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="245"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="243"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -43110,15 +43118,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="243" t="s">
+      <c r="C9" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="244"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="245"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="243"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -43181,19 +43189,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="246" t="s">
+      <c r="B13" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="247"/>
-      <c r="D13" s="247"/>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="247"/>
-      <c r="H13" s="247"/>
-      <c r="I13" s="247"/>
-      <c r="J13" s="247"/>
-      <c r="K13" s="247"/>
-      <c r="L13" s="248"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="256"/>
+      <c r="J13" s="256"/>
+      <c r="K13" s="256"/>
+      <c r="L13" s="257"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -43222,11 +43230,11 @@
       <c r="I14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="242" t="s">
+      <c r="J14" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="242"/>
-      <c r="L14" s="242"/>
+      <c r="K14" s="253"/>
+      <c r="L14" s="253"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -43255,11 +43263,11 @@
       <c r="I15" s="64" t="s">
         <v>380</v>
       </c>
-      <c r="J15" s="252" t="s">
+      <c r="J15" s="251" t="s">
         <v>142</v>
       </c>
-      <c r="K15" s="252"/>
-      <c r="L15" s="252"/>
+      <c r="K15" s="251"/>
+      <c r="L15" s="251"/>
       <c r="M15" s="48"/>
       <c r="N15" s="48"/>
       <c r="O15" s="48"/>
@@ -43274,9 +43282,9 @@
       <c r="G16" s="63"/>
       <c r="H16" s="63"/>
       <c r="I16" s="153"/>
-      <c r="J16" s="243"/>
-      <c r="K16" s="244"/>
-      <c r="L16" s="245"/>
+      <c r="J16" s="244"/>
+      <c r="K16" s="254"/>
+      <c r="L16" s="243"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -43438,11 +43446,11 @@
     </row>
     <row r="26" spans="1:15" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="51"/>
-      <c r="B26" s="253" t="s">
+      <c r="B26" s="252" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="253"/>
-      <c r="D26" s="253"/>
+      <c r="C26" s="252"/>
+      <c r="D26" s="252"/>
       <c r="E26" s="67"/>
       <c r="F26" s="68"/>
       <c r="G26" s="67"/>
@@ -43457,12 +43465,12 @@
     </row>
     <row r="27" spans="1:15" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="70"/>
-      <c r="B27" s="249" t="s">
+      <c r="B27" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="250"/>
-      <c r="D27" s="250"/>
-      <c r="E27" s="251"/>
+      <c r="C27" s="249"/>
+      <c r="D27" s="249"/>
+      <c r="E27" s="250"/>
       <c r="F27" s="92" t="s">
         <v>90</v>
       </c>
@@ -43554,10 +43562,10 @@
       <c r="A30" s="48"/>
       <c r="B30" s="72"/>
       <c r="C30" s="77"/>
-      <c r="D30" s="243" t="s">
+      <c r="D30" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E30" s="245"/>
+      <c r="E30" s="243"/>
       <c r="F30" s="61" t="s">
         <v>190</v>
       </c>
@@ -43587,10 +43595,10 @@
       <c r="A31" s="48"/>
       <c r="B31" s="72"/>
       <c r="C31" s="78"/>
-      <c r="D31" s="243" t="s">
+      <c r="D31" s="244" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="245"/>
+      <c r="E31" s="243"/>
       <c r="F31" s="61" t="s">
         <v>129</v>
       </c>
@@ -43653,8 +43661,8 @@
       <c r="A33" s="48"/>
       <c r="B33" s="83"/>
       <c r="C33" s="78"/>
-      <c r="D33" s="243"/>
-      <c r="E33" s="245"/>
+      <c r="D33" s="244"/>
+      <c r="E33" s="243"/>
       <c r="F33" s="61"/>
       <c r="G33" s="63"/>
       <c r="H33" s="63"/>
@@ -43891,11 +43899,11 @@
     </row>
     <row r="47" spans="1:15" ht="18.95" customHeight="1">
       <c r="A47" s="48"/>
-      <c r="B47" s="257" t="s">
+      <c r="B47" s="247" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="257"/>
-      <c r="D47" s="257"/>
+      <c r="C47" s="247"/>
+      <c r="D47" s="247"/>
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
       <c r="G47" s="48"/>
@@ -43910,12 +43918,12 @@
     </row>
     <row r="48" spans="1:15" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A48" s="70"/>
-      <c r="B48" s="249" t="s">
+      <c r="B48" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="250"/>
-      <c r="D48" s="250"/>
-      <c r="E48" s="251"/>
+      <c r="C48" s="249"/>
+      <c r="D48" s="249"/>
+      <c r="E48" s="250"/>
       <c r="F48" s="92" t="s">
         <v>90</v>
       </c>
@@ -44007,10 +44015,10 @@
       <c r="A51" s="48"/>
       <c r="B51" s="72"/>
       <c r="C51" s="77"/>
-      <c r="D51" s="243" t="s">
+      <c r="D51" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="245"/>
+      <c r="E51" s="243"/>
       <c r="F51" s="61" t="s">
         <v>190</v>
       </c>
@@ -44040,10 +44048,10 @@
       <c r="A52" s="48"/>
       <c r="B52" s="72"/>
       <c r="C52" s="77"/>
-      <c r="D52" s="254" t="s">
+      <c r="D52" s="242" t="s">
         <v>148</v>
       </c>
-      <c r="E52" s="261"/>
+      <c r="E52" s="258"/>
       <c r="F52" s="61" t="s">
         <v>149</v>
       </c>
@@ -44137,8 +44145,8 @@
       <c r="A55" s="48"/>
       <c r="B55" s="83"/>
       <c r="C55" s="78"/>
-      <c r="D55" s="243"/>
-      <c r="E55" s="245"/>
+      <c r="D55" s="244"/>
+      <c r="E55" s="243"/>
       <c r="F55" s="61"/>
       <c r="G55" s="63"/>
       <c r="H55" s="63"/>
@@ -44443,16 +44451,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B48:E48"/>
@@ -44461,6 +44459,16 @@
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D55:E55"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -44556,15 +44564,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="243" t="s">
+      <c r="C4" s="244" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="245"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="243"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -44577,15 +44585,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="243" t="s">
+      <c r="C5" s="244" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="245"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="243"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -44599,7 +44607,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="91"/>
@@ -44619,15 +44627,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="243" t="s">
+      <c r="C7" s="244" t="s">
         <v>356</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="245"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="243"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -44661,15 +44669,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="243" t="s">
+      <c r="C9" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="244"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="245"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="243"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -44732,19 +44740,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="246" t="s">
+      <c r="B13" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="247"/>
-      <c r="D13" s="247"/>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="247"/>
-      <c r="H13" s="247"/>
-      <c r="I13" s="247"/>
-      <c r="J13" s="247"/>
-      <c r="K13" s="247"/>
-      <c r="L13" s="248"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="256"/>
+      <c r="J13" s="256"/>
+      <c r="K13" s="256"/>
+      <c r="L13" s="257"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -44773,11 +44781,11 @@
       <c r="I14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="242" t="s">
+      <c r="J14" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="242"/>
-      <c r="L14" s="242"/>
+      <c r="K14" s="253"/>
+      <c r="L14" s="253"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -44786,29 +44794,29 @@
       <c r="A15" s="48"/>
       <c r="B15" s="60"/>
       <c r="C15" s="157" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D15" s="158" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E15" s="159" t="s">
         <v>336</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="159" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H15" s="159" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I15" s="160" t="s">
-        <v>437</v>
-      </c>
-      <c r="J15" s="265" t="s">
-        <v>438</v>
-      </c>
-      <c r="K15" s="252"/>
-      <c r="L15" s="252"/>
+        <v>433</v>
+      </c>
+      <c r="J15" s="263" t="s">
+        <v>434</v>
+      </c>
+      <c r="K15" s="251"/>
+      <c r="L15" s="251"/>
       <c r="M15" s="48"/>
       <c r="N15" s="48"/>
       <c r="O15" s="48"/>
@@ -44817,29 +44825,29 @@
       <c r="A16" s="48"/>
       <c r="B16" s="60"/>
       <c r="C16" s="157" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D16" s="158" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E16" s="159" t="s">
         <v>336</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="159" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H16" s="159" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I16" s="160" t="s">
-        <v>442</v>
-      </c>
-      <c r="J16" s="265" t="s">
-        <v>443</v>
-      </c>
-      <c r="K16" s="252"/>
-      <c r="L16" s="252"/>
+        <v>438</v>
+      </c>
+      <c r="J16" s="263" t="s">
+        <v>439</v>
+      </c>
+      <c r="K16" s="251"/>
+      <c r="L16" s="251"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -44848,26 +44856,26 @@
       <c r="A17" s="48"/>
       <c r="B17" s="60"/>
       <c r="C17" s="157" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D17" s="158" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E17" s="159" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="159" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H17" s="159" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I17" s="160" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="J17" s="167" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="K17" s="166"/>
       <c r="L17" s="165"/>
@@ -44885,9 +44893,9 @@
       <c r="G18" s="63"/>
       <c r="H18" s="63"/>
       <c r="I18" s="162"/>
-      <c r="J18" s="243"/>
-      <c r="K18" s="244"/>
-      <c r="L18" s="245"/>
+      <c r="J18" s="244"/>
+      <c r="K18" s="254"/>
+      <c r="L18" s="243"/>
       <c r="M18" s="48"/>
       <c r="N18" s="48"/>
       <c r="O18" s="48"/>
@@ -45049,11 +45057,11 @@
     </row>
     <row r="28" spans="1:16" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="51"/>
-      <c r="B28" s="253" t="s">
+      <c r="B28" s="252" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="253"/>
-      <c r="D28" s="253"/>
+      <c r="C28" s="252"/>
+      <c r="D28" s="252"/>
       <c r="E28" s="67"/>
       <c r="F28" s="68"/>
       <c r="G28" s="67"/>
@@ -45108,7 +45116,7 @@
       <c r="C30" s="73"/>
       <c r="D30" s="73"/>
       <c r="E30" s="271"/>
-      <c r="F30" s="256"/>
+      <c r="F30" s="246"/>
       <c r="G30" s="63" t="s">
         <v>118</v>
       </c>
@@ -45140,7 +45148,7 @@
       </c>
       <c r="D31" s="76"/>
       <c r="E31" s="271"/>
-      <c r="F31" s="256"/>
+      <c r="F31" s="246"/>
       <c r="G31" s="61" t="s">
         <v>125</v>
       </c>
@@ -45168,11 +45176,11 @@
       <c r="A32" s="48"/>
       <c r="B32" s="72"/>
       <c r="C32" s="77"/>
-      <c r="D32" s="243" t="s">
+      <c r="D32" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E32" s="244"/>
-      <c r="F32" s="245"/>
+      <c r="E32" s="254"/>
+      <c r="F32" s="243"/>
       <c r="G32" s="61" t="s">
         <v>190</v>
       </c>
@@ -45202,11 +45210,11 @@
       <c r="A33" s="48"/>
       <c r="B33" s="72"/>
       <c r="C33" s="78"/>
-      <c r="D33" s="243" t="s">
+      <c r="D33" s="244" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="244"/>
-      <c r="F33" s="245"/>
+      <c r="E33" s="254"/>
+      <c r="F33" s="243"/>
       <c r="G33" s="61" t="s">
         <v>129</v>
       </c>
@@ -45240,7 +45248,7 @@
       </c>
       <c r="D34" s="76"/>
       <c r="E34" s="271"/>
-      <c r="F34" s="256"/>
+      <c r="F34" s="246"/>
       <c r="G34" s="61" t="s">
         <v>132</v>
       </c>
@@ -45270,11 +45278,11 @@
       <c r="A35" s="48"/>
       <c r="B35" s="72"/>
       <c r="C35" s="79"/>
-      <c r="D35" s="243" t="s">
+      <c r="D35" s="244" t="s">
         <v>381</v>
       </c>
-      <c r="E35" s="244"/>
-      <c r="F35" s="245"/>
+      <c r="E35" s="254"/>
+      <c r="F35" s="243"/>
       <c r="G35" s="61" t="s">
         <v>359</v>
       </c>
@@ -45304,11 +45312,11 @@
       <c r="A36" s="48"/>
       <c r="B36" s="72"/>
       <c r="C36" s="79"/>
-      <c r="D36" s="255" t="s">
+      <c r="D36" s="245" t="s">
         <v>325</v>
       </c>
       <c r="E36" s="271"/>
-      <c r="F36" s="256"/>
+      <c r="F36" s="246"/>
       <c r="G36" s="61" t="s">
         <v>326</v>
       </c>
@@ -45338,11 +45346,11 @@
       <c r="A37" s="48"/>
       <c r="B37" s="72"/>
       <c r="C37" s="77"/>
-      <c r="D37" s="243" t="s">
+      <c r="D37" s="244" t="s">
         <v>237</v>
       </c>
-      <c r="E37" s="244"/>
-      <c r="F37" s="245"/>
+      <c r="E37" s="254"/>
+      <c r="F37" s="243"/>
       <c r="G37" s="61" t="s">
         <v>238</v>
       </c>
@@ -45372,11 +45380,11 @@
       <c r="A38" s="48"/>
       <c r="B38" s="72"/>
       <c r="C38" s="77"/>
-      <c r="D38" s="243" t="s">
+      <c r="D38" s="244" t="s">
         <v>195</v>
       </c>
-      <c r="E38" s="244"/>
-      <c r="F38" s="245"/>
+      <c r="E38" s="254"/>
+      <c r="F38" s="243"/>
       <c r="G38" s="61" t="s">
         <v>194</v>
       </c>
@@ -45472,10 +45480,10 @@
       <c r="B41" s="72"/>
       <c r="C41" s="72"/>
       <c r="D41" s="79"/>
-      <c r="E41" s="243" t="s">
+      <c r="E41" s="244" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="245"/>
+      <c r="F41" s="243"/>
       <c r="G41" s="61" t="s">
         <v>98</v>
       </c>
@@ -45504,10 +45512,10 @@
       <c r="B42" s="72"/>
       <c r="C42" s="72"/>
       <c r="D42" s="79"/>
-      <c r="E42" s="243" t="s">
+      <c r="E42" s="244" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="245"/>
+      <c r="F42" s="243"/>
       <c r="G42" s="61" t="s">
         <v>110</v>
       </c>
@@ -45536,10 +45544,10 @@
       <c r="B43" s="72"/>
       <c r="C43" s="72"/>
       <c r="D43" s="79"/>
-      <c r="E43" s="243" t="s">
+      <c r="E43" s="244" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="245"/>
+      <c r="F43" s="243"/>
       <c r="G43" s="61" t="s">
         <v>113</v>
       </c>
@@ -46195,11 +46203,11 @@
     </row>
     <row r="80" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A80" s="70"/>
-      <c r="B80" s="249" t="s">
+      <c r="B80" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C80" s="250"/>
-      <c r="D80" s="251"/>
+      <c r="C80" s="249"/>
+      <c r="D80" s="250"/>
       <c r="E80" s="92" t="s">
         <v>90</v>
       </c>
@@ -46717,17 +46725,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -46742,6 +46739,17 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -46795,12 +46803,12 @@
     <row r="3" spans="2:12" s="136" customFormat="1" ht="15.75">
       <c r="B3" s="138"/>
       <c r="C3" s="164" t="s">
-        <v>429</v>
-      </c>
-      <c r="D3" s="221" t="s">
-        <v>430</v>
-      </c>
-      <c r="E3" s="221"/>
+        <v>425</v>
+      </c>
+      <c r="D3" s="218" t="s">
+        <v>426</v>
+      </c>
+      <c r="E3" s="218"/>
       <c r="F3" s="164" t="s">
         <v>172</v>
       </c>
@@ -46810,12 +46818,12 @@
         <v>1</v>
       </c>
       <c r="C4" s="101" t="s">
-        <v>449</v>
-      </c>
-      <c r="D4" s="218" t="s">
+        <v>445</v>
+      </c>
+      <c r="D4" s="219" t="s">
         <v>191</v>
       </c>
-      <c r="E4" s="219"/>
+      <c r="E4" s="220"/>
       <c r="F4" s="163"/>
       <c r="G4" s="97"/>
       <c r="H4" s="97"/>
@@ -46860,10 +46868,10 @@
       <c r="C8" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D8" s="220" t="s">
+      <c r="D8" s="221" t="s">
         <v>171</v>
       </c>
-      <c r="E8" s="220"/>
+      <c r="E8" s="221"/>
       <c r="F8" s="16" t="s">
         <v>172</v>
       </c>
@@ -46881,10 +46889,10 @@
       <c r="C9" s="101" t="s">
         <v>174</v>
       </c>
-      <c r="D9" s="218" t="s">
+      <c r="D9" s="219" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="219"/>
+      <c r="E9" s="220"/>
       <c r="F9" s="102"/>
       <c r="G9" s="97"/>
       <c r="H9" s="97"/>
@@ -46957,10 +46965,10 @@
       <c r="C15" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D15" s="220" t="s">
+      <c r="D15" s="221" t="s">
         <v>171</v>
       </c>
-      <c r="E15" s="220"/>
+      <c r="E15" s="221"/>
       <c r="F15" s="16" t="s">
         <v>172</v>
       </c>
@@ -46972,10 +46980,10 @@
       <c r="C16" s="101" t="s">
         <v>178</v>
       </c>
-      <c r="D16" s="218" t="s">
+      <c r="D16" s="219" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="219"/>
+      <c r="E16" s="220"/>
       <c r="F16" s="99"/>
       <c r="G16" s="97"/>
       <c r="H16" s="97"/>
@@ -46987,10 +46995,10 @@
       <c r="C17" s="101" t="s">
         <v>184</v>
       </c>
-      <c r="D17" s="219" t="s">
+      <c r="D17" s="220" t="s">
         <v>175</v>
       </c>
-      <c r="E17" s="219"/>
+      <c r="E17" s="220"/>
       <c r="F17" s="99"/>
       <c r="G17" s="97"/>
       <c r="H17" s="97"/>
@@ -47000,10 +47008,10 @@
       <c r="C19" s="139" t="s">
         <v>170</v>
       </c>
-      <c r="D19" s="221" t="s">
+      <c r="D19" s="218" t="s">
         <v>171</v>
       </c>
-      <c r="E19" s="221"/>
+      <c r="E19" s="218"/>
       <c r="F19" s="139" t="s">
         <v>172</v>
       </c>
@@ -47015,10 +47023,10 @@
       <c r="C20" s="101" t="s">
         <v>254</v>
       </c>
-      <c r="D20" s="218" t="s">
+      <c r="D20" s="219" t="s">
         <v>260</v>
       </c>
-      <c r="E20" s="219"/>
+      <c r="E20" s="220"/>
       <c r="F20" s="99"/>
       <c r="G20" s="97"/>
       <c r="H20" s="97"/>
@@ -47030,10 +47038,10 @@
       <c r="C21" s="101" t="s">
         <v>255</v>
       </c>
-      <c r="D21" s="218" t="s">
+      <c r="D21" s="219" t="s">
         <v>261</v>
       </c>
-      <c r="E21" s="219"/>
+      <c r="E21" s="220"/>
       <c r="F21" s="99"/>
       <c r="G21" s="97"/>
       <c r="H21" s="97"/>
@@ -47045,10 +47053,10 @@
       <c r="C22" s="101" t="s">
         <v>256</v>
       </c>
-      <c r="D22" s="218" t="s">
+      <c r="D22" s="219" t="s">
         <v>262</v>
       </c>
-      <c r="E22" s="219"/>
+      <c r="E22" s="220"/>
       <c r="F22" s="137"/>
     </row>
     <row r="23" spans="2:8" s="136" customFormat="1" ht="15" customHeight="1">
@@ -47058,10 +47066,10 @@
       <c r="C23" s="101" t="s">
         <v>257</v>
       </c>
-      <c r="D23" s="218" t="s">
+      <c r="D23" s="219" t="s">
         <v>263</v>
       </c>
-      <c r="E23" s="219"/>
+      <c r="E23" s="220"/>
       <c r="F23" s="137"/>
     </row>
     <row r="24" spans="2:8" s="136" customFormat="1">
@@ -47071,10 +47079,10 @@
       <c r="C24" s="101" t="s">
         <v>258</v>
       </c>
-      <c r="D24" s="218" t="s">
+      <c r="D24" s="219" t="s">
         <v>264</v>
       </c>
-      <c r="E24" s="219"/>
+      <c r="E24" s="220"/>
       <c r="F24" s="137"/>
     </row>
     <row r="25" spans="2:8" s="136" customFormat="1" ht="15" customHeight="1">
@@ -47084,10 +47092,10 @@
       <c r="C25" s="101" t="s">
         <v>259</v>
       </c>
-      <c r="D25" s="218" t="s">
+      <c r="D25" s="219" t="s">
         <v>265</v>
       </c>
-      <c r="E25" s="219"/>
+      <c r="E25" s="220"/>
       <c r="F25" s="137"/>
     </row>
     <row r="26" spans="2:8" s="136" customFormat="1">
@@ -47099,7 +47107,7 @@
     </row>
     <row r="27" spans="2:8" ht="15.75">
       <c r="B27" s="103" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C27" s="100"/>
       <c r="D27" s="100"/>
@@ -47112,10 +47120,10 @@
       <c r="C28" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="220" t="s">
-        <v>430</v>
-      </c>
-      <c r="E28" s="220"/>
+      <c r="D28" s="221" t="s">
+        <v>426</v>
+      </c>
+      <c r="E28" s="221"/>
       <c r="F28" s="16" t="s">
         <v>172</v>
       </c>
@@ -47125,12 +47133,12 @@
         <v>1</v>
       </c>
       <c r="C29" s="101" t="s">
-        <v>431</v>
-      </c>
-      <c r="D29" s="218" t="s">
-        <v>433</v>
-      </c>
-      <c r="E29" s="219"/>
+        <v>427</v>
+      </c>
+      <c r="D29" s="219" t="s">
+        <v>429</v>
+      </c>
+      <c r="E29" s="220"/>
       <c r="F29" s="163"/>
       <c r="G29" s="97"/>
       <c r="H29" s="97"/>
@@ -47142,10 +47150,10 @@
       <c r="C30" s="101" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="218" t="s">
+      <c r="D30" s="219" t="s">
         <v>180</v>
       </c>
-      <c r="E30" s="219"/>
+      <c r="E30" s="220"/>
       <c r="F30" s="168"/>
       <c r="G30" s="97"/>
       <c r="H30" s="97"/>
@@ -47155,28 +47163,18 @@
         <v>3</v>
       </c>
       <c r="C31" s="101" t="s">
-        <v>450</v>
-      </c>
-      <c r="D31" s="218" t="s">
-        <v>451</v>
-      </c>
-      <c r="E31" s="219"/>
+        <v>446</v>
+      </c>
+      <c r="D31" s="219" t="s">
+        <v>447</v>
+      </c>
+      <c r="E31" s="220"/>
       <c r="F31" s="99"/>
       <c r="G31" s="97"/>
       <c r="H31" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D9:E9"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D8:E8"/>
@@ -47189,6 +47187,16 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D30:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47820,7 +47828,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="82" zoomScaleNormal="82" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -47901,15 +47911,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="243" t="s">
+      <c r="C4" s="244" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="245"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="243"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -47922,15 +47932,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="243" t="s">
+      <c r="C5" s="244" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="245"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="243"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -47944,7 +47954,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
@@ -47964,15 +47974,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="243" t="s">
+      <c r="C7" s="244" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="245"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="243"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -48006,15 +48016,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="243" t="s">
+      <c r="C9" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="244"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="245"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="243"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -48077,19 +48087,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="246" t="s">
+      <c r="B13" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="247"/>
-      <c r="D13" s="247"/>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="247"/>
-      <c r="H13" s="247"/>
-      <c r="I13" s="247"/>
-      <c r="J13" s="247"/>
-      <c r="K13" s="247"/>
-      <c r="L13" s="248"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="256"/>
+      <c r="J13" s="256"/>
+      <c r="K13" s="256"/>
+      <c r="L13" s="257"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -48118,11 +48128,11 @@
       <c r="I14" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="242" t="s">
+      <c r="J14" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="242"/>
-      <c r="L14" s="242"/>
+      <c r="K14" s="253"/>
+      <c r="L14" s="253"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -48151,11 +48161,11 @@
       <c r="I15" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="J15" s="252" t="s">
+      <c r="J15" s="251" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="252"/>
-      <c r="L15" s="252"/>
+      <c r="K15" s="251"/>
+      <c r="L15" s="251"/>
       <c r="M15" s="48"/>
       <c r="N15" s="48"/>
       <c r="O15" s="48"/>
@@ -48184,11 +48194,11 @@
       <c r="I16" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="J16" s="243" t="s">
+      <c r="J16" s="244" t="s">
         <v>249</v>
       </c>
-      <c r="K16" s="244"/>
-      <c r="L16" s="245"/>
+      <c r="K16" s="254"/>
+      <c r="L16" s="243"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -48217,11 +48227,11 @@
       <c r="I17" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="J17" s="252" t="s">
+      <c r="J17" s="251" t="s">
         <v>105</v>
       </c>
-      <c r="K17" s="252"/>
-      <c r="L17" s="252"/>
+      <c r="K17" s="251"/>
+      <c r="L17" s="251"/>
       <c r="M17" s="48"/>
       <c r="N17" s="48"/>
       <c r="O17" s="48"/>
@@ -48399,11 +48409,11 @@
     </row>
     <row r="27" spans="1:15" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="51"/>
-      <c r="B27" s="253" t="s">
+      <c r="B27" s="252" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="253"/>
-      <c r="D27" s="253"/>
+      <c r="C27" s="252"/>
+      <c r="D27" s="252"/>
       <c r="E27" s="67"/>
       <c r="F27" s="68"/>
       <c r="G27" s="67"/>
@@ -48418,12 +48428,12 @@
     </row>
     <row r="28" spans="1:15" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="70"/>
-      <c r="B28" s="249" t="s">
+      <c r="B28" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="250"/>
-      <c r="D28" s="250"/>
-      <c r="E28" s="251"/>
+      <c r="C28" s="249"/>
+      <c r="D28" s="249"/>
+      <c r="E28" s="250"/>
       <c r="F28" s="58" t="s">
         <v>90</v>
       </c>
@@ -48515,10 +48525,10 @@
       <c r="A31" s="48"/>
       <c r="B31" s="72"/>
       <c r="C31" s="77"/>
-      <c r="D31" s="243" t="s">
+      <c r="D31" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E31" s="245"/>
+      <c r="E31" s="243"/>
       <c r="F31" s="61" t="s">
         <v>190</v>
       </c>
@@ -48548,10 +48558,10 @@
       <c r="A32" s="48"/>
       <c r="B32" s="72"/>
       <c r="C32" s="78"/>
-      <c r="D32" s="243" t="s">
+      <c r="D32" s="244" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="245"/>
+      <c r="E32" s="243"/>
       <c r="F32" s="61" t="s">
         <v>129</v>
       </c>
@@ -48614,10 +48624,10 @@
       <c r="A34" s="48"/>
       <c r="B34" s="72"/>
       <c r="C34" s="79"/>
-      <c r="D34" s="243" t="s">
+      <c r="D34" s="244" t="s">
         <v>134</v>
       </c>
-      <c r="E34" s="245"/>
+      <c r="E34" s="243"/>
       <c r="F34" s="61" t="s">
         <v>135</v>
       </c>
@@ -48647,10 +48657,10 @@
       <c r="A35" s="48"/>
       <c r="B35" s="72"/>
       <c r="C35" s="79"/>
-      <c r="D35" s="255" t="s">
+      <c r="D35" s="245" t="s">
         <v>97</v>
       </c>
-      <c r="E35" s="256"/>
+      <c r="E35" s="246"/>
       <c r="F35" s="61" t="s">
         <v>98</v>
       </c>
@@ -48680,10 +48690,10 @@
       <c r="A36" s="48"/>
       <c r="B36" s="83"/>
       <c r="C36" s="78"/>
-      <c r="D36" s="243" t="s">
+      <c r="D36" s="244" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="245"/>
+      <c r="E36" s="243"/>
       <c r="F36" s="61" t="s">
         <v>143</v>
       </c>
@@ -48951,11 +48961,11 @@
     </row>
     <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="48"/>
-      <c r="B51" s="257" t="s">
+      <c r="B51" s="247" t="s">
         <v>146</v>
       </c>
-      <c r="C51" s="257"/>
-      <c r="D51" s="257"/>
+      <c r="C51" s="247"/>
+      <c r="D51" s="247"/>
       <c r="E51" s="48"/>
       <c r="F51" s="48"/>
       <c r="G51" s="48"/>
@@ -48970,12 +48980,12 @@
     </row>
     <row r="52" spans="1:15" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="70"/>
-      <c r="B52" s="249" t="s">
+      <c r="B52" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="250"/>
-      <c r="D52" s="250"/>
-      <c r="E52" s="251"/>
+      <c r="C52" s="249"/>
+      <c r="D52" s="249"/>
+      <c r="E52" s="250"/>
       <c r="F52" s="58" t="s">
         <v>90</v>
       </c>
@@ -49067,10 +49077,10 @@
       <c r="A55" s="48"/>
       <c r="B55" s="72"/>
       <c r="C55" s="77"/>
-      <c r="D55" s="243" t="s">
+      <c r="D55" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E55" s="245"/>
+      <c r="E55" s="243"/>
       <c r="F55" s="61" t="s">
         <v>190</v>
       </c>
@@ -49100,10 +49110,10 @@
       <c r="A56" s="48"/>
       <c r="B56" s="72"/>
       <c r="C56" s="77"/>
-      <c r="D56" s="254" t="s">
+      <c r="D56" s="242" t="s">
         <v>148</v>
       </c>
-      <c r="E56" s="245"/>
+      <c r="E56" s="243"/>
       <c r="F56" s="61" t="s">
         <v>149</v>
       </c>
@@ -49197,8 +49207,8 @@
       <c r="A59" s="48"/>
       <c r="B59" s="83"/>
       <c r="C59" s="78"/>
-      <c r="D59" s="243"/>
-      <c r="E59" s="245"/>
+      <c r="D59" s="244"/>
+      <c r="E59" s="243"/>
       <c r="F59" s="61"/>
       <c r="G59" s="63"/>
       <c r="H59" s="63"/>
@@ -49588,6 +49598,20 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="D35:E35"/>
@@ -49595,20 +49619,6 @@
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -49624,7 +49634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -49705,15 +49717,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="243" t="s">
+      <c r="C4" s="244" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="245"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="243"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -49726,15 +49738,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="243" t="s">
+      <c r="C5" s="244" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="245"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="243"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -49748,7 +49760,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
@@ -49768,15 +49780,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="243" t="s">
+      <c r="C7" s="244" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="245"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="243"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -49810,15 +49822,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="243" t="s">
+      <c r="C9" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="244"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="245"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="243"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -49881,19 +49893,19 @@
     </row>
     <row r="13" spans="1:15" ht="18.95" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="246" t="s">
+      <c r="B13" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="247"/>
-      <c r="D13" s="247"/>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="247"/>
-      <c r="H13" s="247"/>
-      <c r="I13" s="247"/>
-      <c r="J13" s="247"/>
-      <c r="K13" s="247"/>
-      <c r="L13" s="248"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="256"/>
+      <c r="J13" s="256"/>
+      <c r="K13" s="256"/>
+      <c r="L13" s="257"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -49922,11 +49934,11 @@
       <c r="I14" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="242" t="s">
+      <c r="J14" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="242"/>
-      <c r="L14" s="242"/>
+      <c r="K14" s="253"/>
+      <c r="L14" s="253"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -49988,11 +50000,11 @@
       <c r="I16" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="J16" s="254" t="s">
+      <c r="J16" s="242" t="s">
         <v>162</v>
       </c>
-      <c r="K16" s="244"/>
-      <c r="L16" s="245"/>
+      <c r="K16" s="254"/>
+      <c r="L16" s="243"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -50021,11 +50033,11 @@
       <c r="I17" s="130" t="s">
         <v>165</v>
       </c>
-      <c r="J17" s="258" t="s">
+      <c r="J17" s="259" t="s">
         <v>166</v>
       </c>
-      <c r="K17" s="259"/>
-      <c r="L17" s="260"/>
+      <c r="K17" s="260"/>
+      <c r="L17" s="261"/>
       <c r="M17" s="48"/>
       <c r="N17" s="48"/>
       <c r="O17" s="48"/>
@@ -50170,11 +50182,11 @@
     </row>
     <row r="26" spans="1:15" s="69" customFormat="1" ht="18.95" customHeight="1">
       <c r="A26" s="51"/>
-      <c r="B26" s="253" t="s">
+      <c r="B26" s="252" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="253"/>
-      <c r="D26" s="253"/>
+      <c r="C26" s="252"/>
+      <c r="D26" s="252"/>
       <c r="E26" s="67"/>
       <c r="F26" s="68"/>
       <c r="G26" s="67"/>
@@ -50189,12 +50201,12 @@
     </row>
     <row r="27" spans="1:15" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A27" s="70"/>
-      <c r="B27" s="249" t="s">
+      <c r="B27" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="250"/>
-      <c r="D27" s="250"/>
-      <c r="E27" s="251"/>
+      <c r="C27" s="249"/>
+      <c r="D27" s="249"/>
+      <c r="E27" s="250"/>
       <c r="F27" s="59" t="s">
         <v>90</v>
       </c>
@@ -50286,10 +50298,10 @@
       <c r="A30" s="48"/>
       <c r="B30" s="72"/>
       <c r="C30" s="77"/>
-      <c r="D30" s="243" t="s">
+      <c r="D30" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E30" s="245"/>
+      <c r="E30" s="243"/>
       <c r="F30" s="61" t="s">
         <v>190</v>
       </c>
@@ -50319,10 +50331,10 @@
       <c r="A31" s="48"/>
       <c r="B31" s="72"/>
       <c r="C31" s="78"/>
-      <c r="D31" s="243" t="s">
+      <c r="D31" s="244" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="245"/>
+      <c r="E31" s="243"/>
       <c r="F31" s="61" t="s">
         <v>129</v>
       </c>
@@ -50385,10 +50397,10 @@
       <c r="A33" s="48"/>
       <c r="B33" s="72"/>
       <c r="C33" s="79"/>
-      <c r="D33" s="243" t="s">
+      <c r="D33" s="244" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="245"/>
+      <c r="E33" s="243"/>
       <c r="F33" s="61" t="s">
         <v>135</v>
       </c>
@@ -50418,10 +50430,10 @@
       <c r="A34" s="48"/>
       <c r="B34" s="72"/>
       <c r="C34" s="79"/>
-      <c r="D34" s="255" t="s">
+      <c r="D34" s="245" t="s">
         <v>97</v>
       </c>
-      <c r="E34" s="256"/>
+      <c r="E34" s="246"/>
       <c r="F34" s="61" t="s">
         <v>98</v>
       </c>
@@ -50482,10 +50494,10 @@
       <c r="A36" s="48"/>
       <c r="B36" s="72"/>
       <c r="C36" s="77"/>
-      <c r="D36" s="243" t="s">
+      <c r="D36" s="244" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="245"/>
+      <c r="E36" s="243"/>
       <c r="F36" s="62" t="s">
         <v>115</v>
       </c>
@@ -50513,10 +50525,10 @@
       <c r="A37" s="48"/>
       <c r="B37" s="83"/>
       <c r="C37" s="78"/>
-      <c r="D37" s="243" t="s">
+      <c r="D37" s="244" t="s">
         <v>202</v>
       </c>
-      <c r="E37" s="245"/>
+      <c r="E37" s="243"/>
       <c r="F37" s="61" t="s">
         <v>203</v>
       </c>
@@ -50886,11 +50898,11 @@
     </row>
     <row r="58" spans="1:15" ht="18.95" customHeight="1">
       <c r="A58" s="48"/>
-      <c r="B58" s="257" t="s">
+      <c r="B58" s="247" t="s">
         <v>206</v>
       </c>
-      <c r="C58" s="257"/>
-      <c r="D58" s="257"/>
+      <c r="C58" s="247"/>
+      <c r="D58" s="247"/>
       <c r="E58" s="48"/>
       <c r="F58" s="48"/>
       <c r="G58" s="48"/>
@@ -50905,12 +50917,12 @@
     </row>
     <row r="59" spans="1:15" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A59" s="70"/>
-      <c r="B59" s="249" t="s">
+      <c r="B59" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="250"/>
-      <c r="D59" s="250"/>
-      <c r="E59" s="251"/>
+      <c r="C59" s="249"/>
+      <c r="D59" s="249"/>
+      <c r="E59" s="250"/>
       <c r="F59" s="59" t="s">
         <v>90</v>
       </c>
@@ -51002,10 +51014,10 @@
       <c r="A62" s="48"/>
       <c r="B62" s="72"/>
       <c r="C62" s="77"/>
-      <c r="D62" s="243" t="s">
+      <c r="D62" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E62" s="245"/>
+      <c r="E62" s="243"/>
       <c r="F62" s="61" t="s">
         <v>190</v>
       </c>
@@ -51035,10 +51047,10 @@
       <c r="A63" s="48"/>
       <c r="B63" s="72"/>
       <c r="C63" s="77"/>
-      <c r="D63" s="254" t="s">
+      <c r="D63" s="242" t="s">
         <v>148</v>
       </c>
-      <c r="E63" s="261"/>
+      <c r="E63" s="258"/>
       <c r="F63" s="61" t="s">
         <v>149</v>
       </c>
@@ -51132,8 +51144,8 @@
       <c r="A66" s="48"/>
       <c r="B66" s="83"/>
       <c r="C66" s="78"/>
-      <c r="D66" s="243"/>
-      <c r="E66" s="245"/>
+      <c r="D66" s="244"/>
+      <c r="E66" s="243"/>
       <c r="F66" s="61"/>
       <c r="G66" s="63"/>
       <c r="H66" s="63"/>
@@ -51523,27 +51535,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B58:D58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -51554,7 +51566,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -51635,15 +51649,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="243" t="s">
+      <c r="C4" s="244" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="245"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="243"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -51656,15 +51670,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="243" t="s">
+      <c r="C5" s="244" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="245"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="243"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -51678,7 +51692,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
@@ -51698,15 +51712,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="243" t="s">
+      <c r="C7" s="244" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="245"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="243"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -51740,15 +51754,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="243" t="s">
+      <c r="C9" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="244"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="245"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="243"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -51811,19 +51825,19 @@
     </row>
     <row r="13" spans="1:15" ht="21.95" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="246" t="s">
+      <c r="B13" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="247"/>
-      <c r="D13" s="247"/>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="247"/>
-      <c r="H13" s="247"/>
-      <c r="I13" s="247"/>
-      <c r="J13" s="247"/>
-      <c r="K13" s="247"/>
-      <c r="L13" s="248"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="256"/>
+      <c r="J13" s="256"/>
+      <c r="K13" s="256"/>
+      <c r="L13" s="257"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -51852,11 +51866,11 @@
       <c r="I14" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="242" t="s">
+      <c r="J14" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="242"/>
-      <c r="L14" s="242"/>
+      <c r="K14" s="253"/>
+      <c r="L14" s="253"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -51918,11 +51932,11 @@
       <c r="I16" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="J16" s="243" t="s">
+      <c r="J16" s="244" t="s">
         <v>214</v>
       </c>
-      <c r="K16" s="244"/>
-      <c r="L16" s="245"/>
+      <c r="K16" s="254"/>
+      <c r="L16" s="243"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -51951,11 +51965,11 @@
       <c r="I17" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="J17" s="243" t="s">
+      <c r="J17" s="244" t="s">
         <v>221</v>
       </c>
-      <c r="K17" s="244"/>
-      <c r="L17" s="245"/>
+      <c r="K17" s="254"/>
+      <c r="L17" s="243"/>
       <c r="M17" s="48"/>
       <c r="N17" s="48"/>
       <c r="O17" s="48"/>
@@ -52133,11 +52147,11 @@
     </row>
     <row r="27" spans="1:15" s="69" customFormat="1" ht="21.95" customHeight="1">
       <c r="A27" s="51"/>
-      <c r="B27" s="253" t="s">
+      <c r="B27" s="252" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="253"/>
-      <c r="D27" s="253"/>
+      <c r="C27" s="252"/>
+      <c r="D27" s="252"/>
       <c r="E27" s="67"/>
       <c r="F27" s="68"/>
       <c r="G27" s="67"/>
@@ -52152,12 +52166,12 @@
     </row>
     <row r="28" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A28" s="70"/>
-      <c r="B28" s="249" t="s">
+      <c r="B28" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="250"/>
-      <c r="D28" s="250"/>
-      <c r="E28" s="251"/>
+      <c r="C28" s="249"/>
+      <c r="D28" s="249"/>
+      <c r="E28" s="250"/>
       <c r="F28" s="59" t="s">
         <v>90</v>
       </c>
@@ -52249,10 +52263,10 @@
       <c r="A31" s="48"/>
       <c r="B31" s="72"/>
       <c r="C31" s="77"/>
-      <c r="D31" s="243" t="s">
+      <c r="D31" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E31" s="245"/>
+      <c r="E31" s="243"/>
       <c r="F31" s="61" t="s">
         <v>190</v>
       </c>
@@ -52282,10 +52296,10 @@
       <c r="A32" s="48"/>
       <c r="B32" s="131"/>
       <c r="C32" s="78"/>
-      <c r="D32" s="243" t="s">
+      <c r="D32" s="244" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="245"/>
+      <c r="E32" s="243"/>
       <c r="F32" s="61" t="s">
         <v>129</v>
       </c>
@@ -52485,11 +52499,11 @@
     </row>
     <row r="43" spans="1:15" ht="21.95" customHeight="1">
       <c r="A43" s="48"/>
-      <c r="B43" s="257" t="s">
+      <c r="B43" s="247" t="s">
         <v>216</v>
       </c>
-      <c r="C43" s="257"/>
-      <c r="D43" s="257"/>
+      <c r="C43" s="247"/>
+      <c r="D43" s="247"/>
       <c r="E43" s="48"/>
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
@@ -52504,12 +52518,12 @@
     </row>
     <row r="44" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A44" s="70"/>
-      <c r="B44" s="249" t="s">
+      <c r="B44" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="250"/>
-      <c r="D44" s="250"/>
-      <c r="E44" s="251"/>
+      <c r="C44" s="249"/>
+      <c r="D44" s="249"/>
+      <c r="E44" s="250"/>
       <c r="F44" s="59" t="s">
         <v>90</v>
       </c>
@@ -52601,10 +52615,10 @@
       <c r="A47" s="48"/>
       <c r="B47" s="72"/>
       <c r="C47" s="77"/>
-      <c r="D47" s="243" t="s">
+      <c r="D47" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E47" s="245"/>
+      <c r="E47" s="243"/>
       <c r="F47" s="61" t="s">
         <v>190</v>
       </c>
@@ -52634,10 +52648,10 @@
       <c r="A48" s="48"/>
       <c r="B48" s="72"/>
       <c r="C48" s="77"/>
-      <c r="D48" s="254" t="s">
+      <c r="D48" s="242" t="s">
         <v>148</v>
       </c>
-      <c r="E48" s="245"/>
+      <c r="E48" s="243"/>
       <c r="F48" s="61" t="s">
         <v>149</v>
       </c>
@@ -53006,12 +53020,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:E44"/>
     <mergeCell ref="D47:E47"/>
@@ -53022,6 +53030,12 @@
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -53032,7 +53046,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -53113,15 +53129,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="243" t="s">
+      <c r="C4" s="244" t="s">
         <v>223</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="245"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="243"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -53134,15 +53150,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="243" t="s">
+      <c r="C5" s="244" t="s">
         <v>243</v>
       </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="245"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="243"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -53156,7 +53172,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>421</v>
+        <v>451</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
@@ -53176,15 +53192,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="243" t="s">
+      <c r="C7" s="244" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="245"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="243"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -53218,15 +53234,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="243" t="s">
+      <c r="C9" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="244"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="245"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="243"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -53289,19 +53305,19 @@
     </row>
     <row r="13" spans="1:15" ht="18.95" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="246" t="s">
+      <c r="B13" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="247"/>
-      <c r="D13" s="247"/>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="247"/>
-      <c r="H13" s="247"/>
-      <c r="I13" s="247"/>
-      <c r="J13" s="247"/>
-      <c r="K13" s="247"/>
-      <c r="L13" s="248"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="256"/>
+      <c r="J13" s="256"/>
+      <c r="K13" s="256"/>
+      <c r="L13" s="257"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -53330,11 +53346,11 @@
       <c r="I14" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="242" t="s">
+      <c r="J14" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="242"/>
-      <c r="L14" s="242"/>
+      <c r="K14" s="253"/>
+      <c r="L14" s="253"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -53548,12 +53564,12 @@
     </row>
     <row r="26" spans="1:15" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A26" s="70"/>
-      <c r="B26" s="249" t="s">
+      <c r="B26" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="250"/>
-      <c r="D26" s="250"/>
-      <c r="E26" s="251"/>
+      <c r="C26" s="249"/>
+      <c r="D26" s="249"/>
+      <c r="E26" s="250"/>
       <c r="F26" s="59" t="s">
         <v>90</v>
       </c>
@@ -53645,10 +53661,10 @@
       <c r="A29" s="48"/>
       <c r="B29" s="72"/>
       <c r="C29" s="77"/>
-      <c r="D29" s="243" t="s">
+      <c r="D29" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E29" s="245"/>
+      <c r="E29" s="243"/>
       <c r="F29" s="61" t="s">
         <v>190</v>
       </c>
@@ -53678,10 +53694,10 @@
       <c r="A30" s="48"/>
       <c r="B30" s="72"/>
       <c r="C30" s="78"/>
-      <c r="D30" s="243" t="s">
+      <c r="D30" s="244" t="s">
         <v>128</v>
       </c>
-      <c r="E30" s="245"/>
+      <c r="E30" s="243"/>
       <c r="F30" s="61" t="s">
         <v>129</v>
       </c>
@@ -53744,10 +53760,10 @@
       <c r="A32" s="48"/>
       <c r="B32" s="72"/>
       <c r="C32" s="79"/>
-      <c r="D32" s="243" t="s">
+      <c r="D32" s="244" t="s">
         <v>134</v>
       </c>
-      <c r="E32" s="245"/>
+      <c r="E32" s="243"/>
       <c r="F32" s="61" t="s">
         <v>135</v>
       </c>
@@ -53810,10 +53826,10 @@
       <c r="A34" s="48"/>
       <c r="B34" s="72"/>
       <c r="C34" s="79"/>
-      <c r="D34" s="255" t="s">
+      <c r="D34" s="245" t="s">
         <v>97</v>
       </c>
-      <c r="E34" s="256"/>
+      <c r="E34" s="246"/>
       <c r="F34" s="61" t="s">
         <v>98</v>
       </c>
@@ -53843,10 +53859,10 @@
       <c r="A35" s="48"/>
       <c r="B35" s="72"/>
       <c r="C35" s="77"/>
-      <c r="D35" s="243" t="s">
+      <c r="D35" s="244" t="s">
         <v>109</v>
       </c>
-      <c r="E35" s="245"/>
+      <c r="E35" s="243"/>
       <c r="F35" s="61" t="s">
         <v>110</v>
       </c>
@@ -53909,10 +53925,10 @@
       <c r="A37" s="48"/>
       <c r="B37" s="72"/>
       <c r="C37" s="77"/>
-      <c r="D37" s="243" t="s">
+      <c r="D37" s="244" t="s">
         <v>227</v>
       </c>
-      <c r="E37" s="245"/>
+      <c r="E37" s="243"/>
       <c r="F37" s="62" t="s">
         <v>228</v>
       </c>
@@ -53942,10 +53958,10 @@
       <c r="A38" s="48"/>
       <c r="B38" s="72"/>
       <c r="C38" s="77"/>
-      <c r="D38" s="243" t="s">
+      <c r="D38" s="244" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="245"/>
+      <c r="E38" s="243"/>
       <c r="F38" s="62" t="s">
         <v>115</v>
       </c>
@@ -53973,10 +53989,10 @@
       <c r="A39" s="48"/>
       <c r="B39" s="72"/>
       <c r="C39" s="77"/>
-      <c r="D39" s="243" t="s">
+      <c r="D39" s="244" t="s">
         <v>233</v>
       </c>
-      <c r="E39" s="245"/>
+      <c r="E39" s="243"/>
       <c r="F39" s="62" t="s">
         <v>234</v>
       </c>
@@ -54004,10 +54020,10 @@
       <c r="A40" s="48"/>
       <c r="B40" s="72"/>
       <c r="C40" s="77"/>
-      <c r="D40" s="243" t="s">
+      <c r="D40" s="244" t="s">
         <v>224</v>
       </c>
-      <c r="E40" s="245"/>
+      <c r="E40" s="243"/>
       <c r="F40" s="62" t="s">
         <v>225</v>
       </c>
@@ -54035,10 +54051,10 @@
       <c r="A41" s="48"/>
       <c r="B41" s="72"/>
       <c r="C41" s="77"/>
-      <c r="D41" s="243" t="s">
+      <c r="D41" s="244" t="s">
         <v>230</v>
       </c>
-      <c r="E41" s="245"/>
+      <c r="E41" s="243"/>
       <c r="F41" s="62" t="s">
         <v>231</v>
       </c>
@@ -54068,10 +54084,10 @@
       <c r="A42" s="48"/>
       <c r="B42" s="72"/>
       <c r="C42" s="77"/>
-      <c r="D42" s="243" t="s">
+      <c r="D42" s="244" t="s">
         <v>250</v>
       </c>
-      <c r="E42" s="245"/>
+      <c r="E42" s="243"/>
       <c r="F42" s="62" t="s">
         <v>251</v>
       </c>
@@ -54099,10 +54115,10 @@
       <c r="A43" s="48"/>
       <c r="B43" s="72"/>
       <c r="C43" s="77"/>
-      <c r="D43" s="243" t="s">
+      <c r="D43" s="244" t="s">
         <v>237</v>
       </c>
-      <c r="E43" s="245"/>
+      <c r="E43" s="243"/>
       <c r="F43" s="62" t="s">
         <v>238</v>
       </c>
@@ -54132,10 +54148,10 @@
       <c r="A44" s="48"/>
       <c r="B44" s="131"/>
       <c r="C44" s="78"/>
-      <c r="D44" s="243" t="s">
+      <c r="D44" s="244" t="s">
         <v>195</v>
       </c>
-      <c r="E44" s="245"/>
+      <c r="E44" s="243"/>
       <c r="F44" s="62" t="s">
         <v>194</v>
       </c>
@@ -54592,12 +54608,12 @@
     </row>
     <row r="70" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A70" s="70"/>
-      <c r="B70" s="249" t="s">
+      <c r="B70" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C70" s="250"/>
-      <c r="D70" s="250"/>
-      <c r="E70" s="251"/>
+      <c r="C70" s="249"/>
+      <c r="D70" s="249"/>
+      <c r="E70" s="250"/>
       <c r="F70" s="59" t="s">
         <v>90</v>
       </c>
@@ -54689,10 +54705,10 @@
       <c r="A73" s="48"/>
       <c r="B73" s="72"/>
       <c r="C73" s="77"/>
-      <c r="D73" s="243" t="s">
+      <c r="D73" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E73" s="245"/>
+      <c r="E73" s="243"/>
       <c r="F73" s="61" t="s">
         <v>190</v>
       </c>
@@ -54722,10 +54738,10 @@
       <c r="A74" s="48"/>
       <c r="B74" s="72"/>
       <c r="C74" s="77"/>
-      <c r="D74" s="254" t="s">
+      <c r="D74" s="242" t="s">
         <v>148</v>
       </c>
-      <c r="E74" s="245"/>
+      <c r="E74" s="243"/>
       <c r="F74" s="61" t="s">
         <v>149</v>
       </c>
@@ -55162,6 +55178,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D39:E39"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -55174,19 +55203,6 @@
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B69:D69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -55197,7 +55213,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -55278,15 +55296,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="243" t="s">
+      <c r="C4" s="244" t="s">
         <v>242</v>
       </c>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="244"/>
-      <c r="I4" s="245"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="243"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -55299,15 +55317,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="243" t="s">
+      <c r="C5" s="244" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="244"/>
-      <c r="E5" s="244"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244"/>
-      <c r="H5" s="244"/>
-      <c r="I5" s="245"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="243"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -55321,7 +55339,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>421</v>
+        <v>452</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
@@ -55341,15 +55359,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="243" t="s">
+      <c r="C7" s="244" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="245"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="243"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -55383,15 +55401,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="243" t="s">
+      <c r="C9" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="244"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="245"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="243"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -55437,19 +55455,19 @@
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="48"/>
-      <c r="B12" s="246" t="s">
+      <c r="B12" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="247"/>
-      <c r="D12" s="247"/>
-      <c r="E12" s="247"/>
-      <c r="F12" s="247"/>
-      <c r="G12" s="247"/>
-      <c r="H12" s="247"/>
-      <c r="I12" s="247"/>
-      <c r="J12" s="247"/>
-      <c r="K12" s="247"/>
-      <c r="L12" s="248"/>
+      <c r="C12" s="256"/>
+      <c r="D12" s="256"/>
+      <c r="E12" s="256"/>
+      <c r="F12" s="256"/>
+      <c r="G12" s="256"/>
+      <c r="H12" s="256"/>
+      <c r="I12" s="256"/>
+      <c r="J12" s="256"/>
+      <c r="K12" s="256"/>
+      <c r="L12" s="257"/>
       <c r="M12" s="48"/>
       <c r="N12" s="48"/>
       <c r="O12" s="48"/>
@@ -55478,11 +55496,11 @@
       <c r="I13" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="242" t="s">
+      <c r="J13" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="242"/>
-      <c r="L13" s="242"/>
+      <c r="K13" s="253"/>
+      <c r="L13" s="253"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -55577,11 +55595,11 @@
       <c r="I16" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="J16" s="243" t="s">
+      <c r="J16" s="244" t="s">
         <v>268</v>
       </c>
-      <c r="K16" s="244"/>
-      <c r="L16" s="245"/>
+      <c r="K16" s="254"/>
+      <c r="L16" s="243"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -55637,11 +55655,11 @@
       <c r="I18" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="J18" s="243" t="s">
+      <c r="J18" s="244" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="244"/>
-      <c r="L18" s="245"/>
+      <c r="K18" s="254"/>
+      <c r="L18" s="243"/>
       <c r="M18" s="48"/>
       <c r="N18" s="48"/>
       <c r="O18" s="48"/>
@@ -55732,11 +55750,11 @@
       <c r="I21" s="144" t="s">
         <v>276</v>
       </c>
-      <c r="J21" s="243" t="s">
+      <c r="J21" s="244" t="s">
         <v>232</v>
       </c>
-      <c r="K21" s="244"/>
-      <c r="L21" s="245"/>
+      <c r="K21" s="254"/>
+      <c r="L21" s="243"/>
       <c r="M21" s="48"/>
       <c r="N21" s="48"/>
       <c r="O21" s="48"/>
@@ -55998,12 +56016,12 @@
     </row>
     <row r="35" spans="1:15" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A35" s="70"/>
-      <c r="B35" s="249" t="s">
+      <c r="B35" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="250"/>
-      <c r="D35" s="250"/>
-      <c r="E35" s="251"/>
+      <c r="C35" s="249"/>
+      <c r="D35" s="249"/>
+      <c r="E35" s="250"/>
       <c r="F35" s="59" t="s">
         <v>90</v>
       </c>
@@ -56095,10 +56113,10 @@
       <c r="A38" s="48"/>
       <c r="B38" s="72"/>
       <c r="C38" s="77"/>
-      <c r="D38" s="243" t="s">
+      <c r="D38" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E38" s="245"/>
+      <c r="E38" s="243"/>
       <c r="F38" s="61" t="s">
         <v>190</v>
       </c>
@@ -56128,10 +56146,10 @@
       <c r="A39" s="48"/>
       <c r="B39" s="72"/>
       <c r="C39" s="78"/>
-      <c r="D39" s="243" t="s">
+      <c r="D39" s="244" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="245"/>
+      <c r="E39" s="243"/>
       <c r="F39" s="61" t="s">
         <v>129</v>
       </c>
@@ -56194,10 +56212,10 @@
       <c r="A41" s="48"/>
       <c r="B41" s="72"/>
       <c r="C41" s="79"/>
-      <c r="D41" s="243" t="s">
+      <c r="D41" s="244" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="245"/>
+      <c r="E41" s="243"/>
       <c r="F41" s="61" t="s">
         <v>135</v>
       </c>
@@ -56260,10 +56278,10 @@
       <c r="A43" s="48"/>
       <c r="B43" s="72"/>
       <c r="C43" s="79"/>
-      <c r="D43" s="255" t="s">
+      <c r="D43" s="245" t="s">
         <v>97</v>
       </c>
-      <c r="E43" s="256"/>
+      <c r="E43" s="246"/>
       <c r="F43" s="61" t="s">
         <v>98</v>
       </c>
@@ -56293,10 +56311,10 @@
       <c r="A44" s="48"/>
       <c r="B44" s="72"/>
       <c r="C44" s="77"/>
-      <c r="D44" s="243" t="s">
+      <c r="D44" s="244" t="s">
         <v>114</v>
       </c>
-      <c r="E44" s="245"/>
+      <c r="E44" s="243"/>
       <c r="F44" s="62" t="s">
         <v>115</v>
       </c>
@@ -56324,10 +56342,10 @@
       <c r="A45" s="48"/>
       <c r="B45" s="72"/>
       <c r="C45" s="77"/>
-      <c r="D45" s="243" t="s">
+      <c r="D45" s="244" t="s">
         <v>237</v>
       </c>
-      <c r="E45" s="245"/>
+      <c r="E45" s="243"/>
       <c r="F45" s="62" t="s">
         <v>238</v>
       </c>
@@ -56357,10 +56375,10 @@
       <c r="A46" s="48"/>
       <c r="B46" s="131"/>
       <c r="C46" s="78"/>
-      <c r="D46" s="243" t="s">
+      <c r="D46" s="244" t="s">
         <v>195</v>
       </c>
-      <c r="E46" s="245"/>
+      <c r="E46" s="243"/>
       <c r="F46" s="62" t="s">
         <v>194</v>
       </c>
@@ -56817,12 +56835,12 @@
     </row>
     <row r="72" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A72" s="70"/>
-      <c r="B72" s="249" t="s">
+      <c r="B72" s="248" t="s">
         <v>91</v>
       </c>
-      <c r="C72" s="250"/>
-      <c r="D72" s="250"/>
-      <c r="E72" s="251"/>
+      <c r="C72" s="249"/>
+      <c r="D72" s="249"/>
+      <c r="E72" s="250"/>
       <c r="F72" s="59" t="s">
         <v>90</v>
       </c>
@@ -56914,10 +56932,10 @@
       <c r="A75" s="48"/>
       <c r="B75" s="72"/>
       <c r="C75" s="77"/>
-      <c r="D75" s="243" t="s">
+      <c r="D75" s="244" t="s">
         <v>167</v>
       </c>
-      <c r="E75" s="245"/>
+      <c r="E75" s="243"/>
       <c r="F75" s="61" t="s">
         <v>190</v>
       </c>
@@ -56947,10 +56965,10 @@
       <c r="A76" s="48"/>
       <c r="B76" s="72"/>
       <c r="C76" s="77"/>
-      <c r="D76" s="254" t="s">
+      <c r="D76" s="242" t="s">
         <v>148</v>
       </c>
-      <c r="E76" s="245"/>
+      <c r="E76" s="243"/>
       <c r="F76" s="61" t="s">
         <v>149</v>
       </c>
@@ -57387,12 +57405,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="B12:L12"/>
@@ -57409,6 +57421,12 @@
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I21" r:id="rId1"/>

--- a/doc/backend/api/TRN-MiniBlog_API-Specification_HUYENNGUYEN.xlsx
+++ b/doc/backend/api/TRN-MiniBlog_API-Specification_HUYENNGUYEN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10560" yWindow="0" windowWidth="19530" windowHeight="8340" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="19530" windowHeight="8340" firstSheet="19" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3534" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3534" uniqueCount="458">
   <si>
     <t>API Name</t>
   </si>
@@ -1420,22 +1420,7 @@
     <t>http://{domain}/users/{user_id}</t>
   </si>
   <si>
-    <t>http://{domain}/users/{user_id}/posts</t>
-  </si>
-  <si>
-    <t>http://{domain}/posts</t>
-  </si>
-  <si>
     <t>http://{domain}/posts/{post_id}</t>
-  </si>
-  <si>
-    <t>http://{domain}/posts/search?keyword={keyword}</t>
-  </si>
-  <si>
-    <t>http://{domain}/comments/{post_id}</t>
-  </si>
-  <si>
-    <t>http://{domain}/comments/{comment_id}</t>
   </si>
   <si>
     <t xml:space="preserve"> Code</t>
@@ -1538,6 +1523,33 @@
   </si>
   <si>
     <t>http://{domain}/api/search_user?keyword={keyword}</t>
+  </si>
+  <si>
+    <t>http://{domain}/api/get_all_posts_for_user?user_id={user_id}</t>
+  </si>
+  <si>
+    <t>http://{domain}/api/create_post</t>
+  </si>
+  <si>
+    <t>http://{domain}/api/delete_post</t>
+  </si>
+  <si>
+    <t>http://{domain}/api/get_all_posts</t>
+  </si>
+  <si>
+    <t>http://{domain}/api/search_post?keyword={keyword}</t>
+  </si>
+  <si>
+    <t>http://{domain}/api/create_comment</t>
+  </si>
+  <si>
+    <t>http://{domain}/api/update_comment</t>
+  </si>
+  <si>
+    <t>http://{domain}/api/delete_comment</t>
+  </si>
+  <si>
+    <t>http://{domain}/api/get_all_comments_for_posts</t>
   </si>
 </sst>
 </file>
@@ -2350,6 +2362,100 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2372,15 +2478,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2416,94 +2513,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2511,6 +2520,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2573,20 +2585,21 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2602,16 +2615,12 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2623,10 +2632,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2634,6 +2643,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3170,7 +3182,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>POST /v1/posts</a:t>
+            <a:t>POST /api/create_post</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
@@ -3841,7 +3853,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>POST /v1/posts</a:t>
+            <a:t>POST /api/create_post</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
@@ -4443,7 +4455,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>DELETE /v1/posts/1 HTTP/1.1</a:t>
+            <a:t>DELETE /api/delete_post HTTP/1.1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4492,8 +4504,14 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>token=xxxxxxxx</a:t>
-          </a:r>
+            <a:t>{"token" : "xxxxxxxx", "post_id": 1}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4975,7 +4993,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>GET /v1/posts</a:t>
+            <a:t>GET /api/get_all_posts</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
@@ -6306,7 +6324,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>GET /v1/posts/search?keyword=blog</a:t>
+            <a:t>GET /api/search_post?keyword=blog</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
@@ -8663,7 +8681,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>POST /v1/comments/1 HTTP/1.1</a:t>
+            <a:t>POST /api/create_comment HTTP/1.1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -9171,7 +9189,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>POST /v1/comments/1 HTTP/1.1</a:t>
+            <a:t>POST /api/update_comment HTTP/1.1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -9220,7 +9238,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>{"content":"good","token":xxxxxx}</a:t>
+            <a:t>{"content":"good","token":xxxxxx,"comment_id": 1}</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9679,7 +9697,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>DELETE /v1/comments/1 HTTP/1.1</a:t>
+            <a:t>DELETE /api/delete_comment HTTP/1.1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -9717,10 +9735,13 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0">
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>{"token": xxxxxxxxxx, "comment_id": 1}</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10178,7 +10199,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>GET /v1/comments/20</a:t>
+            <a:t>GET //api/get_all_comments_for_posts?post_id=1</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
@@ -10248,6 +10269,18 @@
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>?</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>post_id=1&amp;</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
@@ -16893,7 +16926,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>GET /v1/users/1/posts</a:t>
+            <a:t>GET /api/get_all_posts_for_user?user_id={user_id}</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
@@ -19946,326 +19979,318 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="1" customFormat="1" ht="15.75">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="179" t="s">
+      <c r="B1" s="205"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="190" t="s">
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="191"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="193" t="s">
+      <c r="L1" s="216"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="198" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="194"/>
-      <c r="P1" s="194"/>
-      <c r="Q1" s="194"/>
-      <c r="R1" s="194"/>
-      <c r="S1" s="194"/>
-      <c r="T1" s="194"/>
-      <c r="U1" s="195"/>
-      <c r="V1" s="173" t="s">
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="174"/>
-      <c r="AA1" s="174"/>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="174"/>
-      <c r="AD1" s="175"/>
+      <c r="W1" s="202"/>
+      <c r="X1" s="202"/>
+      <c r="Y1" s="202"/>
+      <c r="Z1" s="202"/>
+      <c r="AA1" s="202"/>
+      <c r="AB1" s="202"/>
+      <c r="AC1" s="202"/>
+      <c r="AD1" s="203"/>
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" ht="15.75">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="179" t="s">
+      <c r="B2" s="205"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="181" t="s">
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="182"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="184" t="s">
+      <c r="L2" s="194"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="185"/>
-      <c r="T2" s="185"/>
-      <c r="U2" s="186"/>
-      <c r="V2" s="187" t="s">
+      <c r="O2" s="210"/>
+      <c r="P2" s="210"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="210"/>
+      <c r="S2" s="210"/>
+      <c r="T2" s="210"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="188"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="187" t="s">
+      <c r="W2" s="213"/>
+      <c r="X2" s="214"/>
+      <c r="Y2" s="212" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="188"/>
-      <c r="AA2" s="189"/>
-      <c r="AB2" s="187" t="s">
+      <c r="Z2" s="213"/>
+      <c r="AA2" s="214"/>
+      <c r="AB2" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="188"/>
-      <c r="AD2" s="189"/>
+      <c r="AC2" s="213"/>
+      <c r="AD2" s="214"/>
     </row>
     <row r="3" spans="1:30" s="1" customFormat="1" ht="15.75">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="204" t="s">
+      <c r="B3" s="194"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="196" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="181" t="s">
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="193" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="182"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="193" t="s">
+      <c r="L3" s="194"/>
+      <c r="M3" s="195"/>
+      <c r="N3" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="194"/>
-      <c r="P3" s="194"/>
-      <c r="Q3" s="194"/>
-      <c r="R3" s="194"/>
-      <c r="S3" s="194"/>
-      <c r="T3" s="194"/>
-      <c r="U3" s="195"/>
-      <c r="V3" s="196" t="s">
+      <c r="O3" s="199"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="185" t="s">
         <v>388</v>
       </c>
-      <c r="W3" s="197"/>
-      <c r="X3" s="198"/>
-      <c r="Y3" s="199">
+      <c r="W3" s="186"/>
+      <c r="X3" s="187"/>
+      <c r="Y3" s="188">
         <v>42045</v>
       </c>
-      <c r="Z3" s="200"/>
-      <c r="AA3" s="201"/>
-      <c r="AB3" s="202">
+      <c r="Z3" s="189"/>
+      <c r="AA3" s="190"/>
+      <c r="AB3" s="191">
         <v>42048</v>
       </c>
-      <c r="AC3" s="200"/>
-      <c r="AD3" s="201"/>
+      <c r="AC3" s="189"/>
+      <c r="AD3" s="190"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:30" ht="16.5" thickBot="1">
-      <c r="B8" s="203" t="s">
+      <c r="B8" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="203"/>
-      <c r="D8" s="203"/>
-      <c r="E8" s="203"/>
-      <c r="F8" s="203" t="s">
+      <c r="C8" s="192"/>
+      <c r="D8" s="192"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="203"/>
-      <c r="H8" s="203" t="s">
+      <c r="G8" s="192"/>
+      <c r="H8" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="203"/>
-      <c r="J8" s="203"/>
-      <c r="K8" s="203" t="s">
+      <c r="I8" s="192"/>
+      <c r="J8" s="192"/>
+      <c r="K8" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="203"/>
-      <c r="M8" s="203"/>
-      <c r="N8" s="203"/>
-      <c r="O8" s="203"/>
-      <c r="P8" s="203"/>
-      <c r="Q8" s="203"/>
-      <c r="R8" s="203"/>
-      <c r="S8" s="203"/>
-      <c r="T8" s="203"/>
-      <c r="U8" s="203"/>
-      <c r="V8" s="203"/>
-      <c r="W8" s="203"/>
-      <c r="X8" s="203" t="s">
+      <c r="L8" s="192"/>
+      <c r="M8" s="192"/>
+      <c r="N8" s="192"/>
+      <c r="O8" s="192"/>
+      <c r="P8" s="192"/>
+      <c r="Q8" s="192"/>
+      <c r="R8" s="192"/>
+      <c r="S8" s="192"/>
+      <c r="T8" s="192"/>
+      <c r="U8" s="192"/>
+      <c r="V8" s="192"/>
+      <c r="W8" s="192"/>
+      <c r="X8" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="Y8" s="203"/>
-      <c r="Z8" s="203"/>
-      <c r="AA8" s="203"/>
-      <c r="AB8" s="203"/>
-      <c r="AC8" s="203"/>
+      <c r="Y8" s="192"/>
+      <c r="Z8" s="192"/>
+      <c r="AA8" s="192"/>
+      <c r="AB8" s="192"/>
+      <c r="AC8" s="192"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="217">
+      <c r="B9" s="184">
         <v>42045</v>
       </c>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="211"/>
-      <c r="F9" s="212" t="s">
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="213"/>
-      <c r="H9" s="209"/>
-      <c r="I9" s="210"/>
-      <c r="J9" s="211"/>
-      <c r="K9" s="214"/>
-      <c r="L9" s="215"/>
-      <c r="M9" s="215"/>
-      <c r="N9" s="215"/>
-      <c r="O9" s="215"/>
-      <c r="P9" s="215"/>
-      <c r="Q9" s="215"/>
-      <c r="R9" s="215"/>
-      <c r="S9" s="215"/>
-      <c r="T9" s="215"/>
-      <c r="U9" s="215"/>
-      <c r="V9" s="215"/>
-      <c r="W9" s="216"/>
-      <c r="X9" s="206"/>
-      <c r="Y9" s="207"/>
-      <c r="Z9" s="207"/>
-      <c r="AA9" s="207"/>
-      <c r="AB9" s="207"/>
-      <c r="AC9" s="208"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="175"/>
+      <c r="K9" s="178"/>
+      <c r="L9" s="179"/>
+      <c r="M9" s="179"/>
+      <c r="N9" s="179"/>
+      <c r="O9" s="179"/>
+      <c r="P9" s="179"/>
+      <c r="Q9" s="179"/>
+      <c r="R9" s="179"/>
+      <c r="S9" s="179"/>
+      <c r="T9" s="179"/>
+      <c r="U9" s="179"/>
+      <c r="V9" s="179"/>
+      <c r="W9" s="180"/>
+      <c r="X9" s="181"/>
+      <c r="Y9" s="182"/>
+      <c r="Z9" s="182"/>
+      <c r="AA9" s="182"/>
+      <c r="AB9" s="182"/>
+      <c r="AC9" s="183"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="209"/>
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="211"/>
-      <c r="F10" s="212"/>
-      <c r="G10" s="213"/>
-      <c r="H10" s="209"/>
-      <c r="I10" s="210"/>
-      <c r="J10" s="211"/>
-      <c r="K10" s="214"/>
-      <c r="L10" s="215"/>
-      <c r="M10" s="215"/>
-      <c r="N10" s="215"/>
-      <c r="O10" s="215"/>
-      <c r="P10" s="215"/>
-      <c r="Q10" s="215"/>
-      <c r="R10" s="215"/>
-      <c r="S10" s="215"/>
-      <c r="T10" s="215"/>
-      <c r="U10" s="215"/>
-      <c r="V10" s="215"/>
-      <c r="W10" s="216"/>
-      <c r="X10" s="206"/>
-      <c r="Y10" s="207"/>
-      <c r="Z10" s="207"/>
-      <c r="AA10" s="207"/>
-      <c r="AB10" s="207"/>
-      <c r="AC10" s="208"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="179"/>
+      <c r="M10" s="179"/>
+      <c r="N10" s="179"/>
+      <c r="O10" s="179"/>
+      <c r="P10" s="179"/>
+      <c r="Q10" s="179"/>
+      <c r="R10" s="179"/>
+      <c r="S10" s="179"/>
+      <c r="T10" s="179"/>
+      <c r="U10" s="179"/>
+      <c r="V10" s="179"/>
+      <c r="W10" s="180"/>
+      <c r="X10" s="181"/>
+      <c r="Y10" s="182"/>
+      <c r="Z10" s="182"/>
+      <c r="AA10" s="182"/>
+      <c r="AB10" s="182"/>
+      <c r="AC10" s="183"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="209"/>
-      <c r="C11" s="210"/>
-      <c r="D11" s="210"/>
-      <c r="E11" s="211"/>
-      <c r="F11" s="212"/>
-      <c r="G11" s="213"/>
-      <c r="H11" s="209"/>
-      <c r="I11" s="210"/>
-      <c r="J11" s="211"/>
-      <c r="K11" s="214"/>
-      <c r="L11" s="215"/>
-      <c r="M11" s="215"/>
-      <c r="N11" s="215"/>
-      <c r="O11" s="215"/>
-      <c r="P11" s="215"/>
-      <c r="Q11" s="215"/>
-      <c r="R11" s="215"/>
-      <c r="S11" s="215"/>
-      <c r="T11" s="215"/>
-      <c r="U11" s="215"/>
-      <c r="V11" s="215"/>
-      <c r="W11" s="216"/>
-      <c r="X11" s="206"/>
-      <c r="Y11" s="207"/>
-      <c r="Z11" s="207"/>
-      <c r="AA11" s="207"/>
-      <c r="AB11" s="207"/>
-      <c r="AC11" s="208"/>
+      <c r="B11" s="173"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="173"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="175"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="179"/>
+      <c r="M11" s="179"/>
+      <c r="N11" s="179"/>
+      <c r="O11" s="179"/>
+      <c r="P11" s="179"/>
+      <c r="Q11" s="179"/>
+      <c r="R11" s="179"/>
+      <c r="S11" s="179"/>
+      <c r="T11" s="179"/>
+      <c r="U11" s="179"/>
+      <c r="V11" s="179"/>
+      <c r="W11" s="180"/>
+      <c r="X11" s="181"/>
+      <c r="Y11" s="182"/>
+      <c r="Z11" s="182"/>
+      <c r="AA11" s="182"/>
+      <c r="AB11" s="182"/>
+      <c r="AC11" s="183"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="209"/>
-      <c r="C12" s="210"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="211"/>
-      <c r="F12" s="212"/>
-      <c r="G12" s="213"/>
-      <c r="H12" s="209"/>
-      <c r="I12" s="210"/>
-      <c r="J12" s="211"/>
-      <c r="K12" s="214"/>
-      <c r="L12" s="215"/>
-      <c r="M12" s="215"/>
-      <c r="N12" s="215"/>
-      <c r="O12" s="215"/>
-      <c r="P12" s="215"/>
-      <c r="Q12" s="215"/>
-      <c r="R12" s="215"/>
-      <c r="S12" s="215"/>
-      <c r="T12" s="215"/>
-      <c r="U12" s="215"/>
-      <c r="V12" s="215"/>
-      <c r="W12" s="216"/>
-      <c r="X12" s="206"/>
-      <c r="Y12" s="207"/>
-      <c r="Z12" s="207"/>
-      <c r="AA12" s="207"/>
-      <c r="AB12" s="207"/>
-      <c r="AC12" s="208"/>
+      <c r="B12" s="173"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="178"/>
+      <c r="L12" s="179"/>
+      <c r="M12" s="179"/>
+      <c r="N12" s="179"/>
+      <c r="O12" s="179"/>
+      <c r="P12" s="179"/>
+      <c r="Q12" s="179"/>
+      <c r="R12" s="179"/>
+      <c r="S12" s="179"/>
+      <c r="T12" s="179"/>
+      <c r="U12" s="179"/>
+      <c r="V12" s="179"/>
+      <c r="W12" s="180"/>
+      <c r="X12" s="181"/>
+      <c r="Y12" s="182"/>
+      <c r="Z12" s="182"/>
+      <c r="AA12" s="182"/>
+      <c r="AB12" s="182"/>
+      <c r="AC12" s="183"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:U2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="AB3:AD3"/>
@@ -20278,18 +20303,26 @@
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:U3"/>
-    <mergeCell ref="V1:AD1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:U2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20299,7 +20332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -20382,15 +20415,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="244" t="s">
+      <c r="C4" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="243"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -20403,15 +20436,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="244" t="s">
+      <c r="C5" s="243" t="s">
         <v>279</v>
       </c>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="243"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -20425,7 +20458,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
@@ -20445,15 +20478,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="244" t="s">
+      <c r="C7" s="243" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="254"/>
-      <c r="I7" s="243"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -20487,15 +20520,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="244" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="254"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="254"/>
-      <c r="I9" s="243"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -20558,19 +20591,19 @@
     </row>
     <row r="13" spans="1:15" ht="18.95" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="255" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="256"/>
-      <c r="K13" s="256"/>
-      <c r="L13" s="257"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -20599,11 +20632,11 @@
       <c r="I14" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="253" t="s">
+      <c r="J14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="253"/>
-      <c r="L14" s="253"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -20678,29 +20711,29 @@
       <c r="A17" s="48"/>
       <c r="B17" s="60"/>
       <c r="C17" s="157" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D17" s="158" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E17" s="159" t="s">
         <v>336</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="159" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H17" s="159" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="I17" s="160" t="s">
-        <v>433</v>
-      </c>
-      <c r="J17" s="263" t="s">
-        <v>434</v>
-      </c>
-      <c r="K17" s="251"/>
-      <c r="L17" s="251"/>
+        <v>428</v>
+      </c>
+      <c r="J17" s="265" t="s">
+        <v>429</v>
+      </c>
+      <c r="K17" s="252"/>
+      <c r="L17" s="252"/>
       <c r="M17" s="48"/>
       <c r="N17" s="48"/>
       <c r="O17" s="48"/>
@@ -20709,29 +20742,29 @@
       <c r="A18" s="48"/>
       <c r="B18" s="60"/>
       <c r="C18" s="157" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D18" s="158" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E18" s="159" t="s">
         <v>336</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="159" t="s">
+        <v>427</v>
+      </c>
+      <c r="H18" s="159" t="s">
         <v>432</v>
       </c>
-      <c r="H18" s="159" t="s">
-        <v>437</v>
-      </c>
       <c r="I18" s="160" t="s">
-        <v>438</v>
-      </c>
-      <c r="J18" s="263" t="s">
-        <v>439</v>
-      </c>
-      <c r="K18" s="251"/>
-      <c r="L18" s="251"/>
+        <v>433</v>
+      </c>
+      <c r="J18" s="265" t="s">
+        <v>434</v>
+      </c>
+      <c r="K18" s="252"/>
+      <c r="L18" s="252"/>
       <c r="M18" s="48"/>
       <c r="N18" s="48"/>
       <c r="O18" s="48"/>
@@ -20740,26 +20773,26 @@
       <c r="A19" s="48"/>
       <c r="B19" s="60"/>
       <c r="C19" s="157" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D19" s="158" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E19" s="159" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="159" t="s">
+        <v>427</v>
+      </c>
+      <c r="H19" s="159" t="s">
         <v>432</v>
       </c>
-      <c r="H19" s="159" t="s">
-        <v>437</v>
-      </c>
       <c r="I19" s="160" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="J19" s="167" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="K19" s="166"/>
       <c r="L19" s="165"/>
@@ -20943,12 +20976,12 @@
     </row>
     <row r="30" spans="1:15" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A30" s="70"/>
-      <c r="B30" s="248" t="s">
+      <c r="B30" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="249"/>
-      <c r="D30" s="249"/>
-      <c r="E30" s="250"/>
+      <c r="C30" s="250"/>
+      <c r="D30" s="250"/>
+      <c r="E30" s="251"/>
       <c r="F30" s="59" t="s">
         <v>90</v>
       </c>
@@ -21040,10 +21073,10 @@
       <c r="A33" s="48"/>
       <c r="B33" s="72"/>
       <c r="C33" s="77"/>
-      <c r="D33" s="244" t="s">
+      <c r="D33" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E33" s="243"/>
+      <c r="E33" s="245"/>
       <c r="F33" s="61" t="s">
         <v>190</v>
       </c>
@@ -21073,10 +21106,10 @@
       <c r="A34" s="48"/>
       <c r="B34" s="72"/>
       <c r="C34" s="78"/>
-      <c r="D34" s="244" t="s">
+      <c r="D34" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="243"/>
+      <c r="E34" s="245"/>
       <c r="F34" s="61" t="s">
         <v>129</v>
       </c>
@@ -21139,10 +21172,10 @@
       <c r="A36" s="48"/>
       <c r="B36" s="72"/>
       <c r="C36" s="79"/>
-      <c r="D36" s="244" t="s">
+      <c r="D36" s="243" t="s">
         <v>134</v>
       </c>
-      <c r="E36" s="243"/>
+      <c r="E36" s="245"/>
       <c r="F36" s="61" t="s">
         <v>135</v>
       </c>
@@ -21172,10 +21205,10 @@
       <c r="A37" s="48"/>
       <c r="B37" s="72"/>
       <c r="C37" s="79"/>
-      <c r="D37" s="245" t="s">
+      <c r="D37" s="255" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="246"/>
+      <c r="E37" s="256"/>
       <c r="F37" s="61" t="s">
         <v>98</v>
       </c>
@@ -21205,10 +21238,10 @@
       <c r="A38" s="48"/>
       <c r="B38" s="72"/>
       <c r="C38" s="77"/>
-      <c r="D38" s="244" t="s">
+      <c r="D38" s="243" t="s">
         <v>109</v>
       </c>
-      <c r="E38" s="243"/>
+      <c r="E38" s="245"/>
       <c r="F38" s="61" t="s">
         <v>110</v>
       </c>
@@ -21271,10 +21304,10 @@
       <c r="A40" s="48"/>
       <c r="B40" s="72"/>
       <c r="C40" s="77"/>
-      <c r="D40" s="244" t="s">
+      <c r="D40" s="243" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="243"/>
+      <c r="E40" s="245"/>
       <c r="F40" s="62" t="s">
         <v>115</v>
       </c>
@@ -21300,8 +21333,8 @@
     </row>
     <row r="41" spans="1:15" ht="18.95" customHeight="1">
       <c r="A41" s="48"/>
-      <c r="B41" s="264"/>
-      <c r="C41" s="264"/>
+      <c r="B41" s="263"/>
+      <c r="C41" s="263"/>
       <c r="D41" s="53" t="s">
         <v>285</v>
       </c>
@@ -21331,8 +21364,8 @@
     </row>
     <row r="42" spans="1:15" ht="18.95" customHeight="1">
       <c r="A42" s="48"/>
-      <c r="B42" s="265"/>
-      <c r="C42" s="265"/>
+      <c r="B42" s="264"/>
+      <c r="C42" s="264"/>
       <c r="D42" s="53" t="s">
         <v>195</v>
       </c>
@@ -21859,12 +21892,12 @@
     </row>
     <row r="72" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A72" s="70"/>
-      <c r="B72" s="248" t="s">
+      <c r="B72" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C72" s="249"/>
-      <c r="D72" s="249"/>
-      <c r="E72" s="250"/>
+      <c r="C72" s="250"/>
+      <c r="D72" s="250"/>
+      <c r="E72" s="251"/>
       <c r="F72" s="59" t="s">
         <v>90</v>
       </c>
@@ -21956,10 +21989,10 @@
       <c r="A75" s="48"/>
       <c r="B75" s="72"/>
       <c r="C75" s="77"/>
-      <c r="D75" s="244" t="s">
+      <c r="D75" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E75" s="243"/>
+      <c r="E75" s="245"/>
       <c r="F75" s="61" t="s">
         <v>190</v>
       </c>
@@ -21989,10 +22022,10 @@
       <c r="A76" s="48"/>
       <c r="B76" s="72"/>
       <c r="C76" s="77"/>
-      <c r="D76" s="242" t="s">
+      <c r="D76" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E76" s="243"/>
+      <c r="E76" s="245"/>
       <c r="F76" s="61" t="s">
         <v>149</v>
       </c>
@@ -22361,12 +22394,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="B29:D29"/>
@@ -22375,14 +22410,12 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D37:E37"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B72:E72"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I17" r:id="rId1" display="foo@mulodo.com"/>
@@ -22397,7 +22430,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -22482,16 +22517,16 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="244" t="s">
+      <c r="C4" s="243" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="254"/>
-      <c r="J4" s="243"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="244"/>
+      <c r="J4" s="245"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
       <c r="M4" s="48"/>
@@ -22504,16 +22539,16 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="244" t="s">
+      <c r="C5" s="243" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="254"/>
-      <c r="J5" s="243"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="245"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
       <c r="M5" s="48"/>
@@ -22527,7 +22562,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
@@ -22548,16 +22583,16 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="244" t="s">
+      <c r="C7" s="243" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="254"/>
-      <c r="I7" s="254"/>
-      <c r="J7" s="243"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="244"/>
+      <c r="J7" s="245"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
       <c r="M7" s="48"/>
@@ -22592,16 +22627,16 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="244" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="254"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="254"/>
-      <c r="I9" s="254"/>
-      <c r="J9" s="243"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="244"/>
+      <c r="J9" s="245"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
       <c r="M9" s="48"/>
@@ -22667,20 +22702,20 @@
     </row>
     <row r="13" spans="1:16" ht="18.95" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="255" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="256"/>
-      <c r="K13" s="256"/>
-      <c r="L13" s="256"/>
-      <c r="M13" s="257"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="247"/>
+      <c r="M13" s="248"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
       <c r="P13" s="48"/>
@@ -22710,11 +22745,11 @@
       <c r="J14" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="253" t="s">
+      <c r="K14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="253"/>
-      <c r="M14" s="253"/>
+      <c r="L14" s="242"/>
+      <c r="M14" s="242"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
       <c r="P14" s="48"/>
@@ -22744,11 +22779,11 @@
       <c r="J15" s="130" t="s">
         <v>165</v>
       </c>
-      <c r="K15" s="259" t="s">
+      <c r="K15" s="258" t="s">
         <v>166</v>
       </c>
-      <c r="L15" s="260"/>
-      <c r="M15" s="261"/>
+      <c r="L15" s="259"/>
+      <c r="M15" s="260"/>
       <c r="N15" s="48"/>
       <c r="O15" s="48"/>
       <c r="P15" s="48"/>
@@ -22757,29 +22792,29 @@
       <c r="A16" s="48"/>
       <c r="B16" s="60"/>
       <c r="C16" s="157" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D16" s="158" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E16" s="159" t="s">
         <v>336</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="159" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H16" s="159" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="I16" s="160" t="s">
-        <v>433</v>
-      </c>
-      <c r="J16" s="263" t="s">
-        <v>434</v>
-      </c>
-      <c r="K16" s="251"/>
-      <c r="L16" s="251"/>
+        <v>428</v>
+      </c>
+      <c r="J16" s="265" t="s">
+        <v>429</v>
+      </c>
+      <c r="K16" s="252"/>
+      <c r="L16" s="252"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -22788,29 +22823,29 @@
       <c r="A17" s="48"/>
       <c r="B17" s="60"/>
       <c r="C17" s="157" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D17" s="158" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E17" s="159" t="s">
         <v>336</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="159" t="s">
+        <v>427</v>
+      </c>
+      <c r="H17" s="159" t="s">
         <v>432</v>
       </c>
-      <c r="H17" s="159" t="s">
-        <v>437</v>
-      </c>
       <c r="I17" s="160" t="s">
-        <v>438</v>
-      </c>
-      <c r="J17" s="263" t="s">
-        <v>439</v>
-      </c>
-      <c r="K17" s="251"/>
-      <c r="L17" s="251"/>
+        <v>433</v>
+      </c>
+      <c r="J17" s="265" t="s">
+        <v>434</v>
+      </c>
+      <c r="K17" s="252"/>
+      <c r="L17" s="252"/>
       <c r="M17" s="48"/>
       <c r="N17" s="48"/>
       <c r="O17" s="48"/>
@@ -22819,26 +22854,26 @@
       <c r="A18" s="48"/>
       <c r="B18" s="60"/>
       <c r="C18" s="157" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D18" s="158" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E18" s="159" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="159" t="s">
+        <v>427</v>
+      </c>
+      <c r="H18" s="159" t="s">
         <v>432</v>
       </c>
-      <c r="H18" s="159" t="s">
-        <v>437</v>
-      </c>
       <c r="I18" s="160" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="J18" s="167" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="K18" s="166"/>
       <c r="L18" s="165"/>
@@ -22994,11 +23029,11 @@
     </row>
     <row r="27" spans="1:16" s="69" customFormat="1" ht="18.95" customHeight="1">
       <c r="A27" s="51"/>
-      <c r="B27" s="252" t="s">
+      <c r="B27" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="252"/>
-      <c r="D27" s="252"/>
+      <c r="C27" s="253"/>
+      <c r="D27" s="253"/>
       <c r="E27" s="67"/>
       <c r="F27" s="67"/>
       <c r="G27" s="68"/>
@@ -23014,13 +23049,13 @@
     </row>
     <row r="28" spans="1:16" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A28" s="70"/>
-      <c r="B28" s="248" t="s">
+      <c r="B28" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="249"/>
-      <c r="D28" s="249"/>
-      <c r="E28" s="249"/>
-      <c r="F28" s="250"/>
+      <c r="C28" s="250"/>
+      <c r="D28" s="250"/>
+      <c r="E28" s="250"/>
+      <c r="F28" s="251"/>
       <c r="G28" s="59" t="s">
         <v>90</v>
       </c>
@@ -23114,10 +23149,10 @@
       <c r="A31" s="48"/>
       <c r="B31" s="72"/>
       <c r="C31" s="77"/>
-      <c r="D31" s="244" t="s">
+      <c r="D31" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E31" s="254"/>
+      <c r="E31" s="244"/>
       <c r="F31" s="55"/>
       <c r="G31" s="61" t="s">
         <v>190</v>
@@ -23148,10 +23183,10 @@
       <c r="A32" s="48"/>
       <c r="B32" s="72"/>
       <c r="C32" s="78"/>
-      <c r="D32" s="244" t="s">
+      <c r="D32" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="254"/>
+      <c r="E32" s="244"/>
       <c r="F32" s="55"/>
       <c r="G32" s="61" t="s">
         <v>129</v>
@@ -23285,10 +23320,10 @@
       <c r="B36" s="72"/>
       <c r="C36" s="79"/>
       <c r="D36" s="79"/>
-      <c r="E36" s="244" t="s">
+      <c r="E36" s="243" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="243"/>
+      <c r="F36" s="245"/>
       <c r="G36" s="61" t="s">
         <v>98</v>
       </c>
@@ -23319,10 +23354,10 @@
       <c r="B37" s="72"/>
       <c r="C37" s="77"/>
       <c r="D37" s="66"/>
-      <c r="E37" s="244" t="s">
+      <c r="E37" s="243" t="s">
         <v>109</v>
       </c>
-      <c r="F37" s="243"/>
+      <c r="F37" s="245"/>
       <c r="G37" s="61" t="s">
         <v>110</v>
       </c>
@@ -23353,10 +23388,10 @@
       <c r="B38" s="72"/>
       <c r="C38" s="77"/>
       <c r="D38" s="66"/>
-      <c r="E38" s="244" t="s">
+      <c r="E38" s="243" t="s">
         <v>112</v>
       </c>
-      <c r="F38" s="243"/>
+      <c r="F38" s="245"/>
       <c r="G38" s="61" t="s">
         <v>113</v>
       </c>
@@ -24282,11 +24317,11 @@
     </row>
     <row r="82" spans="1:16" ht="18.95" customHeight="1">
       <c r="A82" s="48"/>
-      <c r="B82" s="247" t="s">
+      <c r="B82" s="257" t="s">
         <v>206</v>
       </c>
-      <c r="C82" s="247"/>
-      <c r="D82" s="247"/>
+      <c r="C82" s="257"/>
+      <c r="D82" s="257"/>
       <c r="E82" s="48"/>
       <c r="F82" s="48"/>
       <c r="G82" s="48"/>
@@ -24302,12 +24337,12 @@
     </row>
     <row r="83" spans="1:16" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A83" s="70"/>
-      <c r="B83" s="248" t="s">
+      <c r="B83" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C83" s="249"/>
-      <c r="D83" s="249"/>
-      <c r="E83" s="250"/>
+      <c r="C83" s="250"/>
+      <c r="D83" s="250"/>
+      <c r="E83" s="251"/>
       <c r="F83" s="59" t="s">
         <v>90</v>
       </c>
@@ -24399,10 +24434,10 @@
       <c r="A86" s="48"/>
       <c r="B86" s="72"/>
       <c r="C86" s="77"/>
-      <c r="D86" s="244" t="s">
+      <c r="D86" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E86" s="243"/>
+      <c r="E86" s="245"/>
       <c r="F86" s="61" t="s">
         <v>190</v>
       </c>
@@ -24432,10 +24467,10 @@
       <c r="A87" s="48"/>
       <c r="B87" s="72"/>
       <c r="C87" s="77"/>
-      <c r="D87" s="242" t="s">
+      <c r="D87" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E87" s="258"/>
+      <c r="E87" s="261"/>
       <c r="F87" s="61" t="s">
         <v>149</v>
       </c>
@@ -24529,8 +24564,8 @@
       <c r="A90" s="48"/>
       <c r="B90" s="83"/>
       <c r="C90" s="78"/>
-      <c r="D90" s="244"/>
-      <c r="E90" s="243"/>
+      <c r="D90" s="243"/>
+      <c r="E90" s="245"/>
       <c r="F90" s="61"/>
       <c r="G90" s="63"/>
       <c r="H90" s="63"/>
@@ -24819,13 +24854,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B82:D82"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="C5:J5"/>
@@ -24840,6 +24868,13 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="J17:L17"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B82:D82"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I16" r:id="rId1" display="foo@mulodo.com"/>
@@ -24854,7 +24889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -24935,15 +24970,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="244" t="s">
+      <c r="C4" s="243" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="243"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -24956,15 +24991,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="244" t="s">
+      <c r="C5" s="243" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="243"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -24998,15 +25033,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="244" t="s">
+      <c r="C7" s="243" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="254"/>
-      <c r="I7" s="243"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -25040,15 +25075,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="244" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="254"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="254"/>
-      <c r="I9" s="243"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -25094,19 +25129,19 @@
     </row>
     <row r="12" spans="1:15" ht="15.75">
       <c r="A12" s="48"/>
-      <c r="B12" s="255" t="s">
+      <c r="B12" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="256"/>
-      <c r="D12" s="256"/>
-      <c r="E12" s="256"/>
-      <c r="F12" s="256"/>
-      <c r="G12" s="256"/>
-      <c r="H12" s="256"/>
-      <c r="I12" s="256"/>
-      <c r="J12" s="256"/>
-      <c r="K12" s="256"/>
-      <c r="L12" s="257"/>
+      <c r="C12" s="247"/>
+      <c r="D12" s="247"/>
+      <c r="E12" s="247"/>
+      <c r="F12" s="247"/>
+      <c r="G12" s="247"/>
+      <c r="H12" s="247"/>
+      <c r="I12" s="247"/>
+      <c r="J12" s="247"/>
+      <c r="K12" s="247"/>
+      <c r="L12" s="248"/>
       <c r="M12" s="48"/>
       <c r="N12" s="48"/>
       <c r="O12" s="48"/>
@@ -25135,11 +25170,11 @@
       <c r="I13" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="253" t="s">
+      <c r="J13" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="253"/>
-      <c r="L13" s="253"/>
+      <c r="K13" s="242"/>
+      <c r="L13" s="242"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -25234,11 +25269,11 @@
       <c r="I16" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="J16" s="244" t="s">
+      <c r="J16" s="243" t="s">
         <v>268</v>
       </c>
-      <c r="K16" s="254"/>
-      <c r="L16" s="243"/>
+      <c r="K16" s="244"/>
+      <c r="L16" s="245"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -25294,11 +25329,11 @@
       <c r="I18" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="J18" s="244" t="s">
+      <c r="J18" s="243" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="254"/>
-      <c r="L18" s="243"/>
+      <c r="K18" s="244"/>
+      <c r="L18" s="245"/>
       <c r="M18" s="48"/>
       <c r="N18" s="48"/>
       <c r="O18" s="48"/>
@@ -25389,11 +25424,11 @@
       <c r="I21" s="144" t="s">
         <v>276</v>
       </c>
-      <c r="J21" s="244" t="s">
+      <c r="J21" s="243" t="s">
         <v>232</v>
       </c>
-      <c r="K21" s="254"/>
-      <c r="L21" s="243"/>
+      <c r="K21" s="244"/>
+      <c r="L21" s="245"/>
       <c r="M21" s="48"/>
       <c r="N21" s="48"/>
       <c r="O21" s="48"/>
@@ -25655,12 +25690,12 @@
     </row>
     <row r="35" spans="1:15" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A35" s="70"/>
-      <c r="B35" s="248" t="s">
+      <c r="B35" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="249"/>
-      <c r="D35" s="249"/>
-      <c r="E35" s="250"/>
+      <c r="C35" s="250"/>
+      <c r="D35" s="250"/>
+      <c r="E35" s="251"/>
       <c r="F35" s="59" t="s">
         <v>90</v>
       </c>
@@ -25752,10 +25787,10 @@
       <c r="A38" s="48"/>
       <c r="B38" s="72"/>
       <c r="C38" s="77"/>
-      <c r="D38" s="244" t="s">
+      <c r="D38" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E38" s="243"/>
+      <c r="E38" s="245"/>
       <c r="F38" s="61" t="s">
         <v>190</v>
       </c>
@@ -25785,10 +25820,10 @@
       <c r="A39" s="48"/>
       <c r="B39" s="72"/>
       <c r="C39" s="78"/>
-      <c r="D39" s="244" t="s">
+      <c r="D39" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="243"/>
+      <c r="E39" s="245"/>
       <c r="F39" s="61" t="s">
         <v>129</v>
       </c>
@@ -25851,10 +25886,10 @@
       <c r="A41" s="48"/>
       <c r="B41" s="72"/>
       <c r="C41" s="79"/>
-      <c r="D41" s="244" t="s">
+      <c r="D41" s="243" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="243"/>
+      <c r="E41" s="245"/>
       <c r="F41" s="61" t="s">
         <v>135</v>
       </c>
@@ -25917,10 +25952,10 @@
       <c r="A43" s="48"/>
       <c r="B43" s="72"/>
       <c r="C43" s="79"/>
-      <c r="D43" s="245" t="s">
+      <c r="D43" s="255" t="s">
         <v>97</v>
       </c>
-      <c r="E43" s="246"/>
+      <c r="E43" s="256"/>
       <c r="F43" s="61" t="s">
         <v>98</v>
       </c>
@@ -25950,10 +25985,10 @@
       <c r="A44" s="48"/>
       <c r="B44" s="72"/>
       <c r="C44" s="77"/>
-      <c r="D44" s="244" t="s">
+      <c r="D44" s="243" t="s">
         <v>109</v>
       </c>
-      <c r="E44" s="243"/>
+      <c r="E44" s="245"/>
       <c r="F44" s="61" t="s">
         <v>110</v>
       </c>
@@ -26016,10 +26051,10 @@
       <c r="A46" s="48"/>
       <c r="B46" s="72"/>
       <c r="C46" s="77"/>
-      <c r="D46" s="244" t="s">
+      <c r="D46" s="243" t="s">
         <v>227</v>
       </c>
-      <c r="E46" s="243"/>
+      <c r="E46" s="245"/>
       <c r="F46" s="62" t="s">
         <v>228</v>
       </c>
@@ -26049,10 +26084,10 @@
       <c r="A47" s="48"/>
       <c r="B47" s="72"/>
       <c r="C47" s="77"/>
-      <c r="D47" s="244" t="s">
+      <c r="D47" s="243" t="s">
         <v>114</v>
       </c>
-      <c r="E47" s="243"/>
+      <c r="E47" s="245"/>
       <c r="F47" s="62" t="s">
         <v>115</v>
       </c>
@@ -26080,10 +26115,10 @@
       <c r="A48" s="48"/>
       <c r="B48" s="72"/>
       <c r="C48" s="77"/>
-      <c r="D48" s="244" t="s">
+      <c r="D48" s="243" t="s">
         <v>233</v>
       </c>
-      <c r="E48" s="243"/>
+      <c r="E48" s="245"/>
       <c r="F48" s="62" t="s">
         <v>234</v>
       </c>
@@ -26111,10 +26146,10 @@
       <c r="A49" s="48"/>
       <c r="B49" s="72"/>
       <c r="C49" s="77"/>
-      <c r="D49" s="244" t="s">
+      <c r="D49" s="243" t="s">
         <v>224</v>
       </c>
-      <c r="E49" s="243"/>
+      <c r="E49" s="245"/>
       <c r="F49" s="62" t="s">
         <v>225</v>
       </c>
@@ -26142,10 +26177,10 @@
       <c r="A50" s="48"/>
       <c r="B50" s="72"/>
       <c r="C50" s="77"/>
-      <c r="D50" s="244" t="s">
+      <c r="D50" s="243" t="s">
         <v>230</v>
       </c>
-      <c r="E50" s="243"/>
+      <c r="E50" s="245"/>
       <c r="F50" s="62" t="s">
         <v>231</v>
       </c>
@@ -26175,10 +26210,10 @@
       <c r="A51" s="48"/>
       <c r="B51" s="72"/>
       <c r="C51" s="77"/>
-      <c r="D51" s="244" t="s">
+      <c r="D51" s="243" t="s">
         <v>250</v>
       </c>
-      <c r="E51" s="243"/>
+      <c r="E51" s="245"/>
       <c r="F51" s="62" t="s">
         <v>251</v>
       </c>
@@ -26206,10 +26241,10 @@
       <c r="A52" s="48"/>
       <c r="B52" s="72"/>
       <c r="C52" s="77"/>
-      <c r="D52" s="244" t="s">
+      <c r="D52" s="243" t="s">
         <v>237</v>
       </c>
-      <c r="E52" s="243"/>
+      <c r="E52" s="245"/>
       <c r="F52" s="62" t="s">
         <v>238</v>
       </c>
@@ -26239,10 +26274,10 @@
       <c r="A53" s="48"/>
       <c r="B53" s="131"/>
       <c r="C53" s="78"/>
-      <c r="D53" s="244" t="s">
+      <c r="D53" s="243" t="s">
         <v>195</v>
       </c>
-      <c r="E53" s="243"/>
+      <c r="E53" s="245"/>
       <c r="F53" s="62" t="s">
         <v>194</v>
       </c>
@@ -26682,12 +26717,12 @@
     </row>
     <row r="78" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A78" s="70"/>
-      <c r="B78" s="248" t="s">
+      <c r="B78" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C78" s="249"/>
-      <c r="D78" s="249"/>
-      <c r="E78" s="250"/>
+      <c r="C78" s="250"/>
+      <c r="D78" s="250"/>
+      <c r="E78" s="251"/>
       <c r="F78" s="59" t="s">
         <v>90</v>
       </c>
@@ -26779,10 +26814,10 @@
       <c r="A81" s="48"/>
       <c r="B81" s="72"/>
       <c r="C81" s="77"/>
-      <c r="D81" s="244" t="s">
+      <c r="D81" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E81" s="243"/>
+      <c r="E81" s="245"/>
       <c r="F81" s="61" t="s">
         <v>190</v>
       </c>
@@ -26812,10 +26847,10 @@
       <c r="A82" s="48"/>
       <c r="B82" s="72"/>
       <c r="C82" s="77"/>
-      <c r="D82" s="242" t="s">
+      <c r="D82" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E82" s="243"/>
+      <c r="E82" s="245"/>
       <c r="F82" s="61" t="s">
         <v>149</v>
       </c>
@@ -27184,6 +27219,21 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B12:L12"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
@@ -27197,21 +27247,6 @@
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D53:E53"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D41:E41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I21" r:id="rId1"/>
@@ -27225,7 +27260,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -27306,15 +27343,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="244" t="s">
+      <c r="C4" s="243" t="s">
         <v>318</v>
       </c>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="243"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -27327,15 +27364,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="244" t="s">
+      <c r="C5" s="243" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="243"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -27349,7 +27386,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
@@ -27369,15 +27406,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="244" t="s">
+      <c r="C7" s="243" t="s">
         <v>319</v>
       </c>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="254"/>
-      <c r="I7" s="243"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -27411,15 +27448,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="244" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="254"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="254"/>
-      <c r="I9" s="243"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -27482,19 +27519,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="255" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="256"/>
-      <c r="K13" s="256"/>
-      <c r="L13" s="257"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -27523,11 +27560,11 @@
       <c r="I14" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="253" t="s">
+      <c r="J14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="253"/>
-      <c r="L14" s="253"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -27556,11 +27593,11 @@
       <c r="I15" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="J15" s="251" t="s">
+      <c r="J15" s="252" t="s">
         <v>324</v>
       </c>
-      <c r="K15" s="251"/>
-      <c r="L15" s="251"/>
+      <c r="K15" s="252"/>
+      <c r="L15" s="252"/>
       <c r="M15" s="48"/>
       <c r="N15" s="48"/>
       <c r="O15" s="48"/>
@@ -27589,11 +27626,11 @@
       <c r="I16" s="64" t="s">
         <v>341</v>
       </c>
-      <c r="J16" s="251" t="s">
+      <c r="J16" s="252" t="s">
         <v>340</v>
       </c>
-      <c r="K16" s="251"/>
-      <c r="L16" s="251"/>
+      <c r="K16" s="252"/>
+      <c r="L16" s="252"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -27655,11 +27692,11 @@
       <c r="I18" s="62" t="s">
         <v>332</v>
       </c>
-      <c r="J18" s="244" t="s">
+      <c r="J18" s="243" t="s">
         <v>333</v>
       </c>
-      <c r="K18" s="254"/>
-      <c r="L18" s="243"/>
+      <c r="K18" s="244"/>
+      <c r="L18" s="245"/>
       <c r="M18" s="48"/>
       <c r="N18" s="48"/>
       <c r="O18" s="48"/>
@@ -27688,11 +27725,11 @@
       <c r="I19" s="151">
         <v>1</v>
       </c>
-      <c r="J19" s="244" t="s">
+      <c r="J19" s="243" t="s">
         <v>337</v>
       </c>
-      <c r="K19" s="254"/>
-      <c r="L19" s="243"/>
+      <c r="K19" s="244"/>
+      <c r="L19" s="245"/>
       <c r="M19" s="48"/>
       <c r="N19" s="48"/>
       <c r="O19" s="48"/>
@@ -27721,11 +27758,11 @@
       <c r="I20" s="153" t="s">
         <v>215</v>
       </c>
-      <c r="J20" s="244" t="s">
+      <c r="J20" s="243" t="s">
         <v>202</v>
       </c>
-      <c r="K20" s="254"/>
-      <c r="L20" s="243"/>
+      <c r="K20" s="244"/>
+      <c r="L20" s="245"/>
       <c r="M20" s="48"/>
       <c r="N20" s="48"/>
       <c r="O20" s="48"/>
@@ -27887,11 +27924,11 @@
     </row>
     <row r="30" spans="1:15" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="51"/>
-      <c r="B30" s="252" t="s">
+      <c r="B30" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="252"/>
-      <c r="D30" s="252"/>
+      <c r="C30" s="253"/>
+      <c r="D30" s="253"/>
       <c r="E30" s="67"/>
       <c r="F30" s="68"/>
       <c r="G30" s="67"/>
@@ -27906,12 +27943,12 @@
     </row>
     <row r="31" spans="1:15" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="70"/>
-      <c r="B31" s="248" t="s">
+      <c r="B31" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="249"/>
-      <c r="D31" s="249"/>
-      <c r="E31" s="250"/>
+      <c r="C31" s="250"/>
+      <c r="D31" s="250"/>
+      <c r="E31" s="251"/>
       <c r="F31" s="59" t="s">
         <v>90</v>
       </c>
@@ -28003,10 +28040,10 @@
       <c r="A34" s="48"/>
       <c r="B34" s="72"/>
       <c r="C34" s="77"/>
-      <c r="D34" s="244" t="s">
+      <c r="D34" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E34" s="243"/>
+      <c r="E34" s="245"/>
       <c r="F34" s="61" t="s">
         <v>190</v>
       </c>
@@ -28036,10 +28073,10 @@
       <c r="A35" s="48"/>
       <c r="B35" s="72"/>
       <c r="C35" s="78"/>
-      <c r="D35" s="244" t="s">
+      <c r="D35" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E35" s="243"/>
+      <c r="E35" s="245"/>
       <c r="F35" s="61" t="s">
         <v>129</v>
       </c>
@@ -28102,10 +28139,10 @@
       <c r="A37" s="48"/>
       <c r="B37" s="72"/>
       <c r="C37" s="79"/>
-      <c r="D37" s="244" t="s">
+      <c r="D37" s="243" t="s">
         <v>299</v>
       </c>
-      <c r="E37" s="243"/>
+      <c r="E37" s="245"/>
       <c r="F37" s="61" t="s">
         <v>300</v>
       </c>
@@ -28135,8 +28172,8 @@
       <c r="A38" s="48"/>
       <c r="B38" s="83"/>
       <c r="C38" s="78"/>
-      <c r="D38" s="244"/>
-      <c r="E38" s="243"/>
+      <c r="D38" s="243"/>
+      <c r="E38" s="245"/>
       <c r="F38" s="61"/>
       <c r="G38" s="63"/>
       <c r="H38" s="63"/>
@@ -28392,12 +28429,12 @@
     </row>
     <row r="53" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A53" s="70"/>
-      <c r="B53" s="248" t="s">
+      <c r="B53" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="249"/>
-      <c r="D53" s="249"/>
-      <c r="E53" s="250"/>
+      <c r="C53" s="250"/>
+      <c r="D53" s="250"/>
+      <c r="E53" s="251"/>
       <c r="F53" s="59" t="s">
         <v>90</v>
       </c>
@@ -28489,10 +28526,10 @@
       <c r="A56" s="48"/>
       <c r="B56" s="72"/>
       <c r="C56" s="77"/>
-      <c r="D56" s="244" t="s">
+      <c r="D56" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E56" s="243"/>
+      <c r="E56" s="245"/>
       <c r="F56" s="61" t="s">
         <v>190</v>
       </c>
@@ -28522,10 +28559,10 @@
       <c r="A57" s="48"/>
       <c r="B57" s="72"/>
       <c r="C57" s="77"/>
-      <c r="D57" s="242" t="s">
+      <c r="D57" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E57" s="243"/>
+      <c r="E57" s="245"/>
       <c r="F57" s="61" t="s">
         <v>149</v>
       </c>
@@ -28911,28 +28948,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D37:E37"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="J20:L20"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D38:E38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I16" r:id="rId1" display="foo@mulodo.com"/>
@@ -28946,7 +28983,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -29030,12 +29069,12 @@
       <c r="C4" s="268" t="s">
         <v>347</v>
       </c>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="243"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -29051,12 +29090,12 @@
       <c r="C5" s="268" t="s">
         <v>347</v>
       </c>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="243"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -29070,7 +29109,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="156" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="91"/>
@@ -29093,12 +29132,12 @@
       <c r="C7" s="268" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="254"/>
-      <c r="I7" s="243"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -29132,15 +29171,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="244" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="254"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="254"/>
-      <c r="I9" s="243"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -29203,19 +29242,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="255" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="256"/>
-      <c r="K13" s="256"/>
-      <c r="L13" s="257"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -29244,11 +29283,11 @@
       <c r="I14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="253" t="s">
+      <c r="J14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="253"/>
-      <c r="L14" s="253"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -29277,11 +29316,11 @@
       <c r="I15" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="J15" s="251" t="s">
+      <c r="J15" s="252" t="s">
         <v>324</v>
       </c>
-      <c r="K15" s="251"/>
-      <c r="L15" s="251"/>
+      <c r="K15" s="252"/>
+      <c r="L15" s="252"/>
       <c r="M15" s="48"/>
       <c r="N15" s="48"/>
       <c r="O15" s="48"/>
@@ -29310,11 +29349,11 @@
       <c r="I16" s="64" t="s">
         <v>341</v>
       </c>
-      <c r="J16" s="251" t="s">
+      <c r="J16" s="252" t="s">
         <v>340</v>
       </c>
-      <c r="K16" s="251"/>
-      <c r="L16" s="251"/>
+      <c r="K16" s="252"/>
+      <c r="L16" s="252"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -29376,11 +29415,11 @@
       <c r="I18" s="62" t="s">
         <v>332</v>
       </c>
-      <c r="J18" s="244" t="s">
+      <c r="J18" s="243" t="s">
         <v>333</v>
       </c>
-      <c r="K18" s="254"/>
-      <c r="L18" s="243"/>
+      <c r="K18" s="244"/>
+      <c r="L18" s="245"/>
       <c r="M18" s="48"/>
       <c r="N18" s="48"/>
       <c r="O18" s="48"/>
@@ -29409,11 +29448,11 @@
       <c r="I19" s="151">
         <v>1</v>
       </c>
-      <c r="J19" s="244" t="s">
+      <c r="J19" s="243" t="s">
         <v>337</v>
       </c>
-      <c r="K19" s="254"/>
-      <c r="L19" s="243"/>
+      <c r="K19" s="244"/>
+      <c r="L19" s="245"/>
       <c r="M19" s="48"/>
       <c r="N19" s="48"/>
       <c r="O19" s="48"/>
@@ -29442,11 +29481,11 @@
       <c r="I20" s="153" t="s">
         <v>215</v>
       </c>
-      <c r="J20" s="244" t="s">
+      <c r="J20" s="243" t="s">
         <v>142</v>
       </c>
-      <c r="K20" s="254"/>
-      <c r="L20" s="243"/>
+      <c r="K20" s="244"/>
+      <c r="L20" s="245"/>
       <c r="M20" s="48"/>
       <c r="N20" s="48"/>
       <c r="O20" s="48"/>
@@ -29608,11 +29647,11 @@
     </row>
     <row r="30" spans="1:15" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="51"/>
-      <c r="B30" s="252" t="s">
+      <c r="B30" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="252"/>
-      <c r="D30" s="252"/>
+      <c r="C30" s="253"/>
+      <c r="D30" s="253"/>
       <c r="E30" s="67"/>
       <c r="F30" s="68"/>
       <c r="G30" s="67"/>
@@ -29627,12 +29666,12 @@
     </row>
     <row r="31" spans="1:15" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="70"/>
-      <c r="B31" s="248" t="s">
+      <c r="B31" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="249"/>
-      <c r="D31" s="249"/>
-      <c r="E31" s="250"/>
+      <c r="C31" s="250"/>
+      <c r="D31" s="250"/>
+      <c r="E31" s="251"/>
       <c r="F31" s="92" t="s">
         <v>90</v>
       </c>
@@ -29724,10 +29763,10 @@
       <c r="A34" s="48"/>
       <c r="B34" s="72"/>
       <c r="C34" s="77"/>
-      <c r="D34" s="244" t="s">
+      <c r="D34" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E34" s="243"/>
+      <c r="E34" s="245"/>
       <c r="F34" s="61" t="s">
         <v>190</v>
       </c>
@@ -29757,10 +29796,10 @@
       <c r="A35" s="48"/>
       <c r="B35" s="72"/>
       <c r="C35" s="78"/>
-      <c r="D35" s="244" t="s">
+      <c r="D35" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E35" s="243"/>
+      <c r="E35" s="245"/>
       <c r="F35" s="61" t="s">
         <v>129</v>
       </c>
@@ -29823,10 +29862,10 @@
       <c r="A37" s="48"/>
       <c r="B37" s="72"/>
       <c r="C37" s="79"/>
-      <c r="D37" s="244" t="s">
+      <c r="D37" s="243" t="s">
         <v>299</v>
       </c>
-      <c r="E37" s="243"/>
+      <c r="E37" s="245"/>
       <c r="F37" s="61" t="s">
         <v>300</v>
       </c>
@@ -29856,8 +29895,8 @@
       <c r="A38" s="48"/>
       <c r="B38" s="83"/>
       <c r="C38" s="78"/>
-      <c r="D38" s="244"/>
-      <c r="E38" s="243"/>
+      <c r="D38" s="243"/>
+      <c r="E38" s="245"/>
       <c r="F38" s="61"/>
       <c r="G38" s="63"/>
       <c r="H38" s="63"/>
@@ -30113,12 +30152,12 @@
     </row>
     <row r="53" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A53" s="70"/>
-      <c r="B53" s="248" t="s">
+      <c r="B53" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="249"/>
-      <c r="D53" s="249"/>
-      <c r="E53" s="250"/>
+      <c r="C53" s="250"/>
+      <c r="D53" s="250"/>
+      <c r="E53" s="251"/>
       <c r="F53" s="92" t="s">
         <v>90</v>
       </c>
@@ -30210,10 +30249,10 @@
       <c r="A56" s="48"/>
       <c r="B56" s="72"/>
       <c r="C56" s="77"/>
-      <c r="D56" s="244" t="s">
+      <c r="D56" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E56" s="243"/>
+      <c r="E56" s="245"/>
       <c r="F56" s="61" t="s">
         <v>190</v>
       </c>
@@ -30243,10 +30282,10 @@
       <c r="A57" s="48"/>
       <c r="B57" s="72"/>
       <c r="C57" s="77"/>
-      <c r="D57" s="242" t="s">
+      <c r="D57" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E57" s="243"/>
+      <c r="E57" s="245"/>
       <c r="F57" s="61" t="s">
         <v>149</v>
       </c>
@@ -30649,6 +30688,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C7:I7"/>
@@ -30665,12 +30710,6 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="D56:E56"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I16" r:id="rId1" display="foo@mulodo.com"/>
@@ -30684,7 +30723,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -30768,12 +30809,12 @@
       <c r="C4" s="268" t="s">
         <v>352</v>
       </c>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="243"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -30789,12 +30830,12 @@
       <c r="C5" s="268" t="s">
         <v>352</v>
       </c>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="243"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -30808,7 +30849,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="156" t="s">
-        <v>421</v>
+        <v>451</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="91"/>
@@ -30831,12 +30872,12 @@
       <c r="C7" s="268" t="s">
         <v>353</v>
       </c>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="254"/>
-      <c r="I7" s="243"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -30870,15 +30911,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="244" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="254"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="254"/>
-      <c r="I9" s="243"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -30941,19 +30982,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="255" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="256"/>
-      <c r="K13" s="256"/>
-      <c r="L13" s="257"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -30982,11 +31023,11 @@
       <c r="I14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="253" t="s">
+      <c r="J14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="253"/>
-      <c r="L14" s="253"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -31015,11 +31056,11 @@
       <c r="I15" s="160" t="s">
         <v>354</v>
       </c>
-      <c r="J15" s="263" t="s">
+      <c r="J15" s="265" t="s">
         <v>142</v>
       </c>
-      <c r="K15" s="251"/>
-      <c r="L15" s="251"/>
+      <c r="K15" s="252"/>
+      <c r="L15" s="252"/>
       <c r="M15" s="48"/>
       <c r="N15" s="48"/>
       <c r="O15" s="48"/>
@@ -31181,11 +31222,11 @@
     </row>
     <row r="25" spans="1:15" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="51"/>
-      <c r="B25" s="252" t="s">
+      <c r="B25" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="252"/>
-      <c r="D25" s="252"/>
+      <c r="C25" s="253"/>
+      <c r="D25" s="253"/>
       <c r="E25" s="67"/>
       <c r="F25" s="68"/>
       <c r="G25" s="67"/>
@@ -31200,12 +31241,12 @@
     </row>
     <row r="26" spans="1:15" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="70"/>
-      <c r="B26" s="248" t="s">
+      <c r="B26" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="249"/>
-      <c r="D26" s="249"/>
-      <c r="E26" s="250"/>
+      <c r="C26" s="250"/>
+      <c r="D26" s="250"/>
+      <c r="E26" s="251"/>
       <c r="F26" s="92" t="s">
         <v>90</v>
       </c>
@@ -31297,10 +31338,10 @@
       <c r="A29" s="48"/>
       <c r="B29" s="72"/>
       <c r="C29" s="77"/>
-      <c r="D29" s="244" t="s">
+      <c r="D29" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E29" s="243"/>
+      <c r="E29" s="245"/>
       <c r="F29" s="61" t="s">
         <v>190</v>
       </c>
@@ -31330,10 +31371,10 @@
       <c r="A30" s="48"/>
       <c r="B30" s="72"/>
       <c r="C30" s="78"/>
-      <c r="D30" s="244" t="s">
+      <c r="D30" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E30" s="243"/>
+      <c r="E30" s="245"/>
       <c r="F30" s="61" t="s">
         <v>129</v>
       </c>
@@ -31396,8 +31437,8 @@
       <c r="A32" s="48"/>
       <c r="B32" s="83"/>
       <c r="C32" s="78"/>
-      <c r="D32" s="244"/>
-      <c r="E32" s="243"/>
+      <c r="D32" s="243"/>
+      <c r="E32" s="245"/>
       <c r="F32" s="61"/>
       <c r="G32" s="63"/>
       <c r="H32" s="63"/>
@@ -31670,12 +31711,12 @@
     </row>
     <row r="48" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A48" s="70"/>
-      <c r="B48" s="248" t="s">
+      <c r="B48" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="249"/>
-      <c r="D48" s="249"/>
-      <c r="E48" s="250"/>
+      <c r="C48" s="250"/>
+      <c r="D48" s="250"/>
+      <c r="E48" s="251"/>
       <c r="F48" s="92" t="s">
         <v>90</v>
       </c>
@@ -31767,10 +31808,10 @@
       <c r="A51" s="48"/>
       <c r="B51" s="72"/>
       <c r="C51" s="77"/>
-      <c r="D51" s="244" t="s">
+      <c r="D51" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="243"/>
+      <c r="E51" s="245"/>
       <c r="F51" s="61" t="s">
         <v>190</v>
       </c>
@@ -31800,10 +31841,10 @@
       <c r="A52" s="48"/>
       <c r="B52" s="72"/>
       <c r="C52" s="77"/>
-      <c r="D52" s="242" t="s">
+      <c r="D52" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E52" s="243"/>
+      <c r="E52" s="245"/>
       <c r="F52" s="61" t="s">
         <v>149</v>
       </c>
@@ -32206,12 +32247,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D32:E32"/>
@@ -32222,6 +32257,12 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B48:E48"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -32235,7 +32276,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -32321,12 +32364,12 @@
       <c r="C4" s="268" t="s">
         <v>355</v>
       </c>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="243"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -32342,12 +32385,12 @@
       <c r="C5" s="268" t="s">
         <v>355</v>
       </c>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="243"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -32361,7 +32404,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="156" t="s">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="91"/>
@@ -32384,12 +32427,12 @@
       <c r="C7" s="268" t="s">
         <v>356</v>
       </c>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="254"/>
-      <c r="I7" s="243"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -32423,15 +32466,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="244" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="254"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="254"/>
-      <c r="I9" s="243"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -32494,19 +32537,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="255" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="256"/>
-      <c r="K13" s="256"/>
-      <c r="L13" s="257"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -32535,11 +32578,11 @@
       <c r="I14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="253" t="s">
+      <c r="J14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="253"/>
-      <c r="L14" s="253"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -32548,29 +32591,29 @@
       <c r="A15" s="48"/>
       <c r="B15" s="60"/>
       <c r="C15" s="157" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D15" s="158" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E15" s="159" t="s">
         <v>336</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="159" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H15" s="159" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="I15" s="160" t="s">
-        <v>433</v>
-      </c>
-      <c r="J15" s="263" t="s">
-        <v>434</v>
-      </c>
-      <c r="K15" s="251"/>
-      <c r="L15" s="251"/>
+        <v>428</v>
+      </c>
+      <c r="J15" s="265" t="s">
+        <v>429</v>
+      </c>
+      <c r="K15" s="252"/>
+      <c r="L15" s="252"/>
       <c r="M15" s="48"/>
       <c r="N15" s="48"/>
       <c r="O15" s="48"/>
@@ -32579,29 +32622,29 @@
       <c r="A16" s="48"/>
       <c r="B16" s="60"/>
       <c r="C16" s="157" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D16" s="158" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E16" s="159" t="s">
         <v>336</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="159" t="s">
+        <v>427</v>
+      </c>
+      <c r="H16" s="159" t="s">
         <v>432</v>
       </c>
-      <c r="H16" s="159" t="s">
-        <v>437</v>
-      </c>
       <c r="I16" s="160" t="s">
-        <v>438</v>
-      </c>
-      <c r="J16" s="263" t="s">
-        <v>439</v>
-      </c>
-      <c r="K16" s="251"/>
-      <c r="L16" s="251"/>
+        <v>433</v>
+      </c>
+      <c r="J16" s="265" t="s">
+        <v>434</v>
+      </c>
+      <c r="K16" s="252"/>
+      <c r="L16" s="252"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -32610,26 +32653,26 @@
       <c r="A17" s="48"/>
       <c r="B17" s="60"/>
       <c r="C17" s="157" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D17" s="158" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E17" s="159" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="159" t="s">
+        <v>427</v>
+      </c>
+      <c r="H17" s="159" t="s">
         <v>432</v>
       </c>
-      <c r="H17" s="159" t="s">
-        <v>437</v>
-      </c>
       <c r="I17" s="160" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="J17" s="167" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="K17" s="166"/>
       <c r="L17" s="165"/>
@@ -32647,9 +32690,9 @@
       <c r="G18" s="63"/>
       <c r="H18" s="63"/>
       <c r="I18" s="162"/>
-      <c r="J18" s="244"/>
-      <c r="K18" s="254"/>
-      <c r="L18" s="243"/>
+      <c r="J18" s="243"/>
+      <c r="K18" s="244"/>
+      <c r="L18" s="245"/>
       <c r="M18" s="48"/>
       <c r="N18" s="48"/>
       <c r="O18" s="48"/>
@@ -32811,11 +32854,11 @@
     </row>
     <row r="28" spans="1:17" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="51"/>
-      <c r="B28" s="252" t="s">
+      <c r="B28" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="252"/>
-      <c r="D28" s="252"/>
+      <c r="C28" s="253"/>
+      <c r="D28" s="253"/>
       <c r="E28" s="67"/>
       <c r="F28" s="68"/>
       <c r="G28" s="67"/>
@@ -32830,14 +32873,14 @@
     </row>
     <row r="29" spans="1:17" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A29" s="70"/>
-      <c r="B29" s="248" t="s">
+      <c r="B29" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="249"/>
-      <c r="D29" s="249"/>
-      <c r="E29" s="249"/>
-      <c r="F29" s="249"/>
-      <c r="G29" s="250"/>
+      <c r="C29" s="250"/>
+      <c r="D29" s="250"/>
+      <c r="E29" s="250"/>
+      <c r="F29" s="250"/>
+      <c r="G29" s="251"/>
       <c r="H29" s="92" t="s">
         <v>90</v>
       </c>
@@ -32872,7 +32915,7 @@
       <c r="D30" s="73"/>
       <c r="E30" s="149"/>
       <c r="F30" s="271"/>
-      <c r="G30" s="246"/>
+      <c r="G30" s="256"/>
       <c r="H30" s="63" t="s">
         <v>118</v>
       </c>
@@ -32905,7 +32948,7 @@
       <c r="D31" s="76"/>
       <c r="E31" s="149"/>
       <c r="F31" s="271"/>
-      <c r="G31" s="246"/>
+      <c r="G31" s="256"/>
       <c r="H31" s="61" t="s">
         <v>125</v>
       </c>
@@ -32937,8 +32980,8 @@
         <v>167</v>
       </c>
       <c r="E32" s="149"/>
-      <c r="F32" s="254"/>
-      <c r="G32" s="243"/>
+      <c r="F32" s="244"/>
+      <c r="G32" s="245"/>
       <c r="H32" s="61" t="s">
         <v>190</v>
       </c>
@@ -32972,8 +33015,8 @@
         <v>128</v>
       </c>
       <c r="E33" s="149"/>
-      <c r="F33" s="254"/>
-      <c r="G33" s="243"/>
+      <c r="F33" s="244"/>
+      <c r="G33" s="245"/>
       <c r="H33" s="61" t="s">
         <v>129</v>
       </c>
@@ -33009,8 +33052,8 @@
         <v>42</v>
       </c>
       <c r="E34" s="149"/>
-      <c r="F34" s="254"/>
-      <c r="G34" s="243"/>
+      <c r="F34" s="244"/>
+      <c r="G34" s="245"/>
       <c r="H34" s="61" t="s">
         <v>297</v>
       </c>
@@ -33038,8 +33081,8 @@
       <c r="E35" s="89" t="s">
         <v>299</v>
       </c>
-      <c r="F35" s="254"/>
-      <c r="G35" s="243"/>
+      <c r="F35" s="244"/>
+      <c r="G35" s="245"/>
       <c r="H35" s="61" t="s">
         <v>300</v>
       </c>
@@ -33073,8 +33116,8 @@
       <c r="E36" s="89" t="s">
         <v>305</v>
       </c>
-      <c r="F36" s="254"/>
-      <c r="G36" s="243"/>
+      <c r="F36" s="244"/>
+      <c r="G36" s="245"/>
       <c r="H36" s="61" t="s">
         <v>306</v>
       </c>
@@ -33108,8 +33151,8 @@
       <c r="E37" s="89" t="s">
         <v>310</v>
       </c>
-      <c r="F37" s="254"/>
-      <c r="G37" s="243"/>
+      <c r="F37" s="244"/>
+      <c r="G37" s="245"/>
       <c r="H37" s="61" t="s">
         <v>311</v>
       </c>
@@ -33143,8 +33186,8 @@
       <c r="E38" s="89" t="s">
         <v>308</v>
       </c>
-      <c r="F38" s="254"/>
-      <c r="G38" s="243"/>
+      <c r="F38" s="244"/>
+      <c r="G38" s="245"/>
       <c r="H38" s="61" t="s">
         <v>313</v>
       </c>
@@ -33178,8 +33221,8 @@
       <c r="E39" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="F39" s="254"/>
-      <c r="G39" s="243"/>
+      <c r="F39" s="244"/>
+      <c r="G39" s="245"/>
       <c r="H39" s="61" t="s">
         <v>194</v>
       </c>
@@ -33265,10 +33308,10 @@
       <c r="C42" s="72"/>
       <c r="D42" s="72"/>
       <c r="E42" s="79"/>
-      <c r="F42" s="244" t="s">
+      <c r="F42" s="243" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="243"/>
+      <c r="G42" s="245"/>
       <c r="H42" s="61" t="s">
         <v>98</v>
       </c>
@@ -33298,10 +33341,10 @@
       <c r="C43" s="72"/>
       <c r="D43" s="269"/>
       <c r="E43" s="66"/>
-      <c r="F43" s="244" t="s">
+      <c r="F43" s="243" t="s">
         <v>109</v>
       </c>
-      <c r="G43" s="243"/>
+      <c r="G43" s="245"/>
       <c r="H43" s="61" t="s">
         <v>110</v>
       </c>
@@ -33331,10 +33374,10 @@
       <c r="C44" s="72"/>
       <c r="D44" s="269"/>
       <c r="E44" s="66"/>
-      <c r="F44" s="244" t="s">
+      <c r="F44" s="243" t="s">
         <v>112</v>
       </c>
-      <c r="G44" s="243"/>
+      <c r="G44" s="245"/>
       <c r="H44" s="61" t="s">
         <v>113</v>
       </c>
@@ -33958,12 +34001,12 @@
     </row>
     <row r="79" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A79" s="70"/>
-      <c r="B79" s="248" t="s">
+      <c r="B79" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C79" s="249"/>
-      <c r="D79" s="249"/>
-      <c r="E79" s="250"/>
+      <c r="C79" s="250"/>
+      <c r="D79" s="250"/>
+      <c r="E79" s="251"/>
       <c r="F79" s="92" t="s">
         <v>90</v>
       </c>
@@ -34055,10 +34098,10 @@
       <c r="A82" s="48"/>
       <c r="B82" s="72"/>
       <c r="C82" s="77"/>
-      <c r="D82" s="244" t="s">
+      <c r="D82" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E82" s="243"/>
+      <c r="E82" s="245"/>
       <c r="F82" s="61" t="s">
         <v>190</v>
       </c>
@@ -34088,10 +34131,10 @@
       <c r="A83" s="48"/>
       <c r="B83" s="72"/>
       <c r="C83" s="77"/>
-      <c r="D83" s="242" t="s">
+      <c r="D83" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E83" s="243"/>
+      <c r="E83" s="245"/>
       <c r="F83" s="61" t="s">
         <v>149</v>
       </c>
@@ -34477,20 +34520,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J15:L15"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="B79:E79"/>
     <mergeCell ref="D82:E82"/>
@@ -34507,6 +34536,20 @@
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J15:L15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -34522,7 +34565,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q120"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -34603,15 +34648,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="244" t="s">
+      <c r="C4" s="243" t="s">
         <v>363</v>
       </c>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="243"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -34624,15 +34669,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="244" t="s">
+      <c r="C5" s="243" t="s">
         <v>363</v>
       </c>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="243"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -34646,7 +34691,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="91"/>
@@ -34666,15 +34711,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="244" t="s">
+      <c r="C7" s="243" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="254"/>
-      <c r="I7" s="243"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -34708,15 +34753,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="244" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="254"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="254"/>
-      <c r="I9" s="243"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -34779,19 +34824,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="255" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="256"/>
-      <c r="K13" s="256"/>
-      <c r="L13" s="257"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -34820,11 +34865,11 @@
       <c r="I14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="253" t="s">
+      <c r="J14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="253"/>
-      <c r="L14" s="253"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -34864,29 +34909,29 @@
       <c r="A16" s="48"/>
       <c r="B16" s="60"/>
       <c r="C16" s="157" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D16" s="158" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E16" s="159" t="s">
         <v>336</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="159" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H16" s="159" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="I16" s="160" t="s">
-        <v>433</v>
-      </c>
-      <c r="J16" s="263" t="s">
-        <v>434</v>
-      </c>
-      <c r="K16" s="251"/>
-      <c r="L16" s="251"/>
+        <v>428</v>
+      </c>
+      <c r="J16" s="265" t="s">
+        <v>429</v>
+      </c>
+      <c r="K16" s="252"/>
+      <c r="L16" s="252"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -34895,29 +34940,29 @@
       <c r="A17" s="48"/>
       <c r="B17" s="60"/>
       <c r="C17" s="157" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D17" s="158" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E17" s="159" t="s">
         <v>336</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="159" t="s">
+        <v>427</v>
+      </c>
+      <c r="H17" s="159" t="s">
         <v>432</v>
       </c>
-      <c r="H17" s="159" t="s">
-        <v>437</v>
-      </c>
       <c r="I17" s="160" t="s">
-        <v>438</v>
-      </c>
-      <c r="J17" s="263" t="s">
-        <v>439</v>
-      </c>
-      <c r="K17" s="251"/>
-      <c r="L17" s="251"/>
+        <v>433</v>
+      </c>
+      <c r="J17" s="265" t="s">
+        <v>434</v>
+      </c>
+      <c r="K17" s="252"/>
+      <c r="L17" s="252"/>
       <c r="M17" s="48"/>
       <c r="N17" s="48"/>
       <c r="O17" s="48"/>
@@ -34926,26 +34971,26 @@
       <c r="A18" s="48"/>
       <c r="B18" s="60"/>
       <c r="C18" s="157" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D18" s="158" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E18" s="159" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="159" t="s">
+        <v>427</v>
+      </c>
+      <c r="H18" s="159" t="s">
         <v>432</v>
       </c>
-      <c r="H18" s="159" t="s">
-        <v>437</v>
-      </c>
       <c r="I18" s="160" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="J18" s="167" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="K18" s="166"/>
       <c r="L18" s="165"/>
@@ -34963,9 +35008,9 @@
       <c r="G19" s="63"/>
       <c r="H19" s="63"/>
       <c r="I19" s="162"/>
-      <c r="J19" s="244"/>
-      <c r="K19" s="254"/>
-      <c r="L19" s="243"/>
+      <c r="J19" s="243"/>
+      <c r="K19" s="244"/>
+      <c r="L19" s="245"/>
       <c r="M19" s="48"/>
       <c r="N19" s="48"/>
       <c r="O19" s="48"/>
@@ -35127,11 +35172,11 @@
     </row>
     <row r="29" spans="1:15" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="51"/>
-      <c r="B29" s="252" t="s">
+      <c r="B29" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="252"/>
-      <c r="D29" s="252"/>
+      <c r="C29" s="253"/>
+      <c r="D29" s="253"/>
       <c r="E29" s="67"/>
       <c r="F29" s="68"/>
       <c r="G29" s="67"/>
@@ -35146,12 +35191,12 @@
     </row>
     <row r="30" spans="1:15" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="70"/>
-      <c r="B30" s="248" t="s">
+      <c r="B30" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="249"/>
-      <c r="D30" s="249"/>
-      <c r="E30" s="250"/>
+      <c r="C30" s="250"/>
+      <c r="D30" s="250"/>
+      <c r="E30" s="251"/>
       <c r="F30" s="92" t="s">
         <v>90</v>
       </c>
@@ -35243,10 +35288,10 @@
       <c r="A33" s="48"/>
       <c r="B33" s="72"/>
       <c r="C33" s="77"/>
-      <c r="D33" s="244" t="s">
+      <c r="D33" s="243" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="243"/>
+      <c r="E33" s="245"/>
       <c r="F33" s="61" t="s">
         <v>349</v>
       </c>
@@ -35276,10 +35321,10 @@
       <c r="A34" s="48"/>
       <c r="B34" s="72"/>
       <c r="C34" s="78"/>
-      <c r="D34" s="244" t="s">
+      <c r="D34" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="243"/>
+      <c r="E34" s="245"/>
       <c r="F34" s="61" t="s">
         <v>129</v>
       </c>
@@ -35342,10 +35387,10 @@
       <c r="A36" s="48"/>
       <c r="B36" s="72"/>
       <c r="C36" s="79"/>
-      <c r="D36" s="244" t="s">
+      <c r="D36" s="243" t="s">
         <v>358</v>
       </c>
-      <c r="E36" s="243"/>
+      <c r="E36" s="245"/>
       <c r="F36" s="61" t="s">
         <v>359</v>
       </c>
@@ -35375,10 +35420,10 @@
       <c r="A37" s="48"/>
       <c r="B37" s="72"/>
       <c r="C37" s="79"/>
-      <c r="D37" s="245" t="s">
+      <c r="D37" s="255" t="s">
         <v>321</v>
       </c>
-      <c r="E37" s="246"/>
+      <c r="E37" s="256"/>
       <c r="F37" s="61" t="s">
         <v>322</v>
       </c>
@@ -35408,10 +35453,10 @@
       <c r="A38" s="48"/>
       <c r="B38" s="72"/>
       <c r="C38" s="77"/>
-      <c r="D38" s="244" t="s">
+      <c r="D38" s="243" t="s">
         <v>361</v>
       </c>
-      <c r="E38" s="243"/>
+      <c r="E38" s="245"/>
       <c r="F38" s="61" t="s">
         <v>238</v>
       </c>
@@ -35491,8 +35536,8 @@
       <c r="A41" s="48"/>
       <c r="B41" s="83"/>
       <c r="C41" s="78"/>
-      <c r="D41" s="244"/>
-      <c r="E41" s="243"/>
+      <c r="D41" s="243"/>
+      <c r="E41" s="245"/>
       <c r="F41" s="61"/>
       <c r="G41" s="63"/>
       <c r="H41" s="63"/>
@@ -35523,11 +35568,11 @@
     </row>
     <row r="43" spans="1:17" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="51"/>
-      <c r="B43" s="252" t="s">
+      <c r="B43" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="252"/>
-      <c r="D43" s="252"/>
+      <c r="C43" s="253"/>
+      <c r="D43" s="253"/>
       <c r="E43" s="67"/>
       <c r="F43" s="68"/>
       <c r="G43" s="67"/>
@@ -35542,14 +35587,14 @@
     </row>
     <row r="44" spans="1:17" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A44" s="70"/>
-      <c r="B44" s="248" t="s">
+      <c r="B44" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="249"/>
-      <c r="D44" s="249"/>
-      <c r="E44" s="249"/>
-      <c r="F44" s="249"/>
-      <c r="G44" s="250"/>
+      <c r="C44" s="250"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="251"/>
       <c r="H44" s="92" t="s">
         <v>90</v>
       </c>
@@ -35584,7 +35629,7 @@
       <c r="D45" s="73"/>
       <c r="E45" s="149"/>
       <c r="F45" s="271"/>
-      <c r="G45" s="246"/>
+      <c r="G45" s="256"/>
       <c r="H45" s="63" t="s">
         <v>118</v>
       </c>
@@ -35617,7 +35662,7 @@
       <c r="D46" s="76"/>
       <c r="E46" s="149"/>
       <c r="F46" s="271"/>
-      <c r="G46" s="246"/>
+      <c r="G46" s="256"/>
       <c r="H46" s="61" t="s">
         <v>125</v>
       </c>
@@ -35649,8 +35694,8 @@
         <v>167</v>
       </c>
       <c r="E47" s="149"/>
-      <c r="F47" s="254"/>
-      <c r="G47" s="243"/>
+      <c r="F47" s="244"/>
+      <c r="G47" s="245"/>
       <c r="H47" s="61" t="s">
         <v>190</v>
       </c>
@@ -35684,8 +35729,8 @@
         <v>128</v>
       </c>
       <c r="E48" s="149"/>
-      <c r="F48" s="254"/>
-      <c r="G48" s="243"/>
+      <c r="F48" s="244"/>
+      <c r="G48" s="245"/>
       <c r="H48" s="61" t="s">
         <v>129</v>
       </c>
@@ -35721,8 +35766,8 @@
         <v>42</v>
       </c>
       <c r="E49" s="149"/>
-      <c r="F49" s="254"/>
-      <c r="G49" s="243"/>
+      <c r="F49" s="244"/>
+      <c r="G49" s="245"/>
       <c r="H49" s="61" t="s">
         <v>297</v>
       </c>
@@ -35750,8 +35795,8 @@
       <c r="E50" s="89" t="s">
         <v>299</v>
       </c>
-      <c r="F50" s="254"/>
-      <c r="G50" s="243"/>
+      <c r="F50" s="244"/>
+      <c r="G50" s="245"/>
       <c r="H50" s="61" t="s">
         <v>300</v>
       </c>
@@ -35785,8 +35830,8 @@
       <c r="E51" s="89" t="s">
         <v>305</v>
       </c>
-      <c r="F51" s="254"/>
-      <c r="G51" s="243"/>
+      <c r="F51" s="244"/>
+      <c r="G51" s="245"/>
       <c r="H51" s="61" t="s">
         <v>306</v>
       </c>
@@ -35820,8 +35865,8 @@
       <c r="E52" s="89" t="s">
         <v>310</v>
       </c>
-      <c r="F52" s="254"/>
-      <c r="G52" s="243"/>
+      <c r="F52" s="244"/>
+      <c r="G52" s="245"/>
       <c r="H52" s="61" t="s">
         <v>311</v>
       </c>
@@ -35855,8 +35900,8 @@
       <c r="E53" s="89" t="s">
         <v>308</v>
       </c>
-      <c r="F53" s="254"/>
-      <c r="G53" s="243"/>
+      <c r="F53" s="244"/>
+      <c r="G53" s="245"/>
       <c r="H53" s="61" t="s">
         <v>313</v>
       </c>
@@ -35890,8 +35935,8 @@
       <c r="E54" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="F54" s="254"/>
-      <c r="G54" s="243"/>
+      <c r="F54" s="244"/>
+      <c r="G54" s="245"/>
       <c r="H54" s="61" t="s">
         <v>194</v>
       </c>
@@ -35977,10 +36022,10 @@
       <c r="C57" s="72"/>
       <c r="D57" s="72"/>
       <c r="E57" s="79"/>
-      <c r="F57" s="244" t="s">
+      <c r="F57" s="243" t="s">
         <v>97</v>
       </c>
-      <c r="G57" s="243"/>
+      <c r="G57" s="245"/>
       <c r="H57" s="61" t="s">
         <v>98</v>
       </c>
@@ -36010,10 +36055,10 @@
       <c r="C58" s="72"/>
       <c r="D58" s="269"/>
       <c r="E58" s="66"/>
-      <c r="F58" s="244" t="s">
+      <c r="F58" s="243" t="s">
         <v>109</v>
       </c>
-      <c r="G58" s="243"/>
+      <c r="G58" s="245"/>
       <c r="H58" s="61" t="s">
         <v>110</v>
       </c>
@@ -36043,10 +36088,10 @@
       <c r="C59" s="72"/>
       <c r="D59" s="269"/>
       <c r="E59" s="66"/>
-      <c r="F59" s="244" t="s">
+      <c r="F59" s="243" t="s">
         <v>112</v>
       </c>
-      <c r="G59" s="243"/>
+      <c r="G59" s="245"/>
       <c r="H59" s="61" t="s">
         <v>113</v>
       </c>
@@ -36670,12 +36715,12 @@
     </row>
     <row r="94" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A94" s="70"/>
-      <c r="B94" s="248" t="s">
+      <c r="B94" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C94" s="249"/>
-      <c r="D94" s="249"/>
-      <c r="E94" s="250"/>
+      <c r="C94" s="250"/>
+      <c r="D94" s="250"/>
+      <c r="E94" s="251"/>
       <c r="F94" s="92" t="s">
         <v>90</v>
       </c>
@@ -36767,10 +36812,10 @@
       <c r="A97" s="48"/>
       <c r="B97" s="72"/>
       <c r="C97" s="77"/>
-      <c r="D97" s="244" t="s">
+      <c r="D97" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E97" s="243"/>
+      <c r="E97" s="245"/>
       <c r="F97" s="61" t="s">
         <v>190</v>
       </c>
@@ -36800,10 +36845,10 @@
       <c r="A98" s="48"/>
       <c r="B98" s="72"/>
       <c r="C98" s="77"/>
-      <c r="D98" s="242" t="s">
+      <c r="D98" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E98" s="243"/>
+      <c r="E98" s="245"/>
       <c r="F98" s="61" t="s">
         <v>149</v>
       </c>
@@ -37223,31 +37268,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:E94"/>
     <mergeCell ref="F54:G54"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:G44"/>
@@ -37261,6 +37281,31 @@
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="F52:G52"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J16:L16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I16" r:id="rId1" display="foo@mulodo.com"/>
@@ -37275,7 +37320,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -37354,14 +37401,14 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="244" t="s">
+      <c r="C4" s="243" t="s">
         <v>371</v>
       </c>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="243"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="245"/>
       <c r="I4" s="48"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
@@ -37374,14 +37421,14 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="244" t="s">
+      <c r="C5" s="243" t="s">
         <v>371</v>
       </c>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="243"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="245"/>
       <c r="I5" s="48"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
@@ -37395,7 +37442,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="91"/>
@@ -37414,14 +37461,14 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="244" t="s">
+      <c r="C7" s="243" t="s">
         <v>356</v>
       </c>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="243"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="245"/>
       <c r="I7" s="48"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
@@ -37454,14 +37501,14 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="244" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="254"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="243"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="245"/>
       <c r="I9" s="48"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
@@ -37521,18 +37568,18 @@
     </row>
     <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="255" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="256"/>
-      <c r="K13" s="257"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="248"/>
       <c r="L13" s="48"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
@@ -37558,11 +37605,11 @@
       <c r="H14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="253" t="s">
+      <c r="I14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="253"/>
-      <c r="K14" s="253"/>
+      <c r="J14" s="242"/>
+      <c r="K14" s="242"/>
       <c r="L14" s="48"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
@@ -37576,9 +37623,9 @@
       <c r="F15" s="63"/>
       <c r="G15" s="63"/>
       <c r="H15" s="162"/>
-      <c r="I15" s="244"/>
-      <c r="J15" s="254"/>
-      <c r="K15" s="243"/>
+      <c r="I15" s="243"/>
+      <c r="J15" s="244"/>
+      <c r="K15" s="245"/>
       <c r="L15" s="48"/>
       <c r="M15" s="48"/>
       <c r="N15" s="48"/>
@@ -37731,10 +37778,10 @@
     </row>
     <row r="25" spans="1:16" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="51"/>
-      <c r="B25" s="252" t="s">
+      <c r="B25" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="252"/>
+      <c r="C25" s="253"/>
       <c r="D25" s="67"/>
       <c r="E25" s="68"/>
       <c r="F25" s="67"/>
@@ -37749,13 +37796,13 @@
     </row>
     <row r="26" spans="1:16" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A26" s="70"/>
-      <c r="B26" s="248" t="s">
+      <c r="B26" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="249"/>
-      <c r="D26" s="249"/>
-      <c r="E26" s="249"/>
-      <c r="F26" s="250"/>
+      <c r="C26" s="250"/>
+      <c r="D26" s="250"/>
+      <c r="E26" s="250"/>
+      <c r="F26" s="251"/>
       <c r="G26" s="92" t="s">
         <v>90</v>
       </c>
@@ -37789,7 +37836,7 @@
       <c r="C27" s="73"/>
       <c r="D27" s="149"/>
       <c r="E27" s="271"/>
-      <c r="F27" s="246"/>
+      <c r="F27" s="256"/>
       <c r="G27" s="63" t="s">
         <v>118</v>
       </c>
@@ -37821,7 +37868,7 @@
       </c>
       <c r="D28" s="149"/>
       <c r="E28" s="271"/>
-      <c r="F28" s="246"/>
+      <c r="F28" s="256"/>
       <c r="G28" s="61" t="s">
         <v>125</v>
       </c>
@@ -37852,8 +37899,8 @@
       <c r="D29" s="149" t="s">
         <v>167</v>
       </c>
-      <c r="E29" s="254"/>
-      <c r="F29" s="243"/>
+      <c r="E29" s="244"/>
+      <c r="F29" s="245"/>
       <c r="G29" s="61" t="s">
         <v>190</v>
       </c>
@@ -37886,8 +37933,8 @@
       <c r="D30" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="E30" s="254"/>
-      <c r="F30" s="243"/>
+      <c r="E30" s="244"/>
+      <c r="F30" s="245"/>
       <c r="G30" s="61" t="s">
         <v>129</v>
       </c>
@@ -37920,8 +37967,8 @@
         <v>131</v>
       </c>
       <c r="D31" s="149"/>
-      <c r="E31" s="254"/>
-      <c r="F31" s="243"/>
+      <c r="E31" s="244"/>
+      <c r="F31" s="245"/>
       <c r="G31" s="61" t="s">
         <v>297</v>
       </c>
@@ -37948,8 +37995,8 @@
       <c r="D32" s="89" t="s">
         <v>299</v>
       </c>
-      <c r="E32" s="254"/>
-      <c r="F32" s="243"/>
+      <c r="E32" s="244"/>
+      <c r="F32" s="245"/>
       <c r="G32" s="61" t="s">
         <v>300</v>
       </c>
@@ -37982,8 +38029,8 @@
       <c r="D33" s="89" t="s">
         <v>310</v>
       </c>
-      <c r="E33" s="254"/>
-      <c r="F33" s="243"/>
+      <c r="E33" s="244"/>
+      <c r="F33" s="245"/>
       <c r="G33" s="61" t="s">
         <v>311</v>
       </c>
@@ -38016,8 +38063,8 @@
       <c r="D34" s="89" t="s">
         <v>305</v>
       </c>
-      <c r="E34" s="254"/>
-      <c r="F34" s="243"/>
+      <c r="E34" s="244"/>
+      <c r="F34" s="245"/>
       <c r="G34" s="61" t="s">
         <v>306</v>
       </c>
@@ -38050,8 +38097,8 @@
       <c r="D35" s="89" t="s">
         <v>372</v>
       </c>
-      <c r="E35" s="254"/>
-      <c r="F35" s="243"/>
+      <c r="E35" s="244"/>
+      <c r="F35" s="245"/>
       <c r="G35" s="61" t="s">
         <v>373</v>
       </c>
@@ -38084,8 +38131,8 @@
       <c r="D36" s="89" t="s">
         <v>308</v>
       </c>
-      <c r="E36" s="254"/>
-      <c r="F36" s="243"/>
+      <c r="E36" s="244"/>
+      <c r="F36" s="245"/>
       <c r="G36" s="61" t="s">
         <v>313</v>
       </c>
@@ -38118,8 +38165,8 @@
       <c r="D37" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="E37" s="254"/>
-      <c r="F37" s="243"/>
+      <c r="E37" s="244"/>
+      <c r="F37" s="245"/>
       <c r="G37" s="61" t="s">
         <v>194</v>
       </c>
@@ -38211,10 +38258,10 @@
       <c r="B40" s="72"/>
       <c r="C40" s="72"/>
       <c r="D40" s="79"/>
-      <c r="E40" s="244" t="s">
+      <c r="E40" s="243" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="243"/>
+      <c r="F40" s="245"/>
       <c r="G40" s="61" t="s">
         <v>98</v>
       </c>
@@ -38243,10 +38290,10 @@
       <c r="B41" s="72"/>
       <c r="C41" s="72"/>
       <c r="D41" s="79"/>
-      <c r="E41" s="244" t="s">
+      <c r="E41" s="243" t="s">
         <v>109</v>
       </c>
-      <c r="F41" s="243"/>
+      <c r="F41" s="245"/>
       <c r="G41" s="61" t="s">
         <v>110</v>
       </c>
@@ -38275,10 +38322,10 @@
       <c r="B42" s="72"/>
       <c r="C42" s="72"/>
       <c r="D42" s="79"/>
-      <c r="E42" s="244" t="s">
+      <c r="E42" s="243" t="s">
         <v>112</v>
       </c>
-      <c r="F42" s="243"/>
+      <c r="F42" s="245"/>
       <c r="G42" s="61" t="s">
         <v>113</v>
       </c>
@@ -38789,11 +38836,11 @@
     </row>
     <row r="72" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A72" s="70"/>
-      <c r="B72" s="248" t="s">
+      <c r="B72" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C72" s="249"/>
-      <c r="D72" s="250"/>
+      <c r="C72" s="250"/>
+      <c r="D72" s="251"/>
       <c r="E72" s="92" t="s">
         <v>90</v>
       </c>
@@ -39343,6 +39390,25 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
@@ -39350,25 +39416,6 @@
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="I14:K14"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -39379,7 +39426,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -39460,15 +39509,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="244" t="s">
+      <c r="C4" s="243" t="s">
         <v>375</v>
       </c>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="243"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -39481,15 +39530,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="244" t="s">
+      <c r="C5" s="243" t="s">
         <v>375</v>
       </c>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="243"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -39503,7 +39552,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>423</v>
+        <v>454</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="91"/>
@@ -39523,15 +39572,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="244" t="s">
+      <c r="C7" s="243" t="s">
         <v>319</v>
       </c>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="254"/>
-      <c r="I7" s="243"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -39565,15 +39614,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="244" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="254"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="254"/>
-      <c r="I9" s="243"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -39636,19 +39685,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="255" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="256"/>
-      <c r="K13" s="256"/>
-      <c r="L13" s="257"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -39677,11 +39726,11 @@
       <c r="I14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="253" t="s">
+      <c r="J14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="253"/>
-      <c r="L14" s="253"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -39743,11 +39792,11 @@
       <c r="I16" s="153" t="s">
         <v>354</v>
       </c>
-      <c r="J16" s="244" t="s">
+      <c r="J16" s="243" t="s">
         <v>142</v>
       </c>
-      <c r="K16" s="254"/>
-      <c r="L16" s="243"/>
+      <c r="K16" s="244"/>
+      <c r="L16" s="245"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -39909,11 +39958,11 @@
     </row>
     <row r="26" spans="1:15" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="51"/>
-      <c r="B26" s="252" t="s">
+      <c r="B26" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="252"/>
-      <c r="D26" s="252"/>
+      <c r="C26" s="253"/>
+      <c r="D26" s="253"/>
       <c r="E26" s="67"/>
       <c r="F26" s="68"/>
       <c r="G26" s="67"/>
@@ -39928,12 +39977,12 @@
     </row>
     <row r="27" spans="1:15" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="70"/>
-      <c r="B27" s="248" t="s">
+      <c r="B27" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="249"/>
-      <c r="D27" s="249"/>
-      <c r="E27" s="250"/>
+      <c r="C27" s="250"/>
+      <c r="D27" s="250"/>
+      <c r="E27" s="251"/>
       <c r="F27" s="92" t="s">
         <v>90</v>
       </c>
@@ -40025,10 +40074,10 @@
       <c r="A30" s="48"/>
       <c r="B30" s="72"/>
       <c r="C30" s="77"/>
-      <c r="D30" s="244" t="s">
+      <c r="D30" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E30" s="243"/>
+      <c r="E30" s="245"/>
       <c r="F30" s="61" t="s">
         <v>190</v>
       </c>
@@ -40058,10 +40107,10 @@
       <c r="A31" s="48"/>
       <c r="B31" s="72"/>
       <c r="C31" s="78"/>
-      <c r="D31" s="244" t="s">
+      <c r="D31" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="243"/>
+      <c r="E31" s="245"/>
       <c r="F31" s="61" t="s">
         <v>129</v>
       </c>
@@ -40124,8 +40173,8 @@
       <c r="A33" s="48"/>
       <c r="B33" s="83"/>
       <c r="C33" s="78"/>
-      <c r="D33" s="244"/>
-      <c r="E33" s="243"/>
+      <c r="D33" s="243"/>
+      <c r="E33" s="245"/>
       <c r="F33" s="61"/>
       <c r="G33" s="63"/>
       <c r="H33" s="63"/>
@@ -40362,11 +40411,11 @@
     </row>
     <row r="47" spans="1:15" ht="18.95" customHeight="1">
       <c r="A47" s="48"/>
-      <c r="B47" s="247" t="s">
+      <c r="B47" s="257" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="247"/>
-      <c r="D47" s="247"/>
+      <c r="C47" s="257"/>
+      <c r="D47" s="257"/>
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
       <c r="G47" s="48"/>
@@ -40381,12 +40430,12 @@
     </row>
     <row r="48" spans="1:15" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A48" s="70"/>
-      <c r="B48" s="248" t="s">
+      <c r="B48" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="249"/>
-      <c r="D48" s="249"/>
-      <c r="E48" s="250"/>
+      <c r="C48" s="250"/>
+      <c r="D48" s="250"/>
+      <c r="E48" s="251"/>
       <c r="F48" s="92" t="s">
         <v>90</v>
       </c>
@@ -40478,10 +40527,10 @@
       <c r="A51" s="48"/>
       <c r="B51" s="72"/>
       <c r="C51" s="77"/>
-      <c r="D51" s="244" t="s">
+      <c r="D51" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="243"/>
+      <c r="E51" s="245"/>
       <c r="F51" s="61" t="s">
         <v>190</v>
       </c>
@@ -40511,10 +40560,10 @@
       <c r="A52" s="48"/>
       <c r="B52" s="72"/>
       <c r="C52" s="77"/>
-      <c r="D52" s="242" t="s">
+      <c r="D52" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E52" s="258"/>
+      <c r="E52" s="261"/>
       <c r="F52" s="61" t="s">
         <v>149</v>
       </c>
@@ -40608,8 +40657,8 @@
       <c r="A55" s="48"/>
       <c r="B55" s="83"/>
       <c r="C55" s="78"/>
-      <c r="D55" s="244"/>
-      <c r="E55" s="243"/>
+      <c r="D55" s="243"/>
+      <c r="E55" s="245"/>
       <c r="F55" s="61"/>
       <c r="G55" s="63"/>
       <c r="H55" s="63"/>
@@ -40914,12 +40963,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="B48:E48"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
@@ -40931,6 +40974,12 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="B47:D47"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -41370,7 +41419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -41451,15 +41502,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="244" t="s">
+      <c r="C4" s="243" t="s">
         <v>378</v>
       </c>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="243"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -41472,15 +41523,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="244" t="s">
+      <c r="C5" s="243" t="s">
         <v>378</v>
       </c>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="243"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -41494,7 +41545,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="91"/>
@@ -41514,15 +41565,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="244" t="s">
+      <c r="C7" s="243" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="254"/>
-      <c r="I7" s="243"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -41556,15 +41607,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="244" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="254"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="254"/>
-      <c r="I9" s="243"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -41627,19 +41678,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="255" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="256"/>
-      <c r="K13" s="256"/>
-      <c r="L13" s="257"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -41668,11 +41719,11 @@
       <c r="I14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="253" t="s">
+      <c r="J14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="253"/>
-      <c r="L14" s="253"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -41734,11 +41785,11 @@
       <c r="I16" s="153" t="s">
         <v>354</v>
       </c>
-      <c r="J16" s="244" t="s">
+      <c r="J16" s="243" t="s">
         <v>142</v>
       </c>
-      <c r="K16" s="254"/>
-      <c r="L16" s="243"/>
+      <c r="K16" s="244"/>
+      <c r="L16" s="245"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -41900,11 +41951,11 @@
     </row>
     <row r="26" spans="1:15" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="51"/>
-      <c r="B26" s="252" t="s">
+      <c r="B26" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="252"/>
-      <c r="D26" s="252"/>
+      <c r="C26" s="253"/>
+      <c r="D26" s="253"/>
       <c r="E26" s="67"/>
       <c r="F26" s="68"/>
       <c r="G26" s="67"/>
@@ -41919,12 +41970,12 @@
     </row>
     <row r="27" spans="1:15" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="70"/>
-      <c r="B27" s="248" t="s">
+      <c r="B27" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="249"/>
-      <c r="D27" s="249"/>
-      <c r="E27" s="250"/>
+      <c r="C27" s="250"/>
+      <c r="D27" s="250"/>
+      <c r="E27" s="251"/>
       <c r="F27" s="92" t="s">
         <v>90</v>
       </c>
@@ -42016,10 +42067,10 @@
       <c r="A30" s="48"/>
       <c r="B30" s="72"/>
       <c r="C30" s="77"/>
-      <c r="D30" s="244" t="s">
+      <c r="D30" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E30" s="243"/>
+      <c r="E30" s="245"/>
       <c r="F30" s="61" t="s">
         <v>190</v>
       </c>
@@ -42049,10 +42100,10 @@
       <c r="A31" s="48"/>
       <c r="B31" s="72"/>
       <c r="C31" s="78"/>
-      <c r="D31" s="244" t="s">
+      <c r="D31" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="243"/>
+      <c r="E31" s="245"/>
       <c r="F31" s="61" t="s">
         <v>129</v>
       </c>
@@ -42115,8 +42166,8 @@
       <c r="A33" s="48"/>
       <c r="B33" s="83"/>
       <c r="C33" s="78"/>
-      <c r="D33" s="244"/>
-      <c r="E33" s="243"/>
+      <c r="D33" s="243"/>
+      <c r="E33" s="245"/>
       <c r="F33" s="61"/>
       <c r="G33" s="63"/>
       <c r="H33" s="63"/>
@@ -42353,11 +42404,11 @@
     </row>
     <row r="47" spans="1:15" ht="18.95" customHeight="1">
       <c r="A47" s="48"/>
-      <c r="B47" s="247" t="s">
+      <c r="B47" s="257" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="247"/>
-      <c r="D47" s="247"/>
+      <c r="C47" s="257"/>
+      <c r="D47" s="257"/>
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
       <c r="G47" s="48"/>
@@ -42372,12 +42423,12 @@
     </row>
     <row r="48" spans="1:15" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A48" s="70"/>
-      <c r="B48" s="248" t="s">
+      <c r="B48" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="249"/>
-      <c r="D48" s="249"/>
-      <c r="E48" s="250"/>
+      <c r="C48" s="250"/>
+      <c r="D48" s="250"/>
+      <c r="E48" s="251"/>
       <c r="F48" s="92" t="s">
         <v>90</v>
       </c>
@@ -42469,10 +42520,10 @@
       <c r="A51" s="48"/>
       <c r="B51" s="72"/>
       <c r="C51" s="77"/>
-      <c r="D51" s="244" t="s">
+      <c r="D51" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="243"/>
+      <c r="E51" s="245"/>
       <c r="F51" s="61" t="s">
         <v>190</v>
       </c>
@@ -42502,10 +42553,10 @@
       <c r="A52" s="48"/>
       <c r="B52" s="72"/>
       <c r="C52" s="77"/>
-      <c r="D52" s="242" t="s">
+      <c r="D52" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E52" s="258"/>
+      <c r="E52" s="261"/>
       <c r="F52" s="61" t="s">
         <v>149</v>
       </c>
@@ -42599,8 +42650,8 @@
       <c r="A55" s="48"/>
       <c r="B55" s="83"/>
       <c r="C55" s="78"/>
-      <c r="D55" s="244"/>
-      <c r="E55" s="243"/>
+      <c r="D55" s="243"/>
+      <c r="E55" s="245"/>
       <c r="F55" s="61"/>
       <c r="G55" s="63"/>
       <c r="H55" s="63"/>
@@ -42905,14 +42956,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B47:D47"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B26:D26"/>
@@ -42922,6 +42965,14 @@
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -42932,7 +42983,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -43013,15 +43066,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="244" t="s">
+      <c r="C4" s="243" t="s">
         <v>379</v>
       </c>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="243"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -43034,15 +43087,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="244" t="s">
+      <c r="C5" s="243" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="243"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -43056,7 +43109,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="91"/>
@@ -43076,15 +43129,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="244" t="s">
+      <c r="C7" s="243" t="s">
         <v>353</v>
       </c>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="254"/>
-      <c r="I7" s="243"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -43118,15 +43171,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="244" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="254"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="254"/>
-      <c r="I9" s="243"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -43189,19 +43242,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="255" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="256"/>
-      <c r="K13" s="256"/>
-      <c r="L13" s="257"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -43230,11 +43283,11 @@
       <c r="I14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="253" t="s">
+      <c r="J14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="253"/>
-      <c r="L14" s="253"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -43263,11 +43316,11 @@
       <c r="I15" s="64" t="s">
         <v>380</v>
       </c>
-      <c r="J15" s="251" t="s">
+      <c r="J15" s="252" t="s">
         <v>142</v>
       </c>
-      <c r="K15" s="251"/>
-      <c r="L15" s="251"/>
+      <c r="K15" s="252"/>
+      <c r="L15" s="252"/>
       <c r="M15" s="48"/>
       <c r="N15" s="48"/>
       <c r="O15" s="48"/>
@@ -43282,9 +43335,9 @@
       <c r="G16" s="63"/>
       <c r="H16" s="63"/>
       <c r="I16" s="153"/>
-      <c r="J16" s="244"/>
-      <c r="K16" s="254"/>
-      <c r="L16" s="243"/>
+      <c r="J16" s="243"/>
+      <c r="K16" s="244"/>
+      <c r="L16" s="245"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -43446,11 +43499,11 @@
     </row>
     <row r="26" spans="1:15" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="51"/>
-      <c r="B26" s="252" t="s">
+      <c r="B26" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="252"/>
-      <c r="D26" s="252"/>
+      <c r="C26" s="253"/>
+      <c r="D26" s="253"/>
       <c r="E26" s="67"/>
       <c r="F26" s="68"/>
       <c r="G26" s="67"/>
@@ -43465,12 +43518,12 @@
     </row>
     <row r="27" spans="1:15" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="70"/>
-      <c r="B27" s="248" t="s">
+      <c r="B27" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="249"/>
-      <c r="D27" s="249"/>
-      <c r="E27" s="250"/>
+      <c r="C27" s="250"/>
+      <c r="D27" s="250"/>
+      <c r="E27" s="251"/>
       <c r="F27" s="92" t="s">
         <v>90</v>
       </c>
@@ -43562,10 +43615,10 @@
       <c r="A30" s="48"/>
       <c r="B30" s="72"/>
       <c r="C30" s="77"/>
-      <c r="D30" s="244" t="s">
+      <c r="D30" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E30" s="243"/>
+      <c r="E30" s="245"/>
       <c r="F30" s="61" t="s">
         <v>190</v>
       </c>
@@ -43595,10 +43648,10 @@
       <c r="A31" s="48"/>
       <c r="B31" s="72"/>
       <c r="C31" s="78"/>
-      <c r="D31" s="244" t="s">
+      <c r="D31" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="243"/>
+      <c r="E31" s="245"/>
       <c r="F31" s="61" t="s">
         <v>129</v>
       </c>
@@ -43661,8 +43714,8 @@
       <c r="A33" s="48"/>
       <c r="B33" s="83"/>
       <c r="C33" s="78"/>
-      <c r="D33" s="244"/>
-      <c r="E33" s="243"/>
+      <c r="D33" s="243"/>
+      <c r="E33" s="245"/>
       <c r="F33" s="61"/>
       <c r="G33" s="63"/>
       <c r="H33" s="63"/>
@@ -43899,11 +43952,11 @@
     </row>
     <row r="47" spans="1:15" ht="18.95" customHeight="1">
       <c r="A47" s="48"/>
-      <c r="B47" s="247" t="s">
+      <c r="B47" s="257" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="247"/>
-      <c r="D47" s="247"/>
+      <c r="C47" s="257"/>
+      <c r="D47" s="257"/>
       <c r="E47" s="48"/>
       <c r="F47" s="48"/>
       <c r="G47" s="48"/>
@@ -43918,12 +43971,12 @@
     </row>
     <row r="48" spans="1:15" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A48" s="70"/>
-      <c r="B48" s="248" t="s">
+      <c r="B48" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="249"/>
-      <c r="D48" s="249"/>
-      <c r="E48" s="250"/>
+      <c r="C48" s="250"/>
+      <c r="D48" s="250"/>
+      <c r="E48" s="251"/>
       <c r="F48" s="92" t="s">
         <v>90</v>
       </c>
@@ -44015,10 +44068,10 @@
       <c r="A51" s="48"/>
       <c r="B51" s="72"/>
       <c r="C51" s="77"/>
-      <c r="D51" s="244" t="s">
+      <c r="D51" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="243"/>
+      <c r="E51" s="245"/>
       <c r="F51" s="61" t="s">
         <v>190</v>
       </c>
@@ -44048,10 +44101,10 @@
       <c r="A52" s="48"/>
       <c r="B52" s="72"/>
       <c r="C52" s="77"/>
-      <c r="D52" s="242" t="s">
+      <c r="D52" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E52" s="258"/>
+      <c r="E52" s="261"/>
       <c r="F52" s="61" t="s">
         <v>149</v>
       </c>
@@ -44145,8 +44198,8 @@
       <c r="A55" s="48"/>
       <c r="B55" s="83"/>
       <c r="C55" s="78"/>
-      <c r="D55" s="244"/>
-      <c r="E55" s="243"/>
+      <c r="D55" s="243"/>
+      <c r="E55" s="245"/>
       <c r="F55" s="61"/>
       <c r="G55" s="63"/>
       <c r="H55" s="63"/>
@@ -44451,6 +44504,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B48:E48"/>
@@ -44459,16 +44519,9 @@
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D55:E55"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -44482,7 +44535,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -44564,15 +44619,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="244" t="s">
+      <c r="C4" s="243" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="243"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -44585,15 +44640,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="244" t="s">
+      <c r="C5" s="243" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="243"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -44607,7 +44662,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="D6" s="91"/>
       <c r="E6" s="91"/>
@@ -44627,15 +44682,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="244" t="s">
+      <c r="C7" s="243" t="s">
         <v>356</v>
       </c>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="254"/>
-      <c r="I7" s="243"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -44669,15 +44724,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="244" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="254"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="254"/>
-      <c r="I9" s="243"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -44740,19 +44795,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="255" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="256"/>
-      <c r="K13" s="256"/>
-      <c r="L13" s="257"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -44781,11 +44836,11 @@
       <c r="I14" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="253" t="s">
+      <c r="J14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="253"/>
-      <c r="L14" s="253"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -44794,29 +44849,29 @@
       <c r="A15" s="48"/>
       <c r="B15" s="60"/>
       <c r="C15" s="157" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D15" s="158" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E15" s="159" t="s">
         <v>336</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="159" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H15" s="159" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="I15" s="160" t="s">
-        <v>433</v>
-      </c>
-      <c r="J15" s="263" t="s">
-        <v>434</v>
-      </c>
-      <c r="K15" s="251"/>
-      <c r="L15" s="251"/>
+        <v>428</v>
+      </c>
+      <c r="J15" s="265" t="s">
+        <v>429</v>
+      </c>
+      <c r="K15" s="252"/>
+      <c r="L15" s="252"/>
       <c r="M15" s="48"/>
       <c r="N15" s="48"/>
       <c r="O15" s="48"/>
@@ -44825,29 +44880,29 @@
       <c r="A16" s="48"/>
       <c r="B16" s="60"/>
       <c r="C16" s="157" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D16" s="158" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E16" s="159" t="s">
         <v>336</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="159" t="s">
+        <v>427</v>
+      </c>
+      <c r="H16" s="159" t="s">
         <v>432</v>
       </c>
-      <c r="H16" s="159" t="s">
-        <v>437</v>
-      </c>
       <c r="I16" s="160" t="s">
-        <v>438</v>
-      </c>
-      <c r="J16" s="263" t="s">
-        <v>439</v>
-      </c>
-      <c r="K16" s="251"/>
-      <c r="L16" s="251"/>
+        <v>433</v>
+      </c>
+      <c r="J16" s="265" t="s">
+        <v>434</v>
+      </c>
+      <c r="K16" s="252"/>
+      <c r="L16" s="252"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -44856,26 +44911,26 @@
       <c r="A17" s="48"/>
       <c r="B17" s="60"/>
       <c r="C17" s="157" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D17" s="158" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E17" s="159" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="159" t="s">
+        <v>427</v>
+      </c>
+      <c r="H17" s="159" t="s">
         <v>432</v>
       </c>
-      <c r="H17" s="159" t="s">
-        <v>437</v>
-      </c>
       <c r="I17" s="160" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="J17" s="167" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="K17" s="166"/>
       <c r="L17" s="165"/>
@@ -44893,9 +44948,9 @@
       <c r="G18" s="63"/>
       <c r="H18" s="63"/>
       <c r="I18" s="162"/>
-      <c r="J18" s="244"/>
-      <c r="K18" s="254"/>
-      <c r="L18" s="243"/>
+      <c r="J18" s="243"/>
+      <c r="K18" s="244"/>
+      <c r="L18" s="245"/>
       <c r="M18" s="48"/>
       <c r="N18" s="48"/>
       <c r="O18" s="48"/>
@@ -45057,11 +45112,11 @@
     </row>
     <row r="28" spans="1:16" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="51"/>
-      <c r="B28" s="252" t="s">
+      <c r="B28" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="252"/>
-      <c r="D28" s="252"/>
+      <c r="C28" s="253"/>
+      <c r="D28" s="253"/>
       <c r="E28" s="67"/>
       <c r="F28" s="68"/>
       <c r="G28" s="67"/>
@@ -45116,7 +45171,7 @@
       <c r="C30" s="73"/>
       <c r="D30" s="73"/>
       <c r="E30" s="271"/>
-      <c r="F30" s="246"/>
+      <c r="F30" s="256"/>
       <c r="G30" s="63" t="s">
         <v>118</v>
       </c>
@@ -45148,7 +45203,7 @@
       </c>
       <c r="D31" s="76"/>
       <c r="E31" s="271"/>
-      <c r="F31" s="246"/>
+      <c r="F31" s="256"/>
       <c r="G31" s="61" t="s">
         <v>125</v>
       </c>
@@ -45176,11 +45231,11 @@
       <c r="A32" s="48"/>
       <c r="B32" s="72"/>
       <c r="C32" s="77"/>
-      <c r="D32" s="244" t="s">
+      <c r="D32" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E32" s="254"/>
-      <c r="F32" s="243"/>
+      <c r="E32" s="244"/>
+      <c r="F32" s="245"/>
       <c r="G32" s="61" t="s">
         <v>190</v>
       </c>
@@ -45210,11 +45265,11 @@
       <c r="A33" s="48"/>
       <c r="B33" s="72"/>
       <c r="C33" s="78"/>
-      <c r="D33" s="244" t="s">
+      <c r="D33" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="254"/>
-      <c r="F33" s="243"/>
+      <c r="E33" s="244"/>
+      <c r="F33" s="245"/>
       <c r="G33" s="61" t="s">
         <v>129</v>
       </c>
@@ -45248,7 +45303,7 @@
       </c>
       <c r="D34" s="76"/>
       <c r="E34" s="271"/>
-      <c r="F34" s="246"/>
+      <c r="F34" s="256"/>
       <c r="G34" s="61" t="s">
         <v>132</v>
       </c>
@@ -45278,11 +45333,11 @@
       <c r="A35" s="48"/>
       <c r="B35" s="72"/>
       <c r="C35" s="79"/>
-      <c r="D35" s="244" t="s">
+      <c r="D35" s="243" t="s">
         <v>381</v>
       </c>
-      <c r="E35" s="254"/>
-      <c r="F35" s="243"/>
+      <c r="E35" s="244"/>
+      <c r="F35" s="245"/>
       <c r="G35" s="61" t="s">
         <v>359</v>
       </c>
@@ -45312,11 +45367,11 @@
       <c r="A36" s="48"/>
       <c r="B36" s="72"/>
       <c r="C36" s="79"/>
-      <c r="D36" s="245" t="s">
+      <c r="D36" s="255" t="s">
         <v>325</v>
       </c>
       <c r="E36" s="271"/>
-      <c r="F36" s="246"/>
+      <c r="F36" s="256"/>
       <c r="G36" s="61" t="s">
         <v>326</v>
       </c>
@@ -45346,11 +45401,11 @@
       <c r="A37" s="48"/>
       <c r="B37" s="72"/>
       <c r="C37" s="77"/>
-      <c r="D37" s="244" t="s">
+      <c r="D37" s="243" t="s">
         <v>237</v>
       </c>
-      <c r="E37" s="254"/>
-      <c r="F37" s="243"/>
+      <c r="E37" s="244"/>
+      <c r="F37" s="245"/>
       <c r="G37" s="61" t="s">
         <v>238</v>
       </c>
@@ -45380,11 +45435,11 @@
       <c r="A38" s="48"/>
       <c r="B38" s="72"/>
       <c r="C38" s="77"/>
-      <c r="D38" s="244" t="s">
+      <c r="D38" s="243" t="s">
         <v>195</v>
       </c>
-      <c r="E38" s="254"/>
-      <c r="F38" s="243"/>
+      <c r="E38" s="244"/>
+      <c r="F38" s="245"/>
       <c r="G38" s="61" t="s">
         <v>194</v>
       </c>
@@ -45480,10 +45535,10 @@
       <c r="B41" s="72"/>
       <c r="C41" s="72"/>
       <c r="D41" s="79"/>
-      <c r="E41" s="244" t="s">
+      <c r="E41" s="243" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="243"/>
+      <c r="F41" s="245"/>
       <c r="G41" s="61" t="s">
         <v>98</v>
       </c>
@@ -45512,10 +45567,10 @@
       <c r="B42" s="72"/>
       <c r="C42" s="72"/>
       <c r="D42" s="79"/>
-      <c r="E42" s="244" t="s">
+      <c r="E42" s="243" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="243"/>
+      <c r="F42" s="245"/>
       <c r="G42" s="61" t="s">
         <v>110</v>
       </c>
@@ -45544,10 +45599,10 @@
       <c r="B43" s="72"/>
       <c r="C43" s="72"/>
       <c r="D43" s="79"/>
-      <c r="E43" s="244" t="s">
+      <c r="E43" s="243" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="243"/>
+      <c r="F43" s="245"/>
       <c r="G43" s="61" t="s">
         <v>113</v>
       </c>
@@ -46203,11 +46258,11 @@
     </row>
     <row r="80" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A80" s="70"/>
-      <c r="B80" s="248" t="s">
+      <c r="B80" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C80" s="249"/>
-      <c r="D80" s="250"/>
+      <c r="C80" s="250"/>
+      <c r="D80" s="251"/>
       <c r="E80" s="92" t="s">
         <v>90</v>
       </c>
@@ -46725,6 +46780,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -46739,17 +46805,6 @@
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -46803,12 +46858,12 @@
     <row r="3" spans="2:12" s="136" customFormat="1" ht="15.75">
       <c r="B3" s="138"/>
       <c r="C3" s="164" t="s">
-        <v>425</v>
-      </c>
-      <c r="D3" s="218" t="s">
-        <v>426</v>
-      </c>
-      <c r="E3" s="218"/>
+        <v>420</v>
+      </c>
+      <c r="D3" s="221" t="s">
+        <v>421</v>
+      </c>
+      <c r="E3" s="221"/>
       <c r="F3" s="164" t="s">
         <v>172</v>
       </c>
@@ -46818,12 +46873,12 @@
         <v>1</v>
       </c>
       <c r="C4" s="101" t="s">
-        <v>445</v>
-      </c>
-      <c r="D4" s="219" t="s">
+        <v>440</v>
+      </c>
+      <c r="D4" s="218" t="s">
         <v>191</v>
       </c>
-      <c r="E4" s="220"/>
+      <c r="E4" s="219"/>
       <c r="F4" s="163"/>
       <c r="G4" s="97"/>
       <c r="H4" s="97"/>
@@ -46868,10 +46923,10 @@
       <c r="C8" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D8" s="221" t="s">
+      <c r="D8" s="220" t="s">
         <v>171</v>
       </c>
-      <c r="E8" s="221"/>
+      <c r="E8" s="220"/>
       <c r="F8" s="16" t="s">
         <v>172</v>
       </c>
@@ -46889,10 +46944,10 @@
       <c r="C9" s="101" t="s">
         <v>174</v>
       </c>
-      <c r="D9" s="219" t="s">
+      <c r="D9" s="218" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="220"/>
+      <c r="E9" s="219"/>
       <c r="F9" s="102"/>
       <c r="G9" s="97"/>
       <c r="H9" s="97"/>
@@ -46965,10 +47020,10 @@
       <c r="C15" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D15" s="221" t="s">
+      <c r="D15" s="220" t="s">
         <v>171</v>
       </c>
-      <c r="E15" s="221"/>
+      <c r="E15" s="220"/>
       <c r="F15" s="16" t="s">
         <v>172</v>
       </c>
@@ -46980,10 +47035,10 @@
       <c r="C16" s="101" t="s">
         <v>178</v>
       </c>
-      <c r="D16" s="219" t="s">
+      <c r="D16" s="218" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="220"/>
+      <c r="E16" s="219"/>
       <c r="F16" s="99"/>
       <c r="G16" s="97"/>
       <c r="H16" s="97"/>
@@ -46995,10 +47050,10 @@
       <c r="C17" s="101" t="s">
         <v>184</v>
       </c>
-      <c r="D17" s="220" t="s">
+      <c r="D17" s="219" t="s">
         <v>175</v>
       </c>
-      <c r="E17" s="220"/>
+      <c r="E17" s="219"/>
       <c r="F17" s="99"/>
       <c r="G17" s="97"/>
       <c r="H17" s="97"/>
@@ -47008,10 +47063,10 @@
       <c r="C19" s="139" t="s">
         <v>170</v>
       </c>
-      <c r="D19" s="218" t="s">
+      <c r="D19" s="221" t="s">
         <v>171</v>
       </c>
-      <c r="E19" s="218"/>
+      <c r="E19" s="221"/>
       <c r="F19" s="139" t="s">
         <v>172</v>
       </c>
@@ -47023,10 +47078,10 @@
       <c r="C20" s="101" t="s">
         <v>254</v>
       </c>
-      <c r="D20" s="219" t="s">
+      <c r="D20" s="218" t="s">
         <v>260</v>
       </c>
-      <c r="E20" s="220"/>
+      <c r="E20" s="219"/>
       <c r="F20" s="99"/>
       <c r="G20" s="97"/>
       <c r="H20" s="97"/>
@@ -47038,10 +47093,10 @@
       <c r="C21" s="101" t="s">
         <v>255</v>
       </c>
-      <c r="D21" s="219" t="s">
+      <c r="D21" s="218" t="s">
         <v>261</v>
       </c>
-      <c r="E21" s="220"/>
+      <c r="E21" s="219"/>
       <c r="F21" s="99"/>
       <c r="G21" s="97"/>
       <c r="H21" s="97"/>
@@ -47053,10 +47108,10 @@
       <c r="C22" s="101" t="s">
         <v>256</v>
       </c>
-      <c r="D22" s="219" t="s">
+      <c r="D22" s="218" t="s">
         <v>262</v>
       </c>
-      <c r="E22" s="220"/>
+      <c r="E22" s="219"/>
       <c r="F22" s="137"/>
     </row>
     <row r="23" spans="2:8" s="136" customFormat="1" ht="15" customHeight="1">
@@ -47066,10 +47121,10 @@
       <c r="C23" s="101" t="s">
         <v>257</v>
       </c>
-      <c r="D23" s="219" t="s">
+      <c r="D23" s="218" t="s">
         <v>263</v>
       </c>
-      <c r="E23" s="220"/>
+      <c r="E23" s="219"/>
       <c r="F23" s="137"/>
     </row>
     <row r="24" spans="2:8" s="136" customFormat="1">
@@ -47079,10 +47134,10 @@
       <c r="C24" s="101" t="s">
         <v>258</v>
       </c>
-      <c r="D24" s="219" t="s">
+      <c r="D24" s="218" t="s">
         <v>264</v>
       </c>
-      <c r="E24" s="220"/>
+      <c r="E24" s="219"/>
       <c r="F24" s="137"/>
     </row>
     <row r="25" spans="2:8" s="136" customFormat="1" ht="15" customHeight="1">
@@ -47092,10 +47147,10 @@
       <c r="C25" s="101" t="s">
         <v>259</v>
       </c>
-      <c r="D25" s="219" t="s">
+      <c r="D25" s="218" t="s">
         <v>265</v>
       </c>
-      <c r="E25" s="220"/>
+      <c r="E25" s="219"/>
       <c r="F25" s="137"/>
     </row>
     <row r="26" spans="2:8" s="136" customFormat="1">
@@ -47107,7 +47162,7 @@
     </row>
     <row r="27" spans="2:8" ht="15.75">
       <c r="B27" s="103" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C27" s="100"/>
       <c r="D27" s="100"/>
@@ -47120,10 +47175,10 @@
       <c r="C28" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="221" t="s">
-        <v>426</v>
-      </c>
-      <c r="E28" s="221"/>
+      <c r="D28" s="220" t="s">
+        <v>421</v>
+      </c>
+      <c r="E28" s="220"/>
       <c r="F28" s="16" t="s">
         <v>172</v>
       </c>
@@ -47133,12 +47188,12 @@
         <v>1</v>
       </c>
       <c r="C29" s="101" t="s">
-        <v>427</v>
-      </c>
-      <c r="D29" s="219" t="s">
-        <v>429</v>
-      </c>
-      <c r="E29" s="220"/>
+        <v>422</v>
+      </c>
+      <c r="D29" s="218" t="s">
+        <v>424</v>
+      </c>
+      <c r="E29" s="219"/>
       <c r="F29" s="163"/>
       <c r="G29" s="97"/>
       <c r="H29" s="97"/>
@@ -47150,10 +47205,10 @@
       <c r="C30" s="101" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="219" t="s">
+      <c r="D30" s="218" t="s">
         <v>180</v>
       </c>
-      <c r="E30" s="220"/>
+      <c r="E30" s="219"/>
       <c r="F30" s="168"/>
       <c r="G30" s="97"/>
       <c r="H30" s="97"/>
@@ -47163,18 +47218,28 @@
         <v>3</v>
       </c>
       <c r="C31" s="101" t="s">
-        <v>446</v>
-      </c>
-      <c r="D31" s="219" t="s">
-        <v>447</v>
-      </c>
-      <c r="E31" s="220"/>
+        <v>441</v>
+      </c>
+      <c r="D31" s="218" t="s">
+        <v>442</v>
+      </c>
+      <c r="E31" s="219"/>
       <c r="F31" s="99"/>
       <c r="G31" s="97"/>
       <c r="H31" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D8:E8"/>
@@ -47187,16 +47252,6 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D30:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47911,15 +47966,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="244" t="s">
+      <c r="C4" s="243" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="243"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -47932,15 +47987,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="244" t="s">
+      <c r="C5" s="243" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="243"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -47954,7 +48009,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
@@ -47974,15 +48029,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="244" t="s">
+      <c r="C7" s="243" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="254"/>
-      <c r="I7" s="243"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -48016,15 +48071,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="244" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="254"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="254"/>
-      <c r="I9" s="243"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -48087,19 +48142,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="255" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="256"/>
-      <c r="K13" s="256"/>
-      <c r="L13" s="257"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -48128,11 +48183,11 @@
       <c r="I14" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="253" t="s">
+      <c r="J14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="253"/>
-      <c r="L14" s="253"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -48161,11 +48216,11 @@
       <c r="I15" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="J15" s="251" t="s">
+      <c r="J15" s="252" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="251"/>
-      <c r="L15" s="251"/>
+      <c r="K15" s="252"/>
+      <c r="L15" s="252"/>
       <c r="M15" s="48"/>
       <c r="N15" s="48"/>
       <c r="O15" s="48"/>
@@ -48194,11 +48249,11 @@
       <c r="I16" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="J16" s="244" t="s">
+      <c r="J16" s="243" t="s">
         <v>249</v>
       </c>
-      <c r="K16" s="254"/>
-      <c r="L16" s="243"/>
+      <c r="K16" s="244"/>
+      <c r="L16" s="245"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -48227,11 +48282,11 @@
       <c r="I17" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="J17" s="251" t="s">
+      <c r="J17" s="252" t="s">
         <v>105</v>
       </c>
-      <c r="K17" s="251"/>
-      <c r="L17" s="251"/>
+      <c r="K17" s="252"/>
+      <c r="L17" s="252"/>
       <c r="M17" s="48"/>
       <c r="N17" s="48"/>
       <c r="O17" s="48"/>
@@ -48409,11 +48464,11 @@
     </row>
     <row r="27" spans="1:15" s="69" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="51"/>
-      <c r="B27" s="252" t="s">
+      <c r="B27" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="252"/>
-      <c r="D27" s="252"/>
+      <c r="C27" s="253"/>
+      <c r="D27" s="253"/>
       <c r="E27" s="67"/>
       <c r="F27" s="68"/>
       <c r="G27" s="67"/>
@@ -48428,12 +48483,12 @@
     </row>
     <row r="28" spans="1:15" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="70"/>
-      <c r="B28" s="248" t="s">
+      <c r="B28" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="249"/>
-      <c r="D28" s="249"/>
-      <c r="E28" s="250"/>
+      <c r="C28" s="250"/>
+      <c r="D28" s="250"/>
+      <c r="E28" s="251"/>
       <c r="F28" s="58" t="s">
         <v>90</v>
       </c>
@@ -48525,10 +48580,10 @@
       <c r="A31" s="48"/>
       <c r="B31" s="72"/>
       <c r="C31" s="77"/>
-      <c r="D31" s="244" t="s">
+      <c r="D31" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E31" s="243"/>
+      <c r="E31" s="245"/>
       <c r="F31" s="61" t="s">
         <v>190</v>
       </c>
@@ -48558,10 +48613,10 @@
       <c r="A32" s="48"/>
       <c r="B32" s="72"/>
       <c r="C32" s="78"/>
-      <c r="D32" s="244" t="s">
+      <c r="D32" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="243"/>
+      <c r="E32" s="245"/>
       <c r="F32" s="61" t="s">
         <v>129</v>
       </c>
@@ -48624,10 +48679,10 @@
       <c r="A34" s="48"/>
       <c r="B34" s="72"/>
       <c r="C34" s="79"/>
-      <c r="D34" s="244" t="s">
+      <c r="D34" s="243" t="s">
         <v>134</v>
       </c>
-      <c r="E34" s="243"/>
+      <c r="E34" s="245"/>
       <c r="F34" s="61" t="s">
         <v>135</v>
       </c>
@@ -48657,10 +48712,10 @@
       <c r="A35" s="48"/>
       <c r="B35" s="72"/>
       <c r="C35" s="79"/>
-      <c r="D35" s="245" t="s">
+      <c r="D35" s="255" t="s">
         <v>97</v>
       </c>
-      <c r="E35" s="246"/>
+      <c r="E35" s="256"/>
       <c r="F35" s="61" t="s">
         <v>98</v>
       </c>
@@ -48690,10 +48745,10 @@
       <c r="A36" s="48"/>
       <c r="B36" s="83"/>
       <c r="C36" s="78"/>
-      <c r="D36" s="244" t="s">
+      <c r="D36" s="243" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="243"/>
+      <c r="E36" s="245"/>
       <c r="F36" s="61" t="s">
         <v>143</v>
       </c>
@@ -48961,11 +49016,11 @@
     </row>
     <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="48"/>
-      <c r="B51" s="247" t="s">
+      <c r="B51" s="257" t="s">
         <v>146</v>
       </c>
-      <c r="C51" s="247"/>
-      <c r="D51" s="247"/>
+      <c r="C51" s="257"/>
+      <c r="D51" s="257"/>
       <c r="E51" s="48"/>
       <c r="F51" s="48"/>
       <c r="G51" s="48"/>
@@ -48980,12 +49035,12 @@
     </row>
     <row r="52" spans="1:15" s="71" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="70"/>
-      <c r="B52" s="248" t="s">
+      <c r="B52" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="249"/>
-      <c r="D52" s="249"/>
-      <c r="E52" s="250"/>
+      <c r="C52" s="250"/>
+      <c r="D52" s="250"/>
+      <c r="E52" s="251"/>
       <c r="F52" s="58" t="s">
         <v>90</v>
       </c>
@@ -49077,10 +49132,10 @@
       <c r="A55" s="48"/>
       <c r="B55" s="72"/>
       <c r="C55" s="77"/>
-      <c r="D55" s="244" t="s">
+      <c r="D55" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E55" s="243"/>
+      <c r="E55" s="245"/>
       <c r="F55" s="61" t="s">
         <v>190</v>
       </c>
@@ -49110,10 +49165,10 @@
       <c r="A56" s="48"/>
       <c r="B56" s="72"/>
       <c r="C56" s="77"/>
-      <c r="D56" s="242" t="s">
+      <c r="D56" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E56" s="243"/>
+      <c r="E56" s="245"/>
       <c r="F56" s="61" t="s">
         <v>149</v>
       </c>
@@ -49207,8 +49262,8 @@
       <c r="A59" s="48"/>
       <c r="B59" s="83"/>
       <c r="C59" s="78"/>
-      <c r="D59" s="244"/>
-      <c r="E59" s="243"/>
+      <c r="D59" s="243"/>
+      <c r="E59" s="245"/>
       <c r="F59" s="61"/>
       <c r="G59" s="63"/>
       <c r="H59" s="63"/>
@@ -49598,6 +49653,20 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="C4:I4"/>
@@ -49605,20 +49674,6 @@
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="D55:E55"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -49717,15 +49772,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="244" t="s">
+      <c r="C4" s="243" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="243"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -49738,15 +49793,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="244" t="s">
+      <c r="C5" s="243" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="243"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -49760,7 +49815,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
@@ -49780,15 +49835,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="244" t="s">
+      <c r="C7" s="243" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="254"/>
-      <c r="I7" s="243"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -49822,15 +49877,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="244" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="254"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="254"/>
-      <c r="I9" s="243"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -49893,19 +49948,19 @@
     </row>
     <row r="13" spans="1:15" ht="18.95" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="255" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="256"/>
-      <c r="K13" s="256"/>
-      <c r="L13" s="257"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -49934,11 +49989,11 @@
       <c r="I14" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="253" t="s">
+      <c r="J14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="253"/>
-      <c r="L14" s="253"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -50000,11 +50055,11 @@
       <c r="I16" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="J16" s="242" t="s">
+      <c r="J16" s="254" t="s">
         <v>162</v>
       </c>
-      <c r="K16" s="254"/>
-      <c r="L16" s="243"/>
+      <c r="K16" s="244"/>
+      <c r="L16" s="245"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -50033,11 +50088,11 @@
       <c r="I17" s="130" t="s">
         <v>165</v>
       </c>
-      <c r="J17" s="259" t="s">
+      <c r="J17" s="258" t="s">
         <v>166</v>
       </c>
-      <c r="K17" s="260"/>
-      <c r="L17" s="261"/>
+      <c r="K17" s="259"/>
+      <c r="L17" s="260"/>
       <c r="M17" s="48"/>
       <c r="N17" s="48"/>
       <c r="O17" s="48"/>
@@ -50182,11 +50237,11 @@
     </row>
     <row r="26" spans="1:15" s="69" customFormat="1" ht="18.95" customHeight="1">
       <c r="A26" s="51"/>
-      <c r="B26" s="252" t="s">
+      <c r="B26" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="252"/>
-      <c r="D26" s="252"/>
+      <c r="C26" s="253"/>
+      <c r="D26" s="253"/>
       <c r="E26" s="67"/>
       <c r="F26" s="68"/>
       <c r="G26" s="67"/>
@@ -50201,12 +50256,12 @@
     </row>
     <row r="27" spans="1:15" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A27" s="70"/>
-      <c r="B27" s="248" t="s">
+      <c r="B27" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="249"/>
-      <c r="D27" s="249"/>
-      <c r="E27" s="250"/>
+      <c r="C27" s="250"/>
+      <c r="D27" s="250"/>
+      <c r="E27" s="251"/>
       <c r="F27" s="59" t="s">
         <v>90</v>
       </c>
@@ -50298,10 +50353,10 @@
       <c r="A30" s="48"/>
       <c r="B30" s="72"/>
       <c r="C30" s="77"/>
-      <c r="D30" s="244" t="s">
+      <c r="D30" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E30" s="243"/>
+      <c r="E30" s="245"/>
       <c r="F30" s="61" t="s">
         <v>190</v>
       </c>
@@ -50331,10 +50386,10 @@
       <c r="A31" s="48"/>
       <c r="B31" s="72"/>
       <c r="C31" s="78"/>
-      <c r="D31" s="244" t="s">
+      <c r="D31" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="243"/>
+      <c r="E31" s="245"/>
       <c r="F31" s="61" t="s">
         <v>129</v>
       </c>
@@ -50397,10 +50452,10 @@
       <c r="A33" s="48"/>
       <c r="B33" s="72"/>
       <c r="C33" s="79"/>
-      <c r="D33" s="244" t="s">
+      <c r="D33" s="243" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="243"/>
+      <c r="E33" s="245"/>
       <c r="F33" s="61" t="s">
         <v>135</v>
       </c>
@@ -50430,10 +50485,10 @@
       <c r="A34" s="48"/>
       <c r="B34" s="72"/>
       <c r="C34" s="79"/>
-      <c r="D34" s="245" t="s">
+      <c r="D34" s="255" t="s">
         <v>97</v>
       </c>
-      <c r="E34" s="246"/>
+      <c r="E34" s="256"/>
       <c r="F34" s="61" t="s">
         <v>98</v>
       </c>
@@ -50494,10 +50549,10 @@
       <c r="A36" s="48"/>
       <c r="B36" s="72"/>
       <c r="C36" s="77"/>
-      <c r="D36" s="244" t="s">
+      <c r="D36" s="243" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="243"/>
+      <c r="E36" s="245"/>
       <c r="F36" s="62" t="s">
         <v>115</v>
       </c>
@@ -50525,10 +50580,10 @@
       <c r="A37" s="48"/>
       <c r="B37" s="83"/>
       <c r="C37" s="78"/>
-      <c r="D37" s="244" t="s">
+      <c r="D37" s="243" t="s">
         <v>202</v>
       </c>
-      <c r="E37" s="243"/>
+      <c r="E37" s="245"/>
       <c r="F37" s="61" t="s">
         <v>203</v>
       </c>
@@ -50898,11 +50953,11 @@
     </row>
     <row r="58" spans="1:15" ht="18.95" customHeight="1">
       <c r="A58" s="48"/>
-      <c r="B58" s="247" t="s">
+      <c r="B58" s="257" t="s">
         <v>206</v>
       </c>
-      <c r="C58" s="247"/>
-      <c r="D58" s="247"/>
+      <c r="C58" s="257"/>
+      <c r="D58" s="257"/>
       <c r="E58" s="48"/>
       <c r="F58" s="48"/>
       <c r="G58" s="48"/>
@@ -50917,12 +50972,12 @@
     </row>
     <row r="59" spans="1:15" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A59" s="70"/>
-      <c r="B59" s="248" t="s">
+      <c r="B59" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="249"/>
-      <c r="D59" s="249"/>
-      <c r="E59" s="250"/>
+      <c r="C59" s="250"/>
+      <c r="D59" s="250"/>
+      <c r="E59" s="251"/>
       <c r="F59" s="59" t="s">
         <v>90</v>
       </c>
@@ -51014,10 +51069,10 @@
       <c r="A62" s="48"/>
       <c r="B62" s="72"/>
       <c r="C62" s="77"/>
-      <c r="D62" s="244" t="s">
+      <c r="D62" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E62" s="243"/>
+      <c r="E62" s="245"/>
       <c r="F62" s="61" t="s">
         <v>190</v>
       </c>
@@ -51047,10 +51102,10 @@
       <c r="A63" s="48"/>
       <c r="B63" s="72"/>
       <c r="C63" s="77"/>
-      <c r="D63" s="242" t="s">
+      <c r="D63" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E63" s="258"/>
+      <c r="E63" s="261"/>
       <c r="F63" s="61" t="s">
         <v>149</v>
       </c>
@@ -51144,8 +51199,8 @@
       <c r="A66" s="48"/>
       <c r="B66" s="83"/>
       <c r="C66" s="78"/>
-      <c r="D66" s="244"/>
-      <c r="E66" s="243"/>
+      <c r="D66" s="243"/>
+      <c r="E66" s="245"/>
       <c r="F66" s="61"/>
       <c r="G66" s="63"/>
       <c r="H66" s="63"/>
@@ -51535,27 +51590,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B58:D58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -51649,15 +51704,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="244" t="s">
+      <c r="C4" s="243" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="243"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -51670,15 +51725,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="244" t="s">
+      <c r="C5" s="243" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="243"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -51692,7 +51747,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
@@ -51712,15 +51767,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="244" t="s">
+      <c r="C7" s="243" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="254"/>
-      <c r="I7" s="243"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -51754,15 +51809,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="244" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="254"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="254"/>
-      <c r="I9" s="243"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -51825,19 +51880,19 @@
     </row>
     <row r="13" spans="1:15" ht="21.95" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="255" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="256"/>
-      <c r="K13" s="256"/>
-      <c r="L13" s="257"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -51866,11 +51921,11 @@
       <c r="I14" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="253" t="s">
+      <c r="J14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="253"/>
-      <c r="L14" s="253"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -51932,11 +51987,11 @@
       <c r="I16" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="J16" s="244" t="s">
+      <c r="J16" s="243" t="s">
         <v>214</v>
       </c>
-      <c r="K16" s="254"/>
-      <c r="L16" s="243"/>
+      <c r="K16" s="244"/>
+      <c r="L16" s="245"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -51965,11 +52020,11 @@
       <c r="I17" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="J17" s="244" t="s">
+      <c r="J17" s="243" t="s">
         <v>221</v>
       </c>
-      <c r="K17" s="254"/>
-      <c r="L17" s="243"/>
+      <c r="K17" s="244"/>
+      <c r="L17" s="245"/>
       <c r="M17" s="48"/>
       <c r="N17" s="48"/>
       <c r="O17" s="48"/>
@@ -52147,11 +52202,11 @@
     </row>
     <row r="27" spans="1:15" s="69" customFormat="1" ht="21.95" customHeight="1">
       <c r="A27" s="51"/>
-      <c r="B27" s="252" t="s">
+      <c r="B27" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="252"/>
-      <c r="D27" s="252"/>
+      <c r="C27" s="253"/>
+      <c r="D27" s="253"/>
       <c r="E27" s="67"/>
       <c r="F27" s="68"/>
       <c r="G27" s="67"/>
@@ -52166,12 +52221,12 @@
     </row>
     <row r="28" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A28" s="70"/>
-      <c r="B28" s="248" t="s">
+      <c r="B28" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="249"/>
-      <c r="D28" s="249"/>
-      <c r="E28" s="250"/>
+      <c r="C28" s="250"/>
+      <c r="D28" s="250"/>
+      <c r="E28" s="251"/>
       <c r="F28" s="59" t="s">
         <v>90</v>
       </c>
@@ -52263,10 +52318,10 @@
       <c r="A31" s="48"/>
       <c r="B31" s="72"/>
       <c r="C31" s="77"/>
-      <c r="D31" s="244" t="s">
+      <c r="D31" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E31" s="243"/>
+      <c r="E31" s="245"/>
       <c r="F31" s="61" t="s">
         <v>190</v>
       </c>
@@ -52296,10 +52351,10 @@
       <c r="A32" s="48"/>
       <c r="B32" s="131"/>
       <c r="C32" s="78"/>
-      <c r="D32" s="244" t="s">
+      <c r="D32" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="243"/>
+      <c r="E32" s="245"/>
       <c r="F32" s="61" t="s">
         <v>129</v>
       </c>
@@ -52499,11 +52554,11 @@
     </row>
     <row r="43" spans="1:15" ht="21.95" customHeight="1">
       <c r="A43" s="48"/>
-      <c r="B43" s="247" t="s">
+      <c r="B43" s="257" t="s">
         <v>216</v>
       </c>
-      <c r="C43" s="247"/>
-      <c r="D43" s="247"/>
+      <c r="C43" s="257"/>
+      <c r="D43" s="257"/>
       <c r="E43" s="48"/>
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
@@ -52518,12 +52573,12 @@
     </row>
     <row r="44" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A44" s="70"/>
-      <c r="B44" s="248" t="s">
+      <c r="B44" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="249"/>
-      <c r="D44" s="249"/>
-      <c r="E44" s="250"/>
+      <c r="C44" s="250"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="251"/>
       <c r="F44" s="59" t="s">
         <v>90</v>
       </c>
@@ -52615,10 +52670,10 @@
       <c r="A47" s="48"/>
       <c r="B47" s="72"/>
       <c r="C47" s="77"/>
-      <c r="D47" s="244" t="s">
+      <c r="D47" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E47" s="243"/>
+      <c r="E47" s="245"/>
       <c r="F47" s="61" t="s">
         <v>190</v>
       </c>
@@ -52648,10 +52703,10 @@
       <c r="A48" s="48"/>
       <c r="B48" s="72"/>
       <c r="C48" s="77"/>
-      <c r="D48" s="242" t="s">
+      <c r="D48" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E48" s="243"/>
+      <c r="E48" s="245"/>
       <c r="F48" s="61" t="s">
         <v>149</v>
       </c>
@@ -53020,6 +53075,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:E44"/>
     <mergeCell ref="D47:E47"/>
@@ -53030,12 +53091,6 @@
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -53129,15 +53184,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="244" t="s">
+      <c r="C4" s="243" t="s">
         <v>223</v>
       </c>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="243"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -53150,15 +53205,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="244" t="s">
+      <c r="C5" s="243" t="s">
         <v>243</v>
       </c>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="243"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -53172,7 +53227,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
@@ -53192,15 +53247,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="244" t="s">
+      <c r="C7" s="243" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="254"/>
-      <c r="I7" s="243"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -53234,15 +53289,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="244" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="254"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="254"/>
-      <c r="I9" s="243"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -53305,19 +53360,19 @@
     </row>
     <row r="13" spans="1:15" ht="18.95" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="255" t="s">
+      <c r="B13" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="256"/>
-      <c r="K13" s="256"/>
-      <c r="L13" s="257"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="247"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="248"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -53346,11 +53401,11 @@
       <c r="I14" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="253" t="s">
+      <c r="J14" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="253"/>
-      <c r="L14" s="253"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -53564,12 +53619,12 @@
     </row>
     <row r="26" spans="1:15" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A26" s="70"/>
-      <c r="B26" s="248" t="s">
+      <c r="B26" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="249"/>
-      <c r="D26" s="249"/>
-      <c r="E26" s="250"/>
+      <c r="C26" s="250"/>
+      <c r="D26" s="250"/>
+      <c r="E26" s="251"/>
       <c r="F26" s="59" t="s">
         <v>90</v>
       </c>
@@ -53661,10 +53716,10 @@
       <c r="A29" s="48"/>
       <c r="B29" s="72"/>
       <c r="C29" s="77"/>
-      <c r="D29" s="244" t="s">
+      <c r="D29" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E29" s="243"/>
+      <c r="E29" s="245"/>
       <c r="F29" s="61" t="s">
         <v>190</v>
       </c>
@@ -53694,10 +53749,10 @@
       <c r="A30" s="48"/>
       <c r="B30" s="72"/>
       <c r="C30" s="78"/>
-      <c r="D30" s="244" t="s">
+      <c r="D30" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E30" s="243"/>
+      <c r="E30" s="245"/>
       <c r="F30" s="61" t="s">
         <v>129</v>
       </c>
@@ -53760,10 +53815,10 @@
       <c r="A32" s="48"/>
       <c r="B32" s="72"/>
       <c r="C32" s="79"/>
-      <c r="D32" s="244" t="s">
+      <c r="D32" s="243" t="s">
         <v>134</v>
       </c>
-      <c r="E32" s="243"/>
+      <c r="E32" s="245"/>
       <c r="F32" s="61" t="s">
         <v>135</v>
       </c>
@@ -53826,10 +53881,10 @@
       <c r="A34" s="48"/>
       <c r="B34" s="72"/>
       <c r="C34" s="79"/>
-      <c r="D34" s="245" t="s">
+      <c r="D34" s="255" t="s">
         <v>97</v>
       </c>
-      <c r="E34" s="246"/>
+      <c r="E34" s="256"/>
       <c r="F34" s="61" t="s">
         <v>98</v>
       </c>
@@ -53859,10 +53914,10 @@
       <c r="A35" s="48"/>
       <c r="B35" s="72"/>
       <c r="C35" s="77"/>
-      <c r="D35" s="244" t="s">
+      <c r="D35" s="243" t="s">
         <v>109</v>
       </c>
-      <c r="E35" s="243"/>
+      <c r="E35" s="245"/>
       <c r="F35" s="61" t="s">
         <v>110</v>
       </c>
@@ -53925,10 +53980,10 @@
       <c r="A37" s="48"/>
       <c r="B37" s="72"/>
       <c r="C37" s="77"/>
-      <c r="D37" s="244" t="s">
+      <c r="D37" s="243" t="s">
         <v>227</v>
       </c>
-      <c r="E37" s="243"/>
+      <c r="E37" s="245"/>
       <c r="F37" s="62" t="s">
         <v>228</v>
       </c>
@@ -53958,10 +54013,10 @@
       <c r="A38" s="48"/>
       <c r="B38" s="72"/>
       <c r="C38" s="77"/>
-      <c r="D38" s="244" t="s">
+      <c r="D38" s="243" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="243"/>
+      <c r="E38" s="245"/>
       <c r="F38" s="62" t="s">
         <v>115</v>
       </c>
@@ -53989,10 +54044,10 @@
       <c r="A39" s="48"/>
       <c r="B39" s="72"/>
       <c r="C39" s="77"/>
-      <c r="D39" s="244" t="s">
+      <c r="D39" s="243" t="s">
         <v>233</v>
       </c>
-      <c r="E39" s="243"/>
+      <c r="E39" s="245"/>
       <c r="F39" s="62" t="s">
         <v>234</v>
       </c>
@@ -54020,10 +54075,10 @@
       <c r="A40" s="48"/>
       <c r="B40" s="72"/>
       <c r="C40" s="77"/>
-      <c r="D40" s="244" t="s">
+      <c r="D40" s="243" t="s">
         <v>224</v>
       </c>
-      <c r="E40" s="243"/>
+      <c r="E40" s="245"/>
       <c r="F40" s="62" t="s">
         <v>225</v>
       </c>
@@ -54051,10 +54106,10 @@
       <c r="A41" s="48"/>
       <c r="B41" s="72"/>
       <c r="C41" s="77"/>
-      <c r="D41" s="244" t="s">
+      <c r="D41" s="243" t="s">
         <v>230</v>
       </c>
-      <c r="E41" s="243"/>
+      <c r="E41" s="245"/>
       <c r="F41" s="62" t="s">
         <v>231</v>
       </c>
@@ -54084,10 +54139,10 @@
       <c r="A42" s="48"/>
       <c r="B42" s="72"/>
       <c r="C42" s="77"/>
-      <c r="D42" s="244" t="s">
+      <c r="D42" s="243" t="s">
         <v>250</v>
       </c>
-      <c r="E42" s="243"/>
+      <c r="E42" s="245"/>
       <c r="F42" s="62" t="s">
         <v>251</v>
       </c>
@@ -54115,10 +54170,10 @@
       <c r="A43" s="48"/>
       <c r="B43" s="72"/>
       <c r="C43" s="77"/>
-      <c r="D43" s="244" t="s">
+      <c r="D43" s="243" t="s">
         <v>237</v>
       </c>
-      <c r="E43" s="243"/>
+      <c r="E43" s="245"/>
       <c r="F43" s="62" t="s">
         <v>238</v>
       </c>
@@ -54148,10 +54203,10 @@
       <c r="A44" s="48"/>
       <c r="B44" s="131"/>
       <c r="C44" s="78"/>
-      <c r="D44" s="244" t="s">
+      <c r="D44" s="243" t="s">
         <v>195</v>
       </c>
-      <c r="E44" s="243"/>
+      <c r="E44" s="245"/>
       <c r="F44" s="62" t="s">
         <v>194</v>
       </c>
@@ -54608,12 +54663,12 @@
     </row>
     <row r="70" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A70" s="70"/>
-      <c r="B70" s="248" t="s">
+      <c r="B70" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C70" s="249"/>
-      <c r="D70" s="249"/>
-      <c r="E70" s="250"/>
+      <c r="C70" s="250"/>
+      <c r="D70" s="250"/>
+      <c r="E70" s="251"/>
       <c r="F70" s="59" t="s">
         <v>90</v>
       </c>
@@ -54705,10 +54760,10 @@
       <c r="A73" s="48"/>
       <c r="B73" s="72"/>
       <c r="C73" s="77"/>
-      <c r="D73" s="244" t="s">
+      <c r="D73" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E73" s="243"/>
+      <c r="E73" s="245"/>
       <c r="F73" s="61" t="s">
         <v>190</v>
       </c>
@@ -54738,10 +54793,10 @@
       <c r="A74" s="48"/>
       <c r="B74" s="72"/>
       <c r="C74" s="77"/>
-      <c r="D74" s="242" t="s">
+      <c r="D74" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E74" s="243"/>
+      <c r="E74" s="245"/>
       <c r="F74" s="61" t="s">
         <v>149</v>
       </c>
@@ -55178,19 +55233,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D39:E39"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -55203,6 +55245,19 @@
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B69:D69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -55296,15 +55351,15 @@
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="244" t="s">
+      <c r="C4" s="243" t="s">
         <v>242</v>
       </c>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="243"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="244"/>
+      <c r="I4" s="245"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -55317,15 +55372,15 @@
       <c r="B5" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="244" t="s">
+      <c r="C5" s="243" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="243"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="245"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -55339,7 +55394,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="54"/>
@@ -55359,15 +55414,15 @@
       <c r="B7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="244" t="s">
+      <c r="C7" s="243" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="254"/>
-      <c r="I7" s="243"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
@@ -55401,15 +55456,15 @@
       <c r="B9" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="244" t="s">
+      <c r="C9" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="254"/>
-      <c r="E9" s="254"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="254"/>
-      <c r="I9" s="243"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
       <c r="J9" s="48"/>
       <c r="K9" s="48"/>
       <c r="L9" s="48"/>
@@ -55455,19 +55510,19 @@
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="48"/>
-      <c r="B12" s="255" t="s">
+      <c r="B12" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="256"/>
-      <c r="D12" s="256"/>
-      <c r="E12" s="256"/>
-      <c r="F12" s="256"/>
-      <c r="G12" s="256"/>
-      <c r="H12" s="256"/>
-      <c r="I12" s="256"/>
-      <c r="J12" s="256"/>
-      <c r="K12" s="256"/>
-      <c r="L12" s="257"/>
+      <c r="C12" s="247"/>
+      <c r="D12" s="247"/>
+      <c r="E12" s="247"/>
+      <c r="F12" s="247"/>
+      <c r="G12" s="247"/>
+      <c r="H12" s="247"/>
+      <c r="I12" s="247"/>
+      <c r="J12" s="247"/>
+      <c r="K12" s="247"/>
+      <c r="L12" s="248"/>
       <c r="M12" s="48"/>
       <c r="N12" s="48"/>
       <c r="O12" s="48"/>
@@ -55496,11 +55551,11 @@
       <c r="I13" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="253" t="s">
+      <c r="J13" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="253"/>
-      <c r="L13" s="253"/>
+      <c r="K13" s="242"/>
+      <c r="L13" s="242"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
@@ -55595,11 +55650,11 @@
       <c r="I16" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="J16" s="244" t="s">
+      <c r="J16" s="243" t="s">
         <v>268</v>
       </c>
-      <c r="K16" s="254"/>
-      <c r="L16" s="243"/>
+      <c r="K16" s="244"/>
+      <c r="L16" s="245"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
       <c r="O16" s="48"/>
@@ -55655,11 +55710,11 @@
       <c r="I18" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="J18" s="244" t="s">
+      <c r="J18" s="243" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="254"/>
-      <c r="L18" s="243"/>
+      <c r="K18" s="244"/>
+      <c r="L18" s="245"/>
       <c r="M18" s="48"/>
       <c r="N18" s="48"/>
       <c r="O18" s="48"/>
@@ -55750,11 +55805,11 @@
       <c r="I21" s="144" t="s">
         <v>276</v>
       </c>
-      <c r="J21" s="244" t="s">
+      <c r="J21" s="243" t="s">
         <v>232</v>
       </c>
-      <c r="K21" s="254"/>
-      <c r="L21" s="243"/>
+      <c r="K21" s="244"/>
+      <c r="L21" s="245"/>
       <c r="M21" s="48"/>
       <c r="N21" s="48"/>
       <c r="O21" s="48"/>
@@ -56016,12 +56071,12 @@
     </row>
     <row r="35" spans="1:15" s="71" customFormat="1" ht="18.95" customHeight="1">
       <c r="A35" s="70"/>
-      <c r="B35" s="248" t="s">
+      <c r="B35" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="249"/>
-      <c r="D35" s="249"/>
-      <c r="E35" s="250"/>
+      <c r="C35" s="250"/>
+      <c r="D35" s="250"/>
+      <c r="E35" s="251"/>
       <c r="F35" s="59" t="s">
         <v>90</v>
       </c>
@@ -56113,10 +56168,10 @@
       <c r="A38" s="48"/>
       <c r="B38" s="72"/>
       <c r="C38" s="77"/>
-      <c r="D38" s="244" t="s">
+      <c r="D38" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E38" s="243"/>
+      <c r="E38" s="245"/>
       <c r="F38" s="61" t="s">
         <v>190</v>
       </c>
@@ -56146,10 +56201,10 @@
       <c r="A39" s="48"/>
       <c r="B39" s="72"/>
       <c r="C39" s="78"/>
-      <c r="D39" s="244" t="s">
+      <c r="D39" s="243" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="243"/>
+      <c r="E39" s="245"/>
       <c r="F39" s="61" t="s">
         <v>129</v>
       </c>
@@ -56212,10 +56267,10 @@
       <c r="A41" s="48"/>
       <c r="B41" s="72"/>
       <c r="C41" s="79"/>
-      <c r="D41" s="244" t="s">
+      <c r="D41" s="243" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="243"/>
+      <c r="E41" s="245"/>
       <c r="F41" s="61" t="s">
         <v>135</v>
       </c>
@@ -56278,10 +56333,10 @@
       <c r="A43" s="48"/>
       <c r="B43" s="72"/>
       <c r="C43" s="79"/>
-      <c r="D43" s="245" t="s">
+      <c r="D43" s="255" t="s">
         <v>97</v>
       </c>
-      <c r="E43" s="246"/>
+      <c r="E43" s="256"/>
       <c r="F43" s="61" t="s">
         <v>98</v>
       </c>
@@ -56311,10 +56366,10 @@
       <c r="A44" s="48"/>
       <c r="B44" s="72"/>
       <c r="C44" s="77"/>
-      <c r="D44" s="244" t="s">
+      <c r="D44" s="243" t="s">
         <v>114</v>
       </c>
-      <c r="E44" s="243"/>
+      <c r="E44" s="245"/>
       <c r="F44" s="62" t="s">
         <v>115</v>
       </c>
@@ -56342,10 +56397,10 @@
       <c r="A45" s="48"/>
       <c r="B45" s="72"/>
       <c r="C45" s="77"/>
-      <c r="D45" s="244" t="s">
+      <c r="D45" s="243" t="s">
         <v>237</v>
       </c>
-      <c r="E45" s="243"/>
+      <c r="E45" s="245"/>
       <c r="F45" s="62" t="s">
         <v>238</v>
       </c>
@@ -56375,10 +56430,10 @@
       <c r="A46" s="48"/>
       <c r="B46" s="131"/>
       <c r="C46" s="78"/>
-      <c r="D46" s="244" t="s">
+      <c r="D46" s="243" t="s">
         <v>195</v>
       </c>
-      <c r="E46" s="243"/>
+      <c r="E46" s="245"/>
       <c r="F46" s="62" t="s">
         <v>194</v>
       </c>
@@ -56835,12 +56890,12 @@
     </row>
     <row r="72" spans="1:15" s="71" customFormat="1" ht="21.95" customHeight="1">
       <c r="A72" s="70"/>
-      <c r="B72" s="248" t="s">
+      <c r="B72" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="C72" s="249"/>
-      <c r="D72" s="249"/>
-      <c r="E72" s="250"/>
+      <c r="C72" s="250"/>
+      <c r="D72" s="250"/>
+      <c r="E72" s="251"/>
       <c r="F72" s="59" t="s">
         <v>90</v>
       </c>
@@ -56932,10 +56987,10 @@
       <c r="A75" s="48"/>
       <c r="B75" s="72"/>
       <c r="C75" s="77"/>
-      <c r="D75" s="244" t="s">
+      <c r="D75" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E75" s="243"/>
+      <c r="E75" s="245"/>
       <c r="F75" s="61" t="s">
         <v>190</v>
       </c>
@@ -56965,10 +57020,10 @@
       <c r="A76" s="48"/>
       <c r="B76" s="72"/>
       <c r="C76" s="77"/>
-      <c r="D76" s="242" t="s">
+      <c r="D76" s="254" t="s">
         <v>148</v>
       </c>
-      <c r="E76" s="243"/>
+      <c r="E76" s="245"/>
       <c r="F76" s="61" t="s">
         <v>149</v>
       </c>
@@ -57405,6 +57460,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="B12:L12"/>
@@ -57421,12 +57482,6 @@
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I21" r:id="rId1"/>
